--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -3665,11 +3665,11 @@
         <v>32920</v>
       </c>
       <c r="B202" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
@@ -4097,11 +4097,11 @@
         <v>34847</v>
       </c>
       <c r="B229" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D229" s="2" t="n">
@@ -9857,11 +9857,11 @@
         <v>61171</v>
       </c>
       <c r="B589" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D589" s="2" t="n">
@@ -9953,11 +9953,11 @@
         <v>61259</v>
       </c>
       <c r="B595" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D595" s="2" t="n">
@@ -14417,11 +14417,11 @@
         <v>74439</v>
       </c>
       <c r="B874" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D874" s="2" t="n">
@@ -32462,55 +32462,55 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79432</v>
+        <v>79166</v>
       </c>
       <c r="B2002" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79336</v>
+        <v>79162</v>
       </c>
       <c r="B2003" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45910</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79436</v>
+        <v>80084</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45888</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79441</v>
+        <v>79332</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,28 +32521,28 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45936</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>80086</v>
+        <v>79334</v>
       </c>
       <c r="B2006" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79166</v>
+        <v>79446</v>
       </c>
       <c r="B2007" t="n">
         <v>9</v>
@@ -32553,28 +32553,28 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79162</v>
+        <v>79440</v>
       </c>
       <c r="B2008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79587</v>
+        <v>79588</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79669</v>
+        <v>79671</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45959</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79673</v>
+        <v>79674</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,28 +32617,28 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79677</v>
+        <v>79809</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45909</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79809</v>
+        <v>79966</v>
       </c>
       <c r="B2013" t="n">
         <v>9</v>
@@ -32649,28 +32649,28 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79966</v>
+        <v>79164</v>
       </c>
       <c r="B2014" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79433</v>
+        <v>79163</v>
       </c>
       <c r="B2015" t="n">
         <v>2</v>
@@ -32681,12 +32681,12 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45960</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79434</v>
+        <v>80085</v>
       </c>
       <c r="B2016" t="n">
         <v>2</v>
@@ -32697,12 +32697,12 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79438</v>
+        <v>79432</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,12 +32713,12 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45908</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79442</v>
+        <v>79336</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,12 +32729,12 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>80318</v>
+        <v>79436</v>
       </c>
       <c r="B2019" t="n">
         <v>9</v>
@@ -32745,12 +32745,12 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45881</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79164</v>
+        <v>79441</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,60 +32761,60 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45901</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79163</v>
+        <v>79437</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45923</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>12543</v>
+        <v>79589</v>
       </c>
       <c r="B2022" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45931</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79588</v>
+        <v>79672</v>
       </c>
       <c r="B2023" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45884</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79671</v>
+        <v>79675</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,44 +32825,44 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45919</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79674</v>
+        <v>79962</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45919</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79962</v>
+        <v>80082</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45889</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>80082</v>
+        <v>12543</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,12 +32873,12 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45922</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79332</v>
+        <v>79165</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,12 +32889,12 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45934</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79334</v>
+        <v>79204</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,12 +32905,12 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79446</v>
+        <v>80318</v>
       </c>
       <c r="B2030" t="n">
         <v>9</v>
@@ -32926,39 +32926,39 @@
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79440</v>
+        <v>79333</v>
       </c>
       <c r="B2031" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>80085</v>
+        <v>79435</v>
       </c>
       <c r="B2032" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45912</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>79165</v>
+        <v>79439</v>
       </c>
       <c r="B2033" t="n">
         <v>2</v>
@@ -32969,28 +32969,28 @@
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45912</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79204</v>
+        <v>79587</v>
       </c>
       <c r="B2034" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79586</v>
+        <v>79669</v>
       </c>
       <c r="B2035" t="n">
         <v>2</v>
@@ -33001,28 +33001,28 @@
         </is>
       </c>
       <c r="D2035" s="2" t="n">
-        <v>45898</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79668</v>
+        <v>79673</v>
       </c>
       <c r="B2036" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45884</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79590</v>
+        <v>79677</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33033,12 +33033,12 @@
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79676</v>
+        <v>79808</v>
       </c>
       <c r="B2038" t="n">
         <v>2</v>
@@ -33049,60 +33049,60 @@
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45950</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79808</v>
+        <v>79965</v>
       </c>
       <c r="B2039" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79965</v>
+        <v>79167</v>
       </c>
       <c r="B2040" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79333</v>
+        <v>79161</v>
       </c>
       <c r="B2041" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45894</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>79435</v>
+        <v>80086</v>
       </c>
       <c r="B2042" t="n">
         <v>9</v>
@@ -33113,12 +33113,12 @@
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79439</v>
+        <v>79433</v>
       </c>
       <c r="B2043" t="n">
         <v>2</v>
@@ -33129,12 +33129,12 @@
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45929</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>80084</v>
+        <v>79434</v>
       </c>
       <c r="B2044" t="n">
         <v>2</v>
@@ -33145,12 +33145,12 @@
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45936</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79167</v>
+        <v>79438</v>
       </c>
       <c r="B2045" t="n">
         <v>2</v>
@@ -33161,12 +33161,12 @@
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>79161</v>
+        <v>79442</v>
       </c>
       <c r="B2046" t="n">
         <v>2</v>
@@ -33177,28 +33177,28 @@
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45933</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79437</v>
+        <v>79586</v>
       </c>
       <c r="B2047" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79589</v>
+        <v>79668</v>
       </c>
       <c r="B2048" t="n">
         <v>9</v>
@@ -33209,12 +33209,12 @@
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79672</v>
+        <v>79590</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,12 +33225,12 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45959</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79675</v>
+        <v>79676</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,7 +33241,7 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45929</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2051">
@@ -33303,7 +33303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4">
@@ -33350,7 +33350,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Por Reprogramar</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -977,11 +977,11 @@
         <v>14902</v>
       </c>
       <c r="B34" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
@@ -1937,11 +1937,11 @@
         <v>23658</v>
       </c>
       <c r="B94" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
@@ -3809,11 +3809,11 @@
         <v>34010</v>
       </c>
       <c r="B211" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
@@ -4465,11 +4465,11 @@
         <v>36659</v>
       </c>
       <c r="B252" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D252" s="2" t="n">
@@ -8337,11 +8337,11 @@
         <v>54552</v>
       </c>
       <c r="B494" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D494" s="2" t="n">
@@ -32462,55 +32462,55 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79166</v>
+        <v>79332</v>
       </c>
       <c r="B2002" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45894</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79162</v>
+        <v>79334</v>
       </c>
       <c r="B2003" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45890</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>80084</v>
+        <v>79446</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45936</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79332</v>
+        <v>79440</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,12 +32521,12 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45934</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79334</v>
+        <v>80085</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,12 +32537,12 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79446</v>
+        <v>79166</v>
       </c>
       <c r="B2007" t="n">
         <v>9</v>
@@ -32553,28 +32553,28 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79440</v>
+        <v>79162</v>
       </c>
       <c r="B2008" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79588</v>
+        <v>79587</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45884</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79671</v>
+        <v>79669</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45919</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79674</v>
+        <v>79673</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,28 +32617,28 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79809</v>
+        <v>79677</v>
       </c>
       <c r="B2012" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45880</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79966</v>
+        <v>79962</v>
       </c>
       <c r="B2013" t="n">
         <v>9</v>
@@ -32649,12 +32649,12 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79164</v>
+        <v>80082</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,12 +32665,12 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45901</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79163</v>
+        <v>12543</v>
       </c>
       <c r="B2015" t="n">
         <v>2</v>
@@ -32681,44 +32681,44 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45923</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>80085</v>
+        <v>79333</v>
       </c>
       <c r="B2016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45912</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79432</v>
+        <v>79435</v>
       </c>
       <c r="B2017" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45919</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79336</v>
+        <v>79439</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45910</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79436</v>
+        <v>80084</v>
       </c>
       <c r="B2019" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45888</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79441</v>
+        <v>79165</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,60 +32761,60 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45936</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79437</v>
+        <v>79204</v>
       </c>
       <c r="B2021" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79589</v>
+        <v>79586</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79672</v>
+        <v>79668</v>
       </c>
       <c r="B2023" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45959</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79675</v>
+        <v>79590</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,60 +32825,60 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45929</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79962</v>
+        <v>79676</v>
       </c>
       <c r="B2025" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45889</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>80082</v>
+        <v>79809</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45922</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>12543</v>
+        <v>79966</v>
       </c>
       <c r="B2027" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45931</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79165</v>
+        <v>79433</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,12 +32889,12 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45912</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79204</v>
+        <v>79434</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,44 +32905,44 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>80318</v>
+        <v>79438</v>
       </c>
       <c r="B2030" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45881</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79333</v>
+        <v>79442</v>
       </c>
       <c r="B2031" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79435</v>
+        <v>80318</v>
       </c>
       <c r="B2032" t="n">
         <v>9</v>
@@ -32953,12 +32953,12 @@
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>79439</v>
+        <v>79167</v>
       </c>
       <c r="B2033" t="n">
         <v>2</v>
@@ -32969,60 +32969,60 @@
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45929</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79587</v>
+        <v>79161</v>
       </c>
       <c r="B2034" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45894</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79669</v>
+        <v>79437</v>
       </c>
       <c r="B2035" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2035" s="2" t="n">
-        <v>45959</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79673</v>
+        <v>79589</v>
       </c>
       <c r="B2036" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45909</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79677</v>
+        <v>79672</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33033,12 +33033,12 @@
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45909</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79808</v>
+        <v>79675</v>
       </c>
       <c r="B2038" t="n">
         <v>2</v>
@@ -33049,44 +33049,44 @@
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45909</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79965</v>
+        <v>79808</v>
       </c>
       <c r="B2039" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79167</v>
+        <v>79965</v>
       </c>
       <c r="B2040" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79161</v>
+        <v>79432</v>
       </c>
       <c r="B2041" t="n">
         <v>2</v>
@@ -33097,44 +33097,44 @@
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45933</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>80086</v>
+        <v>79336</v>
       </c>
       <c r="B2042" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79433</v>
+        <v>79436</v>
       </c>
       <c r="B2043" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45960</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>79434</v>
+        <v>79441</v>
       </c>
       <c r="B2044" t="n">
         <v>2</v>
@@ -33145,28 +33145,28 @@
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45911</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79438</v>
+        <v>80086</v>
       </c>
       <c r="B2045" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>79442</v>
+        <v>79164</v>
       </c>
       <c r="B2046" t="n">
         <v>2</v>
@@ -33177,12 +33177,12 @@
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79586</v>
+        <v>79163</v>
       </c>
       <c r="B2047" t="n">
         <v>2</v>
@@ -33193,12 +33193,12 @@
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79668</v>
+        <v>79588</v>
       </c>
       <c r="B2048" t="n">
         <v>9</v>
@@ -33214,7 +33214,7 @@
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79590</v>
+        <v>79671</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,12 +33225,12 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79676</v>
+        <v>79674</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,7 +33241,7 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45950</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2051">
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -33350,7 +33350,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -4657,11 +4657,11 @@
         <v>37471</v>
       </c>
       <c r="B264" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D264" s="2" t="n">
@@ -15361,11 +15361,11 @@
         <v>76334</v>
       </c>
       <c r="B933" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D933" s="2" t="n">
@@ -29681,11 +29681,11 @@
         <v>79154</v>
       </c>
       <c r="B1828" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1828" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1828" s="2" t="n">
@@ -32526,7 +32526,7 @@
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>80085</v>
+        <v>79164</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,76 +32537,76 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45912</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79166</v>
+        <v>79163</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45894</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79162</v>
+        <v>80085</v>
       </c>
       <c r="B2008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45890</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79587</v>
+        <v>79586</v>
       </c>
       <c r="B2009" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79669</v>
+        <v>79668</v>
       </c>
       <c r="B2010" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45959</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79673</v>
+        <v>79590</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,12 +32617,12 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79677</v>
+        <v>79676</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,7 +32633,7 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45909</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2013">
@@ -32670,23 +32670,23 @@
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>12543</v>
+        <v>79333</v>
       </c>
       <c r="B2015" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45931</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79333</v>
+        <v>79435</v>
       </c>
       <c r="B2016" t="n">
         <v>9</v>
@@ -32697,60 +32697,60 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79435</v>
+        <v>79439</v>
       </c>
       <c r="B2017" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45890</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79439</v>
+        <v>79166</v>
       </c>
       <c r="B2018" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>80084</v>
+        <v>79162</v>
       </c>
       <c r="B2019" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45936</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79165</v>
+        <v>80084</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,60 +32761,60 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45912</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79204</v>
+        <v>79437</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45923</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79586</v>
+        <v>79589</v>
       </c>
       <c r="B2022" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79668</v>
+        <v>79672</v>
       </c>
       <c r="B2023" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45884</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79590</v>
+        <v>79675</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,28 +32825,28 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45898</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79676</v>
+        <v>79809</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45950</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79809</v>
+        <v>79966</v>
       </c>
       <c r="B2026" t="n">
         <v>9</v>
@@ -32857,28 +32857,28 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79966</v>
+        <v>79433</v>
       </c>
       <c r="B2027" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45895</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79433</v>
+        <v>79434</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,12 +32889,12 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45960</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79434</v>
+        <v>79438</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,12 +32905,12 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79438</v>
+        <v>79442</v>
       </c>
       <c r="B2030" t="n">
         <v>2</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79442</v>
+        <v>79165</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,44 +32937,44 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45898</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>80318</v>
+        <v>79204</v>
       </c>
       <c r="B2032" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45881</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>79167</v>
+        <v>80318</v>
       </c>
       <c r="B2033" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45904</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79161</v>
+        <v>12543</v>
       </c>
       <c r="B2034" t="n">
         <v>2</v>
@@ -32985,12 +32985,12 @@
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45933</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79437</v>
+        <v>79588</v>
       </c>
       <c r="B2035" t="n">
         <v>9</v>
@@ -33001,28 +33001,28 @@
         </is>
       </c>
       <c r="D2035" s="2" t="n">
-        <v>45895</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79589</v>
+        <v>79671</v>
       </c>
       <c r="B2036" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45890</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79672</v>
+        <v>79674</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33033,12 +33033,12 @@
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45959</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79675</v>
+        <v>79808</v>
       </c>
       <c r="B2038" t="n">
         <v>2</v>
@@ -33049,44 +33049,44 @@
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45929</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79808</v>
+        <v>79965</v>
       </c>
       <c r="B2039" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79965</v>
+        <v>79432</v>
       </c>
       <c r="B2040" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45896</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79432</v>
+        <v>79336</v>
       </c>
       <c r="B2041" t="n">
         <v>2</v>
@@ -33097,44 +33097,44 @@
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45919</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>79336</v>
+        <v>79436</v>
       </c>
       <c r="B2042" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45910</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79436</v>
+        <v>79441</v>
       </c>
       <c r="B2043" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45888</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>79441</v>
+        <v>79167</v>
       </c>
       <c r="B2044" t="n">
         <v>2</v>
@@ -33145,76 +33145,76 @@
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45936</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>80086</v>
+        <v>79161</v>
       </c>
       <c r="B2045" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45898</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>79164</v>
+        <v>80086</v>
       </c>
       <c r="B2046" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79163</v>
+        <v>79587</v>
       </c>
       <c r="B2047" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79588</v>
+        <v>79669</v>
       </c>
       <c r="B2048" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45884</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79671</v>
+        <v>79673</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,12 +33225,12 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79674</v>
+        <v>79677</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,7 +33241,7 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2051">
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4">
@@ -33350,7 +33350,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -33360,7 +33360,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -2385,11 +2385,11 @@
         <v>27110</v>
       </c>
       <c r="B122" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
@@ -2993,11 +2993,11 @@
         <v>29767</v>
       </c>
       <c r="B160" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
@@ -31137,11 +31137,11 @@
         <v>80088</v>
       </c>
       <c r="B1919" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1919" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1919" s="2" t="n">
@@ -32526,7 +32526,7 @@
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79164</v>
+        <v>79808</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,44 +32537,44 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79163</v>
+        <v>79965</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45923</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>80085</v>
+        <v>79587</v>
       </c>
       <c r="B2008" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45912</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79586</v>
+        <v>79669</v>
       </c>
       <c r="B2009" t="n">
         <v>2</v>
@@ -32585,28 +32585,28 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45898</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79668</v>
+        <v>79673</v>
       </c>
       <c r="B2010" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45884</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79590</v>
+        <v>79677</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,12 +32617,12 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79676</v>
+        <v>79167</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,76 +32633,76 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45950</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79962</v>
+        <v>79161</v>
       </c>
       <c r="B2013" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45889</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>80082</v>
+        <v>80086</v>
       </c>
       <c r="B2014" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45922</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79333</v>
+        <v>79433</v>
       </c>
       <c r="B2015" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45894</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79435</v>
+        <v>79434</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45890</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79439</v>
+        <v>79438</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,28 +32713,28 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45929</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79166</v>
+        <v>79442</v>
       </c>
       <c r="B2018" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79162</v>
+        <v>79962</v>
       </c>
       <c r="B2019" t="n">
         <v>9</v>
@@ -32745,12 +32745,12 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45890</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>80084</v>
+        <v>80082</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,7 +32761,7 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45936</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2021">
@@ -32830,7 +32830,7 @@
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79809</v>
+        <v>79166</v>
       </c>
       <c r="B2025" t="n">
         <v>9</v>
@@ -32841,12 +32841,12 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45880</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79966</v>
+        <v>79162</v>
       </c>
       <c r="B2026" t="n">
         <v>9</v>
@@ -32857,12 +32857,12 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45895</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79433</v>
+        <v>80084</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,44 +32873,44 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45960</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79434</v>
+        <v>79333</v>
       </c>
       <c r="B2028" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45911</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79438</v>
+        <v>79435</v>
       </c>
       <c r="B2029" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45908</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79442</v>
+        <v>79439</v>
       </c>
       <c r="B2030" t="n">
         <v>2</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45898</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79165</v>
+        <v>79810</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,28 +32937,28 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45912</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79204</v>
+        <v>79963</v>
       </c>
       <c r="B2032" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45923</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>80318</v>
+        <v>80083</v>
       </c>
       <c r="B2033" t="n">
         <v>9</v>
@@ -32969,12 +32969,12 @@
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45881</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>12543</v>
+        <v>79586</v>
       </c>
       <c r="B2034" t="n">
         <v>2</v>
@@ -32985,12 +32985,12 @@
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45931</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79588</v>
+        <v>79668</v>
       </c>
       <c r="B2035" t="n">
         <v>9</v>
@@ -33006,7 +33006,7 @@
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79671</v>
+        <v>79590</v>
       </c>
       <c r="B2036" t="n">
         <v>2</v>
@@ -33017,12 +33017,12 @@
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79674</v>
+        <v>79676</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33033,12 +33033,12 @@
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45919</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79808</v>
+        <v>79164</v>
       </c>
       <c r="B2038" t="n">
         <v>2</v>
@@ -33049,28 +33049,28 @@
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79965</v>
+        <v>79163</v>
       </c>
       <c r="B2039" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45896</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79432</v>
+        <v>80085</v>
       </c>
       <c r="B2040" t="n">
         <v>2</v>
@@ -33081,12 +33081,12 @@
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45919</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79336</v>
+        <v>79432</v>
       </c>
       <c r="B2041" t="n">
         <v>2</v>
@@ -33097,44 +33097,44 @@
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45910</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>79436</v>
+        <v>79336</v>
       </c>
       <c r="B2042" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45888</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79441</v>
+        <v>79436</v>
       </c>
       <c r="B2043" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45936</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>79167</v>
+        <v>79441</v>
       </c>
       <c r="B2044" t="n">
         <v>2</v>
@@ -33145,28 +33145,28 @@
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45904</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79161</v>
+        <v>79809</v>
       </c>
       <c r="B2045" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45933</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>80086</v>
+        <v>79966</v>
       </c>
       <c r="B2046" t="n">
         <v>9</v>
@@ -33177,12 +33177,12 @@
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79587</v>
+        <v>79588</v>
       </c>
       <c r="B2047" t="n">
         <v>9</v>
@@ -33193,12 +33193,12 @@
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79669</v>
+        <v>79671</v>
       </c>
       <c r="B2048" t="n">
         <v>2</v>
@@ -33209,12 +33209,12 @@
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45959</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79673</v>
+        <v>79674</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,12 +33225,12 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79677</v>
+        <v>12543</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,12 +33241,12 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45909</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="n">
-        <v>79810</v>
+        <v>79165</v>
       </c>
       <c r="B2051" t="n">
         <v>2</v>
@@ -33257,28 +33257,28 @@
         </is>
       </c>
       <c r="D2051" s="2" t="n">
-        <v>45930</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>79963</v>
+        <v>79204</v>
       </c>
       <c r="B2052" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2052" s="2" t="n">
-        <v>45884</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="n">
-        <v>80083</v>
+        <v>80318</v>
       </c>
       <c r="B2053" t="n">
         <v>9</v>
@@ -33289,7 +33289,7 @@
         </is>
       </c>
       <c r="D2053" s="2" t="n">
-        <v>45889</v>
+        <v>45881</v>
       </c>
     </row>
   </sheetData>
@@ -33330,7 +33330,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="3">
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
@@ -33350,7 +33350,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -33360,7 +33360,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -8673,11 +8673,11 @@
         <v>55847</v>
       </c>
       <c r="B515" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D515" s="2" t="n">
@@ -12545,11 +12545,11 @@
         <v>70446</v>
       </c>
       <c r="B757" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D757" s="2" t="n">
@@ -15169,11 +15169,11 @@
         <v>75660</v>
       </c>
       <c r="B921" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D921" s="2" t="n">
@@ -30561,11 +30561,11 @@
         <v>79660</v>
       </c>
       <c r="B1883" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1883" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1883" s="2" t="n">
@@ -31153,11 +31153,11 @@
         <v>80072</v>
       </c>
       <c r="B1920" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1920" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79332</v>
+        <v>79167</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,12 +32473,12 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45934</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79334</v>
+        <v>79161</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,76 +32489,76 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45910</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79446</v>
+        <v>79810</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45881</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79440</v>
+        <v>79963</v>
       </c>
       <c r="B2005" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45901</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79808</v>
+        <v>80083</v>
       </c>
       <c r="B2006" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45909</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79965</v>
+        <v>79586</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79587</v>
+        <v>79668</v>
       </c>
       <c r="B2008" t="n">
         <v>9</v>
@@ -32569,12 +32569,12 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79669</v>
+        <v>79590</v>
       </c>
       <c r="B2009" t="n">
         <v>2</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45959</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79673</v>
+        <v>79676</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45909</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79677</v>
+        <v>79433</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,12 +32617,12 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45909</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79167</v>
+        <v>79434</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,12 +32633,12 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45904</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79161</v>
+        <v>79438</v>
       </c>
       <c r="B2013" t="n">
         <v>2</v>
@@ -32649,19 +32649,19 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45933</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>80086</v>
+        <v>79442</v>
       </c>
       <c r="B2014" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
@@ -32670,23 +32670,23 @@
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79433</v>
+        <v>80318</v>
       </c>
       <c r="B2015" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45960</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79434</v>
+        <v>79164</v>
       </c>
       <c r="B2016" t="n">
         <v>2</v>
@@ -32697,12 +32697,12 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79438</v>
+        <v>79163</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,60 +32713,60 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45908</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79442</v>
+        <v>79962</v>
       </c>
       <c r="B2018" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45898</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79962</v>
+        <v>80082</v>
       </c>
       <c r="B2019" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45889</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>80082</v>
+        <v>79437</v>
       </c>
       <c r="B2020" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45922</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79437</v>
+        <v>79589</v>
       </c>
       <c r="B2021" t="n">
         <v>9</v>
@@ -32777,28 +32777,28 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45895</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79589</v>
+        <v>79672</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45890</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79672</v>
+        <v>79675</v>
       </c>
       <c r="B2023" t="n">
         <v>2</v>
@@ -32809,12 +32809,12 @@
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45959</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79675</v>
+        <v>79432</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,28 +32825,28 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45929</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79166</v>
+        <v>79336</v>
       </c>
       <c r="B2025" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79162</v>
+        <v>79436</v>
       </c>
       <c r="B2026" t="n">
         <v>9</v>
@@ -32857,12 +32857,12 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>80084</v>
+        <v>79441</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32878,7 +32878,7 @@
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79333</v>
+        <v>80086</v>
       </c>
       <c r="B2028" t="n">
         <v>9</v>
@@ -32889,28 +32889,28 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79435</v>
+        <v>12543</v>
       </c>
       <c r="B2029" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45890</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79439</v>
+        <v>79165</v>
       </c>
       <c r="B2030" t="n">
         <v>2</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45929</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79810</v>
+        <v>79204</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,28 +32937,28 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45930</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79963</v>
+        <v>79808</v>
       </c>
       <c r="B2032" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45884</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>80083</v>
+        <v>79965</v>
       </c>
       <c r="B2033" t="n">
         <v>9</v>
@@ -32969,44 +32969,44 @@
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45889</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79586</v>
+        <v>79587</v>
       </c>
       <c r="B2034" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79668</v>
+        <v>79669</v>
       </c>
       <c r="B2035" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2035" s="2" t="n">
-        <v>45884</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79590</v>
+        <v>79673</v>
       </c>
       <c r="B2036" t="n">
         <v>2</v>
@@ -33017,12 +33017,12 @@
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79676</v>
+        <v>79677</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33033,44 +33033,44 @@
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45950</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79164</v>
+        <v>79333</v>
       </c>
       <c r="B2038" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79163</v>
+        <v>79435</v>
       </c>
       <c r="B2039" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45923</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>80085</v>
+        <v>79439</v>
       </c>
       <c r="B2040" t="n">
         <v>2</v>
@@ -33081,12 +33081,12 @@
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45912</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79432</v>
+        <v>80084</v>
       </c>
       <c r="B2041" t="n">
         <v>2</v>
@@ -33097,28 +33097,28 @@
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45919</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>79336</v>
+        <v>79166</v>
       </c>
       <c r="B2042" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45910</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79436</v>
+        <v>79162</v>
       </c>
       <c r="B2043" t="n">
         <v>9</v>
@@ -33129,28 +33129,28 @@
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>79441</v>
+        <v>79809</v>
       </c>
       <c r="B2044" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45936</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79809</v>
+        <v>79966</v>
       </c>
       <c r="B2045" t="n">
         <v>9</v>
@@ -33161,12 +33161,12 @@
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45880</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>79966</v>
+        <v>79588</v>
       </c>
       <c r="B2046" t="n">
         <v>9</v>
@@ -33177,28 +33177,28 @@
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45895</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79588</v>
+        <v>79671</v>
       </c>
       <c r="B2047" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45884</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79671</v>
+        <v>79674</v>
       </c>
       <c r="B2048" t="n">
         <v>2</v>
@@ -33214,7 +33214,7 @@
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79674</v>
+        <v>79332</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,12 +33225,12 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45919</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>12543</v>
+        <v>79334</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,28 +33241,28 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45931</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="n">
-        <v>79165</v>
+        <v>79446</v>
       </c>
       <c r="B2051" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2051" s="2" t="n">
-        <v>45912</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>79204</v>
+        <v>79440</v>
       </c>
       <c r="B2052" t="n">
         <v>2</v>
@@ -33273,23 +33273,23 @@
         </is>
       </c>
       <c r="D2052" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="n">
-        <v>80318</v>
+        <v>80085</v>
       </c>
       <c r="B2053" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2053" s="2" t="n">
-        <v>45881</v>
+        <v>45912</v>
       </c>
     </row>
   </sheetData>
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
@@ -33350,7 +33350,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -33360,7 +33360,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -12305,11 +12305,11 @@
         <v>69516</v>
       </c>
       <c r="B742" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D742" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79167</v>
+        <v>12543</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,76 +32473,76 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45904</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79161</v>
+        <v>79333</v>
       </c>
       <c r="B2003" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45933</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79810</v>
+        <v>79435</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45930</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79963</v>
+        <v>79439</v>
       </c>
       <c r="B2005" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45884</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>80083</v>
+        <v>80084</v>
       </c>
       <c r="B2006" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45889</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79586</v>
+        <v>79167</v>
       </c>
       <c r="B2007" t="n">
         <v>2</v>
@@ -32553,44 +32553,44 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79668</v>
+        <v>79161</v>
       </c>
       <c r="B2008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45884</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79590</v>
+        <v>79588</v>
       </c>
       <c r="B2009" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79676</v>
+        <v>79671</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45950</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79433</v>
+        <v>79674</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,12 +32617,12 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45960</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79434</v>
+        <v>79808</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,28 +32633,28 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45911</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79438</v>
+        <v>79965</v>
       </c>
       <c r="B2013" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79442</v>
+        <v>79332</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,44 +32665,44 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45898</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>80318</v>
+        <v>79334</v>
       </c>
       <c r="B2015" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45881</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79164</v>
+        <v>79446</v>
       </c>
       <c r="B2016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45901</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79163</v>
+        <v>79440</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,28 +32713,28 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79962</v>
+        <v>80085</v>
       </c>
       <c r="B2018" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45889</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>80082</v>
+        <v>79165</v>
       </c>
       <c r="B2019" t="n">
         <v>2</v>
@@ -32745,28 +32745,28 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45922</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79437</v>
+        <v>79204</v>
       </c>
       <c r="B2020" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79589</v>
+        <v>79437</v>
       </c>
       <c r="B2021" t="n">
         <v>9</v>
@@ -32777,28 +32777,28 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79672</v>
+        <v>79589</v>
       </c>
       <c r="B2022" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45959</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79675</v>
+        <v>79672</v>
       </c>
       <c r="B2023" t="n">
         <v>2</v>
@@ -32809,12 +32809,12 @@
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45929</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79432</v>
+        <v>79675</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,28 +32825,28 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45919</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79336</v>
+        <v>79809</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45910</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79436</v>
+        <v>79966</v>
       </c>
       <c r="B2026" t="n">
         <v>9</v>
@@ -32857,12 +32857,12 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45888</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79441</v>
+        <v>79432</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,44 +32873,44 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45936</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>80086</v>
+        <v>79336</v>
       </c>
       <c r="B2028" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>12543</v>
+        <v>79436</v>
       </c>
       <c r="B2029" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45931</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79165</v>
+        <v>79441</v>
       </c>
       <c r="B2030" t="n">
         <v>2</v>
@@ -32921,44 +32921,44 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45912</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79204</v>
+        <v>80086</v>
       </c>
       <c r="B2031" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45923</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79808</v>
+        <v>79166</v>
       </c>
       <c r="B2032" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45909</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>79965</v>
+        <v>79162</v>
       </c>
       <c r="B2033" t="n">
         <v>9</v>
@@ -32969,44 +32969,44 @@
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45896</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79587</v>
+        <v>79586</v>
       </c>
       <c r="B2034" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79669</v>
+        <v>79668</v>
       </c>
       <c r="B2035" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2035" s="2" t="n">
-        <v>45959</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79673</v>
+        <v>79590</v>
       </c>
       <c r="B2036" t="n">
         <v>2</v>
@@ -33017,12 +33017,12 @@
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79677</v>
+        <v>79676</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33033,12 +33033,12 @@
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45909</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79333</v>
+        <v>79962</v>
       </c>
       <c r="B2038" t="n">
         <v>9</v>
@@ -33049,28 +33049,28 @@
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45894</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79435</v>
+        <v>80082</v>
       </c>
       <c r="B2039" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45890</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79439</v>
+        <v>79433</v>
       </c>
       <c r="B2040" t="n">
         <v>2</v>
@@ -33081,12 +33081,12 @@
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45929</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>80084</v>
+        <v>79434</v>
       </c>
       <c r="B2041" t="n">
         <v>2</v>
@@ -33097,44 +33097,44 @@
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45936</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>79166</v>
+        <v>79438</v>
       </c>
       <c r="B2042" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45894</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79162</v>
+        <v>79442</v>
       </c>
       <c r="B2043" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>79809</v>
+        <v>80318</v>
       </c>
       <c r="B2044" t="n">
         <v>9</v>
@@ -33145,60 +33145,60 @@
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45880</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79966</v>
+        <v>79164</v>
       </c>
       <c r="B2045" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>79588</v>
+        <v>79163</v>
       </c>
       <c r="B2046" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45884</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79671</v>
+        <v>79587</v>
       </c>
       <c r="B2047" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79674</v>
+        <v>79669</v>
       </c>
       <c r="B2048" t="n">
         <v>2</v>
@@ -33209,12 +33209,12 @@
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45919</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79332</v>
+        <v>79673</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,12 +33225,12 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45934</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79334</v>
+        <v>79677</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,55 +33241,55 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45910</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="n">
-        <v>79446</v>
+        <v>79810</v>
       </c>
       <c r="B2051" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2051" s="2" t="n">
-        <v>45881</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>79440</v>
+        <v>79963</v>
       </c>
       <c r="B2052" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2052" s="2" t="n">
-        <v>45901</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="n">
-        <v>80085</v>
+        <v>80083</v>
       </c>
       <c r="B2053" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2053" s="2" t="n">
-        <v>45912</v>
+        <v>45889</v>
       </c>
     </row>
   </sheetData>
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
@@ -33350,7 +33350,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -641,11 +641,11 @@
         <v>10419</v>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
@@ -8817,11 +8817,11 @@
         <v>56905</v>
       </c>
       <c r="B524" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D524" s="2" t="n">
@@ -12225,11 +12225,11 @@
         <v>69406</v>
       </c>
       <c r="B737" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D737" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>12543</v>
+        <v>79810</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,12 +32473,12 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45931</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79333</v>
+        <v>79963</v>
       </c>
       <c r="B2003" t="n">
         <v>9</v>
@@ -32489,12 +32489,12 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79435</v>
+        <v>80083</v>
       </c>
       <c r="B2004" t="n">
         <v>9</v>
@@ -32505,28 +32505,28 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45890</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79439</v>
+        <v>79587</v>
       </c>
       <c r="B2005" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>80084</v>
+        <v>79669</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,12 +32537,12 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45936</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79167</v>
+        <v>79673</v>
       </c>
       <c r="B2007" t="n">
         <v>2</v>
@@ -32553,12 +32553,12 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79161</v>
+        <v>79677</v>
       </c>
       <c r="B2008" t="n">
         <v>2</v>
@@ -32569,12 +32569,12 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45933</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79588</v>
+        <v>79166</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,76 +32585,76 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45884</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79671</v>
+        <v>79162</v>
       </c>
       <c r="B2010" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45919</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79674</v>
+        <v>79333</v>
       </c>
       <c r="B2011" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79808</v>
+        <v>79435</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45909</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79965</v>
+        <v>79439</v>
       </c>
       <c r="B2013" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45896</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79332</v>
+        <v>80084</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,44 +32665,44 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45934</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79334</v>
+        <v>79962</v>
       </c>
       <c r="B2015" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45910</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79446</v>
+        <v>80082</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45881</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79440</v>
+        <v>79586</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,28 +32713,28 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>80085</v>
+        <v>79668</v>
       </c>
       <c r="B2018" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45912</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79165</v>
+        <v>79590</v>
       </c>
       <c r="B2019" t="n">
         <v>2</v>
@@ -32745,12 +32745,12 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79204</v>
+        <v>79676</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,44 +32761,44 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45923</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79437</v>
+        <v>12543</v>
       </c>
       <c r="B2021" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45895</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79589</v>
+        <v>79165</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45890</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79672</v>
+        <v>79204</v>
       </c>
       <c r="B2023" t="n">
         <v>2</v>
@@ -32809,12 +32809,12 @@
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45959</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79675</v>
+        <v>79433</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,44 +32825,44 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45929</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79809</v>
+        <v>79434</v>
       </c>
       <c r="B2025" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45880</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79966</v>
+        <v>79438</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79432</v>
+        <v>79442</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,60 +32873,60 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79336</v>
+        <v>80318</v>
       </c>
       <c r="B2028" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45910</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79436</v>
+        <v>79809</v>
       </c>
       <c r="B2029" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45888</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79441</v>
+        <v>79966</v>
       </c>
       <c r="B2030" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45936</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>80086</v>
+        <v>79437</v>
       </c>
       <c r="B2031" t="n">
         <v>9</v>
@@ -32937,12 +32937,12 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79166</v>
+        <v>79589</v>
       </c>
       <c r="B2032" t="n">
         <v>9</v>
@@ -32953,28 +32953,28 @@
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>79162</v>
+        <v>79672</v>
       </c>
       <c r="B2033" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45890</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79586</v>
+        <v>79675</v>
       </c>
       <c r="B2034" t="n">
         <v>2</v>
@@ -32985,28 +32985,28 @@
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45898</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79668</v>
+        <v>79167</v>
       </c>
       <c r="B2035" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2035" s="2" t="n">
-        <v>45884</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79590</v>
+        <v>79161</v>
       </c>
       <c r="B2036" t="n">
         <v>2</v>
@@ -33017,12 +33017,12 @@
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45898</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79676</v>
+        <v>79432</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33033,44 +33033,44 @@
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45950</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79962</v>
+        <v>79336</v>
       </c>
       <c r="B2038" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45889</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>80082</v>
+        <v>79436</v>
       </c>
       <c r="B2039" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45922</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79433</v>
+        <v>79441</v>
       </c>
       <c r="B2040" t="n">
         <v>2</v>
@@ -33081,28 +33081,28 @@
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45960</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79434</v>
+        <v>80086</v>
       </c>
       <c r="B2041" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>79438</v>
+        <v>79808</v>
       </c>
       <c r="B2042" t="n">
         <v>2</v>
@@ -33113,28 +33113,28 @@
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79442</v>
+        <v>79965</v>
       </c>
       <c r="B2043" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>80318</v>
+        <v>79588</v>
       </c>
       <c r="B2044" t="n">
         <v>9</v>
@@ -33145,12 +33145,12 @@
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79164</v>
+        <v>79671</v>
       </c>
       <c r="B2045" t="n">
         <v>2</v>
@@ -33161,12 +33161,12 @@
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>79163</v>
+        <v>79674</v>
       </c>
       <c r="B2046" t="n">
         <v>2</v>
@@ -33177,28 +33177,28 @@
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79587</v>
+        <v>79164</v>
       </c>
       <c r="B2047" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79669</v>
+        <v>79163</v>
       </c>
       <c r="B2048" t="n">
         <v>2</v>
@@ -33209,12 +33209,12 @@
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45959</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79673</v>
+        <v>79332</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,12 +33225,12 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45909</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79677</v>
+        <v>79334</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,55 +33241,55 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="n">
-        <v>79810</v>
+        <v>79446</v>
       </c>
       <c r="B2051" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2051" s="2" t="n">
-        <v>45930</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>79963</v>
+        <v>79440</v>
       </c>
       <c r="B2052" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2052" s="2" t="n">
-        <v>45884</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="n">
-        <v>80083</v>
+        <v>80085</v>
       </c>
       <c r="B2053" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2053" s="2" t="n">
-        <v>45889</v>
+        <v>45912</v>
       </c>
     </row>
   </sheetData>
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
@@ -33350,7 +33350,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -33360,7 +33360,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -2593,11 +2593,11 @@
         <v>28238</v>
       </c>
       <c r="B135" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
@@ -3265,11 +3265,11 @@
         <v>30556</v>
       </c>
       <c r="B177" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
@@ -4353,11 +4353,11 @@
         <v>35953</v>
       </c>
       <c r="B245" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D245" s="2" t="n">
@@ -9553,11 +9553,11 @@
         <v>59960</v>
       </c>
       <c r="B570" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D570" s="2" t="n">
@@ -12369,11 +12369,11 @@
         <v>69659</v>
       </c>
       <c r="B746" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D746" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79810</v>
+        <v>79164</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,60 +32473,60 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45930</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79963</v>
+        <v>79163</v>
       </c>
       <c r="B2003" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45884</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>80083</v>
+        <v>80085</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45889</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79587</v>
+        <v>79432</v>
       </c>
       <c r="B2005" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45894</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79669</v>
+        <v>79336</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,28 +32537,28 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45959</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79673</v>
+        <v>79436</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45909</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79677</v>
+        <v>79441</v>
       </c>
       <c r="B2008" t="n">
         <v>2</v>
@@ -32569,12 +32569,12 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45909</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79166</v>
+        <v>79437</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79162</v>
+        <v>79589</v>
       </c>
       <c r="B2010" t="n">
         <v>9</v>
@@ -32606,55 +32606,55 @@
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79333</v>
+        <v>79672</v>
       </c>
       <c r="B2011" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45894</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79435</v>
+        <v>79675</v>
       </c>
       <c r="B2012" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45890</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79439</v>
+        <v>79962</v>
       </c>
       <c r="B2013" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45929</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>80084</v>
+        <v>80082</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,28 +32665,28 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45936</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79962</v>
+        <v>79165</v>
       </c>
       <c r="B2015" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45889</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>80082</v>
+        <v>79204</v>
       </c>
       <c r="B2016" t="n">
         <v>2</v>
@@ -32697,76 +32697,76 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79586</v>
+        <v>80318</v>
       </c>
       <c r="B2017" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79668</v>
+        <v>12543</v>
       </c>
       <c r="B2018" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45884</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79590</v>
+        <v>79333</v>
       </c>
       <c r="B2019" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79676</v>
+        <v>79435</v>
       </c>
       <c r="B2020" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45950</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>12543</v>
+        <v>79439</v>
       </c>
       <c r="B2021" t="n">
         <v>2</v>
@@ -32777,28 +32777,28 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45931</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79165</v>
+        <v>79587</v>
       </c>
       <c r="B2022" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45912</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79204</v>
+        <v>79669</v>
       </c>
       <c r="B2023" t="n">
         <v>2</v>
@@ -32809,12 +32809,12 @@
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45923</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79433</v>
+        <v>79673</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,12 +32825,12 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45960</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79434</v>
+        <v>79677</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,12 +32841,12 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45911</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79438</v>
+        <v>79808</v>
       </c>
       <c r="B2026" t="n">
         <v>2</v>
@@ -32857,28 +32857,28 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79442</v>
+        <v>79965</v>
       </c>
       <c r="B2027" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>80318</v>
+        <v>79166</v>
       </c>
       <c r="B2028" t="n">
         <v>9</v>
@@ -32889,92 +32889,92 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79809</v>
+        <v>79162</v>
       </c>
       <c r="B2029" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45880</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79966</v>
+        <v>80084</v>
       </c>
       <c r="B2030" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45895</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79437</v>
+        <v>79332</v>
       </c>
       <c r="B2031" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45895</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79589</v>
+        <v>79334</v>
       </c>
       <c r="B2032" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45890</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>79672</v>
+        <v>79446</v>
       </c>
       <c r="B2033" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45959</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79675</v>
+        <v>79440</v>
       </c>
       <c r="B2034" t="n">
         <v>2</v>
@@ -32985,28 +32985,28 @@
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45929</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79167</v>
+        <v>79588</v>
       </c>
       <c r="B2035" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2035" s="2" t="n">
-        <v>45904</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79161</v>
+        <v>79671</v>
       </c>
       <c r="B2036" t="n">
         <v>2</v>
@@ -33017,12 +33017,12 @@
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45933</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79432</v>
+        <v>79674</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33038,23 +33038,23 @@
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79336</v>
+        <v>79809</v>
       </c>
       <c r="B2038" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45910</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79436</v>
+        <v>79966</v>
       </c>
       <c r="B2039" t="n">
         <v>9</v>
@@ -33065,12 +33065,12 @@
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45888</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79441</v>
+        <v>79167</v>
       </c>
       <c r="B2040" t="n">
         <v>2</v>
@@ -33081,76 +33081,76 @@
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45936</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>80086</v>
+        <v>79161</v>
       </c>
       <c r="B2041" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45898</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>79808</v>
+        <v>80086</v>
       </c>
       <c r="B2042" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79965</v>
+        <v>79433</v>
       </c>
       <c r="B2043" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45896</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>79588</v>
+        <v>79434</v>
       </c>
       <c r="B2044" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45884</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79671</v>
+        <v>79438</v>
       </c>
       <c r="B2045" t="n">
         <v>2</v>
@@ -33161,12 +33161,12 @@
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45919</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>79674</v>
+        <v>79442</v>
       </c>
       <c r="B2046" t="n">
         <v>2</v>
@@ -33177,12 +33177,12 @@
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79164</v>
+        <v>79586</v>
       </c>
       <c r="B2047" t="n">
         <v>2</v>
@@ -33193,28 +33193,28 @@
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79163</v>
+        <v>79668</v>
       </c>
       <c r="B2048" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45923</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79332</v>
+        <v>79590</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,12 +33225,12 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45934</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79334</v>
+        <v>79676</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,55 +33241,55 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45910</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="n">
-        <v>79446</v>
+        <v>79810</v>
       </c>
       <c r="B2051" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2051" s="2" t="n">
-        <v>45881</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>79440</v>
+        <v>79963</v>
       </c>
       <c r="B2052" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2052" s="2" t="n">
-        <v>45901</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="n">
-        <v>80085</v>
+        <v>80083</v>
       </c>
       <c r="B2053" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2053" s="2" t="n">
-        <v>45912</v>
+        <v>45889</v>
       </c>
     </row>
   </sheetData>
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4">
@@ -33350,7 +33350,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -33360,7 +33360,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -2209,11 +2209,11 @@
         <v>25882</v>
       </c>
       <c r="B111" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79164</v>
+        <v>79167</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,12 +32473,12 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79163</v>
+        <v>79161</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,76 +32489,76 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45923</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>80085</v>
+        <v>80086</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79432</v>
+        <v>79333</v>
       </c>
       <c r="B2005" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79336</v>
+        <v>79435</v>
       </c>
       <c r="B2006" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45910</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79436</v>
+        <v>79439</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45888</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79441</v>
+        <v>12543</v>
       </c>
       <c r="B2008" t="n">
         <v>2</v>
@@ -32569,12 +32569,12 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45936</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79437</v>
+        <v>79588</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,28 +32585,28 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45895</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79589</v>
+        <v>79671</v>
       </c>
       <c r="B2010" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45890</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79672</v>
+        <v>79674</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,12 +32617,12 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45959</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79675</v>
+        <v>79808</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,12 +32633,12 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45929</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79962</v>
+        <v>79965</v>
       </c>
       <c r="B2013" t="n">
         <v>9</v>
@@ -32649,12 +32649,12 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45889</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>80082</v>
+        <v>79165</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,12 +32665,12 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45922</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79165</v>
+        <v>79204</v>
       </c>
       <c r="B2015" t="n">
         <v>2</v>
@@ -32681,44 +32681,44 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45912</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79204</v>
+        <v>80318</v>
       </c>
       <c r="B2016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45923</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>80318</v>
+        <v>79332</v>
       </c>
       <c r="B2017" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45881</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>12543</v>
+        <v>79334</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,12 +32729,12 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45931</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79333</v>
+        <v>79446</v>
       </c>
       <c r="B2019" t="n">
         <v>9</v>
@@ -32745,44 +32745,44 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79435</v>
+        <v>79440</v>
       </c>
       <c r="B2020" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79439</v>
+        <v>79437</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45929</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79587</v>
+        <v>79589</v>
       </c>
       <c r="B2022" t="n">
         <v>9</v>
@@ -32793,12 +32793,12 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79669</v>
+        <v>79672</v>
       </c>
       <c r="B2023" t="n">
         <v>2</v>
@@ -32814,7 +32814,7 @@
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79673</v>
+        <v>79675</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,44 +32825,44 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45909</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79677</v>
+        <v>79809</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45909</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79808</v>
+        <v>79966</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45909</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79965</v>
+        <v>79166</v>
       </c>
       <c r="B2027" t="n">
         <v>9</v>
@@ -32873,12 +32873,12 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45896</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79166</v>
+        <v>79162</v>
       </c>
       <c r="B2028" t="n">
         <v>9</v>
@@ -32889,28 +32889,28 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79162</v>
+        <v>80084</v>
       </c>
       <c r="B2029" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45890</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>80084</v>
+        <v>79432</v>
       </c>
       <c r="B2030" t="n">
         <v>2</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45936</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79332</v>
+        <v>79336</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,44 +32937,44 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45934</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79334</v>
+        <v>79436</v>
       </c>
       <c r="B2032" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45910</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>79446</v>
+        <v>79441</v>
       </c>
       <c r="B2033" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45881</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79440</v>
+        <v>79586</v>
       </c>
       <c r="B2034" t="n">
         <v>2</v>
@@ -32985,12 +32985,12 @@
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79588</v>
+        <v>79668</v>
       </c>
       <c r="B2035" t="n">
         <v>9</v>
@@ -33006,7 +33006,7 @@
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79671</v>
+        <v>79590</v>
       </c>
       <c r="B2036" t="n">
         <v>2</v>
@@ -33017,12 +33017,12 @@
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79674</v>
+        <v>79676</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33033,44 +33033,44 @@
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45919</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79809</v>
+        <v>79962</v>
       </c>
       <c r="B2038" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45880</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79966</v>
+        <v>80082</v>
       </c>
       <c r="B2039" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79167</v>
+        <v>79164</v>
       </c>
       <c r="B2040" t="n">
         <v>2</v>
@@ -33081,12 +33081,12 @@
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79161</v>
+        <v>79163</v>
       </c>
       <c r="B2041" t="n">
         <v>2</v>
@@ -33097,23 +33097,23 @@
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45933</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>80086</v>
+        <v>80085</v>
       </c>
       <c r="B2042" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45898</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2043">
@@ -33182,39 +33182,39 @@
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79586</v>
+        <v>79587</v>
       </c>
       <c r="B2047" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79668</v>
+        <v>79669</v>
       </c>
       <c r="B2048" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45884</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79590</v>
+        <v>79673</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,12 +33225,12 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79676</v>
+        <v>79677</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,7 +33241,7 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45950</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2051">
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
@@ -33360,7 +33360,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -32462,55 +32462,55 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79167</v>
+        <v>79333</v>
       </c>
       <c r="B2002" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79161</v>
+        <v>79435</v>
       </c>
       <c r="B2003" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45933</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>80086</v>
+        <v>79439</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45898</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79333</v>
+        <v>79166</v>
       </c>
       <c r="B2005" t="n">
         <v>9</v>
@@ -32526,7 +32526,7 @@
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79435</v>
+        <v>79162</v>
       </c>
       <c r="B2006" t="n">
         <v>9</v>
@@ -32542,7 +32542,7 @@
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79439</v>
+        <v>80084</v>
       </c>
       <c r="B2007" t="n">
         <v>2</v>
@@ -32553,28 +32553,28 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45929</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>12543</v>
+        <v>79437</v>
       </c>
       <c r="B2008" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45931</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79588</v>
+        <v>79589</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79671</v>
+        <v>79672</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45919</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79674</v>
+        <v>79675</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,28 +32617,28 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45919</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79808</v>
+        <v>79809</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45909</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79965</v>
+        <v>79966</v>
       </c>
       <c r="B2013" t="n">
         <v>9</v>
@@ -32649,12 +32649,12 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79165</v>
+        <v>79332</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,12 +32665,12 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45912</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79204</v>
+        <v>79334</v>
       </c>
       <c r="B2015" t="n">
         <v>2</v>
@@ -32681,12 +32681,12 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>80318</v>
+        <v>79446</v>
       </c>
       <c r="B2016" t="n">
         <v>9</v>
@@ -32702,7 +32702,7 @@
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79332</v>
+        <v>79440</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,12 +32713,12 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45934</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79334</v>
+        <v>79164</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79446</v>
+        <v>79163</v>
       </c>
       <c r="B2019" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45881</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79440</v>
+        <v>80085</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,28 +32761,28 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45901</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79437</v>
+        <v>79586</v>
       </c>
       <c r="B2021" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79589</v>
+        <v>79668</v>
       </c>
       <c r="B2022" t="n">
         <v>9</v>
@@ -32793,12 +32793,12 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79672</v>
+        <v>79590</v>
       </c>
       <c r="B2023" t="n">
         <v>2</v>
@@ -32809,12 +32809,12 @@
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45959</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79675</v>
+        <v>79676</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,92 +32825,92 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45929</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79809</v>
+        <v>79962</v>
       </c>
       <c r="B2025" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45880</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79966</v>
+        <v>80082</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79166</v>
+        <v>79432</v>
       </c>
       <c r="B2027" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45894</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79162</v>
+        <v>79336</v>
       </c>
       <c r="B2028" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45890</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>80084</v>
+        <v>79436</v>
       </c>
       <c r="B2029" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45936</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79432</v>
+        <v>79441</v>
       </c>
       <c r="B2030" t="n">
         <v>2</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45919</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79336</v>
+        <v>79167</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,76 +32937,76 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79436</v>
+        <v>79161</v>
       </c>
       <c r="B2032" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45888</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>79441</v>
+        <v>80086</v>
       </c>
       <c r="B2033" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45936</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79586</v>
+        <v>79587</v>
       </c>
       <c r="B2034" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79668</v>
+        <v>79669</v>
       </c>
       <c r="B2035" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2035" s="2" t="n">
-        <v>45884</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79590</v>
+        <v>79673</v>
       </c>
       <c r="B2036" t="n">
         <v>2</v>
@@ -33017,12 +33017,12 @@
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79676</v>
+        <v>79677</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33033,60 +33033,60 @@
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45950</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79962</v>
+        <v>79810</v>
       </c>
       <c r="B2038" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45889</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>80082</v>
+        <v>79963</v>
       </c>
       <c r="B2039" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45922</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79164</v>
+        <v>80083</v>
       </c>
       <c r="B2040" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45901</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79163</v>
+        <v>79433</v>
       </c>
       <c r="B2041" t="n">
         <v>2</v>
@@ -33097,12 +33097,12 @@
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45923</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>80085</v>
+        <v>79434</v>
       </c>
       <c r="B2042" t="n">
         <v>2</v>
@@ -33113,12 +33113,12 @@
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79433</v>
+        <v>79438</v>
       </c>
       <c r="B2043" t="n">
         <v>2</v>
@@ -33129,12 +33129,12 @@
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45960</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>79434</v>
+        <v>79442</v>
       </c>
       <c r="B2044" t="n">
         <v>2</v>
@@ -33145,12 +33145,12 @@
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79438</v>
+        <v>79165</v>
       </c>
       <c r="B2045" t="n">
         <v>2</v>
@@ -33161,12 +33161,12 @@
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45908</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>79442</v>
+        <v>79204</v>
       </c>
       <c r="B2046" t="n">
         <v>2</v>
@@ -33177,12 +33177,12 @@
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79587</v>
+        <v>80318</v>
       </c>
       <c r="B2047" t="n">
         <v>9</v>
@@ -33193,12 +33193,12 @@
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79669</v>
+        <v>12543</v>
       </c>
       <c r="B2048" t="n">
         <v>2</v>
@@ -33209,28 +33209,28 @@
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45959</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79673</v>
+        <v>79588</v>
       </c>
       <c r="B2049" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45909</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79677</v>
+        <v>79671</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,12 +33241,12 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="n">
-        <v>79810</v>
+        <v>79674</v>
       </c>
       <c r="B2051" t="n">
         <v>2</v>
@@ -33257,28 +33257,28 @@
         </is>
       </c>
       <c r="D2051" s="2" t="n">
-        <v>45930</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>79963</v>
+        <v>79808</v>
       </c>
       <c r="B2052" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2052" s="2" t="n">
-        <v>45884</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="n">
-        <v>80083</v>
+        <v>79965</v>
       </c>
       <c r="B2053" t="n">
         <v>9</v>
@@ -33289,7 +33289,7 @@
         </is>
       </c>
       <c r="D2053" s="2" t="n">
-        <v>45889</v>
+        <v>45896</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -8513,11 +8513,11 @@
         <v>55289</v>
       </c>
       <c r="B505" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D505" s="2" t="n">
@@ -32462,87 +32462,87 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79333</v>
+        <v>79332</v>
       </c>
       <c r="B2002" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45894</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79435</v>
+        <v>79334</v>
       </c>
       <c r="B2003" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45890</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79439</v>
+        <v>79446</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45929</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79166</v>
+        <v>79440</v>
       </c>
       <c r="B2005" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79162</v>
+        <v>79167</v>
       </c>
       <c r="B2006" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45890</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>80084</v>
+        <v>79161</v>
       </c>
       <c r="B2007" t="n">
         <v>2</v>
@@ -32553,12 +32553,12 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45936</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79437</v>
+        <v>80086</v>
       </c>
       <c r="B2008" t="n">
         <v>9</v>
@@ -32569,12 +32569,12 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79589</v>
+        <v>79437</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,28 +32585,28 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79672</v>
+        <v>79589</v>
       </c>
       <c r="B2010" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45959</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79675</v>
+        <v>79672</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,28 +32617,28 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45929</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79809</v>
+        <v>79675</v>
       </c>
       <c r="B2012" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45880</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79966</v>
+        <v>79962</v>
       </c>
       <c r="B2013" t="n">
         <v>9</v>
@@ -32649,12 +32649,12 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45895</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79332</v>
+        <v>80082</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,12 +32665,12 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45934</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79334</v>
+        <v>79433</v>
       </c>
       <c r="B2015" t="n">
         <v>2</v>
@@ -32681,28 +32681,28 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45910</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79446</v>
+        <v>79434</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45881</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79440</v>
+        <v>79438</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,12 +32713,12 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45901</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79164</v>
+        <v>79442</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,44 +32729,44 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79163</v>
+        <v>79166</v>
       </c>
       <c r="B2019" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>80085</v>
+        <v>79162</v>
       </c>
       <c r="B2020" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45912</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79586</v>
+        <v>80084</v>
       </c>
       <c r="B2021" t="n">
         <v>2</v>
@@ -32777,12 +32777,12 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45898</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79668</v>
+        <v>79587</v>
       </c>
       <c r="B2022" t="n">
         <v>9</v>
@@ -32793,12 +32793,12 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45884</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79590</v>
+        <v>79669</v>
       </c>
       <c r="B2023" t="n">
         <v>2</v>
@@ -32809,12 +32809,12 @@
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45898</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79676</v>
+        <v>79673</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,28 +32825,28 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45950</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79962</v>
+        <v>79677</v>
       </c>
       <c r="B2025" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45889</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>80082</v>
+        <v>79808</v>
       </c>
       <c r="B2026" t="n">
         <v>2</v>
@@ -32857,28 +32857,28 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79432</v>
+        <v>79965</v>
       </c>
       <c r="B2027" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45919</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79336</v>
+        <v>12543</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,12 +32889,12 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45910</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79436</v>
+        <v>79333</v>
       </c>
       <c r="B2029" t="n">
         <v>9</v>
@@ -32905,28 +32905,28 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45888</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79441</v>
+        <v>79435</v>
       </c>
       <c r="B2030" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45936</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79167</v>
+        <v>79439</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,12 +32937,12 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45904</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79161</v>
+        <v>79164</v>
       </c>
       <c r="B2032" t="n">
         <v>2</v>
@@ -32953,60 +32953,60 @@
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45933</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>80086</v>
+        <v>79163</v>
       </c>
       <c r="B2033" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79587</v>
+        <v>80085</v>
       </c>
       <c r="B2034" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45894</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79669</v>
+        <v>79588</v>
       </c>
       <c r="B2035" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2035" s="2" t="n">
-        <v>45959</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79673</v>
+        <v>79671</v>
       </c>
       <c r="B2036" t="n">
         <v>2</v>
@@ -33017,12 +33017,12 @@
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79677</v>
+        <v>79674</v>
       </c>
       <c r="B2037" t="n">
         <v>2</v>
@@ -33033,28 +33033,28 @@
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79810</v>
+        <v>79809</v>
       </c>
       <c r="B2038" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45930</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79963</v>
+        <v>79966</v>
       </c>
       <c r="B2039" t="n">
         <v>9</v>
@@ -33065,28 +33065,28 @@
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45884</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>80083</v>
+        <v>79432</v>
       </c>
       <c r="B2040" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45889</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79433</v>
+        <v>79336</v>
       </c>
       <c r="B2041" t="n">
         <v>2</v>
@@ -33097,28 +33097,28 @@
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45960</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>79434</v>
+        <v>79436</v>
       </c>
       <c r="B2042" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45911</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79438</v>
+        <v>79441</v>
       </c>
       <c r="B2043" t="n">
         <v>2</v>
@@ -33129,12 +33129,12 @@
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45908</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>79442</v>
+        <v>79165</v>
       </c>
       <c r="B2044" t="n">
         <v>2</v>
@@ -33145,12 +33145,12 @@
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45898</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79165</v>
+        <v>79204</v>
       </c>
       <c r="B2045" t="n">
         <v>2</v>
@@ -33161,76 +33161,76 @@
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45912</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>79204</v>
+        <v>80318</v>
       </c>
       <c r="B2046" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45923</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>80318</v>
+        <v>79586</v>
       </c>
       <c r="B2047" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>12543</v>
+        <v>79668</v>
       </c>
       <c r="B2048" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45931</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79588</v>
+        <v>79590</v>
       </c>
       <c r="B2049" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79671</v>
+        <v>79676</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,12 +33241,12 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45919</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="n">
-        <v>79674</v>
+        <v>79810</v>
       </c>
       <c r="B2051" t="n">
         <v>2</v>
@@ -33257,28 +33257,28 @@
         </is>
       </c>
       <c r="D2051" s="2" t="n">
-        <v>45919</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>79808</v>
+        <v>79963</v>
       </c>
       <c r="B2052" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2052" s="2" t="n">
-        <v>45909</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="n">
-        <v>79965</v>
+        <v>80083</v>
       </c>
       <c r="B2053" t="n">
         <v>9</v>
@@ -33289,7 +33289,7 @@
         </is>
       </c>
       <c r="D2053" s="2" t="n">
-        <v>45896</v>
+        <v>45889</v>
       </c>
     </row>
   </sheetData>
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4">
@@ -33350,7 +33350,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -913,11 +913,11 @@
         <v>13806</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -32462,55 +32462,55 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79332</v>
+        <v>79166</v>
       </c>
       <c r="B2002" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45934</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79334</v>
+        <v>79162</v>
       </c>
       <c r="B2003" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45910</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79446</v>
+        <v>80084</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45881</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79440</v>
+        <v>79432</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,12 +32521,12 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79167</v>
+        <v>79336</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,60 +32537,60 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45904</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79161</v>
+        <v>79436</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45933</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>80086</v>
+        <v>79441</v>
       </c>
       <c r="B2008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45898</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79437</v>
+        <v>79586</v>
       </c>
       <c r="B2009" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79589</v>
+        <v>79668</v>
       </c>
       <c r="B2010" t="n">
         <v>9</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79672</v>
+        <v>79590</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,12 +32617,12 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45959</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79675</v>
+        <v>79676</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,7 +32633,7 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45929</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2013">
@@ -32670,7 +32670,7 @@
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79433</v>
+        <v>79165</v>
       </c>
       <c r="B2015" t="n">
         <v>2</v>
@@ -32681,12 +32681,12 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45960</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79434</v>
+        <v>79204</v>
       </c>
       <c r="B2016" t="n">
         <v>2</v>
@@ -32697,28 +32697,28 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45911</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79438</v>
+        <v>80318</v>
       </c>
       <c r="B2017" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45908</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79442</v>
+        <v>79332</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45898</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79166</v>
+        <v>79334</v>
       </c>
       <c r="B2019" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79162</v>
+        <v>79446</v>
       </c>
       <c r="B2020" t="n">
         <v>9</v>
@@ -32761,12 +32761,12 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>80084</v>
+        <v>79440</v>
       </c>
       <c r="B2021" t="n">
         <v>2</v>
@@ -32777,12 +32777,12 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45936</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79587</v>
+        <v>79437</v>
       </c>
       <c r="B2022" t="n">
         <v>9</v>
@@ -32793,28 +32793,28 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79669</v>
+        <v>79589</v>
       </c>
       <c r="B2023" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45959</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79673</v>
+        <v>79672</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,12 +32825,12 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45909</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79677</v>
+        <v>79675</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,28 +32841,28 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45909</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79808</v>
+        <v>79809</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45909</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79965</v>
+        <v>79966</v>
       </c>
       <c r="B2027" t="n">
         <v>9</v>
@@ -32873,12 +32873,12 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>12543</v>
+        <v>79167</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,28 +32889,28 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45931</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79333</v>
+        <v>79161</v>
       </c>
       <c r="B2029" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45894</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79435</v>
+        <v>80086</v>
       </c>
       <c r="B2030" t="n">
         <v>9</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79439</v>
+        <v>12543</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,44 +32937,44 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79164</v>
+        <v>79333</v>
       </c>
       <c r="B2032" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>79163</v>
+        <v>79435</v>
       </c>
       <c r="B2033" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45923</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>80085</v>
+        <v>79439</v>
       </c>
       <c r="B2034" t="n">
         <v>2</v>
@@ -32985,7 +32985,7 @@
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45912</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2035">
@@ -33038,23 +33038,23 @@
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79809</v>
+        <v>79808</v>
       </c>
       <c r="B2038" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45880</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79966</v>
+        <v>79965</v>
       </c>
       <c r="B2039" t="n">
         <v>9</v>
@@ -33065,12 +33065,12 @@
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79432</v>
+        <v>79164</v>
       </c>
       <c r="B2040" t="n">
         <v>2</v>
@@ -33081,12 +33081,12 @@
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45919</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79336</v>
+        <v>79163</v>
       </c>
       <c r="B2041" t="n">
         <v>2</v>
@@ -33097,28 +33097,28 @@
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>79436</v>
+        <v>80085</v>
       </c>
       <c r="B2042" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45888</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79441</v>
+        <v>79433</v>
       </c>
       <c r="B2043" t="n">
         <v>2</v>
@@ -33129,12 +33129,12 @@
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45936</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>79165</v>
+        <v>79434</v>
       </c>
       <c r="B2044" t="n">
         <v>2</v>
@@ -33145,12 +33145,12 @@
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79204</v>
+        <v>79438</v>
       </c>
       <c r="B2045" t="n">
         <v>2</v>
@@ -33161,60 +33161,60 @@
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>80318</v>
+        <v>79442</v>
       </c>
       <c r="B2046" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79586</v>
+        <v>79587</v>
       </c>
       <c r="B2047" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79668</v>
+        <v>79669</v>
       </c>
       <c r="B2048" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45884</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79590</v>
+        <v>79673</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,12 +33225,12 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79676</v>
+        <v>79677</v>
       </c>
       <c r="B2050" t="n">
         <v>2</v>
@@ -33241,7 +33241,7 @@
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45950</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2051">
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
@@ -33360,7 +33360,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -737,11 +737,11 @@
         <v>12321</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
@@ -1665,11 +1665,11 @@
         <v>21097</v>
       </c>
       <c r="B77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
@@ -9361,11 +9361,11 @@
         <v>59623</v>
       </c>
       <c r="B558" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D558" s="2" t="n">
@@ -12817,11 +12817,11 @@
         <v>70978</v>
       </c>
       <c r="B774" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D774" s="2" t="n">
@@ -13329,11 +13329,11 @@
         <v>72219</v>
       </c>
       <c r="B806" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D806" s="2" t="n">
@@ -16417,11 +16417,11 @@
         <v>78403</v>
       </c>
       <c r="B999" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D999" s="2" t="n">
@@ -32462,39 +32462,39 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79166</v>
+        <v>79433</v>
       </c>
       <c r="B2002" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45894</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79162</v>
+        <v>79434</v>
       </c>
       <c r="B2003" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45890</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>80084</v>
+        <v>79438</v>
       </c>
       <c r="B2004" t="n">
         <v>2</v>
@@ -32505,12 +32505,12 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45936</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79432</v>
+        <v>79442</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,76 +32521,76 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79336</v>
+        <v>79962</v>
       </c>
       <c r="B2006" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45910</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79436</v>
+        <v>80082</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45888</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79441</v>
+        <v>79166</v>
       </c>
       <c r="B2008" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45936</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79586</v>
+        <v>79162</v>
       </c>
       <c r="B2009" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79668</v>
+        <v>79437</v>
       </c>
       <c r="B2010" t="n">
         <v>9</v>
@@ -32601,28 +32601,28 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45884</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79590</v>
+        <v>79589</v>
       </c>
       <c r="B2011" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79676</v>
+        <v>79672</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,44 +32633,44 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45950</v>
+        <v>45959</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79962</v>
+        <v>79675</v>
       </c>
       <c r="B2013" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45889</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>80082</v>
+        <v>80318</v>
       </c>
       <c r="B2014" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45922</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79165</v>
+        <v>79332</v>
       </c>
       <c r="B2015" t="n">
         <v>2</v>
@@ -32681,12 +32681,12 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45912</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79204</v>
+        <v>79334</v>
       </c>
       <c r="B2016" t="n">
         <v>2</v>
@@ -32697,12 +32697,12 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>80318</v>
+        <v>79446</v>
       </c>
       <c r="B2017" t="n">
         <v>9</v>
@@ -32718,7 +32718,7 @@
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79332</v>
+        <v>79440</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,12 +32729,12 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45934</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79334</v>
+        <v>79808</v>
       </c>
       <c r="B2019" t="n">
         <v>2</v>
@@ -32745,12 +32745,12 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45910</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79446</v>
+        <v>79965</v>
       </c>
       <c r="B2020" t="n">
         <v>9</v>
@@ -32761,12 +32761,12 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45881</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79440</v>
+        <v>79167</v>
       </c>
       <c r="B2021" t="n">
         <v>2</v>
@@ -32777,28 +32777,28 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79437</v>
+        <v>79161</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45895</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79589</v>
+        <v>79587</v>
       </c>
       <c r="B2023" t="n">
         <v>9</v>
@@ -32809,12 +32809,12 @@
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79672</v>
+        <v>79669</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32830,7 +32830,7 @@
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79675</v>
+        <v>79673</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,44 +32841,44 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45929</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79809</v>
+        <v>79677</v>
       </c>
       <c r="B2026" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45880</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79966</v>
+        <v>80085</v>
       </c>
       <c r="B2027" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45895</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79167</v>
+        <v>79432</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,12 +32889,12 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79161</v>
+        <v>79336</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,12 +32905,12 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45933</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>80086</v>
+        <v>79436</v>
       </c>
       <c r="B2030" t="n">
         <v>9</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>12543</v>
+        <v>79441</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,28 +32937,28 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45931</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
-        <v>79333</v>
+        <v>79809</v>
       </c>
       <c r="B2032" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2032" s="2" t="n">
-        <v>45894</v>
+        <v>45880</v>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
-        <v>79435</v>
+        <v>79966</v>
       </c>
       <c r="B2033" t="n">
         <v>9</v>
@@ -32969,12 +32969,12 @@
         </is>
       </c>
       <c r="D2033" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
-        <v>79439</v>
+        <v>79165</v>
       </c>
       <c r="B2034" t="n">
         <v>2</v>
@@ -32985,28 +32985,28 @@
         </is>
       </c>
       <c r="D2034" s="2" t="n">
-        <v>45929</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
-        <v>79588</v>
+        <v>79204</v>
       </c>
       <c r="B2035" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2035" s="2" t="n">
-        <v>45884</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
-        <v>79671</v>
+        <v>12543</v>
       </c>
       <c r="B2036" t="n">
         <v>2</v>
@@ -33017,28 +33017,28 @@
         </is>
       </c>
       <c r="D2036" s="2" t="n">
-        <v>45919</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
-        <v>79674</v>
+        <v>79588</v>
       </c>
       <c r="B2037" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2037" s="2" t="n">
-        <v>45919</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
-        <v>79808</v>
+        <v>79671</v>
       </c>
       <c r="B2038" t="n">
         <v>2</v>
@@ -33049,76 +33049,76 @@
         </is>
       </c>
       <c r="D2038" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="n">
-        <v>79965</v>
+        <v>79674</v>
       </c>
       <c r="B2039" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2039" s="2" t="n">
-        <v>45896</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
-        <v>79164</v>
+        <v>80086</v>
       </c>
       <c r="B2040" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2040" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="n">
-        <v>79163</v>
+        <v>79333</v>
       </c>
       <c r="B2041" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2041" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="n">
-        <v>80085</v>
+        <v>79435</v>
       </c>
       <c r="B2042" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2042" s="2" t="n">
-        <v>45912</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="n">
-        <v>79433</v>
+        <v>79439</v>
       </c>
       <c r="B2043" t="n">
         <v>2</v>
@@ -33129,12 +33129,12 @@
         </is>
       </c>
       <c r="D2043" s="2" t="n">
-        <v>45960</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="n">
-        <v>79434</v>
+        <v>79810</v>
       </c>
       <c r="B2044" t="n">
         <v>2</v>
@@ -33145,60 +33145,60 @@
         </is>
       </c>
       <c r="D2044" s="2" t="n">
-        <v>45911</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="n">
-        <v>79438</v>
+        <v>79963</v>
       </c>
       <c r="B2045" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2045" s="2" t="n">
-        <v>45908</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
-        <v>79442</v>
+        <v>80083</v>
       </c>
       <c r="B2046" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2046" s="2" t="n">
-        <v>45898</v>
+        <v>45889</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
-        <v>79587</v>
+        <v>79164</v>
       </c>
       <c r="B2047" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2047" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
-        <v>79669</v>
+        <v>79163</v>
       </c>
       <c r="B2048" t="n">
         <v>2</v>
@@ -33209,12 +33209,12 @@
         </is>
       </c>
       <c r="D2048" s="2" t="n">
-        <v>45959</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="n">
-        <v>79673</v>
+        <v>79586</v>
       </c>
       <c r="B2049" t="n">
         <v>2</v>
@@ -33225,28 +33225,28 @@
         </is>
       </c>
       <c r="D2049" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="n">
-        <v>79677</v>
+        <v>79668</v>
       </c>
       <c r="B2050" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2050" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2050" s="2" t="n">
-        <v>45909</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="n">
-        <v>79810</v>
+        <v>79590</v>
       </c>
       <c r="B2051" t="n">
         <v>2</v>
@@ -33257,39 +33257,39 @@
         </is>
       </c>
       <c r="D2051" s="2" t="n">
-        <v>45930</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="n">
-        <v>79963</v>
+        <v>79676</v>
       </c>
       <c r="B2052" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2052" s="2" t="n">
-        <v>45884</v>
+        <v>45950</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="n">
-        <v>80083</v>
+        <v>80084</v>
       </c>
       <c r="B2053" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2053" s="2" t="n">
-        <v>45889</v>
+        <v>45936</v>
       </c>
     </row>
   </sheetData>
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
@@ -33350,7 +33350,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -33360,7 +33360,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -2673,11 +2673,11 @@
         <v>28943</v>
       </c>
       <c r="B140" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
@@ -9681,11 +9681,11 @@
         <v>60650</v>
       </c>
       <c r="B578" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D578" s="2" t="n">
@@ -9729,11 +9729,11 @@
         <v>60651</v>
       </c>
       <c r="B581" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D581" s="2" t="n">
@@ -14065,11 +14065,11 @@
         <v>73785</v>
       </c>
       <c r="B852" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D852" s="2" t="n">
@@ -32462,23 +32462,23 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79432</v>
+        <v>79588</v>
       </c>
       <c r="B2002" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45919</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79336</v>
+        <v>12543</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,12 +32489,12 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45910</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79436</v>
+        <v>79162</v>
       </c>
       <c r="B2004" t="n">
         <v>9</v>
@@ -32505,12 +32505,12 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79442</v>
+        <v>79432</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,12 +32521,12 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79164</v>
+        <v>79336</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,44 +32537,44 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79161</v>
+        <v>79436</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45933</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79437</v>
+        <v>79442</v>
       </c>
       <c r="B2008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79589</v>
+        <v>79437</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,60 +32585,60 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79332</v>
+        <v>79589</v>
       </c>
       <c r="B2010" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45934</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79334</v>
+        <v>79166</v>
       </c>
       <c r="B2011" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45910</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79446</v>
+        <v>79163</v>
       </c>
       <c r="B2012" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45881</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79441</v>
+        <v>79433</v>
       </c>
       <c r="B2013" t="n">
         <v>2</v>
@@ -32649,28 +32649,28 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45936</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79166</v>
+        <v>79434</v>
       </c>
       <c r="B2014" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45894</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79163</v>
+        <v>79439</v>
       </c>
       <c r="B2015" t="n">
         <v>2</v>
@@ -32681,12 +32681,12 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45923</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79588</v>
+        <v>80318</v>
       </c>
       <c r="B2016" t="n">
         <v>9</v>
@@ -32697,12 +32697,12 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45884</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79333</v>
+        <v>79587</v>
       </c>
       <c r="B2017" t="n">
         <v>9</v>
@@ -32718,23 +32718,23 @@
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79435</v>
+        <v>79590</v>
       </c>
       <c r="B2018" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79440</v>
+        <v>79167</v>
       </c>
       <c r="B2019" t="n">
         <v>2</v>
@@ -32745,12 +32745,12 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>12543</v>
+        <v>79204</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,60 +32761,60 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45931</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79162</v>
+        <v>79332</v>
       </c>
       <c r="B2021" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45890</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>80318</v>
+        <v>79334</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45881</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79587</v>
+        <v>79446</v>
       </c>
       <c r="B2023" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79590</v>
+        <v>79441</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,12 +32825,12 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45898</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79433</v>
+        <v>79586</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,28 +32841,28 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45960</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79434</v>
+        <v>79668</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45911</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79439</v>
+        <v>79164</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,12 +32873,12 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45929</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79167</v>
+        <v>79161</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,55 +32889,55 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45904</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79204</v>
+        <v>79333</v>
       </c>
       <c r="B2029" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79586</v>
+        <v>79435</v>
       </c>
       <c r="B2030" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79668</v>
+        <v>79440</v>
       </c>
       <c r="B2031" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45884</v>
+        <v>45901</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -32462,87 +32462,87 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79588</v>
+        <v>12543</v>
       </c>
       <c r="B2002" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45884</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>12543</v>
+        <v>79162</v>
       </c>
       <c r="B2003" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45931</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79162</v>
+        <v>79586</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79432</v>
+        <v>79668</v>
       </c>
       <c r="B2005" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45919</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79336</v>
+        <v>79333</v>
       </c>
       <c r="B2006" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45910</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79436</v>
+        <v>79435</v>
       </c>
       <c r="B2007" t="n">
         <v>9</v>
@@ -32553,12 +32553,12 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79442</v>
+        <v>79440</v>
       </c>
       <c r="B2008" t="n">
         <v>2</v>
@@ -32569,44 +32569,44 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79437</v>
+        <v>79167</v>
       </c>
       <c r="B2009" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79589</v>
+        <v>79204</v>
       </c>
       <c r="B2010" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45890</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79166</v>
+        <v>79437</v>
       </c>
       <c r="B2011" t="n">
         <v>9</v>
@@ -32617,23 +32617,23 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79163</v>
+        <v>79589</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45923</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2013">
@@ -32689,11 +32689,11 @@
         <v>80318</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
@@ -32702,7 +32702,7 @@
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79587</v>
+        <v>79166</v>
       </c>
       <c r="B2017" t="n">
         <v>9</v>
@@ -32718,7 +32718,7 @@
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79590</v>
+        <v>79163</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79167</v>
+        <v>79587</v>
       </c>
       <c r="B2019" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79204</v>
+        <v>79590</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,7 +32761,7 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45923</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2021">
@@ -32830,7 +32830,7 @@
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79586</v>
+        <v>79164</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,44 +32841,44 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79668</v>
+        <v>79161</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45884</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79164</v>
+        <v>79588</v>
       </c>
       <c r="B2027" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Bodega</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45901</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79161</v>
+        <v>79432</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,28 +32889,28 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45933</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79333</v>
+        <v>79336</v>
       </c>
       <c r="B2029" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79435</v>
+        <v>79436</v>
       </c>
       <c r="B2030" t="n">
         <v>9</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79440</v>
+        <v>79442</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,7 +32937,7 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -533,7 +533,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -725,7 +725,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -757,7 +757,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -901,7 +901,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
@@ -965,7 +965,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -997,7 +997,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D194" s="2" t="n">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D196" s="2" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D197" s="2" t="n">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D200" s="2" t="n">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D217" s="2" t="n">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D225" s="2" t="n">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D239" s="2" t="n">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D243" s="2" t="n">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D247" s="2" t="n">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D249" s="2" t="n">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D258" s="2" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D271" s="2" t="n">
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D273" s="2" t="n">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D275" s="2" t="n">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D278" s="2" t="n">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D282" s="2" t="n">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D293" s="2" t="n">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D304" s="2" t="n">
@@ -5333,7 +5333,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D335" s="2" t="n">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
@@ -5925,7 +5925,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D343" s="2" t="n">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
@@ -6021,7 +6021,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D360" s="2" t="n">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D377" s="2" t="n">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D380" s="2" t="n">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D384" s="2" t="n">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D407" s="2" t="n">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D412" s="2" t="n">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D423" s="2" t="n">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D424" s="2" t="n">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D429" s="2" t="n">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D430" s="2" t="n">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D433" s="2" t="n">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D434" s="2" t="n">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D438" s="2" t="n">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D445" s="2" t="n">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D448" s="2" t="n">
@@ -7637,7 +7637,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D450" s="2" t="n">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D451" s="2" t="n">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D452" s="2" t="n">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D463" s="2" t="n">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D466" s="2" t="n">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D471" s="2" t="n">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D475" s="2" t="n">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D476" s="2" t="n">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D479" s="2" t="n">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D480" s="2" t="n">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D482" s="2" t="n">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D484" s="2" t="n">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D485" s="2" t="n">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D488" s="2" t="n">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D492" s="2" t="n">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D493" s="2" t="n">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D494" s="2" t="n">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D495" s="2" t="n">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D499" s="2" t="n">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D512" s="2" t="n">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D519" s="2" t="n">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D524" s="2" t="n">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D529" s="2" t="n">
@@ -8917,7 +8917,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D530" s="2" t="n">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D532" s="2" t="n">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D537" s="2" t="n">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D539" s="2" t="n">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D544" s="2" t="n">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D548" s="2" t="n">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D555" s="2" t="n">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D577" s="2" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D582" s="2" t="n">
@@ -9845,7 +9845,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D588" s="2" t="n">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D590" s="2" t="n">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D594" s="2" t="n">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D600" s="2" t="n">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D609" s="2" t="n">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D617" s="2" t="n">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D622" s="2" t="n">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D638" s="2" t="n">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D645" s="2" t="n">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D647" s="2" t="n">
@@ -10805,7 +10805,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D648" s="2" t="n">
@@ -11077,7 +11077,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D665" s="2" t="n">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D683" s="2" t="n">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D684" s="2" t="n">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D685" s="2" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D688" s="2" t="n">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D691" s="2" t="n">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D697" s="2" t="n">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D704" s="2" t="n">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D706" s="2" t="n">
@@ -11749,7 +11749,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D707" s="2" t="n">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D709" s="2" t="n">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D715" s="2" t="n">
@@ -11925,7 +11925,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D718" s="2" t="n">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D730" s="2" t="n">
@@ -12181,7 +12181,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D734" s="2" t="n">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D735" s="2" t="n">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D760" s="2" t="n">
@@ -12661,7 +12661,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D764" s="2" t="n">
@@ -12725,7 +12725,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D768" s="2" t="n">
@@ -12805,7 +12805,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D773" s="2" t="n">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D778" s="2" t="n">
@@ -13109,7 +13109,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D792" s="2" t="n">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D794" s="2" t="n">
@@ -13157,7 +13157,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D795" s="2" t="n">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D796" s="2" t="n">
@@ -13301,7 +13301,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D804" s="2" t="n">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D805" s="2" t="n">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D806" s="2" t="n">
@@ -13349,7 +13349,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D807" s="2" t="n">
@@ -13429,7 +13429,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D812" s="2" t="n">
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D817" s="2" t="n">
@@ -13669,7 +13669,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D827" s="2" t="n">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D828" s="2" t="n">
@@ -13765,7 +13765,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D833" s="2" t="n">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D843" s="2" t="n">
@@ -13973,7 +13973,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D846" s="2" t="n">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D850" s="2" t="n">
@@ -14085,7 +14085,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D853" s="2" t="n">
@@ -14165,7 +14165,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D858" s="2" t="n">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D859" s="2" t="n">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D863" s="2" t="n">
@@ -14277,7 +14277,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D865" s="2" t="n">
@@ -14453,7 +14453,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D876" s="2" t="n">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D878" s="2" t="n">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D886" s="2" t="n">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D901" s="2" t="n">
@@ -14933,7 +14933,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D906" s="2" t="n">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D907" s="2" t="n">
@@ -14965,7 +14965,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D908" s="2" t="n">
@@ -15125,7 +15125,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D918" s="2" t="n">
@@ -15189,7 +15189,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D922" s="2" t="n">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D927" s="2" t="n">
@@ -15317,7 +15317,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D930" s="2" t="n">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D934" s="2" t="n">
@@ -15445,7 +15445,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D938" s="2" t="n">
@@ -15525,7 +15525,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D943" s="2" t="n">
@@ -15573,7 +15573,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D946" s="2" t="n">
@@ -15653,7 +15653,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D951" s="2" t="n">
@@ -15685,7 +15685,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D953" s="2" t="n">
@@ -15765,7 +15765,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D958" s="2" t="n">
@@ -15781,7 +15781,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D959" s="2" t="n">
@@ -15941,7 +15941,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D969" s="2" t="n">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D974" s="2" t="n">
@@ -16117,7 +16117,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D980" s="2" t="n">
@@ -16293,7 +16293,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D991" s="2" t="n">
@@ -16357,7 +16357,7 @@
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D995" s="2" t="n">
@@ -16389,7 +16389,7 @@
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D997" s="2" t="n">
@@ -16421,7 +16421,7 @@
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D999" s="2" t="n">
@@ -16437,7 +16437,7 @@
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1000" s="2" t="n">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1018" s="2" t="n">
@@ -17349,7 +17349,7 @@
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1057" s="2" t="n">
@@ -20101,7 +20101,7 @@
       </c>
       <c r="C1229" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1229" s="2" t="n">
@@ -22245,7 +22245,7 @@
       </c>
       <c r="C1363" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1363" s="2" t="n">
@@ -22469,7 +22469,7 @@
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1377" s="2" t="n">
@@ -22533,7 +22533,7 @@
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1381" s="2" t="n">
@@ -25189,7 +25189,7 @@
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1547" s="2" t="n">
@@ -26805,7 +26805,7 @@
       </c>
       <c r="C1648" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1648" s="2" t="n">
@@ -28933,7 +28933,7 @@
       </c>
       <c r="C1781" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1781" s="2" t="n">
@@ -29141,7 +29141,7 @@
       </c>
       <c r="C1794" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1794" s="2" t="n">
@@ -29877,7 +29877,7 @@
       </c>
       <c r="C1840" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1840" s="2" t="n">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="C1907" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1907" s="2" t="n">
@@ -30965,7 +30965,7 @@
       </c>
       <c r="C1908" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1908" s="2" t="n">
@@ -31013,7 +31013,7 @@
       </c>
       <c r="C1911" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1911" s="2" t="n">
@@ -31029,7 +31029,7 @@
       </c>
       <c r="C1912" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1912" s="2" t="n">
@@ -31077,7 +31077,7 @@
       </c>
       <c r="C1915" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1915" s="2" t="n">
@@ -31173,7 +31173,7 @@
       </c>
       <c r="C1921" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1921" s="2" t="n">
@@ -31397,7 +31397,7 @@
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1935" s="2" t="n">
@@ -31445,7 +31445,7 @@
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1938" s="2" t="n">
@@ -31493,7 +31493,7 @@
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1941" s="2" t="n">
@@ -31669,7 +31669,7 @@
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1952" s="2" t="n">
@@ -31877,7 +31877,7 @@
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1965" s="2" t="n">
@@ -32117,7 +32117,7 @@
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1980" s="2" t="n">
@@ -32181,7 +32181,7 @@
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1984" s="2" t="n">
@@ -32197,7 +32197,7 @@
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1985" s="2" t="n">
@@ -32357,7 +32357,7 @@
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1995" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>12543</v>
+        <v>79167</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,28 +32473,28 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45931</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79162</v>
+        <v>79204</v>
       </c>
       <c r="B2003" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45890</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79586</v>
+        <v>79332</v>
       </c>
       <c r="B2004" t="n">
         <v>2</v>
@@ -32505,60 +32505,60 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45898</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79668</v>
+        <v>79334</v>
       </c>
       <c r="B2005" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45884</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79333</v>
+        <v>79446</v>
       </c>
       <c r="B2006" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79435</v>
+        <v>79441</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45890</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79440</v>
+        <v>79586</v>
       </c>
       <c r="B2008" t="n">
         <v>2</v>
@@ -32569,28 +32569,28 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79167</v>
+        <v>79668</v>
       </c>
       <c r="B2009" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45904</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79204</v>
+        <v>79164</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,60 +32601,60 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79437</v>
+        <v>79161</v>
       </c>
       <c r="B2011" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45895</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79589</v>
+        <v>79333</v>
       </c>
       <c r="B2012" t="n">
         <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79433</v>
+        <v>79435</v>
       </c>
       <c r="B2013" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45960</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79434</v>
+        <v>79440</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,92 +32665,92 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79439</v>
+        <v>79437</v>
       </c>
       <c r="B2015" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45929</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>80318</v>
+        <v>79589</v>
       </c>
       <c r="B2016" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45881</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79166</v>
+        <v>12543</v>
       </c>
       <c r="B2017" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45894</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79163</v>
+        <v>79162</v>
       </c>
       <c r="B2018" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45923</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79587</v>
+        <v>80318</v>
       </c>
       <c r="B2019" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79590</v>
+        <v>79432</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,12 +32761,12 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79332</v>
+        <v>79336</v>
       </c>
       <c r="B2021" t="n">
         <v>2</v>
@@ -32777,60 +32777,60 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45934</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79334</v>
+        <v>79436</v>
       </c>
       <c r="B2022" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45910</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79446</v>
+        <v>79442</v>
       </c>
       <c r="B2023" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79441</v>
+        <v>79587</v>
       </c>
       <c r="B2024" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45936</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79164</v>
+        <v>79590</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,44 +32841,44 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79161</v>
+        <v>79166</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45933</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79588</v>
+        <v>79163</v>
       </c>
       <c r="B2027" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45884</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79432</v>
+        <v>79433</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,12 +32889,12 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45919</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79336</v>
+        <v>79434</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,39 +32905,39 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79436</v>
+        <v>79439</v>
       </c>
       <c r="B2030" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45888</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79442</v>
+        <v>79588</v>
       </c>
       <c r="B2031" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
   </sheetData>
@@ -32984,7 +32984,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>En Bodega</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="B3" t="n">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -29873,11 +29873,11 @@
         <v>79425</v>
       </c>
       <c r="B1840" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1840" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1840" s="2" t="n">
@@ -32462,23 +32462,23 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79167</v>
+        <v>79166</v>
       </c>
       <c r="B2002" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79204</v>
+        <v>79163</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32494,7 +32494,7 @@
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79332</v>
+        <v>79586</v>
       </c>
       <c r="B2004" t="n">
         <v>2</v>
@@ -32505,60 +32505,60 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45934</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79334</v>
+        <v>79668</v>
       </c>
       <c r="B2005" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45910</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79446</v>
+        <v>79333</v>
       </c>
       <c r="B2006" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79441</v>
+        <v>79435</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45936</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79586</v>
+        <v>79440</v>
       </c>
       <c r="B2008" t="n">
         <v>2</v>
@@ -32569,28 +32569,28 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79668</v>
+        <v>79167</v>
       </c>
       <c r="B2009" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45884</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79164</v>
+        <v>79204</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45901</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79161</v>
+        <v>12543</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,12 +32617,12 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45933</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79333</v>
+        <v>79588</v>
       </c>
       <c r="B2012" t="n">
         <v>9</v>
@@ -32633,28 +32633,28 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79435</v>
+        <v>79432</v>
       </c>
       <c r="B2013" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45890</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79440</v>
+        <v>79336</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,12 +32665,12 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79437</v>
+        <v>79436</v>
       </c>
       <c r="B2015" t="n">
         <v>9</v>
@@ -32681,28 +32681,28 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45895</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79589</v>
+        <v>79442</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>12543</v>
+        <v>79164</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,44 +32713,44 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45931</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79162</v>
+        <v>79161</v>
       </c>
       <c r="B2018" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45890</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>80318</v>
+        <v>79587</v>
       </c>
       <c r="B2019" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79432</v>
+        <v>79590</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,12 +32761,12 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79336</v>
+        <v>79332</v>
       </c>
       <c r="B2021" t="n">
         <v>2</v>
@@ -32777,76 +32777,76 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45910</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79436</v>
+        <v>79334</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45888</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79442</v>
+        <v>79446</v>
       </c>
       <c r="B2023" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79587</v>
+        <v>79441</v>
       </c>
       <c r="B2024" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45894</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79590</v>
+        <v>79162</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79166</v>
+        <v>79437</v>
       </c>
       <c r="B2026" t="n">
         <v>9</v>
@@ -32857,23 +32857,23 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79163</v>
+        <v>79589</v>
       </c>
       <c r="B2027" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45923</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2028">
@@ -32926,18 +32926,18 @@
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79588</v>
+        <v>80318</v>
       </c>
       <c r="B2031" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45884</v>
+        <v>45881</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -32494,7 +32494,7 @@
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79586</v>
+        <v>79433</v>
       </c>
       <c r="B2004" t="n">
         <v>2</v>
@@ -32505,76 +32505,76 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45898</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79668</v>
+        <v>79434</v>
       </c>
       <c r="B2005" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45884</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79333</v>
+        <v>79439</v>
       </c>
       <c r="B2006" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45894</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79435</v>
+        <v>80318</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79440</v>
+        <v>79587</v>
       </c>
       <c r="B2008" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79167</v>
+        <v>79590</v>
       </c>
       <c r="B2009" t="n">
         <v>2</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79204</v>
+        <v>79167</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45923</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>12543</v>
+        <v>79204</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,28 +32617,28 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45931</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79588</v>
+        <v>79332</v>
       </c>
       <c r="B2012" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45884</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79432</v>
+        <v>79334</v>
       </c>
       <c r="B2013" t="n">
         <v>2</v>
@@ -32649,76 +32649,76 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45919</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79336</v>
+        <v>79446</v>
       </c>
       <c r="B2014" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45910</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79436</v>
+        <v>79441</v>
       </c>
       <c r="B2015" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45888</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79442</v>
+        <v>79437</v>
       </c>
       <c r="B2016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79164</v>
+        <v>79589</v>
       </c>
       <c r="B2017" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79161</v>
+        <v>79164</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,60 +32729,60 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45933</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79587</v>
+        <v>79161</v>
       </c>
       <c r="B2019" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45894</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79590</v>
+        <v>79333</v>
       </c>
       <c r="B2020" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79332</v>
+        <v>79435</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45934</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79334</v>
+        <v>79440</v>
       </c>
       <c r="B2022" t="n">
         <v>2</v>
@@ -32793,39 +32793,39 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79446</v>
+        <v>12543</v>
       </c>
       <c r="B2023" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45881</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79441</v>
+        <v>79588</v>
       </c>
       <c r="B2024" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45936</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2025">
@@ -32846,55 +32846,55 @@
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79437</v>
+        <v>79432</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45895</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79589</v>
+        <v>79336</v>
       </c>
       <c r="B2027" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45890</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79433</v>
+        <v>79436</v>
       </c>
       <c r="B2028" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45960</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79434</v>
+        <v>79442</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,12 +32905,12 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79439</v>
+        <v>79586</v>
       </c>
       <c r="B2030" t="n">
         <v>2</v>
@@ -32921,23 +32921,23 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45929</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>80318</v>
+        <v>79668</v>
       </c>
       <c r="B2031" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -481,11 +481,11 @@
         <v>19671</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -545,11 +545,11 @@
         <v>20553</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
@@ -673,11 +673,11 @@
         <v>10550</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
@@ -705,11 +705,11 @@
         <v>12499</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -769,11 +769,11 @@
         <v>13212</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -817,11 +817,11 @@
         <v>13628</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
@@ -833,11 +833,11 @@
         <v>13160</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
@@ -865,11 +865,11 @@
         <v>13264</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
@@ -945,11 +945,11 @@
         <v>14389</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -993,11 +993,11 @@
         <v>14897</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -1025,11 +1025,11 @@
         <v>16215</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
@@ -1073,11 +1073,11 @@
         <v>15438</v>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
@@ -1105,11 +1105,11 @@
         <v>15956</v>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -1185,11 +1185,11 @@
         <v>16329</v>
       </c>
       <c r="B47" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
@@ -1217,11 +1217,11 @@
         <v>16320</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -1281,11 +1281,11 @@
         <v>16981</v>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -1313,11 +1313,11 @@
         <v>17220</v>
       </c>
       <c r="B55" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
@@ -1329,11 +1329,11 @@
         <v>17568</v>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
@@ -1345,11 +1345,11 @@
         <v>17718</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
@@ -1377,11 +1377,11 @@
         <v>18078</v>
       </c>
       <c r="B59" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
@@ -1393,11 +1393,11 @@
         <v>18193</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
@@ -1553,11 +1553,11 @@
         <v>19004</v>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
@@ -1601,11 +1601,11 @@
         <v>12110</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
@@ -1649,11 +1649,11 @@
         <v>20999</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
@@ -1729,11 +1729,11 @@
         <v>21505</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
@@ -1793,11 +1793,11 @@
         <v>22125</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
@@ -1809,11 +1809,11 @@
         <v>22452</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
@@ -1825,11 +1825,11 @@
         <v>22582</v>
       </c>
       <c r="B87" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
@@ -1857,11 +1857,11 @@
         <v>23010</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
@@ -1873,11 +1873,11 @@
         <v>23152</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
@@ -2001,11 +2001,11 @@
         <v>24248</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
@@ -2049,11 +2049,11 @@
         <v>24548</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
@@ -2097,11 +2097,11 @@
         <v>25016</v>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
@@ -2113,11 +2113,11 @@
         <v>25043</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
@@ -2129,11 +2129,11 @@
         <v>25116</v>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
@@ -2145,11 +2145,11 @@
         <v>25146</v>
       </c>
       <c r="B107" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
@@ -2177,11 +2177,11 @@
         <v>25659</v>
       </c>
       <c r="B109" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
@@ -2193,11 +2193,11 @@
         <v>25708</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
@@ -2305,11 +2305,11 @@
         <v>26560</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
@@ -2481,11 +2481,11 @@
         <v>27663</v>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
@@ -2497,11 +2497,11 @@
         <v>27914</v>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
@@ -2513,11 +2513,11 @@
         <v>27984</v>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
@@ -2625,11 +2625,11 @@
         <v>28597</v>
       </c>
       <c r="B137" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
@@ -2641,11 +2641,11 @@
         <v>28797</v>
       </c>
       <c r="B138" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
@@ -2721,11 +2721,11 @@
         <v>28837</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
@@ -2833,11 +2833,11 @@
         <v>29218</v>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
@@ -2849,11 +2849,11 @@
         <v>29210</v>
       </c>
       <c r="B151" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
@@ -2897,11 +2897,11 @@
         <v>29309</v>
       </c>
       <c r="B154" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D154" s="2" t="n">
@@ -2929,11 +2929,11 @@
         <v>29471</v>
       </c>
       <c r="B156" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
@@ -2945,11 +2945,11 @@
         <v>29472</v>
       </c>
       <c r="B157" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
@@ -2961,11 +2961,11 @@
         <v>29726</v>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
@@ -2993,11 +2993,11 @@
         <v>29968</v>
       </c>
       <c r="B160" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D160" s="2" t="n">
@@ -3041,11 +3041,11 @@
         <v>30461</v>
       </c>
       <c r="B163" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
@@ -3073,11 +3073,11 @@
         <v>30455</v>
       </c>
       <c r="B165" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
@@ -3217,11 +3217,11 @@
         <v>30703</v>
       </c>
       <c r="B174" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
@@ -3297,11 +3297,11 @@
         <v>30845</v>
       </c>
       <c r="B179" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
@@ -3361,11 +3361,11 @@
         <v>31436</v>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
@@ -3377,11 +3377,11 @@
         <v>31442</v>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
@@ -3425,11 +3425,11 @@
         <v>31505</v>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
@@ -3441,11 +3441,11 @@
         <v>31446</v>
       </c>
       <c r="B188" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
@@ -3473,11 +3473,11 @@
         <v>31516</v>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
@@ -3521,11 +3521,11 @@
         <v>31639</v>
       </c>
       <c r="B193" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D193" s="2" t="n">
@@ -3553,11 +3553,11 @@
         <v>31745</v>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D195" s="2" t="n">
@@ -3617,11 +3617,11 @@
         <v>32425</v>
       </c>
       <c r="B199" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
@@ -3665,11 +3665,11 @@
         <v>32886</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D202" s="2" t="n">
@@ -3697,11 +3697,11 @@
         <v>33404</v>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D204" s="2" t="n">
@@ -3745,11 +3745,11 @@
         <v>33777</v>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D207" s="2" t="n">
@@ -3809,11 +3809,11 @@
         <v>33954</v>
       </c>
       <c r="B211" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D211" s="2" t="n">
@@ -3889,11 +3889,11 @@
         <v>34266</v>
       </c>
       <c r="B216" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D216" s="2" t="n">
@@ -3937,11 +3937,11 @@
         <v>34387</v>
       </c>
       <c r="B219" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D219" s="2" t="n">
@@ -3969,11 +3969,11 @@
         <v>34685</v>
       </c>
       <c r="B221" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D221" s="2" t="n">
@@ -4017,11 +4017,11 @@
         <v>34520</v>
       </c>
       <c r="B224" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
@@ -4065,11 +4065,11 @@
         <v>34827</v>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D227" s="2" t="n">
@@ -4081,11 +4081,11 @@
         <v>34829</v>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
@@ -4113,11 +4113,11 @@
         <v>34922</v>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D230" s="2" t="n">
@@ -4145,11 +4145,11 @@
         <v>35053</v>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D232" s="2" t="n">
@@ -4161,11 +4161,11 @@
         <v>35055</v>
       </c>
       <c r="B233" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D233" s="2" t="n">
@@ -4193,11 +4193,11 @@
         <v>35161</v>
       </c>
       <c r="B235" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D235" s="2" t="n">
@@ -4209,11 +4209,11 @@
         <v>35302</v>
       </c>
       <c r="B236" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D236" s="2" t="n">
@@ -4305,11 +4305,11 @@
         <v>35717</v>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
@@ -4369,11 +4369,11 @@
         <v>36209</v>
       </c>
       <c r="B246" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
@@ -4433,11 +4433,11 @@
         <v>36434</v>
       </c>
       <c r="B250" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
@@ -4449,11 +4449,11 @@
         <v>36435</v>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
@@ -4497,11 +4497,11 @@
         <v>37024</v>
       </c>
       <c r="B254" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D254" s="2" t="n">
@@ -4577,11 +4577,11 @@
         <v>37197</v>
       </c>
       <c r="B259" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
@@ -4609,11 +4609,11 @@
         <v>37477</v>
       </c>
       <c r="B261" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D261" s="2" t="n">
@@ -4625,11 +4625,11 @@
         <v>37448</v>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
@@ -4641,11 +4641,11 @@
         <v>37521</v>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
@@ -4785,11 +4785,11 @@
         <v>37568</v>
       </c>
       <c r="B272" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D272" s="2" t="n">
@@ -4849,11 +4849,11 @@
         <v>37808</v>
       </c>
       <c r="B276" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
@@ -4913,11 +4913,11 @@
         <v>37784</v>
       </c>
       <c r="B280" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
@@ -4961,11 +4961,11 @@
         <v>38038</v>
       </c>
       <c r="B283" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D283" s="2" t="n">
@@ -5025,11 +5025,11 @@
         <v>38127</v>
       </c>
       <c r="B287" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D287" s="2" t="n">
@@ -5057,11 +5057,11 @@
         <v>38252</v>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D289" s="2" t="n">
@@ -5153,11 +5153,11 @@
         <v>38738</v>
       </c>
       <c r="B295" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
@@ -5185,11 +5185,11 @@
         <v>38644</v>
       </c>
       <c r="B297" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
@@ -5201,11 +5201,11 @@
         <v>39046</v>
       </c>
       <c r="B298" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
@@ -5217,11 +5217,11 @@
         <v>39089</v>
       </c>
       <c r="B299" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
@@ -5265,11 +5265,11 @@
         <v>39165</v>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
@@ -5313,11 +5313,11 @@
         <v>39461</v>
       </c>
       <c r="B305" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
@@ -5393,11 +5393,11 @@
         <v>39768</v>
       </c>
       <c r="B310" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
@@ -5425,11 +5425,11 @@
         <v>39890</v>
       </c>
       <c r="B312" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
@@ -5473,11 +5473,11 @@
         <v>40045</v>
       </c>
       <c r="B315" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
@@ -5489,11 +5489,11 @@
         <v>40140</v>
       </c>
       <c r="B316" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
@@ -5537,11 +5537,11 @@
         <v>40186</v>
       </c>
       <c r="B319" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D319" s="2" t="n">
@@ -5569,11 +5569,11 @@
         <v>40389</v>
       </c>
       <c r="B321" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
@@ -5617,11 +5617,11 @@
         <v>40590</v>
       </c>
       <c r="B324" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
@@ -5649,11 +5649,11 @@
         <v>40843</v>
       </c>
       <c r="B326" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D326" s="2" t="n">
@@ -5713,11 +5713,11 @@
         <v>41306</v>
       </c>
       <c r="B330" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
@@ -5777,11 +5777,11 @@
         <v>41616</v>
       </c>
       <c r="B334" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
@@ -5841,11 +5841,11 @@
         <v>41622</v>
       </c>
       <c r="B338" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
@@ -5857,11 +5857,11 @@
         <v>41872</v>
       </c>
       <c r="B339" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
@@ -5889,11 +5889,11 @@
         <v>42694</v>
       </c>
       <c r="B341" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
@@ -5937,11 +5937,11 @@
         <v>42637</v>
       </c>
       <c r="B344" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
@@ -6033,11 +6033,11 @@
         <v>43232</v>
       </c>
       <c r="B350" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
@@ -6049,11 +6049,11 @@
         <v>43140</v>
       </c>
       <c r="B351" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
@@ -6129,11 +6129,11 @@
         <v>43437</v>
       </c>
       <c r="B356" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D356" s="2" t="n">
@@ -6145,11 +6145,11 @@
         <v>43438</v>
       </c>
       <c r="B357" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
@@ -6177,11 +6177,11 @@
         <v>43670</v>
       </c>
       <c r="B359" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D359" s="2" t="n">
@@ -6241,11 +6241,11 @@
         <v>44102</v>
       </c>
       <c r="B363" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D363" s="2" t="n">
@@ -6257,11 +6257,11 @@
         <v>44103</v>
       </c>
       <c r="B364" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D364" s="2" t="n">
@@ -6273,11 +6273,11 @@
         <v>44131</v>
       </c>
       <c r="B365" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D365" s="2" t="n">
@@ -6289,11 +6289,11 @@
         <v>44901</v>
       </c>
       <c r="B366" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D366" s="2" t="n">
@@ -6305,11 +6305,11 @@
         <v>44877</v>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D367" s="2" t="n">
@@ -6337,11 +6337,11 @@
         <v>45134</v>
       </c>
       <c r="B369" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D369" s="2" t="n">
@@ -6353,11 +6353,11 @@
         <v>45149</v>
       </c>
       <c r="B370" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D370" s="2" t="n">
@@ -6401,11 +6401,11 @@
         <v>45335</v>
       </c>
       <c r="B373" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D373" s="2" t="n">
@@ -6433,11 +6433,11 @@
         <v>45586</v>
       </c>
       <c r="B375" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D375" s="2" t="n">
@@ -6545,11 +6545,11 @@
         <v>45967</v>
       </c>
       <c r="B382" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D382" s="2" t="n">
@@ -6561,11 +6561,11 @@
         <v>46082</v>
       </c>
       <c r="B383" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D383" s="2" t="n">
@@ -6593,11 +6593,11 @@
         <v>46380</v>
       </c>
       <c r="B385" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D385" s="2" t="n">
@@ -6641,11 +6641,11 @@
         <v>46151</v>
       </c>
       <c r="B388" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
@@ -6689,11 +6689,11 @@
         <v>46638</v>
       </c>
       <c r="B391" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D391" s="2" t="n">
@@ -6721,11 +6721,11 @@
         <v>46824</v>
       </c>
       <c r="B393" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D393" s="2" t="n">
@@ -6753,11 +6753,11 @@
         <v>46895</v>
       </c>
       <c r="B395" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D395" s="2" t="n">
@@ -6769,11 +6769,11 @@
         <v>46734</v>
       </c>
       <c r="B396" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D396" s="2" t="n">
@@ -6817,11 +6817,11 @@
         <v>47096</v>
       </c>
       <c r="B399" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
@@ -6833,11 +6833,11 @@
         <v>47093</v>
       </c>
       <c r="B400" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D400" s="2" t="n">
@@ -6849,11 +6849,11 @@
         <v>47158</v>
       </c>
       <c r="B401" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D401" s="2" t="n">
@@ -6865,11 +6865,11 @@
         <v>47160</v>
       </c>
       <c r="B402" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D402" s="2" t="n">
@@ -6881,11 +6881,11 @@
         <v>47069</v>
       </c>
       <c r="B403" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D403" s="2" t="n">
@@ -6897,11 +6897,11 @@
         <v>47169</v>
       </c>
       <c r="B404" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
@@ -6913,11 +6913,11 @@
         <v>47173</v>
       </c>
       <c r="B405" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D405" s="2" t="n">
@@ -6977,11 +6977,11 @@
         <v>47779</v>
       </c>
       <c r="B409" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D409" s="2" t="n">
@@ -7009,11 +7009,11 @@
         <v>48263</v>
       </c>
       <c r="B411" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D411" s="2" t="n">
@@ -7073,11 +7073,11 @@
         <v>47809</v>
       </c>
       <c r="B415" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D415" s="2" t="n">
@@ -7089,11 +7089,11 @@
         <v>48099</v>
       </c>
       <c r="B416" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D416" s="2" t="n">
@@ -7105,11 +7105,11 @@
         <v>48416</v>
       </c>
       <c r="B417" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D417" s="2" t="n">
@@ -7137,11 +7137,11 @@
         <v>48423</v>
       </c>
       <c r="B419" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D419" s="2" t="n">
@@ -7185,11 +7185,11 @@
         <v>48745</v>
       </c>
       <c r="B422" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D422" s="2" t="n">
@@ -7233,11 +7233,11 @@
         <v>49070</v>
       </c>
       <c r="B425" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D425" s="2" t="n">
@@ -7249,11 +7249,11 @@
         <v>49238</v>
       </c>
       <c r="B426" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D426" s="2" t="n">
@@ -7329,11 +7329,11 @@
         <v>49460</v>
       </c>
       <c r="B431" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D431" s="2" t="n">
@@ -7393,11 +7393,11 @@
         <v>49812</v>
       </c>
       <c r="B435" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D435" s="2" t="n">
@@ -7425,11 +7425,11 @@
         <v>49817</v>
       </c>
       <c r="B437" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D437" s="2" t="n">
@@ -7521,11 +7521,11 @@
         <v>49987</v>
       </c>
       <c r="B443" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D443" s="2" t="n">
@@ -7537,11 +7537,11 @@
         <v>49994</v>
       </c>
       <c r="B444" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D444" s="2" t="n">
@@ -7569,11 +7569,11 @@
         <v>50059</v>
       </c>
       <c r="B446" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
@@ -7617,11 +7617,11 @@
         <v>50309</v>
       </c>
       <c r="B449" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D449" s="2" t="n">
@@ -7713,11 +7713,11 @@
         <v>50818</v>
       </c>
       <c r="B455" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D455" s="2" t="n">
@@ -7809,11 +7809,11 @@
         <v>51216</v>
       </c>
       <c r="B461" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D461" s="2" t="n">
@@ -7825,11 +7825,11 @@
         <v>51332</v>
       </c>
       <c r="B462" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D462" s="2" t="n">
@@ -7937,11 +7937,11 @@
         <v>51553</v>
       </c>
       <c r="B469" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D469" s="2" t="n">
@@ -7985,11 +7985,11 @@
         <v>51915</v>
       </c>
       <c r="B472" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D472" s="2" t="n">
@@ -8065,11 +8065,11 @@
         <v>52329</v>
       </c>
       <c r="B477" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D477" s="2" t="n">
@@ -8161,11 +8161,11 @@
         <v>52658</v>
       </c>
       <c r="B483" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D483" s="2" t="n">
@@ -8257,11 +8257,11 @@
         <v>53391</v>
       </c>
       <c r="B489" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D489" s="2" t="n">
@@ -8289,11 +8289,11 @@
         <v>53429</v>
       </c>
       <c r="B491" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D491" s="2" t="n">
@@ -8401,11 +8401,11 @@
         <v>54715</v>
       </c>
       <c r="B498" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D498" s="2" t="n">
@@ -8449,11 +8449,11 @@
         <v>55055</v>
       </c>
       <c r="B501" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D501" s="2" t="n">
@@ -8529,11 +8529,11 @@
         <v>55148</v>
       </c>
       <c r="B506" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D506" s="2" t="n">
@@ -8561,11 +8561,11 @@
         <v>55292</v>
       </c>
       <c r="B508" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D508" s="2" t="n">
@@ -8577,11 +8577,11 @@
         <v>55499</v>
       </c>
       <c r="B509" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D509" s="2" t="n">
@@ -8609,11 +8609,11 @@
         <v>55760</v>
       </c>
       <c r="B511" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D511" s="2" t="n">
@@ -8657,11 +8657,11 @@
         <v>55790</v>
       </c>
       <c r="B514" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D514" s="2" t="n">
@@ -8689,11 +8689,11 @@
         <v>55891</v>
       </c>
       <c r="B516" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D516" s="2" t="n">
@@ -8801,11 +8801,11 @@
         <v>56214</v>
       </c>
       <c r="B523" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D523" s="2" t="n">
@@ -8881,11 +8881,11 @@
         <v>56937</v>
       </c>
       <c r="B528" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D528" s="2" t="n">
@@ -8929,11 +8929,11 @@
         <v>57038</v>
       </c>
       <c r="B531" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D531" s="2" t="n">
@@ -8961,11 +8961,11 @@
         <v>57570</v>
       </c>
       <c r="B533" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D533" s="2" t="n">
@@ -8977,11 +8977,11 @@
         <v>57596</v>
       </c>
       <c r="B534" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D534" s="2" t="n">
@@ -9041,11 +9041,11 @@
         <v>57819</v>
       </c>
       <c r="B538" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D538" s="2" t="n">
@@ -9073,11 +9073,11 @@
         <v>58378</v>
       </c>
       <c r="B540" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D540" s="2" t="n">
@@ -9089,11 +9089,11 @@
         <v>58383</v>
       </c>
       <c r="B541" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D541" s="2" t="n">
@@ -9121,11 +9121,11 @@
         <v>58579</v>
       </c>
       <c r="B543" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D543" s="2" t="n">
@@ -9185,11 +9185,11 @@
         <v>58490</v>
       </c>
       <c r="B547" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D547" s="2" t="n">
@@ -9217,11 +9217,11 @@
         <v>58835</v>
       </c>
       <c r="B549" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D549" s="2" t="n">
@@ -9233,11 +9233,11 @@
         <v>58980</v>
       </c>
       <c r="B550" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D550" s="2" t="n">
@@ -9249,11 +9249,11 @@
         <v>58987</v>
       </c>
       <c r="B551" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D551" s="2" t="n">
@@ -9265,11 +9265,11 @@
         <v>58841</v>
       </c>
       <c r="B552" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D552" s="2" t="n">
@@ -9441,11 +9441,11 @@
         <v>59743</v>
       </c>
       <c r="B563" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D563" s="2" t="n">
@@ -9457,11 +9457,11 @@
         <v>59744</v>
       </c>
       <c r="B564" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D564" s="2" t="n">
@@ -9489,11 +9489,11 @@
         <v>59890</v>
       </c>
       <c r="B566" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D566" s="2" t="n">
@@ -9505,11 +9505,11 @@
         <v>59804</v>
       </c>
       <c r="B567" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D567" s="2" t="n">
@@ -9537,11 +9537,11 @@
         <v>59900</v>
       </c>
       <c r="B569" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D569" s="2" t="n">
@@ -9617,11 +9617,11 @@
         <v>60374</v>
       </c>
       <c r="B574" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D574" s="2" t="n">
@@ -9649,11 +9649,11 @@
         <v>60623</v>
       </c>
       <c r="B576" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D576" s="2" t="n">
@@ -9697,11 +9697,11 @@
         <v>60738</v>
       </c>
       <c r="B579" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D579" s="2" t="n">
@@ -9745,11 +9745,11 @@
         <v>60784</v>
       </c>
       <c r="B582" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D582" s="2" t="n">
@@ -9793,11 +9793,11 @@
         <v>60873</v>
       </c>
       <c r="B585" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D585" s="2" t="n">
@@ -9905,11 +9905,11 @@
         <v>61175</v>
       </c>
       <c r="B592" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D592" s="2" t="n">
@@ -9921,11 +9921,11 @@
         <v>61169</v>
       </c>
       <c r="B593" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D593" s="2" t="n">
@@ -10017,11 +10017,11 @@
         <v>61335</v>
       </c>
       <c r="B599" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D599" s="2" t="n">
@@ -10081,11 +10081,11 @@
         <v>61528</v>
       </c>
       <c r="B603" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D603" s="2" t="n">
@@ -10097,11 +10097,11 @@
         <v>61399</v>
       </c>
       <c r="B604" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D604" s="2" t="n">
@@ -10129,11 +10129,11 @@
         <v>61920</v>
       </c>
       <c r="B606" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D606" s="2" t="n">
@@ -10145,11 +10145,11 @@
         <v>61927</v>
       </c>
       <c r="B607" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D607" s="2" t="n">
@@ -10161,11 +10161,11 @@
         <v>61928</v>
       </c>
       <c r="B608" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D608" s="2" t="n">
@@ -10209,11 +10209,11 @@
         <v>62128</v>
       </c>
       <c r="B611" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D611" s="2" t="n">
@@ -10225,11 +10225,11 @@
         <v>62348</v>
       </c>
       <c r="B612" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D612" s="2" t="n">
@@ -10241,11 +10241,11 @@
         <v>62213</v>
       </c>
       <c r="B613" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D613" s="2" t="n">
@@ -10257,11 +10257,11 @@
         <v>62214</v>
       </c>
       <c r="B614" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D614" s="2" t="n">
@@ -10273,11 +10273,11 @@
         <v>62250</v>
       </c>
       <c r="B615" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D615" s="2" t="n">
@@ -10337,11 +10337,11 @@
         <v>62619</v>
       </c>
       <c r="B619" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D619" s="2" t="n">
@@ -10353,11 +10353,11 @@
         <v>62855</v>
       </c>
       <c r="B620" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D620" s="2" t="n">
@@ -10417,11 +10417,11 @@
         <v>62965</v>
       </c>
       <c r="B624" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D624" s="2" t="n">
@@ -10449,11 +10449,11 @@
         <v>63040</v>
       </c>
       <c r="B626" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D626" s="2" t="n">
@@ -10481,11 +10481,11 @@
         <v>63052</v>
       </c>
       <c r="B628" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D628" s="2" t="n">
@@ -10513,11 +10513,11 @@
         <v>63122</v>
       </c>
       <c r="B630" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D630" s="2" t="n">
@@ -10529,11 +10529,11 @@
         <v>63344</v>
       </c>
       <c r="B631" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D631" s="2" t="n">
@@ -10561,11 +10561,11 @@
         <v>63841</v>
       </c>
       <c r="B633" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D633" s="2" t="n">
@@ -10577,11 +10577,11 @@
         <v>63843</v>
       </c>
       <c r="B634" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D634" s="2" t="n">
@@ -10593,11 +10593,11 @@
         <v>63952</v>
       </c>
       <c r="B635" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D635" s="2" t="n">
@@ -10673,11 +10673,11 @@
         <v>64510</v>
       </c>
       <c r="B640" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D640" s="2" t="n">
@@ -10817,11 +10817,11 @@
         <v>65423</v>
       </c>
       <c r="B649" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D649" s="2" t="n">
@@ -10849,11 +10849,11 @@
         <v>65856</v>
       </c>
       <c r="B651" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D651" s="2" t="n">
@@ -10897,11 +10897,11 @@
         <v>66071</v>
       </c>
       <c r="B654" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D654" s="2" t="n">
@@ -10945,11 +10945,11 @@
         <v>66166</v>
       </c>
       <c r="B657" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D657" s="2" t="n">
@@ -10961,11 +10961,11 @@
         <v>66167</v>
       </c>
       <c r="B658" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D658" s="2" t="n">
@@ -11009,11 +11009,11 @@
         <v>66173</v>
       </c>
       <c r="B661" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D661" s="2" t="n">
@@ -11025,11 +11025,11 @@
         <v>66376</v>
       </c>
       <c r="B662" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D662" s="2" t="n">
@@ -11057,11 +11057,11 @@
         <v>66600</v>
       </c>
       <c r="B664" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D664" s="2" t="n">
@@ -11089,11 +11089,11 @@
         <v>66547</v>
       </c>
       <c r="B666" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D666" s="2" t="n">
@@ -11105,11 +11105,11 @@
         <v>66944</v>
       </c>
       <c r="B667" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D667" s="2" t="n">
@@ -11121,11 +11121,11 @@
         <v>66947</v>
       </c>
       <c r="B668" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D668" s="2" t="n">
@@ -11153,11 +11153,11 @@
         <v>66617</v>
       </c>
       <c r="B670" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D670" s="2" t="n">
@@ -11169,11 +11169,11 @@
         <v>66551</v>
       </c>
       <c r="B671" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D671" s="2" t="n">
@@ -11185,11 +11185,11 @@
         <v>66952</v>
       </c>
       <c r="B672" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D672" s="2" t="n">
@@ -11201,11 +11201,11 @@
         <v>66677</v>
       </c>
       <c r="B673" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D673" s="2" t="n">
@@ -11217,11 +11217,11 @@
         <v>66734</v>
       </c>
       <c r="B674" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D674" s="2" t="n">
@@ -11265,11 +11265,11 @@
         <v>66960</v>
       </c>
       <c r="B677" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D677" s="2" t="n">
@@ -11425,11 +11425,11 @@
         <v>67518</v>
       </c>
       <c r="B687" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D687" s="2" t="n">
@@ -11473,11 +11473,11 @@
         <v>67635</v>
       </c>
       <c r="B690" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D690" s="2" t="n">
@@ -11505,11 +11505,11 @@
         <v>68466</v>
       </c>
       <c r="B692" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D692" s="2" t="n">
@@ -11521,11 +11521,11 @@
         <v>67637</v>
       </c>
       <c r="B693" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D693" s="2" t="n">
@@ -11537,11 +11537,11 @@
         <v>67638</v>
       </c>
       <c r="B694" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D694" s="2" t="n">
@@ -11569,11 +11569,11 @@
         <v>68192</v>
       </c>
       <c r="B696" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D696" s="2" t="n">
@@ -11649,11 +11649,11 @@
         <v>68419</v>
       </c>
       <c r="B701" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D701" s="2" t="n">
@@ -11665,11 +11665,11 @@
         <v>68336</v>
       </c>
       <c r="B702" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D702" s="2" t="n">
@@ -11681,11 +11681,11 @@
         <v>68093</v>
       </c>
       <c r="B703" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D703" s="2" t="n">
@@ -11713,11 +11713,11 @@
         <v>68420</v>
       </c>
       <c r="B705" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D705" s="2" t="n">
@@ -11825,11 +11825,11 @@
         <v>68506</v>
       </c>
       <c r="B712" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D712" s="2" t="n">
@@ -11905,11 +11905,11 @@
         <v>68651</v>
       </c>
       <c r="B717" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D717" s="2" t="n">
@@ -11969,11 +11969,11 @@
         <v>68744</v>
       </c>
       <c r="B721" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D721" s="2" t="n">
@@ -11985,11 +11985,11 @@
         <v>68745</v>
       </c>
       <c r="B722" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D722" s="2" t="n">
@@ -12001,11 +12001,11 @@
         <v>68748</v>
       </c>
       <c r="B723" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D723" s="2" t="n">
@@ -12081,11 +12081,11 @@
         <v>68846</v>
       </c>
       <c r="B728" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D728" s="2" t="n">
@@ -12129,11 +12129,11 @@
         <v>69415</v>
       </c>
       <c r="B731" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D731" s="2" t="n">
@@ -12145,11 +12145,11 @@
         <v>69254</v>
       </c>
       <c r="B732" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D732" s="2" t="n">
@@ -12209,11 +12209,11 @@
         <v>69288</v>
       </c>
       <c r="B736" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D736" s="2" t="n">
@@ -12289,11 +12289,11 @@
         <v>69738</v>
       </c>
       <c r="B741" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D741" s="2" t="n">
@@ -12401,11 +12401,11 @@
         <v>69660</v>
       </c>
       <c r="B748" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D748" s="2" t="n">
@@ -12417,11 +12417,11 @@
         <v>69762</v>
       </c>
       <c r="B749" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D749" s="2" t="n">
@@ -12465,11 +12465,11 @@
         <v>70335</v>
       </c>
       <c r="B752" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D752" s="2" t="n">
@@ -12497,11 +12497,11 @@
         <v>70341</v>
       </c>
       <c r="B754" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D754" s="2" t="n">
@@ -12545,11 +12545,11 @@
         <v>70441</v>
       </c>
       <c r="B757" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D757" s="2" t="n">
@@ -12609,11 +12609,11 @@
         <v>70450</v>
       </c>
       <c r="B761" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D761" s="2" t="n">
@@ -12625,11 +12625,11 @@
         <v>70451</v>
       </c>
       <c r="B762" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D762" s="2" t="n">
@@ -12641,11 +12641,11 @@
         <v>70699</v>
       </c>
       <c r="B763" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D763" s="2" t="n">
@@ -12657,11 +12657,11 @@
         <v>70712</v>
       </c>
       <c r="B764" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D764" s="2" t="n">
@@ -12705,11 +12705,11 @@
         <v>70909</v>
       </c>
       <c r="B767" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D767" s="2" t="n">
@@ -12737,11 +12737,11 @@
         <v>71055</v>
       </c>
       <c r="B769" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D769" s="2" t="n">
@@ -12753,11 +12753,11 @@
         <v>70991</v>
       </c>
       <c r="B770" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D770" s="2" t="n">
@@ -12785,11 +12785,11 @@
         <v>70977</v>
       </c>
       <c r="B772" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D772" s="2" t="n">
@@ -12817,11 +12817,11 @@
         <v>71082</v>
       </c>
       <c r="B774" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D774" s="2" t="n">
@@ -12865,11 +12865,11 @@
         <v>71169</v>
       </c>
       <c r="B777" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D777" s="2" t="n">
@@ -12913,11 +12913,11 @@
         <v>71297</v>
       </c>
       <c r="B780" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D780" s="2" t="n">
@@ -12961,11 +12961,11 @@
         <v>71428</v>
       </c>
       <c r="B783" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D783" s="2" t="n">
@@ -12977,11 +12977,11 @@
         <v>71654</v>
       </c>
       <c r="B784" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D784" s="2" t="n">
@@ -13041,11 +13041,11 @@
         <v>71705</v>
       </c>
       <c r="B788" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D788" s="2" t="n">
@@ -13073,11 +13073,11 @@
         <v>71710</v>
       </c>
       <c r="B790" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D790" s="2" t="n">
@@ -13201,11 +13201,11 @@
         <v>72006</v>
       </c>
       <c r="B798" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D798" s="2" t="n">
@@ -13233,11 +13233,11 @@
         <v>72000</v>
       </c>
       <c r="B800" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D800" s="2" t="n">
@@ -13249,11 +13249,11 @@
         <v>72012</v>
       </c>
       <c r="B801" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D801" s="2" t="n">
@@ -13361,11 +13361,11 @@
         <v>72221</v>
       </c>
       <c r="B808" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D808" s="2" t="n">
@@ -13377,11 +13377,11 @@
         <v>72532</v>
       </c>
       <c r="B809" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D809" s="2" t="n">
@@ -13393,11 +13393,11 @@
         <v>72657</v>
       </c>
       <c r="B810" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D810" s="2" t="n">
@@ -13457,11 +13457,11 @@
         <v>72544</v>
       </c>
       <c r="B814" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D814" s="2" t="n">
@@ -13489,11 +13489,11 @@
         <v>72743</v>
       </c>
       <c r="B816" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D816" s="2" t="n">
@@ -13521,11 +13521,11 @@
         <v>72667</v>
       </c>
       <c r="B818" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D818" s="2" t="n">
@@ -13649,11 +13649,11 @@
         <v>73350</v>
       </c>
       <c r="B826" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D826" s="2" t="n">
@@ -13697,11 +13697,11 @@
         <v>73441</v>
       </c>
       <c r="B829" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D829" s="2" t="n">
@@ -13713,11 +13713,11 @@
         <v>73443</v>
       </c>
       <c r="B830" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D830" s="2" t="n">
@@ -13793,11 +13793,11 @@
         <v>73501</v>
       </c>
       <c r="B835" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D835" s="2" t="n">
@@ -13937,11 +13937,11 @@
         <v>73693</v>
       </c>
       <c r="B844" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D844" s="2" t="n">
@@ -14001,11 +14001,11 @@
         <v>73742</v>
       </c>
       <c r="B848" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D848" s="2" t="n">
@@ -14097,11 +14097,11 @@
         <v>73788</v>
       </c>
       <c r="B854" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D854" s="2" t="n">
@@ -14145,11 +14145,11 @@
         <v>73874</v>
       </c>
       <c r="B857" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D857" s="2" t="n">
@@ -14225,11 +14225,11 @@
         <v>74067</v>
       </c>
       <c r="B862" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D862" s="2" t="n">
@@ -14337,11 +14337,11 @@
         <v>74183</v>
       </c>
       <c r="B869" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D869" s="2" t="n">
@@ -14385,11 +14385,11 @@
         <v>74394</v>
       </c>
       <c r="B872" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D872" s="2" t="n">
@@ -14401,11 +14401,11 @@
         <v>74397</v>
       </c>
       <c r="B873" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D873" s="2" t="n">
@@ -14417,11 +14417,11 @@
         <v>74398</v>
       </c>
       <c r="B874" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D874" s="2" t="n">
@@ -14465,11 +14465,11 @@
         <v>74440</v>
       </c>
       <c r="B877" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D877" s="2" t="n">
@@ -14513,11 +14513,11 @@
         <v>74491</v>
       </c>
       <c r="B880" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D880" s="2" t="n">
@@ -14545,11 +14545,11 @@
         <v>74514</v>
       </c>
       <c r="B882" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D882" s="2" t="n">
@@ -14657,11 +14657,11 @@
         <v>74886</v>
       </c>
       <c r="B889" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D889" s="2" t="n">
@@ -14673,11 +14673,11 @@
         <v>74827</v>
       </c>
       <c r="B890" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D890" s="2" t="n">
@@ -14689,11 +14689,11 @@
         <v>74832</v>
       </c>
       <c r="B891" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D891" s="2" t="n">
@@ -14737,11 +14737,11 @@
         <v>74949</v>
       </c>
       <c r="B894" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D894" s="2" t="n">
@@ -14753,11 +14753,11 @@
         <v>75122</v>
       </c>
       <c r="B895" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D895" s="2" t="n">
@@ -14785,11 +14785,11 @@
         <v>75123</v>
       </c>
       <c r="B897" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D897" s="2" t="n">
@@ -14801,11 +14801,11 @@
         <v>74971</v>
       </c>
       <c r="B898" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D898" s="2" t="n">
@@ -14993,11 +14993,11 @@
         <v>75300</v>
       </c>
       <c r="B910" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D910" s="2" t="n">
@@ -15041,11 +15041,11 @@
         <v>75313</v>
       </c>
       <c r="B913" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D913" s="2" t="n">
@@ -15057,11 +15057,11 @@
         <v>75311</v>
       </c>
       <c r="B914" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D914" s="2" t="n">
@@ -15073,11 +15073,11 @@
         <v>75357</v>
       </c>
       <c r="B915" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D915" s="2" t="n">
@@ -15089,11 +15089,11 @@
         <v>75358</v>
       </c>
       <c r="B916" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D916" s="2" t="n">
@@ -15137,11 +15137,11 @@
         <v>75483</v>
       </c>
       <c r="B919" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D919" s="2" t="n">
@@ -15233,11 +15233,11 @@
         <v>75790</v>
       </c>
       <c r="B925" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D925" s="2" t="n">
@@ -15297,11 +15297,11 @@
         <v>75950</v>
       </c>
       <c r="B929" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D929" s="2" t="n">
@@ -15329,11 +15329,11 @@
         <v>76073</v>
       </c>
       <c r="B931" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D931" s="2" t="n">
@@ -15345,11 +15345,11 @@
         <v>76218</v>
       </c>
       <c r="B932" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D932" s="2" t="n">
@@ -15361,11 +15361,11 @@
         <v>76223</v>
       </c>
       <c r="B933" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D933" s="2" t="n">
@@ -15377,11 +15377,11 @@
         <v>76332</v>
       </c>
       <c r="B934" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D934" s="2" t="n">
@@ -15457,11 +15457,11 @@
         <v>76498</v>
       </c>
       <c r="B939" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D939" s="2" t="n">
@@ -15537,11 +15537,11 @@
         <v>76577</v>
       </c>
       <c r="B944" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D944" s="2" t="n">
@@ -15633,11 +15633,11 @@
         <v>76870</v>
       </c>
       <c r="B950" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D950" s="2" t="n">
@@ -15665,11 +15665,11 @@
         <v>76869</v>
       </c>
       <c r="B952" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D952" s="2" t="n">
@@ -15681,11 +15681,11 @@
         <v>76864</v>
       </c>
       <c r="B953" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D953" s="2" t="n">
@@ -15713,11 +15713,11 @@
         <v>76880</v>
       </c>
       <c r="B955" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D955" s="2" t="n">
@@ -15745,11 +15745,11 @@
         <v>76945</v>
       </c>
       <c r="B957" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D957" s="2" t="n">
@@ -15793,11 +15793,11 @@
         <v>77125</v>
       </c>
       <c r="B960" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D960" s="2" t="n">
@@ -15809,11 +15809,11 @@
         <v>77262</v>
       </c>
       <c r="B961" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D961" s="2" t="n">
@@ -15905,11 +15905,11 @@
         <v>77600</v>
       </c>
       <c r="B967" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D967" s="2" t="n">
@@ -15953,11 +15953,11 @@
         <v>77756</v>
       </c>
       <c r="B970" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D970" s="2" t="n">
@@ -15969,11 +15969,11 @@
         <v>77794</v>
       </c>
       <c r="B971" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D971" s="2" t="n">
@@ -15985,11 +15985,11 @@
         <v>77830</v>
       </c>
       <c r="B972" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D972" s="2" t="n">
@@ -16001,11 +16001,11 @@
         <v>77831</v>
       </c>
       <c r="B973" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D973" s="2" t="n">
@@ -16065,11 +16065,11 @@
         <v>77941</v>
       </c>
       <c r="B977" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D977" s="2" t="n">
@@ -16097,11 +16097,11 @@
         <v>78032</v>
       </c>
       <c r="B979" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D979" s="2" t="n">
@@ -16129,11 +16129,11 @@
         <v>78034</v>
       </c>
       <c r="B981" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D981" s="2" t="n">
@@ -16161,11 +16161,11 @@
         <v>78067</v>
       </c>
       <c r="B983" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D983" s="2" t="n">
@@ -16209,11 +16209,11 @@
         <v>78202</v>
       </c>
       <c r="B986" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D986" s="2" t="n">
@@ -16273,11 +16273,11 @@
         <v>78167</v>
       </c>
       <c r="B990" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D990" s="2" t="n">
@@ -16305,11 +16305,11 @@
         <v>78235</v>
       </c>
       <c r="B992" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D992" s="2" t="n">
@@ -16337,11 +16337,11 @@
         <v>78237</v>
       </c>
       <c r="B994" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D994" s="2" t="n">
@@ -16401,11 +16401,11 @@
         <v>78288</v>
       </c>
       <c r="B998" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D998" s="2" t="n">
@@ -17665,11 +17665,11 @@
         <v>22750</v>
       </c>
       <c r="B1077" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1077" s="2" t="n">
@@ -17921,11 +17921,11 @@
         <v>24922</v>
       </c>
       <c r="B1093" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1093" s="2" t="n">
@@ -18145,11 +18145,11 @@
         <v>27295</v>
       </c>
       <c r="B1107" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1107" s="2" t="n">
@@ -18273,11 +18273,11 @@
         <v>28067</v>
       </c>
       <c r="B1115" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1115" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1115" s="2" t="n">
@@ -18961,11 +18961,11 @@
         <v>31823</v>
       </c>
       <c r="B1158" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1158" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1158" s="2" t="n">
@@ -19233,11 +19233,11 @@
         <v>34258</v>
       </c>
       <c r="B1175" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1175" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1175" s="2" t="n">
@@ -19329,11 +19329,11 @@
         <v>35272</v>
       </c>
       <c r="B1181" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1181" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1181" s="2" t="n">
@@ -19441,11 +19441,11 @@
         <v>36532</v>
       </c>
       <c r="B1188" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1188" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1188" s="2" t="n">
@@ -19473,11 +19473,11 @@
         <v>37025</v>
       </c>
       <c r="B1190" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1190" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1190" s="2" t="n">
@@ -19489,11 +19489,11 @@
         <v>37032</v>
       </c>
       <c r="B1191" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1191" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1191" s="2" t="n">
@@ -19713,11 +19713,11 @@
         <v>38783</v>
       </c>
       <c r="B1205" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1205" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1205" s="2" t="n">
@@ -20465,11 +20465,11 @@
         <v>45004</v>
       </c>
       <c r="B1252" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1252" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1252" s="2" t="n">
@@ -20561,11 +20561,11 @@
         <v>45412</v>
       </c>
       <c r="B1258" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1258" s="2" t="n">
@@ -20609,11 +20609,11 @@
         <v>45696</v>
       </c>
       <c r="B1261" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1261" s="2" t="n">
@@ -20945,11 +20945,11 @@
         <v>47068</v>
       </c>
       <c r="B1282" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1282" s="2" t="n">
@@ -21073,11 +21073,11 @@
         <v>47418</v>
       </c>
       <c r="B1290" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1290" s="2" t="n">
@@ -21937,11 +21937,11 @@
         <v>51212</v>
       </c>
       <c r="B1344" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1344" s="2" t="n">
@@ -22129,11 +22129,11 @@
         <v>52253</v>
       </c>
       <c r="B1356" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1356" s="2" t="n">
@@ -22145,11 +22145,11 @@
         <v>52255</v>
       </c>
       <c r="B1357" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1357" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1357" s="2" t="n">
@@ -22449,11 +22449,11 @@
         <v>53507</v>
       </c>
       <c r="B1376" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1376" s="2" t="n">
@@ -22737,11 +22737,11 @@
         <v>56931</v>
       </c>
       <c r="B1394" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1394" s="2" t="n">
@@ -23425,11 +23425,11 @@
         <v>60149</v>
       </c>
       <c r="B1437" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1437" s="2" t="n">
@@ -23617,11 +23617,11 @@
         <v>60679</v>
       </c>
       <c r="B1449" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1449" s="2" t="n">
@@ -24545,11 +24545,11 @@
         <v>64629</v>
       </c>
       <c r="B1507" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1507" s="2" t="n">
@@ -24785,11 +24785,11 @@
         <v>66043</v>
       </c>
       <c r="B1522" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1522" s="2" t="n">
@@ -24833,11 +24833,11 @@
         <v>66114</v>
       </c>
       <c r="B1525" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1525" s="2" t="n">
@@ -25121,11 +25121,11 @@
         <v>66959</v>
       </c>
       <c r="B1543" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1543" s="2" t="n">
@@ -26241,11 +26241,11 @@
         <v>70334</v>
       </c>
       <c r="B1613" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1613" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1613" s="2" t="n">
@@ -26369,11 +26369,11 @@
         <v>70870</v>
       </c>
       <c r="B1621" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1621" s="2" t="n">
@@ -26497,11 +26497,11 @@
         <v>71062</v>
       </c>
       <c r="B1629" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1629" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1629" s="2" t="n">
@@ -26609,11 +26609,11 @@
         <v>71171</v>
       </c>
       <c r="B1636" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1636" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1636" s="2" t="n">
@@ -26657,11 +26657,11 @@
         <v>71418</v>
       </c>
       <c r="B1639" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1639" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1639" s="2" t="n">
@@ -27265,11 +27265,11 @@
         <v>73442</v>
       </c>
       <c r="B1677" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1677" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1677" s="2" t="n">
@@ -27297,11 +27297,11 @@
         <v>73464</v>
       </c>
       <c r="B1679" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1679" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1679" s="2" t="n">
@@ -28225,11 +28225,11 @@
         <v>75769</v>
       </c>
       <c r="B1737" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1737" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1737" s="2" t="n">
@@ -28449,11 +28449,11 @@
         <v>76082</v>
       </c>
       <c r="B1751" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1751" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1751" s="2" t="n">
@@ -29393,11 +29393,11 @@
         <v>78787</v>
       </c>
       <c r="B1810" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1810" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1810" s="2" t="n">
@@ -29761,11 +29761,11 @@
         <v>79347</v>
       </c>
       <c r="B1833" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1833" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1833" s="2" t="n">
@@ -29777,11 +29777,11 @@
         <v>79285</v>
       </c>
       <c r="B1834" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1834" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1834" s="2" t="n">
@@ -29825,11 +29825,11 @@
         <v>79282</v>
       </c>
       <c r="B1837" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1837" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1837" s="2" t="n">
@@ -30129,11 +30129,11 @@
         <v>79542</v>
       </c>
       <c r="B1856" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1856" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1856" s="2" t="n">
@@ -30145,11 +30145,11 @@
         <v>79533</v>
       </c>
       <c r="B1857" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1857" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1857" s="2" t="n">
@@ -30161,11 +30161,11 @@
         <v>79534</v>
       </c>
       <c r="B1858" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1858" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1858" s="2" t="n">
@@ -30209,11 +30209,11 @@
         <v>79537</v>
       </c>
       <c r="B1861" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1861" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1861" s="2" t="n">
@@ -30289,11 +30289,11 @@
         <v>79602</v>
       </c>
       <c r="B1866" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1866" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1866" s="2" t="n">
@@ -30353,11 +30353,11 @@
         <v>79611</v>
       </c>
       <c r="B1870" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1870" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1870" s="2" t="n">
@@ -30673,11 +30673,11 @@
         <v>79608</v>
       </c>
       <c r="B1890" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1890" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1890" s="2" t="n">
@@ -30865,11 +30865,11 @@
         <v>79746</v>
       </c>
       <c r="B1902" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1902" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1902" s="2" t="n">
@@ -30993,11 +30993,11 @@
         <v>79932</v>
       </c>
       <c r="B1910" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1910" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1910" s="2" t="n">
@@ -31089,11 +31089,11 @@
         <v>79934</v>
       </c>
       <c r="B1916" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1916" s="2" t="n">
@@ -31249,11 +31249,11 @@
         <v>79978</v>
       </c>
       <c r="B1926" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1926" s="2" t="n">
@@ -31265,11 +31265,11 @@
         <v>79979</v>
       </c>
       <c r="B1927" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1927" s="2" t="n">
@@ -31313,11 +31313,11 @@
         <v>80073</v>
       </c>
       <c r="B1930" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1930" s="2" t="n">
@@ -31409,11 +31409,11 @@
         <v>80115</v>
       </c>
       <c r="B1936" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1936" s="2" t="n">
@@ -31425,11 +31425,11 @@
         <v>80116</v>
       </c>
       <c r="B1937" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1937" s="2" t="n">
@@ -31505,11 +31505,11 @@
         <v>80118</v>
       </c>
       <c r="B1942" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1942" s="2" t="n">
@@ -31569,11 +31569,11 @@
         <v>80238</v>
       </c>
       <c r="B1946" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1946" s="2" t="n">
@@ -31681,11 +31681,11 @@
         <v>80244</v>
       </c>
       <c r="B1953" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1953" s="2" t="n">
@@ -31729,11 +31729,11 @@
         <v>80344</v>
       </c>
       <c r="B1956" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1956" s="2" t="n">
@@ -31745,11 +31745,11 @@
         <v>80345</v>
       </c>
       <c r="B1957" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1957" s="2" t="n">
@@ -31761,11 +31761,11 @@
         <v>80346</v>
       </c>
       <c r="B1958" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1958" s="2" t="n">
@@ -31777,11 +31777,11 @@
         <v>80347</v>
       </c>
       <c r="B1959" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1959" s="2" t="n">
@@ -31809,11 +31809,11 @@
         <v>80348</v>
       </c>
       <c r="B1961" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1961" s="2" t="n">
@@ -31889,11 +31889,11 @@
         <v>80351</v>
       </c>
       <c r="B1966" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1966" s="2" t="n">
@@ -32017,11 +32017,11 @@
         <v>80430</v>
       </c>
       <c r="B1974" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1974" s="2" t="n">
@@ -32049,11 +32049,11 @@
         <v>80432</v>
       </c>
       <c r="B1976" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1976" s="2" t="n">
@@ -32241,11 +32241,11 @@
         <v>80579</v>
       </c>
       <c r="B1988" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1988" s="2" t="n">
@@ -32289,11 +32289,11 @@
         <v>80582</v>
       </c>
       <c r="B1991" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1991" s="2" t="n">
@@ -32494,7 +32494,7 @@
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79433</v>
+        <v>79432</v>
       </c>
       <c r="B2004" t="n">
         <v>2</v>
@@ -32505,12 +32505,12 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45960</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79434</v>
+        <v>79336</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,44 +32521,44 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79439</v>
+        <v>79436</v>
       </c>
       <c r="B2006" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45929</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>80318</v>
+        <v>79442</v>
       </c>
       <c r="B2007" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79587</v>
+        <v>79588</v>
       </c>
       <c r="B2008" t="n">
         <v>9</v>
@@ -32569,28 +32569,28 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79590</v>
+        <v>79162</v>
       </c>
       <c r="B2009" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79167</v>
+        <v>79332</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45904</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79204</v>
+        <v>79334</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,28 +32617,28 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79332</v>
+        <v>79446</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45934</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79334</v>
+        <v>79441</v>
       </c>
       <c r="B2013" t="n">
         <v>2</v>
@@ -32649,76 +32649,76 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45910</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79446</v>
+        <v>79587</v>
       </c>
       <c r="B2014" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79441</v>
+        <v>79590</v>
       </c>
       <c r="B2015" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45936</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79437</v>
+        <v>79164</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79589</v>
+        <v>79161</v>
       </c>
       <c r="B2017" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45890</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79164</v>
+        <v>79433</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,12 +32729,12 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45901</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79161</v>
+        <v>79434</v>
       </c>
       <c r="B2019" t="n">
         <v>2</v>
@@ -32745,163 +32745,163 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45933</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79333</v>
+        <v>79439</v>
       </c>
       <c r="B2020" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45894</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79435</v>
+        <v>80318</v>
       </c>
       <c r="B2021" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79440</v>
+        <v>79437</v>
       </c>
       <c r="B2022" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>12543</v>
+        <v>79589</v>
       </c>
       <c r="B2023" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45931</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79588</v>
+        <v>79167</v>
       </c>
       <c r="B2024" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45884</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79162</v>
+        <v>79204</v>
       </c>
       <c r="B2025" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45890</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79432</v>
+        <v>79333</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79336</v>
+        <v>79435</v>
       </c>
       <c r="B2027" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45910</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79436</v>
+        <v>79440</v>
       </c>
       <c r="B2028" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45888</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79442</v>
+        <v>79586</v>
       </c>
       <c r="B2029" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
@@ -32910,34 +32910,34 @@
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79586</v>
+        <v>79668</v>
       </c>
       <c r="B2030" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79668</v>
+        <v>12543</v>
       </c>
       <c r="B2031" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45884</v>
+        <v>45931</v>
       </c>
     </row>
   </sheetData>
@@ -32978,7 +32978,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1718</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="3">
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>255</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -7633,11 +7633,11 @@
         <v>50574</v>
       </c>
       <c r="B450" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D450" s="2" t="n">
@@ -10641,11 +10641,11 @@
         <v>64512</v>
       </c>
       <c r="B638" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D638" s="2" t="n">
@@ -12177,11 +12177,11 @@
         <v>69416</v>
       </c>
       <c r="B734" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D734" s="2" t="n">
@@ -13169,11 +13169,11 @@
         <v>71800</v>
       </c>
       <c r="B796" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D796" s="2" t="n">
@@ -13345,11 +13345,11 @@
         <v>72218</v>
       </c>
       <c r="B807" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D807" s="2" t="n">
@@ -14161,11 +14161,11 @@
         <v>73915</v>
       </c>
       <c r="B858" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D858" s="2" t="n">
@@ -31489,11 +31489,11 @@
         <v>80201</v>
       </c>
       <c r="B1941" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1941" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79166</v>
+        <v>79588</v>
       </c>
       <c r="B2002" t="n">
         <v>9</v>
@@ -32473,12 +32473,12 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79163</v>
+        <v>79167</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,12 +32489,12 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45923</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79432</v>
+        <v>79204</v>
       </c>
       <c r="B2004" t="n">
         <v>2</v>
@@ -32505,12 +32505,12 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79336</v>
+        <v>79332</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,60 +32521,60 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45910</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79436</v>
+        <v>79334</v>
       </c>
       <c r="B2006" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45888</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79442</v>
+        <v>79446</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79588</v>
+        <v>79441</v>
       </c>
       <c r="B2008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45884</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79162</v>
+        <v>79437</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,60 +32585,60 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79332</v>
+        <v>79589</v>
       </c>
       <c r="B2010" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45934</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79334</v>
+        <v>79162</v>
       </c>
       <c r="B2011" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45910</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79446</v>
+        <v>79432</v>
       </c>
       <c r="B2012" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45881</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79441</v>
+        <v>79336</v>
       </c>
       <c r="B2013" t="n">
         <v>2</v>
@@ -32649,12 +32649,12 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45936</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79587</v>
+        <v>79436</v>
       </c>
       <c r="B2014" t="n">
         <v>9</v>
@@ -32665,12 +32665,12 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79590</v>
+        <v>79442</v>
       </c>
       <c r="B2015" t="n">
         <v>9</v>
@@ -32686,55 +32686,55 @@
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79164</v>
+        <v>79586</v>
       </c>
       <c r="B2016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79161</v>
+        <v>79668</v>
       </c>
       <c r="B2017" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45933</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79433</v>
+        <v>79166</v>
       </c>
       <c r="B2018" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45960</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79434</v>
+        <v>79163</v>
       </c>
       <c r="B2019" t="n">
         <v>2</v>
@@ -32745,12 +32745,12 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45911</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79439</v>
+        <v>79433</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,140 +32761,140 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45929</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>80318</v>
+        <v>79434</v>
       </c>
       <c r="B2021" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45881</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79437</v>
+        <v>79439</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45895</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79589</v>
+        <v>80318</v>
       </c>
       <c r="B2023" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79167</v>
+        <v>79587</v>
       </c>
       <c r="B2024" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79204</v>
+        <v>79590</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45923</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79333</v>
+        <v>79164</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79435</v>
+        <v>79161</v>
       </c>
       <c r="B2027" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45890</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79440</v>
+        <v>79333</v>
       </c>
       <c r="B2028" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79586</v>
+        <v>79435</v>
       </c>
       <c r="B2029" t="n">
         <v>9</v>
@@ -32905,23 +32905,23 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79668</v>
+        <v>79440</v>
       </c>
       <c r="B2030" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45884</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2031">
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -1425,11 +1425,11 @@
         <v>18459</v>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
@@ -5745,11 +5745,11 @@
         <v>41407</v>
       </c>
       <c r="B332" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
@@ -7873,11 +7873,11 @@
         <v>51412</v>
       </c>
       <c r="B465" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D465" s="2" t="n">
@@ -14945,11 +14945,11 @@
         <v>75152</v>
       </c>
       <c r="B907" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D907" s="2" t="n">
@@ -15649,11 +15649,11 @@
         <v>76866</v>
       </c>
       <c r="B951" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D951" s="2" t="n">
@@ -16113,11 +16113,11 @@
         <v>78033</v>
       </c>
       <c r="B980" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D980" s="2" t="n">
@@ -32462,23 +32462,23 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79588</v>
+        <v>79167</v>
       </c>
       <c r="B2002" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45884</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79167</v>
+        <v>79204</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,44 +32489,44 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45904</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79204</v>
+        <v>79437</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45923</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79332</v>
+        <v>79589</v>
       </c>
       <c r="B2005" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45934</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79334</v>
+        <v>79432</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,44 +32537,44 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45910</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79446</v>
+        <v>79336</v>
       </c>
       <c r="B2007" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45881</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79441</v>
+        <v>79436</v>
       </c>
       <c r="B2008" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45936</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79437</v>
+        <v>79442</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79589</v>
+        <v>79166</v>
       </c>
       <c r="B2010" t="n">
         <v>9</v>
@@ -32601,60 +32601,60 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79162</v>
+        <v>79163</v>
       </c>
       <c r="B2011" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45890</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79432</v>
+        <v>79587</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79336</v>
+        <v>79590</v>
       </c>
       <c r="B2013" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79436</v>
+        <v>79333</v>
       </c>
       <c r="B2014" t="n">
         <v>9</v>
@@ -32665,12 +32665,12 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45888</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79442</v>
+        <v>79435</v>
       </c>
       <c r="B2015" t="n">
         <v>9</v>
@@ -32681,76 +32681,76 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79586</v>
+        <v>79440</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79668</v>
+        <v>79164</v>
       </c>
       <c r="B2017" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45884</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79166</v>
+        <v>79161</v>
       </c>
       <c r="B2018" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45894</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79163</v>
+        <v>79588</v>
       </c>
       <c r="B2019" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45923</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79433</v>
+        <v>79332</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,12 +32761,12 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45960</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79434</v>
+        <v>79334</v>
       </c>
       <c r="B2021" t="n">
         <v>2</v>
@@ -32777,44 +32777,44 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79439</v>
+        <v>79446</v>
       </c>
       <c r="B2022" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45929</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>80318</v>
+        <v>79441</v>
       </c>
       <c r="B2023" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45881</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79587</v>
+        <v>79162</v>
       </c>
       <c r="B2024" t="n">
         <v>9</v>
@@ -32825,12 +32825,12 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79590</v>
+        <v>79586</v>
       </c>
       <c r="B2025" t="n">
         <v>9</v>
@@ -32846,23 +32846,23 @@
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79164</v>
+        <v>79668</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45901</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79161</v>
+        <v>79433</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,55 +32873,55 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45933</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79333</v>
+        <v>79434</v>
       </c>
       <c r="B2028" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45894</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79435</v>
+        <v>79439</v>
       </c>
       <c r="B2029" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45890</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79440</v>
+        <v>80318</v>
       </c>
       <c r="B2030" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45901</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2031">
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -3025,11 +3025,11 @@
         <v>30149</v>
       </c>
       <c r="B162" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D162" s="2" t="n">
@@ -10785,11 +10785,11 @@
         <v>65202</v>
       </c>
       <c r="B647" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D647" s="2" t="n">
@@ -11441,11 +11441,11 @@
         <v>67522</v>
       </c>
       <c r="B688" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D688" s="2" t="n">
@@ -31489,11 +31489,11 @@
         <v>80201</v>
       </c>
       <c r="B1941" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1941" s="2" t="n">
@@ -32353,11 +32353,11 @@
         <v>80707</v>
       </c>
       <c r="B1995" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1995" s="2" t="n">
@@ -32462,55 +32462,55 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79167</v>
+        <v>79333</v>
       </c>
       <c r="B2002" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79204</v>
+        <v>79435</v>
       </c>
       <c r="B2003" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45923</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79437</v>
+        <v>79440</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79589</v>
+        <v>79166</v>
       </c>
       <c r="B2005" t="n">
         <v>9</v>
@@ -32521,12 +32521,12 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79432</v>
+        <v>79163</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,28 +32537,28 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79336</v>
+        <v>79587</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45910</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79436</v>
+        <v>79590</v>
       </c>
       <c r="B2008" t="n">
         <v>9</v>
@@ -32569,44 +32569,44 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45888</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79442</v>
+        <v>79433</v>
       </c>
       <c r="B2009" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45898</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79166</v>
+        <v>79434</v>
       </c>
       <c r="B2010" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45894</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79163</v>
+        <v>79439</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,28 +32617,28 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45923</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79587</v>
+        <v>12543</v>
       </c>
       <c r="B2012" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45894</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79590</v>
+        <v>79162</v>
       </c>
       <c r="B2013" t="n">
         <v>9</v>
@@ -32649,28 +32649,28 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79333</v>
+        <v>80318</v>
       </c>
       <c r="B2014" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79435</v>
+        <v>79586</v>
       </c>
       <c r="B2015" t="n">
         <v>9</v>
@@ -32681,28 +32681,28 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79440</v>
+        <v>79668</v>
       </c>
       <c r="B2016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45901</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79164</v>
+        <v>79432</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,12 +32713,12 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79161</v>
+        <v>79336</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,12 +32729,12 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45933</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79588</v>
+        <v>79436</v>
       </c>
       <c r="B2019" t="n">
         <v>9</v>
@@ -32745,28 +32745,28 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45884</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79332</v>
+        <v>79442</v>
       </c>
       <c r="B2020" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45934</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79334</v>
+        <v>79167</v>
       </c>
       <c r="B2021" t="n">
         <v>2</v>
@@ -32777,44 +32777,44 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79446</v>
+        <v>79204</v>
       </c>
       <c r="B2022" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45881</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79441</v>
+        <v>79437</v>
       </c>
       <c r="B2023" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45936</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79162</v>
+        <v>79589</v>
       </c>
       <c r="B2024" t="n">
         <v>9</v>
@@ -32830,55 +32830,55 @@
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79586</v>
+        <v>79332</v>
       </c>
       <c r="B2025" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45898</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79668</v>
+        <v>79334</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45884</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79433</v>
+        <v>79446</v>
       </c>
       <c r="B2027" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45960</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79434</v>
+        <v>79441</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,12 +32889,12 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45911</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79439</v>
+        <v>79164</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,39 +32905,39 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45929</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>80318</v>
+        <v>79161</v>
       </c>
       <c r="B2030" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45881</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>12543</v>
+        <v>79588</v>
       </c>
       <c r="B2031" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45931</v>
+        <v>45884</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -7025,11 +7025,11 @@
         <v>48093</v>
       </c>
       <c r="B412" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D412" s="2" t="n">
@@ -32462,55 +32462,55 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79333</v>
+        <v>79167</v>
       </c>
       <c r="B2002" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79435</v>
+        <v>79204</v>
       </c>
       <c r="B2003" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45890</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79440</v>
+        <v>79437</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79166</v>
+        <v>79589</v>
       </c>
       <c r="B2005" t="n">
         <v>9</v>
@@ -32521,12 +32521,12 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79163</v>
+        <v>79432</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,28 +32537,28 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79587</v>
+        <v>79336</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79590</v>
+        <v>79436</v>
       </c>
       <c r="B2008" t="n">
         <v>9</v>
@@ -32569,44 +32569,44 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79433</v>
+        <v>79442</v>
       </c>
       <c r="B2009" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45960</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79434</v>
+        <v>79166</v>
       </c>
       <c r="B2010" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45911</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79439</v>
+        <v>79163</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,28 +32617,28 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45929</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>12543</v>
+        <v>79587</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45931</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79162</v>
+        <v>79590</v>
       </c>
       <c r="B2013" t="n">
         <v>9</v>
@@ -32649,28 +32649,28 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>80318</v>
+        <v>79333</v>
       </c>
       <c r="B2014" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79586</v>
+        <v>79435</v>
       </c>
       <c r="B2015" t="n">
         <v>9</v>
@@ -32681,28 +32681,28 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79668</v>
+        <v>79440</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45884</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79432</v>
+        <v>79164</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,12 +32713,12 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45919</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79336</v>
+        <v>79161</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,12 +32729,12 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45910</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79436</v>
+        <v>79588</v>
       </c>
       <c r="B2019" t="n">
         <v>9</v>
@@ -32745,28 +32745,28 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45888</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79442</v>
+        <v>79332</v>
       </c>
       <c r="B2020" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45898</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79167</v>
+        <v>79334</v>
       </c>
       <c r="B2021" t="n">
         <v>2</v>
@@ -32777,44 +32777,44 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45904</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79204</v>
+        <v>79446</v>
       </c>
       <c r="B2022" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45923</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79437</v>
+        <v>79441</v>
       </c>
       <c r="B2023" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45895</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79589</v>
+        <v>79162</v>
       </c>
       <c r="B2024" t="n">
         <v>9</v>
@@ -32830,55 +32830,55 @@
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79332</v>
+        <v>79586</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45934</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79334</v>
+        <v>79668</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45910</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79446</v>
+        <v>79433</v>
       </c>
       <c r="B2027" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45881</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79441</v>
+        <v>79434</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,12 +32889,12 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45936</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79164</v>
+        <v>79439</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,39 +32905,39 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45901</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79161</v>
+        <v>80318</v>
       </c>
       <c r="B2030" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45933</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79588</v>
+        <v>12543</v>
       </c>
       <c r="B2031" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45884</v>
+        <v>45931</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79167</v>
+        <v>79164</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,12 +32473,12 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79204</v>
+        <v>79161</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,44 +32489,44 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45923</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79437</v>
+        <v>79433</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45895</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79589</v>
+        <v>79434</v>
       </c>
       <c r="B2005" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45890</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79432</v>
+        <v>79439</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,28 +32537,28 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45919</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79336</v>
+        <v>80318</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45910</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79436</v>
+        <v>79437</v>
       </c>
       <c r="B2008" t="n">
         <v>9</v>
@@ -32569,12 +32569,12 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45888</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79442</v>
+        <v>79589</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79166</v>
+        <v>79162</v>
       </c>
       <c r="B2010" t="n">
         <v>9</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79163</v>
+        <v>79332</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,60 +32617,60 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45923</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79587</v>
+        <v>79334</v>
       </c>
       <c r="B2012" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79590</v>
+        <v>79446</v>
       </c>
       <c r="B2013" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79333</v>
+        <v>79441</v>
       </c>
       <c r="B2014" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45894</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79435</v>
+        <v>79587</v>
       </c>
       <c r="B2015" t="n">
         <v>9</v>
@@ -32681,44 +32681,44 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79440</v>
+        <v>79590</v>
       </c>
       <c r="B2016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79164</v>
+        <v>79166</v>
       </c>
       <c r="B2017" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45901</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79161</v>
+        <v>79163</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45933</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79588</v>
+        <v>79432</v>
       </c>
       <c r="B2019" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45884</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79332</v>
+        <v>79336</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,92 +32761,92 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45934</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79334</v>
+        <v>79436</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45910</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79446</v>
+        <v>79442</v>
       </c>
       <c r="B2022" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79441</v>
+        <v>79588</v>
       </c>
       <c r="B2023" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45936</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79162</v>
+        <v>79167</v>
       </c>
       <c r="B2024" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45890</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79586</v>
+        <v>79204</v>
       </c>
       <c r="B2025" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79668</v>
+        <v>79333</v>
       </c>
       <c r="B2026" t="n">
         <v>9</v>
@@ -32857,28 +32857,28 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45884</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79433</v>
+        <v>79435</v>
       </c>
       <c r="B2027" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45960</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79434</v>
+        <v>79440</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,39 +32889,39 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79439</v>
+        <v>79586</v>
       </c>
       <c r="B2029" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45929</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>80318</v>
+        <v>79668</v>
       </c>
       <c r="B2030" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2031">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79164</v>
+        <v>12543</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,44 +32473,44 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45901</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79161</v>
+        <v>79333</v>
       </c>
       <c r="B2003" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45933</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79433</v>
+        <v>79435</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45960</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79434</v>
+        <v>79440</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,92 +32521,92 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79439</v>
+        <v>79586</v>
       </c>
       <c r="B2006" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45929</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>80318</v>
+        <v>79668</v>
       </c>
       <c r="B2007" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79437</v>
+        <v>79167</v>
       </c>
       <c r="B2008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79589</v>
+        <v>79204</v>
       </c>
       <c r="B2009" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45890</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79162</v>
+        <v>79433</v>
       </c>
       <c r="B2010" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45890</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79332</v>
+        <v>79434</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,12 +32617,12 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45934</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79334</v>
+        <v>79439</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,92 +32633,92 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45910</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79446</v>
+        <v>79437</v>
       </c>
       <c r="B2013" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45881</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79441</v>
+        <v>79589</v>
       </c>
       <c r="B2014" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45936</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79587</v>
+        <v>79164</v>
       </c>
       <c r="B2015" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79590</v>
+        <v>79161</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45898</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79166</v>
+        <v>79332</v>
       </c>
       <c r="B2017" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45894</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79163</v>
+        <v>79334</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79432</v>
+        <v>79446</v>
       </c>
       <c r="B2019" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45919</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79336</v>
+        <v>79441</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,28 +32761,28 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45910</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79436</v>
+        <v>80318</v>
       </c>
       <c r="B2021" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45888</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79442</v>
+        <v>79587</v>
       </c>
       <c r="B2022" t="n">
         <v>9</v>
@@ -32793,12 +32793,12 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79588</v>
+        <v>79590</v>
       </c>
       <c r="B2023" t="n">
         <v>9</v>
@@ -32809,28 +32809,28 @@
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79167</v>
+        <v>79162</v>
       </c>
       <c r="B2024" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45904</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79204</v>
+        <v>79432</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,28 +32841,28 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79333</v>
+        <v>79336</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79435</v>
+        <v>79436</v>
       </c>
       <c r="B2027" t="n">
         <v>9</v>
@@ -32873,28 +32873,28 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79440</v>
+        <v>79442</v>
       </c>
       <c r="B2028" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79586</v>
+        <v>79588</v>
       </c>
       <c r="B2029" t="n">
         <v>9</v>
@@ -32905,12 +32905,12 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79668</v>
+        <v>79166</v>
       </c>
       <c r="B2030" t="n">
         <v>9</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45884</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>12543</v>
+        <v>79163</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,7 +32937,7 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45931</v>
+        <v>45923</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -689,11 +689,11 @@
         <v>11502</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -897,11 +897,11 @@
         <v>13666</v>
       </c>
       <c r="B29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
@@ -8193,11 +8193,11 @@
         <v>52714</v>
       </c>
       <c r="B485" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D485" s="2" t="n">
@@ -32462,39 +32462,39 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>12543</v>
+        <v>79166</v>
       </c>
       <c r="B2002" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45931</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79333</v>
+        <v>79163</v>
       </c>
       <c r="B2003" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45894</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79435</v>
+        <v>79587</v>
       </c>
       <c r="B2004" t="n">
         <v>9</v>
@@ -32505,28 +32505,28 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79440</v>
+        <v>79590</v>
       </c>
       <c r="B2005" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79586</v>
+        <v>79333</v>
       </c>
       <c r="B2006" t="n">
         <v>9</v>
@@ -32537,12 +32537,12 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79668</v>
+        <v>79435</v>
       </c>
       <c r="B2007" t="n">
         <v>9</v>
@@ -32553,12 +32553,12 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79167</v>
+        <v>79440</v>
       </c>
       <c r="B2008" t="n">
         <v>2</v>
@@ -32569,12 +32569,12 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79204</v>
+        <v>79167</v>
       </c>
       <c r="B2009" t="n">
         <v>2</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45923</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79433</v>
+        <v>79204</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,108 +32601,108 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45960</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79434</v>
+        <v>79437</v>
       </c>
       <c r="B2011" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45911</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79439</v>
+        <v>79589</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45929</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79437</v>
+        <v>79432</v>
       </c>
       <c r="B2013" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45895</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79589</v>
+        <v>79336</v>
       </c>
       <c r="B2014" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45890</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79164</v>
+        <v>79436</v>
       </c>
       <c r="B2015" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45901</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79161</v>
+        <v>79442</v>
       </c>
       <c r="B2016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45933</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79332</v>
+        <v>79164</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,12 +32713,12 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45934</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79334</v>
+        <v>79161</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45910</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79446</v>
+        <v>79588</v>
       </c>
       <c r="B2019" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45881</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79441</v>
+        <v>79332</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,55 +32761,55 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45936</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>80318</v>
+        <v>79334</v>
       </c>
       <c r="B2021" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45881</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79587</v>
+        <v>79446</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79590</v>
+        <v>79441</v>
       </c>
       <c r="B2023" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45898</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2024">
@@ -32830,103 +32830,103 @@
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79432</v>
+        <v>79586</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79336</v>
+        <v>79668</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45910</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79436</v>
+        <v>79433</v>
       </c>
       <c r="B2027" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45888</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79442</v>
+        <v>79434</v>
       </c>
       <c r="B2028" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79588</v>
+        <v>79439</v>
       </c>
       <c r="B2029" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45884</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79166</v>
+        <v>80318</v>
       </c>
       <c r="B2030" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45894</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79163</v>
+        <v>12543</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,7 +32937,7 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45923</v>
+        <v>45931</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -577,11 +577,11 @@
         <v>20642</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
@@ -1905,11 +1905,11 @@
         <v>23354</v>
       </c>
       <c r="B92" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
@@ -1921,11 +1921,11 @@
         <v>23618</v>
       </c>
       <c r="B93" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
@@ -2081,11 +2081,11 @@
         <v>24742</v>
       </c>
       <c r="B103" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
@@ -3121,11 +3121,11 @@
         <v>30285</v>
       </c>
       <c r="B168" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
@@ -3329,11 +3329,11 @@
         <v>31122</v>
       </c>
       <c r="B181" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
@@ -5137,11 +5137,11 @@
         <v>38647</v>
       </c>
       <c r="B294" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
@@ -7361,11 +7361,11 @@
         <v>49917</v>
       </c>
       <c r="B433" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D433" s="2" t="n">
@@ -8305,11 +8305,11 @@
         <v>53402</v>
       </c>
       <c r="B492" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D492" s="2" t="n">
@@ -8913,11 +8913,11 @@
         <v>56946</v>
       </c>
       <c r="B530" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D530" s="2" t="n">
@@ -13329,11 +13329,11 @@
         <v>72228</v>
       </c>
       <c r="B806" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D806" s="2" t="n">
@@ -14609,11 +14609,11 @@
         <v>74710</v>
       </c>
       <c r="B886" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D886" s="2" t="n">
@@ -32462,23 +32462,23 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79166</v>
+        <v>79167</v>
       </c>
       <c r="B2002" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79163</v>
+        <v>79204</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32494,23 +32494,23 @@
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79587</v>
+        <v>12543</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45894</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79590</v>
+        <v>79333</v>
       </c>
       <c r="B2005" t="n">
         <v>9</v>
@@ -32521,12 +32521,12 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79333</v>
+        <v>79435</v>
       </c>
       <c r="B2006" t="n">
         <v>9</v>
@@ -32537,60 +32537,60 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79435</v>
+        <v>79440</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79440</v>
+        <v>79588</v>
       </c>
       <c r="B2008" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45901</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79167</v>
+        <v>79162</v>
       </c>
       <c r="B2009" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45904</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79204</v>
+        <v>79332</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,44 +32601,44 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45923</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79437</v>
+        <v>79334</v>
       </c>
       <c r="B2011" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79589</v>
+        <v>79446</v>
       </c>
       <c r="B2012" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79432</v>
+        <v>79441</v>
       </c>
       <c r="B2013" t="n">
         <v>2</v>
@@ -32649,28 +32649,28 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45919</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79336</v>
+        <v>79437</v>
       </c>
       <c r="B2014" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79436</v>
+        <v>79589</v>
       </c>
       <c r="B2015" t="n">
         <v>9</v>
@@ -32681,12 +32681,12 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79442</v>
+        <v>79166</v>
       </c>
       <c r="B2016" t="n">
         <v>9</v>
@@ -32697,12 +32697,12 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79164</v>
+        <v>79163</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,12 +32713,12 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45901</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79161</v>
+        <v>79432</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,140 +32729,140 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45933</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79588</v>
+        <v>79336</v>
       </c>
       <c r="B2019" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45884</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79332</v>
+        <v>79436</v>
       </c>
       <c r="B2020" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45934</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79334</v>
+        <v>79442</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79446</v>
+        <v>79586</v>
       </c>
       <c r="B2022" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79441</v>
+        <v>79668</v>
       </c>
       <c r="B2023" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45936</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79162</v>
+        <v>79164</v>
       </c>
       <c r="B2024" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79586</v>
+        <v>79161</v>
       </c>
       <c r="B2025" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45898</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79668</v>
+        <v>79433</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45884</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79433</v>
+        <v>79434</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,12 +32873,12 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45960</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79434</v>
+        <v>79439</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,55 +32889,55 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45911</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79439</v>
+        <v>80318</v>
       </c>
       <c r="B2029" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45929</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>80318</v>
+        <v>79587</v>
       </c>
       <c r="B2030" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>12543</v>
+        <v>79590</v>
       </c>
       <c r="B2031" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45931</v>
+        <v>45898</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -1505,11 +1505,11 @@
         <v>18928</v>
       </c>
       <c r="B67" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
@@ -4481,11 +4481,11 @@
         <v>36851</v>
       </c>
       <c r="B253" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D253" s="2" t="n">
@@ -6081,11 +6081,11 @@
         <v>43256</v>
       </c>
       <c r="B353" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
@@ -8145,11 +8145,11 @@
         <v>52601</v>
       </c>
       <c r="B482" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D482" s="2" t="n">
@@ -13137,11 +13137,11 @@
         <v>71797</v>
       </c>
       <c r="B794" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D794" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79167</v>
+        <v>79332</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,12 +32473,12 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45904</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79204</v>
+        <v>79334</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,44 +32489,44 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>12543</v>
+        <v>79446</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45931</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79333</v>
+        <v>79441</v>
       </c>
       <c r="B2005" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45894</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79435</v>
+        <v>79437</v>
       </c>
       <c r="B2006" t="n">
         <v>9</v>
@@ -32537,28 +32537,28 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45890</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79440</v>
+        <v>79589</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79588</v>
+        <v>79162</v>
       </c>
       <c r="B2008" t="n">
         <v>9</v>
@@ -32569,28 +32569,28 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79162</v>
+        <v>80318</v>
       </c>
       <c r="B2009" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79332</v>
+        <v>79432</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45934</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79334</v>
+        <v>79336</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32622,39 +32622,39 @@
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79446</v>
+        <v>79436</v>
       </c>
       <c r="B2012" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45881</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79441</v>
+        <v>79442</v>
       </c>
       <c r="B2013" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45936</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79437</v>
+        <v>79586</v>
       </c>
       <c r="B2014" t="n">
         <v>9</v>
@@ -32665,12 +32665,12 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79589</v>
+        <v>79668</v>
       </c>
       <c r="B2015" t="n">
         <v>9</v>
@@ -32681,7 +32681,7 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2016">
@@ -32718,7 +32718,7 @@
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79432</v>
+        <v>12543</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45919</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79336</v>
+        <v>79333</v>
       </c>
       <c r="B2019" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45910</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79436</v>
+        <v>79435</v>
       </c>
       <c r="B2020" t="n">
         <v>9</v>
@@ -32761,28 +32761,28 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79442</v>
+        <v>79440</v>
       </c>
       <c r="B2021" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79586</v>
+        <v>79588</v>
       </c>
       <c r="B2022" t="n">
         <v>9</v>
@@ -32793,28 +32793,28 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79668</v>
+        <v>79167</v>
       </c>
       <c r="B2023" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45884</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79164</v>
+        <v>79204</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,12 +32825,12 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45901</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79161</v>
+        <v>79433</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,12 +32841,12 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45933</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79433</v>
+        <v>79434</v>
       </c>
       <c r="B2026" t="n">
         <v>2</v>
@@ -32857,12 +32857,12 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45960</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79434</v>
+        <v>79439</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,71 +32873,71 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45911</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79439</v>
+        <v>79587</v>
       </c>
       <c r="B2028" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>80318</v>
+        <v>79590</v>
       </c>
       <c r="B2029" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79587</v>
+        <v>79164</v>
       </c>
       <c r="B2030" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79590</v>
+        <v>79161</v>
       </c>
       <c r="B2031" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45898</v>
+        <v>45933</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -14929,11 +14929,11 @@
         <v>75147</v>
       </c>
       <c r="B906" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D906" s="2" t="n">
@@ -32526,7 +32526,7 @@
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79437</v>
+        <v>79586</v>
       </c>
       <c r="B2006" t="n">
         <v>9</v>
@@ -32537,12 +32537,12 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79589</v>
+        <v>79668</v>
       </c>
       <c r="B2007" t="n">
         <v>9</v>
@@ -32553,92 +32553,92 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79162</v>
+        <v>79164</v>
       </c>
       <c r="B2008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>80318</v>
+        <v>79161</v>
       </c>
       <c r="B2009" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45881</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79432</v>
+        <v>79333</v>
       </c>
       <c r="B2010" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79336</v>
+        <v>79435</v>
       </c>
       <c r="B2011" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45910</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79436</v>
+        <v>79440</v>
       </c>
       <c r="B2012" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45888</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79442</v>
+        <v>79437</v>
       </c>
       <c r="B2013" t="n">
         <v>9</v>
@@ -32649,12 +32649,12 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79586</v>
+        <v>79589</v>
       </c>
       <c r="B2014" t="n">
         <v>9</v>
@@ -32665,12 +32665,12 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79668</v>
+        <v>79166</v>
       </c>
       <c r="B2015" t="n">
         <v>9</v>
@@ -32681,28 +32681,28 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45884</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79166</v>
+        <v>79163</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45894</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79163</v>
+        <v>79433</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,12 +32713,12 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45923</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>12543</v>
+        <v>79434</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45931</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79333</v>
+        <v>79439</v>
       </c>
       <c r="B2019" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45894</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79435</v>
+        <v>79588</v>
       </c>
       <c r="B2020" t="n">
         <v>9</v>
@@ -32761,12 +32761,12 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79440</v>
+        <v>12543</v>
       </c>
       <c r="B2021" t="n">
         <v>2</v>
@@ -32777,12 +32777,12 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45901</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79588</v>
+        <v>79162</v>
       </c>
       <c r="B2022" t="n">
         <v>9</v>
@@ -32793,28 +32793,28 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79167</v>
+        <v>80318</v>
       </c>
       <c r="B2023" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45904</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79204</v>
+        <v>79432</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,12 +32825,12 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79433</v>
+        <v>79336</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,39 +32841,39 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45960</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79434</v>
+        <v>79436</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45911</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79439</v>
+        <v>79442</v>
       </c>
       <c r="B2027" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45929</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2028">
@@ -32910,7 +32910,7 @@
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79164</v>
+        <v>79167</v>
       </c>
       <c r="B2030" t="n">
         <v>2</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79161</v>
+        <v>79204</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,7 +32937,7 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45933</v>
+        <v>45923</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -2769,11 +2769,11 @@
         <v>28945</v>
       </c>
       <c r="B146" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
@@ -32526,7 +32526,7 @@
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79586</v>
+        <v>79166</v>
       </c>
       <c r="B2006" t="n">
         <v>9</v>
@@ -32537,44 +32537,44 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79668</v>
+        <v>79163</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45884</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79164</v>
+        <v>79588</v>
       </c>
       <c r="B2008" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45901</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79161</v>
+        <v>79433</v>
       </c>
       <c r="B2009" t="n">
         <v>2</v>
@@ -32585,44 +32585,44 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45933</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79333</v>
+        <v>79434</v>
       </c>
       <c r="B2010" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45894</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79435</v>
+        <v>79439</v>
       </c>
       <c r="B2011" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45890</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79440</v>
+        <v>79167</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,28 +32633,28 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79437</v>
+        <v>79204</v>
       </c>
       <c r="B2013" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79589</v>
+        <v>79586</v>
       </c>
       <c r="B2014" t="n">
         <v>9</v>
@@ -32665,12 +32665,12 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79166</v>
+        <v>79668</v>
       </c>
       <c r="B2015" t="n">
         <v>9</v>
@@ -32681,12 +32681,12 @@
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79163</v>
+        <v>12543</v>
       </c>
       <c r="B2016" t="n">
         <v>2</v>
@@ -32697,44 +32697,44 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45923</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79433</v>
+        <v>79333</v>
       </c>
       <c r="B2017" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45960</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79434</v>
+        <v>79435</v>
       </c>
       <c r="B2018" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45911</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79439</v>
+        <v>79440</v>
       </c>
       <c r="B2019" t="n">
         <v>2</v>
@@ -32745,12 +32745,12 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45929</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79588</v>
+        <v>79162</v>
       </c>
       <c r="B2020" t="n">
         <v>9</v>
@@ -32761,28 +32761,28 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>12543</v>
+        <v>80318</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45931</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79162</v>
+        <v>79587</v>
       </c>
       <c r="B2022" t="n">
         <v>9</v>
@@ -32793,23 +32793,23 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>80318</v>
+        <v>79590</v>
       </c>
       <c r="B2023" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2024">
@@ -32878,66 +32878,66 @@
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79587</v>
+        <v>79164</v>
       </c>
       <c r="B2028" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45894</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79590</v>
+        <v>79161</v>
       </c>
       <c r="B2029" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45898</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79167</v>
+        <v>79437</v>
       </c>
       <c r="B2030" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79204</v>
+        <v>79589</v>
       </c>
       <c r="B2031" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45923</v>
+        <v>45890</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -32462,23 +32462,23 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79332</v>
+        <v>79588</v>
       </c>
       <c r="B2002" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45934</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79334</v>
+        <v>79164</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,28 +32489,28 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79446</v>
+        <v>79161</v>
       </c>
       <c r="B2004" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45881</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79441</v>
+        <v>79432</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,44 +32521,44 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45936</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79166</v>
+        <v>79336</v>
       </c>
       <c r="B2006" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79163</v>
+        <v>79436</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45923</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79588</v>
+        <v>79442</v>
       </c>
       <c r="B2008" t="n">
         <v>9</v>
@@ -32569,44 +32569,44 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79433</v>
+        <v>79586</v>
       </c>
       <c r="B2009" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45960</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79434</v>
+        <v>79668</v>
       </c>
       <c r="B2010" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45911</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79439</v>
+        <v>12543</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,44 +32617,44 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79167</v>
+        <v>79162</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45904</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79204</v>
+        <v>79333</v>
       </c>
       <c r="B2013" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79586</v>
+        <v>79435</v>
       </c>
       <c r="B2014" t="n">
         <v>9</v>
@@ -32665,44 +32665,44 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79668</v>
+        <v>79440</v>
       </c>
       <c r="B2015" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45884</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>12543</v>
+        <v>79437</v>
       </c>
       <c r="B2016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45931</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79333</v>
+        <v>79589</v>
       </c>
       <c r="B2017" t="n">
         <v>9</v>
@@ -32713,28 +32713,28 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79435</v>
+        <v>79167</v>
       </c>
       <c r="B2018" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45890</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79440</v>
+        <v>79204</v>
       </c>
       <c r="B2019" t="n">
         <v>2</v>
@@ -32745,108 +32745,108 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45901</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79162</v>
+        <v>79433</v>
       </c>
       <c r="B2020" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45890</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>80318</v>
+        <v>79434</v>
       </c>
       <c r="B2021" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45881</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79587</v>
+        <v>79439</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45894</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79590</v>
+        <v>80318</v>
       </c>
       <c r="B2023" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79432</v>
+        <v>79587</v>
       </c>
       <c r="B2024" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79336</v>
+        <v>79590</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79436</v>
+        <v>79166</v>
       </c>
       <c r="B2026" t="n">
         <v>9</v>
@@ -32857,28 +32857,28 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45888</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79442</v>
+        <v>79163</v>
       </c>
       <c r="B2027" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79164</v>
+        <v>79332</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,12 +32889,12 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45901</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79161</v>
+        <v>79334</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,39 +32905,39 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45933</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79437</v>
+        <v>79446</v>
       </c>
       <c r="B2030" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45895</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79589</v>
+        <v>79441</v>
       </c>
       <c r="B2031" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45890</v>
+        <v>45936</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -913,11 +913,11 @@
         <v>13806</v>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
@@ -32462,23 +32462,23 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79588</v>
+        <v>79164</v>
       </c>
       <c r="B2002" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45884</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79164</v>
+        <v>79161</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,12 +32489,12 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45901</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79161</v>
+        <v>79433</v>
       </c>
       <c r="B2004" t="n">
         <v>2</v>
@@ -32505,12 +32505,12 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45933</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79432</v>
+        <v>79434</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,12 +32521,12 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45919</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79336</v>
+        <v>79439</v>
       </c>
       <c r="B2006" t="n">
         <v>2</v>
@@ -32537,28 +32537,28 @@
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45910</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79436</v>
+        <v>80318</v>
       </c>
       <c r="B2007" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45888</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79442</v>
+        <v>79437</v>
       </c>
       <c r="B2008" t="n">
         <v>9</v>
@@ -32569,12 +32569,12 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79586</v>
+        <v>79589</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79668</v>
+        <v>79166</v>
       </c>
       <c r="B2010" t="n">
         <v>9</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45884</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>12543</v>
+        <v>79163</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,44 +32617,44 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45931</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79162</v>
+        <v>79432</v>
       </c>
       <c r="B2012" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45890</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79333</v>
+        <v>79336</v>
       </c>
       <c r="B2013" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79435</v>
+        <v>79436</v>
       </c>
       <c r="B2014" t="n">
         <v>9</v>
@@ -32665,28 +32665,28 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79440</v>
+        <v>79442</v>
       </c>
       <c r="B2015" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79437</v>
+        <v>79588</v>
       </c>
       <c r="B2016" t="n">
         <v>9</v>
@@ -32697,28 +32697,28 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45895</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79589</v>
+        <v>79167</v>
       </c>
       <c r="B2017" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45890</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79167</v>
+        <v>79204</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,12 +32729,12 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45904</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79204</v>
+        <v>12543</v>
       </c>
       <c r="B2019" t="n">
         <v>2</v>
@@ -32745,44 +32745,44 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45923</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79433</v>
+        <v>79333</v>
       </c>
       <c r="B2020" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45960</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79434</v>
+        <v>79435</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45911</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79439</v>
+        <v>79440</v>
       </c>
       <c r="B2022" t="n">
         <v>2</v>
@@ -32793,28 +32793,28 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45929</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>80318</v>
+        <v>79586</v>
       </c>
       <c r="B2023" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79587</v>
+        <v>79668</v>
       </c>
       <c r="B2024" t="n">
         <v>9</v>
@@ -32825,12 +32825,12 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79590</v>
+        <v>79162</v>
       </c>
       <c r="B2025" t="n">
         <v>9</v>
@@ -32841,28 +32841,28 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79166</v>
+        <v>79332</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45894</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79163</v>
+        <v>79334</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,28 +32873,28 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79332</v>
+        <v>79446</v>
       </c>
       <c r="B2028" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45934</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79334</v>
+        <v>79441</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,39 +32905,39 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45910</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79446</v>
+        <v>79587</v>
       </c>
       <c r="B2030" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79441</v>
+        <v>79590</v>
       </c>
       <c r="B2031" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45936</v>
+        <v>45898</v>
       </c>
     </row>
   </sheetData>
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79164</v>
+        <v>79432</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,12 +32473,12 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79161</v>
+        <v>79336</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,76 +32489,76 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45933</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79433</v>
+        <v>79436</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45960</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79434</v>
+        <v>79442</v>
       </c>
       <c r="B2005" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79439</v>
+        <v>79166</v>
       </c>
       <c r="B2006" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>80318</v>
+        <v>79163</v>
       </c>
       <c r="B2007" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45881</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79437</v>
+        <v>79587</v>
       </c>
       <c r="B2008" t="n">
         <v>9</v>
@@ -32569,12 +32569,12 @@
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45895</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79589</v>
+        <v>79590</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,28 +32585,28 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79166</v>
+        <v>79433</v>
       </c>
       <c r="B2010" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45894</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79163</v>
+        <v>79434</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,12 +32617,12 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79432</v>
+        <v>79439</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,12 +32633,12 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45919</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79336</v>
+        <v>79164</v>
       </c>
       <c r="B2013" t="n">
         <v>2</v>
@@ -32649,39 +32649,39 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79436</v>
+        <v>79161</v>
       </c>
       <c r="B2014" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45888</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79442</v>
+        <v>12543</v>
       </c>
       <c r="B2015" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45898</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2016">
@@ -32702,7 +32702,7 @@
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79167</v>
+        <v>79332</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,12 +32713,12 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45904</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79204</v>
+        <v>79334</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,44 +32729,44 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>12543</v>
+        <v>79446</v>
       </c>
       <c r="B2019" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45931</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79333</v>
+        <v>79441</v>
       </c>
       <c r="B2020" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45894</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79435</v>
+        <v>79162</v>
       </c>
       <c r="B2021" t="n">
         <v>9</v>
@@ -32782,18 +32782,18 @@
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79440</v>
+        <v>80318</v>
       </c>
       <c r="B2022" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45901</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2023">
@@ -32830,7 +32830,7 @@
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79162</v>
+        <v>79333</v>
       </c>
       <c r="B2025" t="n">
         <v>9</v>
@@ -32841,28 +32841,28 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79332</v>
+        <v>79435</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45934</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79334</v>
+        <v>79440</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,28 +32873,28 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79446</v>
+        <v>79167</v>
       </c>
       <c r="B2028" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45881</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79441</v>
+        <v>79204</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,12 +32905,12 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45936</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79587</v>
+        <v>79437</v>
       </c>
       <c r="B2030" t="n">
         <v>9</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45894</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79590</v>
+        <v>79589</v>
       </c>
       <c r="B2031" t="n">
         <v>9</v>
@@ -32937,7 +32937,7 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79432</v>
+        <v>79164</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,12 +32473,12 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45919</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79336</v>
+        <v>79161</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,92 +32489,92 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45910</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79436</v>
+        <v>79433</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45888</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79442</v>
+        <v>79434</v>
       </c>
       <c r="B2005" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79166</v>
+        <v>79439</v>
       </c>
       <c r="B2006" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45894</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79163</v>
+        <v>80318</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45923</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79587</v>
+        <v>12543</v>
       </c>
       <c r="B2008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45894</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79590</v>
+        <v>79588</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,12 +32585,12 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79433</v>
+        <v>79167</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,12 +32601,12 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45960</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79434</v>
+        <v>79204</v>
       </c>
       <c r="B2011" t="n">
         <v>2</v>
@@ -32617,44 +32617,44 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45911</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79439</v>
+        <v>79333</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79164</v>
+        <v>79435</v>
       </c>
       <c r="B2013" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45901</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79161</v>
+        <v>79440</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,28 +32665,28 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45933</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>12543</v>
+        <v>79437</v>
       </c>
       <c r="B2015" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45931</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79588</v>
+        <v>79589</v>
       </c>
       <c r="B2016" t="n">
         <v>9</v>
@@ -32697,28 +32697,28 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79332</v>
+        <v>79166</v>
       </c>
       <c r="B2017" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45934</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79334</v>
+        <v>79163</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79446</v>
+        <v>79432</v>
       </c>
       <c r="B2019" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45881</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79441</v>
+        <v>79336</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,12 +32761,12 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45936</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79162</v>
+        <v>79436</v>
       </c>
       <c r="B2021" t="n">
         <v>9</v>
@@ -32777,28 +32777,28 @@
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45890</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>80318</v>
+        <v>79442</v>
       </c>
       <c r="B2022" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79586</v>
+        <v>79587</v>
       </c>
       <c r="B2023" t="n">
         <v>9</v>
@@ -32809,12 +32809,12 @@
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79668</v>
+        <v>79590</v>
       </c>
       <c r="B2024" t="n">
         <v>9</v>
@@ -32825,12 +32825,12 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79333</v>
+        <v>79162</v>
       </c>
       <c r="B2025" t="n">
         <v>9</v>
@@ -32841,28 +32841,28 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79435</v>
+        <v>79332</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45890</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79440</v>
+        <v>79334</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,28 +32873,28 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79167</v>
+        <v>79446</v>
       </c>
       <c r="B2028" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45904</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79204</v>
+        <v>79441</v>
       </c>
       <c r="B2029" t="n">
         <v>2</v>
@@ -32905,12 +32905,12 @@
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45923</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79437</v>
+        <v>79586</v>
       </c>
       <c r="B2030" t="n">
         <v>9</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79589</v>
+        <v>79668</v>
       </c>
       <c r="B2031" t="n">
         <v>9</v>
@@ -32937,7 +32937,7 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -2433,11 +2433,11 @@
         <v>27720</v>
       </c>
       <c r="B125" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
@@ -3009,11 +3009,11 @@
         <v>30082</v>
       </c>
       <c r="B161" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
@@ -3233,11 +3233,11 @@
         <v>30572</v>
       </c>
       <c r="B175" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
@@ -5121,11 +5121,11 @@
         <v>38604</v>
       </c>
       <c r="B293" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D293" s="2" t="n">
@@ -5297,11 +5297,11 @@
         <v>39215</v>
       </c>
       <c r="B304" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D304" s="2" t="n">
@@ -6017,11 +6017,11 @@
         <v>43004</v>
       </c>
       <c r="B349" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
@@ -7377,11 +7377,11 @@
         <v>49647</v>
       </c>
       <c r="B434" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D434" s="2" t="n">
@@ -9057,11 +9057,11 @@
         <v>58293</v>
       </c>
       <c r="B539" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D539" s="2" t="n">
@@ -11073,11 +11073,11 @@
         <v>66546</v>
       </c>
       <c r="B665" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D665" s="2" t="n">
@@ -13153,11 +13153,11 @@
         <v>71798</v>
       </c>
       <c r="B795" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D795" s="2" t="n">
@@ -30961,11 +30961,11 @@
         <v>79963</v>
       </c>
       <c r="B1908" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1908" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1908" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79164</v>
+        <v>79332</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,12 +32473,12 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45901</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79161</v>
+        <v>79334</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,28 +32489,28 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45933</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79433</v>
+        <v>79446</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45960</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79434</v>
+        <v>79441</v>
       </c>
       <c r="B2005" t="n">
         <v>2</v>
@@ -32521,76 +32521,76 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45911</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79439</v>
+        <v>79166</v>
       </c>
       <c r="B2006" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45929</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>80318</v>
+        <v>79163</v>
       </c>
       <c r="B2007" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45881</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>12543</v>
+        <v>79588</v>
       </c>
       <c r="B2008" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45931</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79588</v>
+        <v>79432</v>
       </c>
       <c r="B2009" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45884</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79167</v>
+        <v>79336</v>
       </c>
       <c r="B2010" t="n">
         <v>2</v>
@@ -32601,28 +32601,28 @@
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45904</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79204</v>
+        <v>79436</v>
       </c>
       <c r="B2011" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45923</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79333</v>
+        <v>79442</v>
       </c>
       <c r="B2012" t="n">
         <v>9</v>
@@ -32633,28 +32633,28 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45894</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79435</v>
+        <v>79164</v>
       </c>
       <c r="B2013" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45890</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79440</v>
+        <v>79161</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,7 +32665,7 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45901</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2015">
@@ -32702,23 +32702,23 @@
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79166</v>
+        <v>79433</v>
       </c>
       <c r="B2017" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45894</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79163</v>
+        <v>79434</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,12 +32729,12 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79432</v>
+        <v>79439</v>
       </c>
       <c r="B2019" t="n">
         <v>2</v>
@@ -32745,12 +32745,12 @@
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45919</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79336</v>
+        <v>79167</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,28 +32761,28 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79436</v>
+        <v>79204</v>
       </c>
       <c r="B2021" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45888</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79442</v>
+        <v>79586</v>
       </c>
       <c r="B2022" t="n">
         <v>9</v>
@@ -32798,39 +32798,39 @@
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79587</v>
+        <v>79668</v>
       </c>
       <c r="B2023" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79590</v>
+        <v>12543</v>
       </c>
       <c r="B2024" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45898</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79162</v>
+        <v>79333</v>
       </c>
       <c r="B2025" t="n">
         <v>9</v>
@@ -32841,28 +32841,28 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79332</v>
+        <v>79435</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45934</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79334</v>
+        <v>79440</v>
       </c>
       <c r="B2027" t="n">
         <v>2</v>
@@ -32873,44 +32873,44 @@
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79446</v>
+        <v>79162</v>
       </c>
       <c r="B2028" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45881</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79441</v>
+        <v>80318</v>
       </c>
       <c r="B2029" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45936</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79586</v>
+        <v>79587</v>
       </c>
       <c r="B2030" t="n">
         <v>9</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45898</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79668</v>
+        <v>79590</v>
       </c>
       <c r="B2031" t="n">
         <v>9</v>
@@ -32937,7 +32937,7 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45884</v>
+        <v>45898</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4">
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -1041,11 +1041,11 @@
         <v>15333</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
@@ -2577,11 +2577,11 @@
         <v>28242</v>
       </c>
       <c r="B134" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
@@ -2689,11 +2689,11 @@
         <v>28841</v>
       </c>
       <c r="B141" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D141" s="2" t="n">
@@ -8337,11 +8337,11 @@
         <v>53622</v>
       </c>
       <c r="B494" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D494" s="2" t="n">
@@ -8625,11 +8625,11 @@
         <v>55761</v>
       </c>
       <c r="B512" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D512" s="2" t="n">
@@ -10033,11 +10033,11 @@
         <v>61333</v>
       </c>
       <c r="B600" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D600" s="2" t="n">
@@ -11921,11 +11921,11 @@
         <v>68652</v>
       </c>
       <c r="B718" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D718" s="2" t="n">
@@ -12881,11 +12881,11 @@
         <v>71295</v>
       </c>
       <c r="B778" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D778" s="2" t="n">
@@ -32462,23 +32462,23 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79332</v>
+        <v>79166</v>
       </c>
       <c r="B2002" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45934</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79334</v>
+        <v>79163</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,60 +32489,60 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79446</v>
+        <v>79586</v>
       </c>
       <c r="B2004" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79441</v>
+        <v>79668</v>
       </c>
       <c r="B2005" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45936</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79166</v>
+        <v>79432</v>
       </c>
       <c r="B2006" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45894</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79163</v>
+        <v>79336</v>
       </c>
       <c r="B2007" t="n">
         <v>2</v>
@@ -32553,60 +32553,60 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79588</v>
+        <v>79436</v>
       </c>
       <c r="B2008" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45884</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79432</v>
+        <v>79442</v>
       </c>
       <c r="B2009" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79336</v>
+        <v>79162</v>
       </c>
       <c r="B2010" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45910</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79436</v>
+        <v>79437</v>
       </c>
       <c r="B2011" t="n">
         <v>9</v>
@@ -32617,12 +32617,12 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45888</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79442</v>
+        <v>79589</v>
       </c>
       <c r="B2012" t="n">
         <v>9</v>
@@ -32633,12 +32633,12 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79164</v>
+        <v>79332</v>
       </c>
       <c r="B2013" t="n">
         <v>2</v>
@@ -32649,12 +32649,12 @@
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45901</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79161</v>
+        <v>79334</v>
       </c>
       <c r="B2014" t="n">
         <v>2</v>
@@ -32665,44 +32665,44 @@
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45933</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79437</v>
+        <v>79446</v>
       </c>
       <c r="B2015" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45895</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79589</v>
+        <v>79441</v>
       </c>
       <c r="B2016" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45890</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79433</v>
+        <v>79167</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,12 +32713,12 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45960</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79434</v>
+        <v>79204</v>
       </c>
       <c r="B2018" t="n">
         <v>2</v>
@@ -32729,28 +32729,28 @@
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45911</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79439</v>
+        <v>79588</v>
       </c>
       <c r="B2019" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45929</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79167</v>
+        <v>12543</v>
       </c>
       <c r="B2020" t="n">
         <v>2</v>
@@ -32761,28 +32761,28 @@
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45904</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79204</v>
+        <v>79333</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45923</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79586</v>
+        <v>79435</v>
       </c>
       <c r="B2022" t="n">
         <v>9</v>
@@ -32793,28 +32793,28 @@
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79668</v>
+        <v>79440</v>
       </c>
       <c r="B2023" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45884</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>12543</v>
+        <v>79164</v>
       </c>
       <c r="B2024" t="n">
         <v>2</v>
@@ -32825,28 +32825,28 @@
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45931</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79333</v>
+        <v>79161</v>
       </c>
       <c r="B2025" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45894</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79435</v>
+        <v>79587</v>
       </c>
       <c r="B2026" t="n">
         <v>9</v>
@@ -32857,87 +32857,87 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79440</v>
+        <v>79590</v>
       </c>
       <c r="B2027" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79162</v>
+        <v>79433</v>
       </c>
       <c r="B2028" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45890</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>80318</v>
+        <v>79434</v>
       </c>
       <c r="B2029" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45881</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79587</v>
+        <v>79439</v>
       </c>
       <c r="B2030" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45894</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79590</v>
+        <v>80318</v>
       </c>
       <c r="B2031" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -961,11 +961,11 @@
         <v>14950</v>
       </c>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
@@ -1057,11 +1057,11 @@
         <v>15500</v>
       </c>
       <c r="B39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
@@ -1617,11 +1617,11 @@
         <v>10106</v>
       </c>
       <c r="B74" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
@@ -1729,11 +1729,11 @@
         <v>21505</v>
       </c>
       <c r="B81" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
@@ -4177,11 +4177,11 @@
         <v>35150</v>
       </c>
       <c r="B234" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D234" s="2" t="n">
@@ -4449,11 +4449,11 @@
         <v>36435</v>
       </c>
       <c r="B251" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D251" s="2" t="n">
@@ -4817,11 +4817,11 @@
         <v>37904</v>
       </c>
       <c r="B274" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D274" s="2" t="n">
@@ -5169,11 +5169,11 @@
         <v>39131</v>
       </c>
       <c r="B296" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
@@ -5329,11 +5329,11 @@
         <v>39437</v>
       </c>
       <c r="B306" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
@@ -6289,11 +6289,11 @@
         <v>44901</v>
       </c>
       <c r="B366" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D366" s="2" t="n">
@@ -6641,11 +6641,11 @@
         <v>46151</v>
       </c>
       <c r="B388" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D388" s="2" t="n">
@@ -6817,11 +6817,11 @@
         <v>47096</v>
       </c>
       <c r="B399" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D399" s="2" t="n">
@@ -7649,11 +7649,11 @@
         <v>50575</v>
       </c>
       <c r="B451" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D451" s="2" t="n">
@@ -8353,11 +8353,11 @@
         <v>53813</v>
       </c>
       <c r="B495" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D495" s="2" t="n">
@@ -9505,11 +9505,11 @@
         <v>59804</v>
       </c>
       <c r="B567" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D567" s="2" t="n">
@@ -9553,11 +9553,11 @@
         <v>59809</v>
       </c>
       <c r="B570" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D570" s="2" t="n">
@@ -9873,11 +9873,11 @@
         <v>61109</v>
       </c>
       <c r="B590" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D590" s="2" t="n">
@@ -10161,11 +10161,11 @@
         <v>61928</v>
       </c>
       <c r="B608" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D608" s="2" t="n">
@@ -11393,11 +11393,11 @@
         <v>67471</v>
       </c>
       <c r="B685" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D685" s="2" t="n">
@@ -12081,11 +12081,11 @@
         <v>68846</v>
       </c>
       <c r="B728" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D728" s="2" t="n">
@@ -12593,11 +12593,11 @@
         <v>70443</v>
       </c>
       <c r="B760" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D760" s="2" t="n">
@@ -12801,11 +12801,11 @@
         <v>71078</v>
       </c>
       <c r="B773" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D773" s="2" t="n">
@@ -13105,11 +13105,11 @@
         <v>71700</v>
       </c>
       <c r="B792" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D792" s="2" t="n">
@@ -14961,11 +14961,11 @@
         <v>75154</v>
       </c>
       <c r="B908" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D908" s="2" t="n">
@@ -15073,11 +15073,11 @@
         <v>75357</v>
       </c>
       <c r="B915" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D915" s="2" t="n">
@@ -15937,11 +15937,11 @@
         <v>77764</v>
       </c>
       <c r="B969" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D969" s="2" t="n">
@@ -15969,11 +15969,11 @@
         <v>77794</v>
       </c>
       <c r="B971" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D971" s="2" t="n">
@@ -16017,11 +16017,11 @@
         <v>77834</v>
       </c>
       <c r="B974" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D974" s="2" t="n">
@@ -16913,11 +16913,11 @@
         <v>14835</v>
       </c>
       <c r="B1030" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D1030" s="2" t="n">
@@ -17921,11 +17921,11 @@
         <v>24922</v>
       </c>
       <c r="B1093" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1093" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1093" s="2" t="n">
@@ -18561,11 +18561,11 @@
         <v>29502</v>
       </c>
       <c r="B1133" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1133" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D1133" s="2" t="n">
@@ -20129,11 +20129,11 @@
         <v>42364</v>
       </c>
       <c r="B1231" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D1231" s="2" t="n">
@@ -20929,11 +20929,11 @@
         <v>47166</v>
       </c>
       <c r="B1281" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D1281" s="2" t="n">
@@ -22529,11 +22529,11 @@
         <v>54665</v>
       </c>
       <c r="B1381" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1381" s="2" t="n">
@@ -24225,11 +24225,11 @@
         <v>63041</v>
       </c>
       <c r="B1487" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D1487" s="2" t="n">
@@ -28897,11 +28897,11 @@
         <v>77003</v>
       </c>
       <c r="B1779" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1779" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D1779" s="2" t="n">
@@ -30017,11 +30017,11 @@
         <v>79528</v>
       </c>
       <c r="B1849" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1849" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D1849" s="2" t="n">
@@ -32177,11 +32177,11 @@
         <v>80635</v>
       </c>
       <c r="B1984" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1984" s="2" t="n">
@@ -32193,11 +32193,11 @@
         <v>80636</v>
       </c>
       <c r="B1985" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1985" s="2" t="n">
@@ -32462,23 +32462,23 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79166</v>
+        <v>79167</v>
       </c>
       <c r="B2002" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45894</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79163</v>
+        <v>79204</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32494,7 +32494,7 @@
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79586</v>
+        <v>79437</v>
       </c>
       <c r="B2004" t="n">
         <v>9</v>
@@ -32505,76 +32505,76 @@
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79668</v>
+        <v>79589</v>
       </c>
       <c r="B2005" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45884</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79432</v>
+        <v>79333</v>
       </c>
       <c r="B2006" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45919</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79336</v>
+        <v>79435</v>
       </c>
       <c r="B2007" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45910</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79436</v>
+        <v>79440</v>
       </c>
       <c r="B2008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45888</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79442</v>
+        <v>79162</v>
       </c>
       <c r="B2009" t="n">
         <v>9</v>
@@ -32585,28 +32585,28 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79162</v>
+        <v>80318</v>
       </c>
       <c r="B2010" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79437</v>
+        <v>79586</v>
       </c>
       <c r="B2011" t="n">
         <v>9</v>
@@ -32617,23 +32617,23 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79589</v>
+        <v>79668</v>
       </c>
       <c r="B2012" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2013">
@@ -32702,30 +32702,30 @@
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79167</v>
+        <v>79166</v>
       </c>
       <c r="B2017" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45904</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79204</v>
+        <v>79163</v>
       </c>
       <c r="B2018" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
@@ -32734,103 +32734,103 @@
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79588</v>
+        <v>79587</v>
       </c>
       <c r="B2019" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45884</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>12543</v>
+        <v>79590</v>
       </c>
       <c r="B2020" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45931</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79333</v>
+        <v>79432</v>
       </c>
       <c r="B2021" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45894</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79435</v>
+        <v>79336</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45890</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79440</v>
+        <v>79436</v>
       </c>
       <c r="B2023" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45901</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79164</v>
+        <v>79442</v>
       </c>
       <c r="B2024" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79161</v>
+        <v>79164</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,39 +32841,39 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45933</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79587</v>
+        <v>79161</v>
       </c>
       <c r="B2026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45894</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79590</v>
+        <v>79588</v>
       </c>
       <c r="B2027" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2028">
@@ -32926,18 +32926,18 @@
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>80318</v>
+        <v>12543</v>
       </c>
       <c r="B2031" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45881</v>
+        <v>45931</v>
       </c>
     </row>
   </sheetData>
@@ -32951,7 +32951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32978,7 +32978,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1306</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="3">
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>599</v>
+        <v>568</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -33008,7 +33008,17 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Desistido</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -1585,11 +1585,11 @@
         <v>19436</v>
       </c>
       <c r="B72" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
@@ -5473,11 +5473,11 @@
         <v>40045</v>
       </c>
       <c r="B315" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
@@ -7073,11 +7073,11 @@
         <v>47809</v>
       </c>
       <c r="B415" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D415" s="2" t="n">
@@ -11105,11 +11105,11 @@
         <v>66944</v>
       </c>
       <c r="B667" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D667" s="2" t="n">
@@ -11377,11 +11377,11 @@
         <v>67413</v>
       </c>
       <c r="B684" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D684" s="2" t="n">
@@ -11697,11 +11697,11 @@
         <v>68257</v>
       </c>
       <c r="B704" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D704" s="2" t="n">
@@ -12721,11 +12721,11 @@
         <v>70985</v>
       </c>
       <c r="B768" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D768" s="2" t="n">
@@ -17665,11 +17665,11 @@
         <v>22750</v>
       </c>
       <c r="B1077" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1077" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1077" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79167</v>
+        <v>79433</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,12 +32473,12 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45904</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79204</v>
+        <v>79434</v>
       </c>
       <c r="B2003" t="n">
         <v>2</v>
@@ -32489,28 +32489,28 @@
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79437</v>
+        <v>79439</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45895</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79589</v>
+        <v>79586</v>
       </c>
       <c r="B2005" t="n">
         <v>9</v>
@@ -32521,28 +32521,28 @@
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45890</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79333</v>
+        <v>79668</v>
       </c>
       <c r="B2006" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45894</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79435</v>
+        <v>79166</v>
       </c>
       <c r="B2007" t="n">
         <v>9</v>
@@ -32553,60 +32553,60 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79440</v>
+        <v>79163</v>
       </c>
       <c r="B2008" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45901</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>79162</v>
+        <v>12543</v>
       </c>
       <c r="B2009" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45890</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>80318</v>
+        <v>79333</v>
       </c>
       <c r="B2010" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79586</v>
+        <v>79435</v>
       </c>
       <c r="B2011" t="n">
         <v>9</v>
@@ -32617,76 +32617,76 @@
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45898</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79668</v>
+        <v>79440</v>
       </c>
       <c r="B2012" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45884</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79332</v>
+        <v>79587</v>
       </c>
       <c r="B2013" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45934</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79334</v>
+        <v>79590</v>
       </c>
       <c r="B2014" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79446</v>
+        <v>79164</v>
       </c>
       <c r="B2015" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45881</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79441</v>
+        <v>79161</v>
       </c>
       <c r="B2016" t="n">
         <v>2</v>
@@ -32697,60 +32697,60 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45936</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79166</v>
+        <v>79432</v>
       </c>
       <c r="B2017" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45894</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79163</v>
+        <v>79336</v>
       </c>
       <c r="B2018" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79587</v>
+        <v>79436</v>
       </c>
       <c r="B2019" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45894</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79590</v>
+        <v>79442</v>
       </c>
       <c r="B2020" t="n">
         <v>9</v>
@@ -32766,39 +32766,39 @@
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79432</v>
+        <v>79437</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45919</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79336</v>
+        <v>79589</v>
       </c>
       <c r="B2022" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45910</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79436</v>
+        <v>79162</v>
       </c>
       <c r="B2023" t="n">
         <v>9</v>
@@ -32809,28 +32809,28 @@
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>79442</v>
+        <v>80318</v>
       </c>
       <c r="B2024" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45898</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79164</v>
+        <v>79332</v>
       </c>
       <c r="B2025" t="n">
         <v>2</v>
@@ -32841,12 +32841,12 @@
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45901</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79161</v>
+        <v>79334</v>
       </c>
       <c r="B2026" t="n">
         <v>2</v>
@@ -32857,28 +32857,28 @@
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45933</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79588</v>
+        <v>79446</v>
       </c>
       <c r="B2027" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45884</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79433</v>
+        <v>79441</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,28 +32889,28 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45960</v>
+        <v>45936</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79434</v>
+        <v>79588</v>
       </c>
       <c r="B2029" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45911</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79439</v>
+        <v>79167</v>
       </c>
       <c r="B2030" t="n">
         <v>2</v>
@@ -32921,12 +32921,12 @@
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45929</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>12543</v>
+        <v>79204</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,7 +32937,7 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45931</v>
+        <v>45923</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -2129,11 +2129,11 @@
         <v>25116</v>
       </c>
       <c r="B106" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
@@ -3057,11 +3057,11 @@
         <v>30280</v>
       </c>
       <c r="B164" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
@@ -5265,11 +5265,11 @@
         <v>39165</v>
       </c>
       <c r="B302" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
@@ -6145,11 +6145,11 @@
         <v>43438</v>
       </c>
       <c r="B357" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
@@ -6273,11 +6273,11 @@
         <v>44131</v>
       </c>
       <c r="B365" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D365" s="2" t="n">
@@ -10753,11 +10753,11 @@
         <v>65044</v>
       </c>
       <c r="B645" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D645" s="2" t="n">
@@ -18145,11 +18145,11 @@
         <v>27295</v>
       </c>
       <c r="B1107" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1107" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1107" s="2" t="n">
@@ -22129,11 +22129,11 @@
         <v>52253</v>
       </c>
       <c r="B1356" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1356" s="2" t="n">
@@ -22449,11 +22449,11 @@
         <v>53507</v>
       </c>
       <c r="B1376" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1376" s="2" t="n">
@@ -32462,7 +32462,7 @@
     </row>
     <row r="2002">
       <c r="A2002" t="n">
-        <v>79433</v>
+        <v>12543</v>
       </c>
       <c r="B2002" t="n">
         <v>2</v>
@@ -32473,76 +32473,76 @@
         </is>
       </c>
       <c r="D2002" s="2" t="n">
-        <v>45960</v>
+        <v>45931</v>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
-        <v>79434</v>
+        <v>79162</v>
       </c>
       <c r="B2003" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
-        <v>45911</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
-        <v>79439</v>
+        <v>79586</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
-        <v>45929</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
-        <v>79586</v>
+        <v>79668</v>
       </c>
       <c r="B2005" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2005" s="2" t="n">
-        <v>45898</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
-        <v>79668</v>
+        <v>79333</v>
       </c>
       <c r="B2006" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
-        <v>45884</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
-        <v>79166</v>
+        <v>79435</v>
       </c>
       <c r="B2007" t="n">
         <v>9</v>
@@ -32553,28 +32553,28 @@
         </is>
       </c>
       <c r="D2007" s="2" t="n">
-        <v>45894</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="n">
-        <v>79163</v>
+        <v>79440</v>
       </c>
       <c r="B2008" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2008" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
-        <v>12543</v>
+        <v>79164</v>
       </c>
       <c r="B2009" t="n">
         <v>2</v>
@@ -32585,44 +32585,44 @@
         </is>
       </c>
       <c r="D2009" s="2" t="n">
-        <v>45931</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
-        <v>79333</v>
+        <v>79161</v>
       </c>
       <c r="B2010" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2010" s="2" t="n">
-        <v>45894</v>
+        <v>45933</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
-        <v>79435</v>
+        <v>79588</v>
       </c>
       <c r="B2011" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
-        <v>45890</v>
+        <v>45884</v>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
-        <v>79440</v>
+        <v>79432</v>
       </c>
       <c r="B2012" t="n">
         <v>2</v>
@@ -32633,60 +32633,60 @@
         </is>
       </c>
       <c r="D2012" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="n">
-        <v>79587</v>
+        <v>79336</v>
       </c>
       <c r="B2013" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2013" s="2" t="n">
-        <v>45894</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
-        <v>79590</v>
+        <v>79436</v>
       </c>
       <c r="B2014" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2014" s="2" t="n">
-        <v>45898</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="n">
-        <v>79164</v>
+        <v>79442</v>
       </c>
       <c r="B2015" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
-        <v>79161</v>
+        <v>79167</v>
       </c>
       <c r="B2016" t="n">
         <v>2</v>
@@ -32697,12 +32697,12 @@
         </is>
       </c>
       <c r="D2016" s="2" t="n">
-        <v>45933</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
-        <v>79432</v>
+        <v>79204</v>
       </c>
       <c r="B2017" t="n">
         <v>2</v>
@@ -32713,172 +32713,172 @@
         </is>
       </c>
       <c r="D2017" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
-        <v>79336</v>
+        <v>79437</v>
       </c>
       <c r="B2018" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2018" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
-        <v>79436</v>
+        <v>79589</v>
       </c>
       <c r="B2019" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2019" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
-        <v>79442</v>
+        <v>79433</v>
       </c>
       <c r="B2020" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2020" s="2" t="n">
-        <v>45898</v>
+        <v>45960</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
-        <v>79437</v>
+        <v>79434</v>
       </c>
       <c r="B2021" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
-        <v>45895</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="n">
-        <v>79589</v>
+        <v>79439</v>
       </c>
       <c r="B2022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2022" s="2" t="n">
-        <v>45890</v>
+        <v>45929</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
-        <v>79162</v>
+        <v>80318</v>
       </c>
       <c r="B2023" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
-        <v>45890</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
-        <v>80318</v>
+        <v>79166</v>
       </c>
       <c r="B2024" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2024" s="2" t="n">
-        <v>45881</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="n">
-        <v>79332</v>
+        <v>79163</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
-        <v>45934</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
-        <v>79334</v>
+        <v>79587</v>
       </c>
       <c r="B2026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2026" s="2" t="n">
-        <v>45910</v>
+        <v>45894</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
-        <v>79446</v>
+        <v>79590</v>
       </c>
       <c r="B2027" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2027" s="2" t="n">
-        <v>45881</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
-        <v>79441</v>
+        <v>79332</v>
       </c>
       <c r="B2028" t="n">
         <v>2</v>
@@ -32889,44 +32889,44 @@
         </is>
       </c>
       <c r="D2028" s="2" t="n">
-        <v>45936</v>
+        <v>45934</v>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
-        <v>79588</v>
+        <v>79334</v>
       </c>
       <c r="B2029" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D2029" s="2" t="n">
-        <v>45884</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="n">
-        <v>79167</v>
+        <v>79446</v>
       </c>
       <c r="B2030" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2030" s="2" t="n">
-        <v>45904</v>
+        <v>45881</v>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
-        <v>79204</v>
+        <v>79441</v>
       </c>
       <c r="B2031" t="n">
         <v>2</v>
@@ -32937,7 +32937,7 @@
         </is>
       </c>
       <c r="D2031" s="2" t="n">
-        <v>45923</v>
+        <v>45936</v>
       </c>
     </row>
   </sheetData>
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4">
@@ -32998,7 +32998,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5">
@@ -33008,7 +33008,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -993,11 +993,11 @@
         <v>14950</v>
       </c>
       <c r="B35" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
@@ -39616,7 +39616,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
@@ -39626,7 +39626,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -561,11 +561,11 @@
         <v>20612</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
@@ -2881,11 +2881,11 @@
         <v>29218</v>
       </c>
       <c r="B153" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D153" s="2" t="n">
@@ -3009,11 +3009,11 @@
         <v>29726</v>
       </c>
       <c r="B161" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
@@ -3265,11 +3265,11 @@
         <v>30703</v>
       </c>
       <c r="B177" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
@@ -3857,11 +3857,11 @@
         <v>33954</v>
       </c>
       <c r="B214" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D214" s="2" t="n">
@@ -4225,11 +4225,11 @@
         <v>35150</v>
       </c>
       <c r="B237" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
@@ -6385,11 +6385,11 @@
         <v>45149</v>
       </c>
       <c r="B372" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D372" s="2" t="n">
@@ -6497,11 +6497,11 @@
         <v>45583</v>
       </c>
       <c r="B379" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D379" s="2" t="n">
@@ -7457,11 +7457,11 @@
         <v>49746</v>
       </c>
       <c r="B439" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D439" s="2" t="n">
@@ -7537,11 +7537,11 @@
         <v>49987</v>
       </c>
       <c r="B444" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D444" s="2" t="n">
@@ -7569,11 +7569,11 @@
         <v>49924</v>
       </c>
       <c r="B446" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
@@ -7681,11 +7681,11 @@
         <v>50705</v>
       </c>
       <c r="B453" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D453" s="2" t="n">
@@ -7857,11 +7857,11 @@
         <v>51409</v>
       </c>
       <c r="B464" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D464" s="2" t="n">
@@ -8273,11 +8273,11 @@
         <v>53391</v>
       </c>
       <c r="B490" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D490" s="2" t="n">
@@ -8545,11 +8545,11 @@
         <v>55148</v>
       </c>
       <c r="B507" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D507" s="2" t="n">
@@ -9857,11 +9857,11 @@
         <v>61109</v>
       </c>
       <c r="B589" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D589" s="2" t="n">
@@ -10209,11 +10209,11 @@
         <v>62348</v>
       </c>
       <c r="B611" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D611" s="2" t="n">
@@ -10433,11 +10433,11 @@
         <v>63040</v>
       </c>
       <c r="B625" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D625" s="2" t="n">
@@ -11377,11 +11377,11 @@
         <v>67471</v>
       </c>
       <c r="B684" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D684" s="2" t="n">
@@ -11633,11 +11633,11 @@
         <v>68419</v>
       </c>
       <c r="B700" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D700" s="2" t="n">
@@ -14961,11 +14961,11 @@
         <v>75154</v>
       </c>
       <c r="B908" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D908" s="2" t="n">
@@ -15361,11 +15361,11 @@
         <v>76223</v>
       </c>
       <c r="B933" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D933" s="2" t="n">
@@ -26545,11 +26545,11 @@
         <v>71418</v>
       </c>
       <c r="B1632" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1632" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1632" s="2" t="n">
@@ -30417,11 +30417,11 @@
         <v>79602</v>
       </c>
       <c r="B1874" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1874" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1874" s="2" t="n">
@@ -31089,11 +31089,11 @@
         <v>79962</v>
       </c>
       <c r="B1916" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1916" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1916" s="2" t="n">
@@ -32129,11 +32129,11 @@
         <v>80635</v>
       </c>
       <c r="B1981" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1981" s="2" t="n">
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>546</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4">
@@ -39616,7 +39616,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -39626,7 +39626,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -2081,11 +2081,11 @@
         <v>24254</v>
       </c>
       <c r="B103" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
@@ -3249,11 +3249,11 @@
         <v>30301</v>
       </c>
       <c r="B176" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
@@ -4225,11 +4225,11 @@
         <v>35150</v>
       </c>
       <c r="B237" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D237" s="2" t="n">
@@ -6225,11 +6225,11 @@
         <v>43723</v>
       </c>
       <c r="B362" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D362" s="2" t="n">
@@ -22145,11 +22145,11 @@
         <v>52353</v>
       </c>
       <c r="B1357" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1357" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1357" s="2" t="n">
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4">
@@ -39616,7 +39616,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
@@ -39626,7 +39626,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -497,11 +497,11 @@
         <v>19730</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -2705,11 +2705,11 @@
         <v>28793</v>
       </c>
       <c r="B142" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
@@ -3361,11 +3361,11 @@
         <v>31007</v>
       </c>
       <c r="B183" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
@@ -3681,11 +3681,11 @@
         <v>32927</v>
       </c>
       <c r="B203" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D203" s="2" t="n">
@@ -5185,11 +5185,11 @@
         <v>38738</v>
       </c>
       <c r="B297" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
@@ -5889,11 +5889,11 @@
         <v>41872</v>
       </c>
       <c r="B341" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
@@ -7329,11 +7329,11 @@
         <v>49302</v>
       </c>
       <c r="B431" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D431" s="2" t="n">
@@ -8753,11 +8753,11 @@
         <v>56088</v>
       </c>
       <c r="B520" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D520" s="2" t="n">
@@ -8961,11 +8961,11 @@
         <v>57194</v>
       </c>
       <c r="B533" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D533" s="2" t="n">
@@ -9041,11 +9041,11 @@
         <v>57660</v>
       </c>
       <c r="B538" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D538" s="2" t="n">
@@ -9217,11 +9217,11 @@
         <v>58483</v>
       </c>
       <c r="B549" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D549" s="2" t="n">
@@ -11761,11 +11761,11 @@
         <v>68453</v>
       </c>
       <c r="B708" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D708" s="2" t="n">
@@ -11953,11 +11953,11 @@
         <v>68744</v>
       </c>
       <c r="B720" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D720" s="2" t="n">
@@ -13681,11 +13681,11 @@
         <v>73421</v>
       </c>
       <c r="B828" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D828" s="2" t="n">
@@ -13729,11 +13729,11 @@
         <v>73443</v>
       </c>
       <c r="B831" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D831" s="2" t="n">
@@ -14081,11 +14081,11 @@
         <v>73793</v>
       </c>
       <c r="B853" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D853" s="2" t="n">
@@ -14417,11 +14417,11 @@
         <v>74398</v>
       </c>
       <c r="B874" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D874" s="2" t="n">
@@ -14737,11 +14737,11 @@
         <v>75122</v>
       </c>
       <c r="B894" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D894" s="2" t="n">
@@ -15569,11 +15569,11 @@
         <v>76694</v>
       </c>
       <c r="B946" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D946" s="2" t="n">
@@ -15777,11 +15777,11 @@
         <v>77049</v>
       </c>
       <c r="B959" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D959" s="2" t="n">
@@ -16417,11 +16417,11 @@
         <v>78404</v>
       </c>
       <c r="B999" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D999" s="2" t="n">
@@ -29169,11 +29169,11 @@
         <v>78787</v>
       </c>
       <c r="B1796" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1796" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1796" s="2" t="n">
@@ -29313,11 +29313,11 @@
         <v>79162</v>
       </c>
       <c r="B1805" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1805" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1805" s="2" t="n">
@@ -29841,11 +29841,11 @@
         <v>79435</v>
       </c>
       <c r="B1838" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1838" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1838" s="2" t="n">
@@ -30241,11 +30241,11 @@
         <v>79589</v>
       </c>
       <c r="B1863" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1863" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1863" s="2" t="n">
@@ -30305,11 +30305,11 @@
         <v>79534</v>
       </c>
       <c r="B1867" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1867" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1867" s="2" t="n">
@@ -31233,11 +31233,11 @@
         <v>79934</v>
       </c>
       <c r="B1925" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1925" s="2" t="n">
@@ -32225,11 +32225,11 @@
         <v>80582</v>
       </c>
       <c r="B1987" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1987" s="2" t="n">
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>521</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4">
@@ -39616,7 +39616,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
@@ -39626,7 +39626,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -1393,11 +1393,11 @@
         <v>17946</v>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
@@ -1937,11 +1937,11 @@
         <v>22997</v>
       </c>
       <c r="B94" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
@@ -4433,11 +4433,11 @@
         <v>36212</v>
       </c>
       <c r="B250" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D250" s="2" t="n">
@@ -4913,11 +4913,11 @@
         <v>37707</v>
       </c>
       <c r="B280" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D280" s="2" t="n">
@@ -7233,11 +7233,11 @@
         <v>49191</v>
       </c>
       <c r="B425" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D425" s="2" t="n">
@@ -8305,11 +8305,11 @@
         <v>53429</v>
       </c>
       <c r="B492" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D492" s="2" t="n">
@@ -13393,11 +13393,11 @@
         <v>72532</v>
       </c>
       <c r="B810" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D810" s="2" t="n">
@@ -26129,11 +26129,11 @@
         <v>70334</v>
       </c>
       <c r="B1606" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1606" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1606" s="2" t="n">
@@ -31777,11 +31777,11 @@
         <v>80344</v>
       </c>
       <c r="B1959" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1959" s="2" t="n">
@@ -39596,7 +39596,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4">
@@ -39616,7 +39616,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -39626,7 +39626,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -1105,11 +1105,11 @@
         <v>15970</v>
       </c>
       <c r="B42" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -2225,11 +2225,11 @@
         <v>25146</v>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
@@ -2561,11 +2561,11 @@
         <v>27914</v>
       </c>
       <c r="B133" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
@@ -2945,11 +2945,11 @@
         <v>29138</v>
       </c>
       <c r="B157" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D157" s="2" t="n">
@@ -4081,11 +4081,11 @@
         <v>34786</v>
       </c>
       <c r="B228" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D228" s="2" t="n">
@@ -4241,11 +4241,11 @@
         <v>35161</v>
       </c>
       <c r="B238" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D238" s="2" t="n">
@@ -4289,11 +4289,11 @@
         <v>35402</v>
       </c>
       <c r="B241" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D241" s="2" t="n">
@@ -4897,11 +4897,11 @@
         <v>37708</v>
       </c>
       <c r="B279" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D279" s="2" t="n">
@@ -6177,11 +6177,11 @@
         <v>43670</v>
       </c>
       <c r="B359" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D359" s="2" t="n">
@@ -6897,11 +6897,11 @@
         <v>47169</v>
       </c>
       <c r="B404" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D404" s="2" t="n">
@@ -7281,11 +7281,11 @@
         <v>49189</v>
       </c>
       <c r="B428" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D428" s="2" t="n">
@@ -7601,11 +7601,11 @@
         <v>50310</v>
       </c>
       <c r="B448" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D448" s="2" t="n">
@@ -9297,11 +9297,11 @@
         <v>59103</v>
       </c>
       <c r="B554" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D554" s="2" t="n">
@@ -11489,11 +11489,11 @@
         <v>68466</v>
       </c>
       <c r="B691" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D691" s="2" t="n">
@@ -11569,11 +11569,11 @@
         <v>68111</v>
       </c>
       <c r="B696" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D696" s="2" t="n">
@@ -11729,11 +11729,11 @@
         <v>68333</v>
       </c>
       <c r="B706" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D706" s="2" t="n">
@@ -11969,11 +11969,11 @@
         <v>68745</v>
       </c>
       <c r="B721" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D721" s="2" t="n">
@@ -14529,11 +14529,11 @@
         <v>74400</v>
       </c>
       <c r="B881" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D881" s="2" t="n">
@@ -19377,11 +19377,11 @@
         <v>38783</v>
       </c>
       <c r="B1184" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1184" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1184" s="2" t="n">
@@ -24129,11 +24129,11 @@
         <v>66043</v>
       </c>
       <c r="B1481" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1481" s="2" t="n">
@@ -27905,11 +27905,11 @@
         <v>77267</v>
       </c>
       <c r="B1717" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1717" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1717" s="2" t="n">
@@ -31841,11 +31841,11 @@
         <v>80351</v>
       </c>
       <c r="B1963" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1963" s="2" t="n">
@@ -64462,7 +64462,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>36668</v>
+        <v>41916</v>
       </c>
       <c r="B4002" t="n">
         <v>1</v>
@@ -64473,12 +64473,12 @@
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45922</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>42270</v>
+        <v>51292</v>
       </c>
       <c r="B4003" t="n">
         <v>1</v>
@@ -64489,12 +64489,12 @@
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>60175</v>
+        <v>67109</v>
       </c>
       <c r="B4004" t="n">
         <v>1</v>
@@ -64505,12 +64505,12 @@
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>61188</v>
+        <v>74254</v>
       </c>
       <c r="B4005" t="n">
         <v>1</v>
@@ -64521,12 +64521,12 @@
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45902</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>67109</v>
+        <v>77248</v>
       </c>
       <c r="B4006" t="n">
         <v>1</v>
@@ -64537,12 +64537,12 @@
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>75685</v>
+        <v>79318</v>
       </c>
       <c r="B4007" t="n">
         <v>1</v>
@@ -64558,7 +64558,7 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>76469</v>
+        <v>11491</v>
       </c>
       <c r="B4008" t="n">
         <v>1</v>
@@ -64569,12 +64569,12 @@
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>17382</v>
+        <v>24352</v>
       </c>
       <c r="B4009" t="n">
         <v>1</v>
@@ -64585,7 +64585,7 @@
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="4010">
@@ -64606,7 +64606,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>36075</v>
+        <v>62088</v>
       </c>
       <c r="B4011" t="n">
         <v>1</v>
@@ -64617,12 +64617,12 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>41916</v>
+        <v>66709</v>
       </c>
       <c r="B4012" t="n">
         <v>1</v>
@@ -64633,12 +64633,12 @@
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45902</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>62088</v>
+        <v>75685</v>
       </c>
       <c r="B4013" t="n">
         <v>1</v>
@@ -64649,12 +64649,12 @@
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>66709</v>
+        <v>76469</v>
       </c>
       <c r="B4014" t="n">
         <v>1</v>
@@ -64665,12 +64665,12 @@
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45922</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>74254</v>
+        <v>17382</v>
       </c>
       <c r="B4015" t="n">
         <v>1</v>
@@ -64686,7 +64686,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>77248</v>
+        <v>36668</v>
       </c>
       <c r="B4016" t="n">
         <v>1</v>
@@ -64697,12 +64697,12 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45903</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>78016</v>
+        <v>42270</v>
       </c>
       <c r="B4017" t="n">
         <v>1</v>
@@ -64713,12 +64713,12 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>79318</v>
+        <v>45344</v>
       </c>
       <c r="B4018" t="n">
         <v>1</v>
@@ -64729,12 +64729,12 @@
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>11491</v>
+        <v>60175</v>
       </c>
       <c r="B4019" t="n">
         <v>1</v>
@@ -64745,12 +64745,12 @@
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45919</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>28130</v>
+        <v>61188</v>
       </c>
       <c r="B4020" t="n">
         <v>1</v>
@@ -64761,12 +64761,12 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>32590</v>
+        <v>73706</v>
       </c>
       <c r="B4021" t="n">
         <v>1</v>
@@ -64777,12 +64777,12 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45904</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>45344</v>
+        <v>75928</v>
       </c>
       <c r="B4022" t="n">
         <v>1</v>
@@ -64793,12 +64793,12 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>66559</v>
+        <v>76278</v>
       </c>
       <c r="B4023" t="n">
         <v>1</v>
@@ -64809,12 +64809,12 @@
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45899</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>66884</v>
+        <v>78016</v>
       </c>
       <c r="B4024" t="n">
         <v>1</v>
@@ -64825,12 +64825,12 @@
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>66886</v>
+        <v>28130</v>
       </c>
       <c r="B4025" t="n">
         <v>1</v>
@@ -64841,12 +64841,12 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>69031</v>
+        <v>32590</v>
       </c>
       <c r="B4026" t="n">
         <v>1</v>
@@ -64857,12 +64857,12 @@
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45917</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>71105</v>
+        <v>36075</v>
       </c>
       <c r="B4027" t="n">
         <v>1</v>
@@ -64873,12 +64873,12 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45909</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>75928</v>
+        <v>66559</v>
       </c>
       <c r="B4028" t="n">
         <v>1</v>
@@ -64889,12 +64889,12 @@
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45915</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>76278</v>
+        <v>66884</v>
       </c>
       <c r="B4029" t="n">
         <v>1</v>
@@ -64905,12 +64905,12 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45910</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>24352</v>
+        <v>66886</v>
       </c>
       <c r="B4030" t="n">
         <v>1</v>
@@ -64921,12 +64921,12 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>51292</v>
+        <v>69031</v>
       </c>
       <c r="B4031" t="n">
         <v>1</v>
@@ -64937,12 +64937,12 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45911</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>73706</v>
+        <v>71105</v>
       </c>
       <c r="B4032" t="n">
         <v>1</v>
@@ -64953,7 +64953,7 @@
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45918</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="4033">
@@ -64974,7 +64974,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>28872</v>
+        <v>34191</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -64985,12 +64985,12 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>39902</v>
+        <v>41914</v>
       </c>
       <c r="B4035" t="n">
         <v>1</v>
@@ -65001,12 +65001,12 @@
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>41315</v>
+        <v>43165</v>
       </c>
       <c r="B4036" t="n">
         <v>1</v>
@@ -65017,12 +65017,12 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>47074</v>
+        <v>45655</v>
       </c>
       <c r="B4037" t="n">
         <v>1</v>
@@ -65033,12 +65033,12 @@
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>50350</v>
+        <v>45656</v>
       </c>
       <c r="B4038" t="n">
         <v>1</v>
@@ -65049,12 +65049,12 @@
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45915</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>76470</v>
+        <v>49316</v>
       </c>
       <c r="B4039" t="n">
         <v>1</v>
@@ -65065,12 +65065,12 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>78458</v>
+        <v>68886</v>
       </c>
       <c r="B4040" t="n">
         <v>1</v>
@@ -65081,12 +65081,12 @@
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45896</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>36076</v>
+        <v>72681</v>
       </c>
       <c r="B4041" t="n">
         <v>1</v>
@@ -65097,12 +65097,12 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>39227</v>
+        <v>79197</v>
       </c>
       <c r="B4042" t="n">
         <v>1</v>
@@ -65113,12 +65113,12 @@
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>48067</v>
+        <v>30616</v>
       </c>
       <c r="B4043" t="n">
         <v>1</v>
@@ -65129,12 +65129,12 @@
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>62087</v>
+        <v>31787</v>
       </c>
       <c r="B4044" t="n">
         <v>1</v>
@@ -65145,12 +65145,12 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>62984</v>
+        <v>43516</v>
       </c>
       <c r="B4045" t="n">
         <v>1</v>
@@ -65161,12 +65161,12 @@
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45897</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>66792</v>
+        <v>45941</v>
       </c>
       <c r="B4046" t="n">
         <v>1</v>
@@ -65177,12 +65177,12 @@
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>66794</v>
+        <v>47075</v>
       </c>
       <c r="B4047" t="n">
         <v>1</v>
@@ -65193,12 +65193,12 @@
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45903</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>68266</v>
+        <v>48065</v>
       </c>
       <c r="B4048" t="n">
         <v>1</v>
@@ -65214,7 +65214,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>71817</v>
+        <v>50720</v>
       </c>
       <c r="B4049" t="n">
         <v>1</v>
@@ -65225,12 +65225,12 @@
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45902</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>72844</v>
+        <v>57370</v>
       </c>
       <c r="B4050" t="n">
         <v>1</v>
@@ -65241,12 +65241,12 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45905</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>77247</v>
+        <v>62085</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -65257,12 +65257,12 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>78015</v>
+        <v>65743</v>
       </c>
       <c r="B4052" t="n">
         <v>1</v>
@@ -65273,12 +65273,12 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>79196</v>
+        <v>77559</v>
       </c>
       <c r="B4053" t="n">
         <v>1</v>
@@ -65289,12 +65289,12 @@
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>79319</v>
+        <v>77560</v>
       </c>
       <c r="B4054" t="n">
         <v>1</v>
@@ -65305,12 +65305,12 @@
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45912</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>79569</v>
+        <v>79649</v>
       </c>
       <c r="B4055" t="n">
         <v>1</v>
@@ -65321,12 +65321,12 @@
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45901</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>79405</v>
+        <v>69740</v>
       </c>
       <c r="B4056" t="n">
         <v>1</v>
@@ -65337,12 +65337,12 @@
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45901</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>14827</v>
+        <v>72029</v>
       </c>
       <c r="B4057" t="n">
         <v>1</v>
@@ -65353,12 +65353,12 @@
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45919</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>40072</v>
+        <v>74938</v>
       </c>
       <c r="B4058" t="n">
         <v>1</v>
@@ -65369,12 +65369,12 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>66885</v>
+        <v>79316</v>
       </c>
       <c r="B4059" t="n">
         <v>1</v>
@@ -65385,12 +65385,12 @@
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>66887</v>
+        <v>33709</v>
       </c>
       <c r="B4060" t="n">
         <v>1</v>
@@ -65401,12 +65401,12 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45916</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>70304</v>
+        <v>66880</v>
       </c>
       <c r="B4061" t="n">
         <v>1</v>
@@ -65417,12 +65417,12 @@
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>75182</v>
+        <v>66881</v>
       </c>
       <c r="B4062" t="n">
         <v>1</v>
@@ -65433,12 +65433,12 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>76154</v>
+        <v>66882</v>
       </c>
       <c r="B4063" t="n">
         <v>1</v>
@@ -65449,12 +65449,12 @@
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45898</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>77029</v>
+        <v>66883</v>
       </c>
       <c r="B4064" t="n">
         <v>1</v>
@@ -65465,12 +65465,12 @@
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45911</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>78192</v>
+        <v>67918</v>
       </c>
       <c r="B4065" t="n">
         <v>1</v>
@@ -65481,12 +65481,12 @@
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>15245</v>
+        <v>70306</v>
       </c>
       <c r="B4066" t="n">
         <v>1</v>
@@ -65497,12 +65497,12 @@
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>24353</v>
+        <v>71191</v>
       </c>
       <c r="B4067" t="n">
         <v>1</v>
@@ -65513,12 +65513,12 @@
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>35735</v>
+        <v>72680</v>
       </c>
       <c r="B4068" t="n">
         <v>1</v>
@@ -65529,12 +65529,12 @@
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>40863</v>
+        <v>77693</v>
       </c>
       <c r="B4069" t="n">
         <v>1</v>
@@ -65545,12 +65545,12 @@
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45916</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>42176</v>
+        <v>79949</v>
       </c>
       <c r="B4070" t="n">
         <v>1</v>
@@ -65561,12 +65561,12 @@
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45917</v>
+        <v>45924</v>
       </c>
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>53692</v>
+        <v>35735</v>
       </c>
       <c r="B4071" t="n">
         <v>1</v>
@@ -65577,12 +65577,12 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45896</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>59497</v>
+        <v>39227</v>
       </c>
       <c r="B4072" t="n">
         <v>1</v>
@@ -65593,12 +65593,12 @@
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>66076</v>
+        <v>53692</v>
       </c>
       <c r="B4073" t="n">
         <v>1</v>
@@ -65609,12 +65609,12 @@
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45917</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>69559</v>
+        <v>59497</v>
       </c>
       <c r="B4074" t="n">
         <v>1</v>
@@ -65625,12 +65625,12 @@
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45909</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>72260</v>
+        <v>66076</v>
       </c>
       <c r="B4075" t="n">
         <v>1</v>
@@ -65641,12 +65641,12 @@
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>74739</v>
+        <v>72844</v>
       </c>
       <c r="B4076" t="n">
         <v>1</v>
@@ -65657,12 +65657,12 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>79828</v>
+        <v>77247</v>
       </c>
       <c r="B4077" t="n">
         <v>1</v>
@@ -65673,12 +65673,12 @@
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45917</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>45655</v>
+        <v>78192</v>
       </c>
       <c r="B4078" t="n">
         <v>1</v>
@@ -65689,12 +65689,12 @@
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>45656</v>
+        <v>79196</v>
       </c>
       <c r="B4079" t="n">
         <v>1</v>
@@ -65705,12 +65705,12 @@
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>47075</v>
+        <v>79319</v>
       </c>
       <c r="B4080" t="n">
         <v>1</v>
@@ -65721,12 +65721,12 @@
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>50720</v>
+        <v>79569</v>
       </c>
       <c r="B4081" t="n">
         <v>1</v>
@@ -65737,12 +65737,12 @@
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>68886</v>
+        <v>79405</v>
       </c>
       <c r="B4082" t="n">
         <v>1</v>
@@ -65753,12 +65753,12 @@
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>77559</v>
+        <v>15245</v>
       </c>
       <c r="B4083" t="n">
         <v>1</v>
@@ -65769,12 +65769,12 @@
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>77560</v>
+        <v>24353</v>
       </c>
       <c r="B4084" t="n">
         <v>1</v>
@@ -65785,12 +65785,12 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>79649</v>
+        <v>40863</v>
       </c>
       <c r="B4085" t="n">
         <v>1</v>
@@ -65801,12 +65801,12 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45924</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>30616</v>
+        <v>42176</v>
       </c>
       <c r="B4086" t="n">
         <v>1</v>
@@ -65817,12 +65817,12 @@
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>31787</v>
+        <v>47074</v>
       </c>
       <c r="B4087" t="n">
         <v>1</v>
@@ -65833,12 +65833,12 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45919</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>41914</v>
+        <v>48067</v>
       </c>
       <c r="B4088" t="n">
         <v>1</v>
@@ -65849,12 +65849,12 @@
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45912</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>43165</v>
+        <v>62087</v>
       </c>
       <c r="B4089" t="n">
         <v>1</v>
@@ -65865,12 +65865,12 @@
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>48065</v>
+        <v>62984</v>
       </c>
       <c r="B4090" t="n">
         <v>1</v>
@@ -65881,12 +65881,12 @@
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>57370</v>
+        <v>66792</v>
       </c>
       <c r="B4091" t="n">
         <v>1</v>
@@ -65897,12 +65897,12 @@
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45922</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>62085</v>
+        <v>66794</v>
       </c>
       <c r="B4092" t="n">
         <v>1</v>
@@ -65913,12 +65913,12 @@
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>65743</v>
+        <v>68266</v>
       </c>
       <c r="B4093" t="n">
         <v>1</v>
@@ -65929,12 +65929,12 @@
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>72681</v>
+        <v>71817</v>
       </c>
       <c r="B4094" t="n">
         <v>1</v>
@@ -65945,12 +65945,12 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>79197</v>
+        <v>76470</v>
       </c>
       <c r="B4095" t="n">
         <v>1</v>
@@ -65961,12 +65961,12 @@
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45923</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>33709</v>
+        <v>78458</v>
       </c>
       <c r="B4096" t="n">
         <v>1</v>
@@ -65977,12 +65977,12 @@
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>45941</v>
+        <v>14827</v>
       </c>
       <c r="B4097" t="n">
         <v>1</v>
@@ -65993,12 +65993,12 @@
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>49316</v>
+        <v>28872</v>
       </c>
       <c r="B4098" t="n">
         <v>1</v>
@@ -66009,12 +66009,12 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>66880</v>
+        <v>39902</v>
       </c>
       <c r="B4099" t="n">
         <v>1</v>
@@ -66025,12 +66025,12 @@
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>66881</v>
+        <v>41315</v>
       </c>
       <c r="B4100" t="n">
         <v>1</v>
@@ -66041,12 +66041,12 @@
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>66882</v>
+        <v>50350</v>
       </c>
       <c r="B4101" t="n">
         <v>1</v>
@@ -66057,12 +66057,12 @@
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45917</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>66883</v>
+        <v>69559</v>
       </c>
       <c r="B4102" t="n">
         <v>1</v>
@@ -66073,12 +66073,12 @@
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>67918</v>
+        <v>72260</v>
       </c>
       <c r="B4103" t="n">
         <v>1</v>
@@ -66089,12 +66089,12 @@
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>70306</v>
+        <v>74739</v>
       </c>
       <c r="B4104" t="n">
         <v>1</v>
@@ -66105,12 +66105,12 @@
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45910</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>71191</v>
+        <v>76154</v>
       </c>
       <c r="B4105" t="n">
         <v>1</v>
@@ -66121,12 +66121,12 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>72680</v>
+        <v>77029</v>
       </c>
       <c r="B4106" t="n">
         <v>1</v>
@@ -66142,7 +66142,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>79316</v>
+        <v>78015</v>
       </c>
       <c r="B4107" t="n">
         <v>1</v>
@@ -66153,12 +66153,12 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>34191</v>
+        <v>36076</v>
       </c>
       <c r="B4108" t="n">
         <v>1</v>
@@ -66169,12 +66169,12 @@
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>43516</v>
+        <v>40072</v>
       </c>
       <c r="B4109" t="n">
         <v>1</v>
@@ -66185,12 +66185,12 @@
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>69740</v>
+        <v>66885</v>
       </c>
       <c r="B4110" t="n">
         <v>1</v>
@@ -66201,12 +66201,12 @@
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45908</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>72029</v>
+        <v>66887</v>
       </c>
       <c r="B4111" t="n">
         <v>1</v>
@@ -66217,12 +66217,12 @@
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>74938</v>
+        <v>70304</v>
       </c>
       <c r="B4112" t="n">
         <v>1</v>
@@ -66233,12 +66233,12 @@
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>77693</v>
+        <v>75182</v>
       </c>
       <c r="B4113" t="n">
         <v>1</v>
@@ -66249,12 +66249,12 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45923</v>
+        <v>45909</v>
       </c>
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>79949</v>
+        <v>79828</v>
       </c>
       <c r="B4114" t="n">
         <v>1</v>
@@ -66265,12 +66265,12 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>24589</v>
+        <v>32964</v>
       </c>
       <c r="B4115" t="n">
         <v>1</v>
@@ -66281,12 +66281,12 @@
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>31992</v>
+        <v>49089</v>
       </c>
       <c r="B4116" t="n">
         <v>1</v>
@@ -66297,12 +66297,12 @@
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45919</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>39901</v>
+        <v>53789</v>
       </c>
       <c r="B4117" t="n">
         <v>1</v>
@@ -66313,12 +66313,12 @@
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45918</v>
+        <v>45898</v>
       </c>
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>60069</v>
+        <v>63865</v>
       </c>
       <c r="B4118" t="n">
         <v>1</v>
@@ -66329,12 +66329,12 @@
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>61423</v>
+        <v>65134</v>
       </c>
       <c r="B4119" t="n">
         <v>1</v>
@@ -66345,12 +66345,12 @@
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45899</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>61424</v>
+        <v>66021</v>
       </c>
       <c r="B4120" t="n">
         <v>1</v>
@@ -66361,12 +66361,12 @@
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45904</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>65134</v>
+        <v>67358</v>
       </c>
       <c r="B4121" t="n">
         <v>1</v>
@@ -66377,12 +66377,12 @@
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>67358</v>
+        <v>74326</v>
       </c>
       <c r="B4122" t="n">
         <v>1</v>
@@ -66393,12 +66393,12 @@
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45897</v>
+        <v>45915</v>
       </c>
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>74462</v>
+        <v>75346</v>
       </c>
       <c r="B4123" t="n">
         <v>1</v>
@@ -66409,12 +66409,12 @@
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45910</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>78387</v>
+        <v>34583</v>
       </c>
       <c r="B4124" t="n">
         <v>1</v>
@@ -66425,12 +66425,12 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45912</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>78388</v>
+        <v>48071</v>
       </c>
       <c r="B4125" t="n">
         <v>1</v>
@@ -66441,12 +66441,12 @@
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>34583</v>
+        <v>48104</v>
       </c>
       <c r="B4126" t="n">
         <v>1</v>
@@ -66457,12 +66457,12 @@
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>48071</v>
+        <v>66891</v>
       </c>
       <c r="B4127" t="n">
         <v>1</v>
@@ -66473,12 +66473,12 @@
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>48104</v>
+        <v>71818</v>
       </c>
       <c r="B4128" t="n">
         <v>1</v>
@@ -66494,7 +66494,7 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>66891</v>
+        <v>74462</v>
       </c>
       <c r="B4129" t="n">
         <v>1</v>
@@ -66505,12 +66505,12 @@
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45912</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>71818</v>
+        <v>78387</v>
       </c>
       <c r="B4130" t="n">
         <v>1</v>
@@ -66521,12 +66521,12 @@
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45905</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>74326</v>
+        <v>78388</v>
       </c>
       <c r="B4131" t="n">
         <v>1</v>
@@ -66537,12 +66537,12 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>75346</v>
+        <v>12960</v>
       </c>
       <c r="B4132" t="n">
         <v>1</v>
@@ -66553,12 +66553,12 @@
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>38864</v>
+        <v>24589</v>
       </c>
       <c r="B4133" t="n">
         <v>1</v>
@@ -66569,12 +66569,12 @@
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>43676</v>
+        <v>31992</v>
       </c>
       <c r="B4134" t="n">
         <v>1</v>
@@ -66585,12 +66585,12 @@
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>49089</v>
+        <v>38864</v>
       </c>
       <c r="B4135" t="n">
         <v>1</v>
@@ -66606,7 +66606,7 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>52565</v>
+        <v>39901</v>
       </c>
       <c r="B4136" t="n">
         <v>1</v>
@@ -66617,12 +66617,12 @@
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>55858</v>
+        <v>43676</v>
       </c>
       <c r="B4137" t="n">
         <v>1</v>
@@ -66633,7 +66633,7 @@
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45899</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="4138">
@@ -66686,7 +66686,7 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>60555</v>
+        <v>60069</v>
       </c>
       <c r="B4141" t="n">
         <v>1</v>
@@ -66697,12 +66697,12 @@
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45896</v>
+        <v>45918</v>
       </c>
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>66888</v>
+        <v>61423</v>
       </c>
       <c r="B4142" t="n">
         <v>1</v>
@@ -66713,12 +66713,12 @@
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45897</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>66889</v>
+        <v>61424</v>
       </c>
       <c r="B4143" t="n">
         <v>1</v>
@@ -66729,12 +66729,12 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>66890</v>
+        <v>73707</v>
       </c>
       <c r="B4144" t="n">
         <v>1</v>
@@ -66745,12 +66745,12 @@
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>67994</v>
+        <v>74911</v>
       </c>
       <c r="B4145" t="n">
         <v>1</v>
@@ -66761,12 +66761,12 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45922</v>
+        <v>45903</v>
       </c>
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>69027</v>
+        <v>76969</v>
       </c>
       <c r="B4146" t="n">
         <v>1</v>
@@ -66777,12 +66777,12 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45902</v>
+        <v>45911</v>
       </c>
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>69029</v>
+        <v>52565</v>
       </c>
       <c r="B4147" t="n">
         <v>1</v>
@@ -66793,12 +66793,12 @@
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45901</v>
+        <v>45905</v>
       </c>
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>69030</v>
+        <v>55858</v>
       </c>
       <c r="B4148" t="n">
         <v>1</v>
@@ -66809,12 +66809,12 @@
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45923</v>
+        <v>45899</v>
       </c>
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>75181</v>
+        <v>60555</v>
       </c>
       <c r="B4149" t="n">
         <v>1</v>
@@ -66825,12 +66825,12 @@
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>76969</v>
+        <v>66888</v>
       </c>
       <c r="B4150" t="n">
         <v>1</v>
@@ -66841,12 +66841,12 @@
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>12960</v>
+        <v>66889</v>
       </c>
       <c r="B4151" t="n">
         <v>1</v>
@@ -66857,12 +66857,12 @@
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>32964</v>
+        <v>66890</v>
       </c>
       <c r="B4152" t="n">
         <v>1</v>
@@ -66873,12 +66873,12 @@
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45916</v>
+        <v>45896</v>
       </c>
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>53789</v>
+        <v>67994</v>
       </c>
       <c r="B4153" t="n">
         <v>1</v>
@@ -66889,12 +66889,12 @@
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45898</v>
+        <v>45922</v>
       </c>
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>63865</v>
+        <v>69027</v>
       </c>
       <c r="B4154" t="n">
         <v>1</v>
@@ -66905,12 +66905,12 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>66021</v>
+        <v>69029</v>
       </c>
       <c r="B4155" t="n">
         <v>1</v>
@@ -66921,12 +66921,12 @@
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>73707</v>
+        <v>69030</v>
       </c>
       <c r="B4156" t="n">
         <v>1</v>
@@ -66937,12 +66937,12 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45912</v>
+        <v>45923</v>
       </c>
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>74911</v>
+        <v>75181</v>
       </c>
       <c r="B4157" t="n">
         <v>1</v>
@@ -66953,7 +66953,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
     </row>
   </sheetData>
@@ -67014,7 +67014,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5">
@@ -67024,7 +67024,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
@@ -67034,7 +67034,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -28631,11 +28631,11 @@
         <v>53501</v>
       </c>
       <c r="B1343" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1343" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1343" s="2" t="n">
@@ -40937,11 +40937,11 @@
         <v>80116</v>
       </c>
       <c r="B1929" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1929" s="2" t="n">
@@ -84467,7 +84467,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>34191</v>
+        <v>11491</v>
       </c>
       <c r="B4002" t="n">
         <v>1</v>
@@ -84478,7 +84478,7 @@
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,7 +84488,7 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>41914</v>
+        <v>24352</v>
       </c>
       <c r="B4003" t="n">
         <v>1</v>
@@ -84499,7 +84499,7 @@
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45912</v>
+        <v>45908</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,7 +84509,7 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>43516</v>
+        <v>41916</v>
       </c>
       <c r="B4004" t="n">
         <v>1</v>
@@ -84520,7 +84520,7 @@
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45912</v>
+        <v>45902</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,7 +84530,7 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>45941</v>
+        <v>60175</v>
       </c>
       <c r="B4005" t="n">
         <v>1</v>
@@ -84541,7 +84541,7 @@
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,7 +84551,7 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>47075</v>
+        <v>61188</v>
       </c>
       <c r="B4006" t="n">
         <v>1</v>
@@ -84562,7 +84562,7 @@
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,7 +84572,7 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>48065</v>
+        <v>66559</v>
       </c>
       <c r="B4007" t="n">
         <v>1</v>
@@ -84583,7 +84583,7 @@
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,7 +84593,7 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>50720</v>
+        <v>66884</v>
       </c>
       <c r="B4008" t="n">
         <v>1</v>
@@ -84604,7 +84604,7 @@
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,7 +84614,7 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>57370</v>
+        <v>66886</v>
       </c>
       <c r="B4009" t="n">
         <v>1</v>
@@ -84625,7 +84625,7 @@
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45922</v>
+        <v>45911</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>62085</v>
+        <v>69031</v>
       </c>
       <c r="B4010" t="n">
         <v>1</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,7 +84656,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>65743</v>
+        <v>71105</v>
       </c>
       <c r="B4011" t="n">
         <v>1</v>
@@ -84667,7 +84667,7 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,7 +84677,7 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>77559</v>
+        <v>75928</v>
       </c>
       <c r="B4012" t="n">
         <v>1</v>
@@ -84688,7 +84688,7 @@
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,7 +84698,7 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>77560</v>
+        <v>76278</v>
       </c>
       <c r="B4013" t="n">
         <v>1</v>
@@ -84709,7 +84709,7 @@
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,7 +84719,7 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>79649</v>
+        <v>78016</v>
       </c>
       <c r="B4014" t="n">
         <v>1</v>
@@ -84730,7 +84730,7 @@
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45924</v>
+        <v>45904</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,7 +84740,7 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>33709</v>
+        <v>79318</v>
       </c>
       <c r="B4015" t="n">
         <v>1</v>
@@ -84751,7 +84751,7 @@
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>43165</v>
+        <v>42270</v>
       </c>
       <c r="B4016" t="n">
         <v>1</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>45655</v>
+        <v>45344</v>
       </c>
       <c r="B4017" t="n">
         <v>1</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,7 +84803,7 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>45656</v>
+        <v>62088</v>
       </c>
       <c r="B4018" t="n">
         <v>1</v>
@@ -84814,7 +84814,7 @@
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,7 +84824,7 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>49316</v>
+        <v>66709</v>
       </c>
       <c r="B4019" t="n">
         <v>1</v>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45904</v>
+        <v>45922</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>66880</v>
+        <v>75685</v>
       </c>
       <c r="B4020" t="n">
         <v>1</v>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>66881</v>
+        <v>76469</v>
       </c>
       <c r="B4021" t="n">
         <v>1</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>66882</v>
+        <v>28623</v>
       </c>
       <c r="B4022" t="n">
         <v>1</v>
@@ -84898,7 +84898,7 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>66883</v>
+        <v>36075</v>
       </c>
       <c r="B4023" t="n">
         <v>1</v>
@@ -84929,7 +84929,7 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>67918</v>
+        <v>51292</v>
       </c>
       <c r="B4024" t="n">
         <v>1</v>
@@ -84940,7 +84940,7 @@
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>70306</v>
+        <v>67109</v>
       </c>
       <c r="B4025" t="n">
         <v>1</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,7 +84971,7 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>71191</v>
+        <v>73706</v>
       </c>
       <c r="B4026" t="n">
         <v>1</v>
@@ -84982,7 +84982,7 @@
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45910</v>
+        <v>45918</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,7 +84992,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>72680</v>
+        <v>79829</v>
       </c>
       <c r="B4027" t="n">
         <v>1</v>
@@ -85003,7 +85003,7 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,7 +85013,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>79197</v>
+        <v>17382</v>
       </c>
       <c r="B4028" t="n">
         <v>1</v>
@@ -85024,7 +85024,7 @@
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45923</v>
+        <v>45916</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>30616</v>
+        <v>28130</v>
       </c>
       <c r="B4029" t="n">
         <v>1</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>31787</v>
+        <v>32590</v>
       </c>
       <c r="B4030" t="n">
         <v>1</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45919</v>
+        <v>45904</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>68886</v>
+        <v>36668</v>
       </c>
       <c r="B4031" t="n">
         <v>1</v>
@@ -85087,7 +85087,7 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45911</v>
+        <v>45922</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,7 +85097,7 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>72681</v>
+        <v>74254</v>
       </c>
       <c r="B4032" t="n">
         <v>1</v>
@@ -85108,7 +85108,7 @@
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45898</v>
+        <v>45916</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,7 +85118,7 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>79316</v>
+        <v>77248</v>
       </c>
       <c r="B4033" t="n">
         <v>1</v>
@@ -85129,7 +85129,7 @@
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45923</v>
+        <v>45903</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>69740</v>
+        <v>30616</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,7 +85160,7 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>72029</v>
+        <v>31787</v>
       </c>
       <c r="B4035" t="n">
         <v>1</v>
@@ -85171,7 +85171,7 @@
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>74938</v>
+        <v>41914</v>
       </c>
       <c r="B4036" t="n">
         <v>1</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45901</v>
+        <v>45912</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,7 +85202,7 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>77693</v>
+        <v>66880</v>
       </c>
       <c r="B4037" t="n">
         <v>1</v>
@@ -85213,7 +85213,7 @@
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45923</v>
+        <v>45902</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,7 +85223,7 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>79949</v>
+        <v>66881</v>
       </c>
       <c r="B4038" t="n">
         <v>1</v>
@@ -85234,7 +85234,7 @@
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45924</v>
+        <v>45908</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>28130</v>
+        <v>66882</v>
       </c>
       <c r="B4039" t="n">
         <v>1</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,7 +85265,7 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>32590</v>
+        <v>66883</v>
       </c>
       <c r="B4040" t="n">
         <v>1</v>
@@ -85276,7 +85276,7 @@
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,7 +85286,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>66559</v>
+        <v>67918</v>
       </c>
       <c r="B4041" t="n">
         <v>1</v>
@@ -85297,7 +85297,7 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45899</v>
+        <v>45898</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,7 +85307,7 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>66884</v>
+        <v>70306</v>
       </c>
       <c r="B4042" t="n">
         <v>1</v>
@@ -85318,7 +85318,7 @@
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45916</v>
+        <v>45910</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,7 +85328,7 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>66886</v>
+        <v>71191</v>
       </c>
       <c r="B4043" t="n">
         <v>1</v>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,7 +85349,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>69031</v>
+        <v>72680</v>
       </c>
       <c r="B4044" t="n">
         <v>1</v>
@@ -85360,7 +85360,7 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,7 +85370,7 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>71105</v>
+        <v>79197</v>
       </c>
       <c r="B4045" t="n">
         <v>1</v>
@@ -85381,7 +85381,7 @@
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45909</v>
+        <v>45923</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,7 +85391,7 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>75928</v>
+        <v>34191</v>
       </c>
       <c r="B4046" t="n">
         <v>1</v>
@@ -85402,7 +85402,7 @@
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,7 +85412,7 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>76278</v>
+        <v>50720</v>
       </c>
       <c r="B4047" t="n">
         <v>1</v>
@@ -85423,7 +85423,7 @@
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,7 +85433,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>78016</v>
+        <v>57370</v>
       </c>
       <c r="B4048" t="n">
         <v>1</v>
@@ -85444,7 +85444,7 @@
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45904</v>
+        <v>45922</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,7 +85454,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>79318</v>
+        <v>62085</v>
       </c>
       <c r="B4049" t="n">
         <v>1</v>
@@ -85465,7 +85465,7 @@
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,7 +85475,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>11491</v>
+        <v>65743</v>
       </c>
       <c r="B4050" t="n">
         <v>1</v>
@@ -85486,7 +85486,7 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45919</v>
+        <v>45901</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>24352</v>
+        <v>77559</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,7 +85517,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>41916</v>
+        <v>77560</v>
       </c>
       <c r="B4052" t="n">
         <v>1</v>
@@ -85528,7 +85528,7 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,7 +85538,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>62088</v>
+        <v>79649</v>
       </c>
       <c r="B4053" t="n">
         <v>1</v>
@@ -85549,7 +85549,7 @@
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45902</v>
+        <v>45924</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,7 +85559,7 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>66709</v>
+        <v>43516</v>
       </c>
       <c r="B4054" t="n">
         <v>1</v>
@@ -85570,7 +85570,7 @@
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45922</v>
+        <v>45912</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,7 +85580,7 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>75685</v>
+        <v>45655</v>
       </c>
       <c r="B4055" t="n">
         <v>1</v>
@@ -85591,7 +85591,7 @@
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,7 +85601,7 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>76469</v>
+        <v>45656</v>
       </c>
       <c r="B4056" t="n">
         <v>1</v>
@@ -85622,7 +85622,7 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>28623</v>
+        <v>49316</v>
       </c>
       <c r="B4057" t="n">
         <v>1</v>
@@ -85633,7 +85633,7 @@
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>36075</v>
+        <v>69740</v>
       </c>
       <c r="B4058" t="n">
         <v>1</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,7 +85664,7 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>42270</v>
+        <v>72029</v>
       </c>
       <c r="B4059" t="n">
         <v>1</v>
@@ -85675,7 +85675,7 @@
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45917</v>
+        <v>45897</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>45344</v>
+        <v>74938</v>
       </c>
       <c r="B4060" t="n">
         <v>1</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,7 +85706,7 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>51292</v>
+        <v>77693</v>
       </c>
       <c r="B4061" t="n">
         <v>1</v>
@@ -85717,7 +85717,7 @@
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45911</v>
+        <v>45923</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>67109</v>
+        <v>79949</v>
       </c>
       <c r="B4062" t="n">
         <v>1</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45909</v>
+        <v>45924</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,7 +85748,7 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>74254</v>
+        <v>33709</v>
       </c>
       <c r="B4063" t="n">
         <v>1</v>
@@ -85759,7 +85759,7 @@
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45916</v>
+        <v>45905</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,7 +85769,7 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>77248</v>
+        <v>43165</v>
       </c>
       <c r="B4064" t="n">
         <v>1</v>
@@ -85790,7 +85790,7 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>17382</v>
+        <v>45941</v>
       </c>
       <c r="B4065" t="n">
         <v>1</v>
@@ -85801,7 +85801,7 @@
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,7 +85811,7 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>36668</v>
+        <v>47075</v>
       </c>
       <c r="B4066" t="n">
         <v>1</v>
@@ -85822,7 +85822,7 @@
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45922</v>
+        <v>45911</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,7 +85832,7 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>60175</v>
+        <v>48065</v>
       </c>
       <c r="B4067" t="n">
         <v>1</v>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,7 +85853,7 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>61188</v>
+        <v>68886</v>
       </c>
       <c r="B4068" t="n">
         <v>1</v>
@@ -85864,7 +85864,7 @@
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45902</v>
+        <v>45911</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,7 +85874,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>73706</v>
+        <v>72681</v>
       </c>
       <c r="B4069" t="n">
         <v>1</v>
@@ -85885,7 +85885,7 @@
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45918</v>
+        <v>45898</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,7 +85895,7 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>79829</v>
+        <v>79316</v>
       </c>
       <c r="B4070" t="n">
         <v>1</v>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45903</v>
+        <v>45923</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>40863</v>
+        <v>34583</v>
       </c>
       <c r="B4071" t="n">
         <v>1</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,7 +85937,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>42176</v>
+        <v>52565</v>
       </c>
       <c r="B4072" t="n">
         <v>1</v>
@@ -85948,7 +85948,7 @@
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45917</v>
+        <v>45905</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,7 +85958,7 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>66885</v>
+        <v>55858</v>
       </c>
       <c r="B4073" t="n">
         <v>1</v>
@@ -85969,7 +85969,7 @@
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45895</v>
+        <v>45899</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,7 +85979,7 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>66887</v>
+        <v>57848</v>
       </c>
       <c r="B4074" t="n">
         <v>1</v>
@@ -85990,7 +85990,7 @@
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,7 +86000,7 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>70304</v>
+        <v>57681</v>
       </c>
       <c r="B4075" t="n">
         <v>1</v>
@@ -86011,7 +86011,7 @@
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>75182</v>
+        <v>57682</v>
       </c>
       <c r="B4076" t="n">
         <v>1</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,7 +86042,7 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>76154</v>
+        <v>60069</v>
       </c>
       <c r="B4077" t="n">
         <v>1</v>
@@ -86053,7 +86053,7 @@
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45898</v>
+        <v>45918</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,7 +86063,7 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>77029</v>
+        <v>61423</v>
       </c>
       <c r="B4078" t="n">
         <v>1</v>
@@ -86074,7 +86074,7 @@
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45911</v>
+        <v>45899</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,7 +86084,7 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>78015</v>
+        <v>61424</v>
       </c>
       <c r="B4079" t="n">
         <v>1</v>
@@ -86095,7 +86095,7 @@
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,7 +86105,7 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>79196</v>
+        <v>66888</v>
       </c>
       <c r="B4080" t="n">
         <v>1</v>
@@ -86126,7 +86126,7 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>79319</v>
+        <v>66889</v>
       </c>
       <c r="B4081" t="n">
         <v>1</v>
@@ -86137,7 +86137,7 @@
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45912</v>
+        <v>45895</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,7 +86147,7 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>79569</v>
+        <v>66890</v>
       </c>
       <c r="B4082" t="n">
         <v>1</v>
@@ -86158,7 +86158,7 @@
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,7 +86168,7 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>79405</v>
+        <v>67994</v>
       </c>
       <c r="B4083" t="n">
         <v>1</v>
@@ -86179,7 +86179,7 @@
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45901</v>
+        <v>45922</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>14827</v>
+        <v>69027</v>
       </c>
       <c r="B4084" t="n">
         <v>1</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45919</v>
+        <v>45902</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,7 +86210,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>24353</v>
+        <v>69029</v>
       </c>
       <c r="B4085" t="n">
         <v>1</v>
@@ -86221,7 +86221,7 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,7 +86231,7 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>35735</v>
+        <v>69030</v>
       </c>
       <c r="B4086" t="n">
         <v>1</v>
@@ -86242,7 +86242,7 @@
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45917</v>
+        <v>45923</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>39227</v>
+        <v>75181</v>
       </c>
       <c r="B4087" t="n">
         <v>1</v>
@@ -86273,7 +86273,7 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>47074</v>
+        <v>76969</v>
       </c>
       <c r="B4088" t="n">
         <v>1</v>
@@ -86284,7 +86284,7 @@
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45897</v>
+        <v>45911</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,7 +86294,7 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>48067</v>
+        <v>32964</v>
       </c>
       <c r="B4089" t="n">
         <v>1</v>
@@ -86305,7 +86305,7 @@
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45909</v>
+        <v>45916</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,7 +86315,7 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>62087</v>
+        <v>43676</v>
       </c>
       <c r="B4090" t="n">
         <v>1</v>
@@ -86326,7 +86326,7 @@
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45901</v>
+        <v>45918</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,7 +86336,7 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>62984</v>
+        <v>66891</v>
       </c>
       <c r="B4091" t="n">
         <v>1</v>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45897</v>
+        <v>45912</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,7 +86357,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>66792</v>
+        <v>71818</v>
       </c>
       <c r="B4092" t="n">
         <v>1</v>
@@ -86368,7 +86368,7 @@
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,7 +86378,7 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>66794</v>
+        <v>74462</v>
       </c>
       <c r="B4093" t="n">
         <v>1</v>
@@ -86389,7 +86389,7 @@
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,7 +86399,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>68266</v>
+        <v>78387</v>
       </c>
       <c r="B4094" t="n">
         <v>1</v>
@@ -86410,7 +86410,7 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,7 +86420,7 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>71817</v>
+        <v>78388</v>
       </c>
       <c r="B4095" t="n">
         <v>1</v>
@@ -86431,7 +86431,7 @@
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,7 +86441,7 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>76470</v>
+        <v>12960</v>
       </c>
       <c r="B4096" t="n">
         <v>1</v>
@@ -86452,7 +86452,7 @@
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45903</v>
+        <v>45896</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,7 +86462,7 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>78458</v>
+        <v>24589</v>
       </c>
       <c r="B4097" t="n">
         <v>1</v>
@@ -86473,7 +86473,7 @@
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45896</v>
+        <v>45917</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>15245</v>
+        <v>31992</v>
       </c>
       <c r="B4098" t="n">
         <v>1</v>
@@ -86494,7 +86494,7 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,7 +86504,7 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>36076</v>
+        <v>39901</v>
       </c>
       <c r="B4099" t="n">
         <v>1</v>
@@ -86515,7 +86515,7 @@
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45896</v>
+        <v>45918</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,7 +86525,7 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>39902</v>
+        <v>49089</v>
       </c>
       <c r="B4100" t="n">
         <v>1</v>
@@ -86536,7 +86536,7 @@
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>41315</v>
+        <v>53789</v>
       </c>
       <c r="B4101" t="n">
         <v>1</v>
@@ -86557,7 +86557,7 @@
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,7 +86567,7 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>50350</v>
+        <v>66021</v>
       </c>
       <c r="B4102" t="n">
         <v>1</v>
@@ -86578,7 +86578,7 @@
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45915</v>
+        <v>45899</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,7 +86588,7 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>53692</v>
+        <v>67358</v>
       </c>
       <c r="B4103" t="n">
         <v>1</v>
@@ -86599,7 +86599,7 @@
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,7 +86609,7 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>59497</v>
+        <v>73707</v>
       </c>
       <c r="B4104" t="n">
         <v>1</v>
@@ -86620,7 +86620,7 @@
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45918</v>
+        <v>45912</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,7 +86630,7 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>72844</v>
+        <v>74911</v>
       </c>
       <c r="B4105" t="n">
         <v>1</v>
@@ -86641,7 +86641,7 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>77247</v>
+        <v>38864</v>
       </c>
       <c r="B4106" t="n">
         <v>1</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>78192</v>
+        <v>48071</v>
       </c>
       <c r="B4107" t="n">
         <v>1</v>
@@ -86683,7 +86683,7 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,7 +86693,7 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>28872</v>
+        <v>48104</v>
       </c>
       <c r="B4108" t="n">
         <v>1</v>
@@ -86704,7 +86704,7 @@
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,7 +86714,7 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>40072</v>
+        <v>60555</v>
       </c>
       <c r="B4109" t="n">
         <v>1</v>
@@ -86725,7 +86725,7 @@
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45916</v>
+        <v>45896</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,7 +86735,7 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>66076</v>
+        <v>63865</v>
       </c>
       <c r="B4110" t="n">
         <v>1</v>
@@ -86746,7 +86746,7 @@
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45917</v>
+        <v>45905</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,7 +86756,7 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>69559</v>
+        <v>65134</v>
       </c>
       <c r="B4111" t="n">
         <v>1</v>
@@ -86767,7 +86767,7 @@
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,7 +86777,7 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>72260</v>
+        <v>74326</v>
       </c>
       <c r="B4112" t="n">
         <v>1</v>
@@ -86788,7 +86788,7 @@
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>74739</v>
+        <v>75346</v>
       </c>
       <c r="B4113" t="n">
         <v>1</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45909</v>
+        <v>45918</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,7 +86819,7 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>79828</v>
+        <v>14827</v>
       </c>
       <c r="B4114" t="n">
         <v>1</v>
@@ -86830,7 +86830,7 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,7 +86840,7 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>49089</v>
+        <v>24353</v>
       </c>
       <c r="B4115" t="n">
         <v>1</v>
@@ -86861,7 +86861,7 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>60555</v>
+        <v>28872</v>
       </c>
       <c r="B4116" t="n">
         <v>1</v>
@@ -86872,7 +86872,7 @@
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,7 +86882,7 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>66888</v>
+        <v>39227</v>
       </c>
       <c r="B4117" t="n">
         <v>1</v>
@@ -86893,7 +86893,7 @@
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,7 +86903,7 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>66889</v>
+        <v>66885</v>
       </c>
       <c r="B4118" t="n">
         <v>1</v>
@@ -86924,7 +86924,7 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>66890</v>
+        <v>66887</v>
       </c>
       <c r="B4119" t="n">
         <v>1</v>
@@ -86935,7 +86935,7 @@
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45896</v>
+        <v>45916</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,7 +86945,7 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>67994</v>
+        <v>70304</v>
       </c>
       <c r="B4120" t="n">
         <v>1</v>
@@ -86956,7 +86956,7 @@
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45922</v>
+        <v>45910</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,7 +86966,7 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>69027</v>
+        <v>75182</v>
       </c>
       <c r="B4121" t="n">
         <v>1</v>
@@ -86977,7 +86977,7 @@
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>69029</v>
+        <v>76154</v>
       </c>
       <c r="B4122" t="n">
         <v>1</v>
@@ -86998,7 +86998,7 @@
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,7 +87008,7 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>69030</v>
+        <v>77029</v>
       </c>
       <c r="B4123" t="n">
         <v>1</v>
@@ -87019,7 +87019,7 @@
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>75181</v>
+        <v>78015</v>
       </c>
       <c r="B4124" t="n">
         <v>1</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,7 +87050,7 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>76969</v>
+        <v>79196</v>
       </c>
       <c r="B4125" t="n">
         <v>1</v>
@@ -87061,7 +87061,7 @@
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,7 +87071,7 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>32964</v>
+        <v>79319</v>
       </c>
       <c r="B4126" t="n">
         <v>1</v>
@@ -87082,7 +87082,7 @@
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,7 +87092,7 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>48071</v>
+        <v>79569</v>
       </c>
       <c r="B4127" t="n">
         <v>1</v>
@@ -87103,7 +87103,7 @@
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45896</v>
+        <v>45901</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,7 +87113,7 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>48104</v>
+        <v>79405</v>
       </c>
       <c r="B4128" t="n">
         <v>1</v>
@@ -87124,7 +87124,7 @@
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,7 +87134,7 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>66891</v>
+        <v>35735</v>
       </c>
       <c r="B4129" t="n">
         <v>1</v>
@@ -87145,7 +87145,7 @@
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,7 +87155,7 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>71818</v>
+        <v>41315</v>
       </c>
       <c r="B4130" t="n">
         <v>1</v>
@@ -87166,7 +87166,7 @@
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>74462</v>
+        <v>50350</v>
       </c>
       <c r="B4131" t="n">
         <v>1</v>
@@ -87187,7 +87187,7 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,7 +87197,7 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>78387</v>
+        <v>62087</v>
       </c>
       <c r="B4132" t="n">
         <v>1</v>
@@ -87208,7 +87208,7 @@
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45912</v>
+        <v>45901</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,7 +87218,7 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>78388</v>
+        <v>62984</v>
       </c>
       <c r="B4133" t="n">
         <v>1</v>
@@ -87229,7 +87229,7 @@
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,7 +87239,7 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>12960</v>
+        <v>66792</v>
       </c>
       <c r="B4134" t="n">
         <v>1</v>
@@ -87250,7 +87250,7 @@
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,7 +87260,7 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>24589</v>
+        <v>66794</v>
       </c>
       <c r="B4135" t="n">
         <v>1</v>
@@ -87271,7 +87271,7 @@
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,7 +87281,7 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>34583</v>
+        <v>68266</v>
       </c>
       <c r="B4136" t="n">
         <v>1</v>
@@ -87292,7 +87292,7 @@
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,7 +87302,7 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>39901</v>
+        <v>71817</v>
       </c>
       <c r="B4137" t="n">
         <v>1</v>
@@ -87313,7 +87313,7 @@
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,7 +87323,7 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>43676</v>
+        <v>76470</v>
       </c>
       <c r="B4138" t="n">
         <v>1</v>
@@ -87334,7 +87334,7 @@
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,7 +87344,7 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>53789</v>
+        <v>78458</v>
       </c>
       <c r="B4139" t="n">
         <v>1</v>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,7 +87365,7 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>63865</v>
+        <v>15245</v>
       </c>
       <c r="B4140" t="n">
         <v>1</v>
@@ -87376,7 +87376,7 @@
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,7 +87386,7 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>65134</v>
+        <v>36076</v>
       </c>
       <c r="B4141" t="n">
         <v>1</v>
@@ -87397,7 +87397,7 @@
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,7 +87407,7 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>67358</v>
+        <v>39902</v>
       </c>
       <c r="B4142" t="n">
         <v>1</v>
@@ -87418,7 +87418,7 @@
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>74326</v>
+        <v>40863</v>
       </c>
       <c r="B4143" t="n">
         <v>1</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,7 +87449,7 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>75346</v>
+        <v>42176</v>
       </c>
       <c r="B4144" t="n">
         <v>1</v>
@@ -87460,7 +87460,7 @@
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,7 +87470,7 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>31992</v>
+        <v>53692</v>
       </c>
       <c r="B4145" t="n">
         <v>1</v>
@@ -87481,7 +87481,7 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45919</v>
+        <v>45896</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>38864</v>
+        <v>59497</v>
       </c>
       <c r="B4146" t="n">
         <v>1</v>
@@ -87502,7 +87502,7 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,7 +87512,7 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>52565</v>
+        <v>66076</v>
       </c>
       <c r="B4147" t="n">
         <v>1</v>
@@ -87523,7 +87523,7 @@
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,7 +87533,7 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>55858</v>
+        <v>69559</v>
       </c>
       <c r="B4148" t="n">
         <v>1</v>
@@ -87544,7 +87544,7 @@
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45899</v>
+        <v>45909</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,7 +87554,7 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>57848</v>
+        <v>72260</v>
       </c>
       <c r="B4149" t="n">
         <v>1</v>
@@ -87565,7 +87565,7 @@
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,7 +87575,7 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>57681</v>
+        <v>74739</v>
       </c>
       <c r="B4150" t="n">
         <v>1</v>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,7 +87596,7 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>57682</v>
+        <v>79828</v>
       </c>
       <c r="B4151" t="n">
         <v>1</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,7 +87617,7 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>60069</v>
+        <v>40072</v>
       </c>
       <c r="B4152" t="n">
         <v>1</v>
@@ -87628,7 +87628,7 @@
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,7 +87638,7 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>61423</v>
+        <v>47074</v>
       </c>
       <c r="B4153" t="n">
         <v>1</v>
@@ -87649,7 +87649,7 @@
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45899</v>
+        <v>45897</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>61424</v>
+        <v>48067</v>
       </c>
       <c r="B4154" t="n">
         <v>1</v>
@@ -87670,7 +87670,7 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,7 +87680,7 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>66021</v>
+        <v>72844</v>
       </c>
       <c r="B4155" t="n">
         <v>1</v>
@@ -87691,7 +87691,7 @@
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45899</v>
+        <v>45905</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>73707</v>
+        <v>77247</v>
       </c>
       <c r="B4156" t="n">
         <v>1</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45912</v>
+        <v>45908</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>74911</v>
+        <v>78192</v>
       </c>
       <c r="B4157" t="n">
         <v>1</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -1457,11 +1457,11 @@
         <v>16328</v>
       </c>
       <c r="B49" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
@@ -1877,11 +1877,11 @@
         <v>18926</v>
       </c>
       <c r="B69" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
@@ -2087,11 +2087,11 @@
         <v>10283</v>
       </c>
       <c r="B79" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
@@ -6875,11 +6875,11 @@
         <v>39465</v>
       </c>
       <c r="B307" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D307" s="2" t="n">
@@ -10361,11 +10361,11 @@
         <v>51581</v>
       </c>
       <c r="B473" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D473" s="2" t="n">
@@ -12839,11 +12839,11 @@
         <v>61172</v>
       </c>
       <c r="B591" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D591" s="2" t="n">
@@ -15212,11 +15212,11 @@
         <v>68420</v>
       </c>
       <c r="B704" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D704" s="2" t="n">
@@ -20231,11 +20231,11 @@
         <v>76623</v>
       </c>
       <c r="B943" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D943" s="2" t="n">
@@ -36905,11 +36905,11 @@
         <v>78378</v>
       </c>
       <c r="B1737" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1737" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1737" s="2" t="n">
@@ -37031,11 +37031,11 @@
         <v>78518</v>
       </c>
       <c r="B1743" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1743" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1743" s="2" t="n">
@@ -37241,11 +37241,11 @@
         <v>78798</v>
       </c>
       <c r="B1753" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1753" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1753" s="2" t="n">
@@ -37262,11 +37262,11 @@
         <v>78799</v>
       </c>
       <c r="B1754" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1754" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1754" s="2" t="n">
@@ -37388,11 +37388,11 @@
         <v>78869</v>
       </c>
       <c r="B1760" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1760" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1760" s="2" t="n">
@@ -37409,11 +37409,11 @@
         <v>78902</v>
       </c>
       <c r="B1761" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1761" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1761" s="2" t="n">
@@ -37451,11 +37451,11 @@
         <v>78871</v>
       </c>
       <c r="B1763" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1763" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1763" s="2" t="n">
@@ -37493,11 +37493,11 @@
         <v>78947</v>
       </c>
       <c r="B1765" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1765" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1765" s="2" t="n">
@@ -37514,11 +37514,11 @@
         <v>78951</v>
       </c>
       <c r="B1766" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1766" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1766" s="2" t="n">
@@ -37535,11 +37535,11 @@
         <v>78948</v>
       </c>
       <c r="B1767" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1767" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1767" s="2" t="n">
@@ -37556,11 +37556,11 @@
         <v>78950</v>
       </c>
       <c r="B1768" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1768" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1768" s="2" t="n">
@@ -37745,11 +37745,11 @@
         <v>79063</v>
       </c>
       <c r="B1777" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1777" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1777" s="2" t="n">
@@ -37892,11 +37892,11 @@
         <v>79068</v>
       </c>
       <c r="B1784" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1784" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1784" s="2" t="n">
@@ -38879,11 +38879,11 @@
         <v>79511</v>
       </c>
       <c r="B1831" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1831" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1831" s="2" t="n">
@@ -41126,11 +41126,11 @@
         <v>80135</v>
       </c>
       <c r="B1938" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1938" s="2" t="n">
@@ -41231,11 +41231,11 @@
         <v>80259</v>
       </c>
       <c r="B1943" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D1943" s="2" t="n">
@@ -42470,11 +42470,11 @@
         <v>19724</v>
       </c>
       <c r="B2002" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2002" s="2" t="n">
@@ -42491,11 +42491,11 @@
         <v>20819</v>
       </c>
       <c r="B2003" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
@@ -42512,11 +42512,11 @@
         <v>12111</v>
       </c>
       <c r="B2004" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
@@ -42659,11 +42659,11 @@
         <v>12998</v>
       </c>
       <c r="B2011" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2011" s="2" t="n">
@@ -42680,11 +42680,11 @@
         <v>12800</v>
       </c>
       <c r="B2012" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2012" s="2" t="n">
@@ -42743,11 +42743,11 @@
         <v>15006</v>
       </c>
       <c r="B2015" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2015" s="2" t="n">
@@ -42764,11 +42764,11 @@
         <v>15712</v>
       </c>
       <c r="B2016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2016" s="2" t="n">
@@ -42869,11 +42869,11 @@
         <v>18446</v>
       </c>
       <c r="B2021" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2021" s="2" t="n">
@@ -42911,11 +42911,11 @@
         <v>18620</v>
       </c>
       <c r="B2023" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2023" s="2" t="n">
@@ -42953,11 +42953,11 @@
         <v>20904</v>
       </c>
       <c r="B2025" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2025" s="2" t="n">
@@ -43079,11 +43079,11 @@
         <v>23448</v>
       </c>
       <c r="B2031" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2031" s="2" t="n">
@@ -43163,11 +43163,11 @@
         <v>24837</v>
       </c>
       <c r="B2035" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2035" s="2" t="n">
@@ -43184,11 +43184,11 @@
         <v>24904</v>
       </c>
       <c r="B2036" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2036" s="2" t="n">
@@ -43226,11 +43226,11 @@
         <v>26384</v>
       </c>
       <c r="B2038" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2038" s="2" t="n">
@@ -43268,11 +43268,11 @@
         <v>26829</v>
       </c>
       <c r="B2040" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2040" s="2" t="n">
@@ -43457,11 +43457,11 @@
         <v>29039</v>
       </c>
       <c r="B2049" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2049" s="2" t="n">
@@ -43499,11 +43499,11 @@
         <v>29270</v>
       </c>
       <c r="B2051" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2051" s="2" t="n">
@@ -43562,11 +43562,11 @@
         <v>30667</v>
       </c>
       <c r="B2054" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2054" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2054" s="2" t="n">
@@ -43604,11 +43604,11 @@
         <v>30670</v>
       </c>
       <c r="B2056" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2056" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2056" s="2" t="n">
@@ -43835,11 +43835,11 @@
         <v>33149</v>
       </c>
       <c r="B2067" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2067" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2067" s="2" t="n">
@@ -43919,11 +43919,11 @@
         <v>34208</v>
       </c>
       <c r="B2071" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2071" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2071" s="2" t="n">
@@ -43940,11 +43940,11 @@
         <v>34858</v>
       </c>
       <c r="B2072" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2072" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2072" s="2" t="n">
@@ -43961,11 +43961,11 @@
         <v>35200</v>
       </c>
       <c r="B2073" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2073" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2073" s="2" t="n">
@@ -43982,11 +43982,11 @@
         <v>35758</v>
       </c>
       <c r="B2074" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2074" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2074" s="2" t="n">
@@ -44150,11 +44150,11 @@
         <v>36752</v>
       </c>
       <c r="B2082" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2082" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2082" s="2" t="n">
@@ -44255,11 +44255,11 @@
         <v>37749</v>
       </c>
       <c r="B2087" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2087" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2087" s="2" t="n">
@@ -44360,11 +44360,11 @@
         <v>38478</v>
       </c>
       <c r="B2092" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2092" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2092" s="2" t="n">
@@ -44402,11 +44402,11 @@
         <v>38703</v>
       </c>
       <c r="B2094" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2094" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2094" s="2" t="n">
@@ -44528,11 +44528,11 @@
         <v>40083</v>
       </c>
       <c r="B2100" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2100" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2100" s="2" t="n">
@@ -44549,11 +44549,11 @@
         <v>40026</v>
       </c>
       <c r="B2101" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2101" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2101" s="2" t="n">
@@ -44675,11 +44675,11 @@
         <v>40642</v>
       </c>
       <c r="B2107" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2107" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2107" s="2" t="n">
@@ -44717,11 +44717,11 @@
         <v>40644</v>
       </c>
       <c r="B2109" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2109" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2109" s="2" t="n">
@@ -44738,11 +44738,11 @@
         <v>40647</v>
       </c>
       <c r="B2110" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2110" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2110" s="2" t="n">
@@ -44780,11 +44780,11 @@
         <v>41290</v>
       </c>
       <c r="B2112" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2112" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2112" s="2" t="n">
@@ -44801,11 +44801,11 @@
         <v>41848</v>
       </c>
       <c r="B2113" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2113" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2113" s="2" t="n">
@@ -44822,11 +44822,11 @@
         <v>41849</v>
       </c>
       <c r="B2114" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2114" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2114" s="2" t="n">
@@ -44843,11 +44843,11 @@
         <v>41855</v>
       </c>
       <c r="B2115" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2115" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2115" s="2" t="n">
@@ -45011,11 +45011,11 @@
         <v>42238</v>
       </c>
       <c r="B2123" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2123" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2123" s="2" t="n">
@@ -45053,11 +45053,11 @@
         <v>43073</v>
       </c>
       <c r="B2125" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2125" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2125" s="2" t="n">
@@ -45095,11 +45095,11 @@
         <v>43196</v>
       </c>
       <c r="B2127" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2127" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2127" s="2" t="n">
@@ -45137,11 +45137,11 @@
         <v>43199</v>
       </c>
       <c r="B2129" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2129" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2129" s="2" t="n">
@@ -45158,11 +45158,11 @@
         <v>43431</v>
       </c>
       <c r="B2130" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2130" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2130" s="2" t="n">
@@ -45263,11 +45263,11 @@
         <v>45676</v>
       </c>
       <c r="B2135" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2135" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2135" s="2" t="n">
@@ -45326,11 +45326,11 @@
         <v>46236</v>
       </c>
       <c r="B2138" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2138" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D2138" s="2" t="n">
@@ -45557,11 +45557,11 @@
         <v>47133</v>
       </c>
       <c r="B2149" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2149" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2149" s="2" t="n">
@@ -45578,11 +45578,11 @@
         <v>47135</v>
       </c>
       <c r="B2150" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2150" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2150" s="2" t="n">
@@ -45662,11 +45662,11 @@
         <v>47308</v>
       </c>
       <c r="B2154" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2154" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2154" s="2" t="n">
@@ -45683,11 +45683,11 @@
         <v>47309</v>
       </c>
       <c r="B2155" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2155" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2155" s="2" t="n">
@@ -45746,11 +45746,11 @@
         <v>47575</v>
       </c>
       <c r="B2158" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2158" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2158" s="2" t="n">
@@ -45809,11 +45809,11 @@
         <v>48384</v>
       </c>
       <c r="B2161" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2161" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2161" s="2" t="n">
@@ -45830,11 +45830,11 @@
         <v>48385</v>
       </c>
       <c r="B2162" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2162" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2162" s="2" t="n">
@@ -45851,11 +45851,11 @@
         <v>48461</v>
       </c>
       <c r="B2163" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2163" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2163" s="2" t="n">
@@ -45956,11 +45956,11 @@
         <v>49790</v>
       </c>
       <c r="B2168" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2168" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2168" s="2" t="n">
@@ -45977,11 +45977,11 @@
         <v>50034</v>
       </c>
       <c r="B2169" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2169" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2169" s="2" t="n">
@@ -46523,11 +46523,11 @@
         <v>51434</v>
       </c>
       <c r="B2195" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2195" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2195" s="2" t="n">
@@ -46544,11 +46544,11 @@
         <v>51435</v>
       </c>
       <c r="B2196" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2196" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2196" s="2" t="n">
@@ -46586,11 +46586,11 @@
         <v>52015</v>
       </c>
       <c r="B2198" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2198" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2198" s="2" t="n">
@@ -46712,11 +46712,11 @@
         <v>52016</v>
       </c>
       <c r="B2204" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2204" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2204" s="2" t="n">
@@ -46733,11 +46733,11 @@
         <v>52313</v>
       </c>
       <c r="B2205" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2205" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2205" s="2" t="n">
@@ -46817,11 +46817,11 @@
         <v>52577</v>
       </c>
       <c r="B2209" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2209" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2209" s="2" t="n">
@@ -46901,11 +46901,11 @@
         <v>52895</v>
       </c>
       <c r="B2213" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2213" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2213" s="2" t="n">
@@ -46964,11 +46964,11 @@
         <v>53030</v>
       </c>
       <c r="B2216" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2216" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2216" s="2" t="n">
@@ -47195,11 +47195,11 @@
         <v>53508</v>
       </c>
       <c r="B2227" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2227" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2227" s="2" t="n">
@@ -47363,11 +47363,11 @@
         <v>54089</v>
       </c>
       <c r="B2235" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2235" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2235" s="2" t="n">
@@ -47489,11 +47489,11 @@
         <v>54571</v>
       </c>
       <c r="B2241" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2241" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2241" s="2" t="n">
@@ -47594,11 +47594,11 @@
         <v>55338</v>
       </c>
       <c r="B2246" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2246" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2246" s="2" t="n">
@@ -47636,11 +47636,11 @@
         <v>55670</v>
       </c>
       <c r="B2248" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2248" s="2" t="n">
@@ -47657,11 +47657,11 @@
         <v>55671</v>
       </c>
       <c r="B2249" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2249" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2249" s="2" t="n">
@@ -47699,11 +47699,11 @@
         <v>55934</v>
       </c>
       <c r="B2251" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2251" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2251" s="2" t="n">
@@ -47720,11 +47720,11 @@
         <v>56122</v>
       </c>
       <c r="B2252" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2252" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2252" s="2" t="n">
@@ -47867,11 +47867,11 @@
         <v>56733</v>
       </c>
       <c r="B2259" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2259" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2259" s="2" t="n">
@@ -47972,11 +47972,11 @@
         <v>57130</v>
       </c>
       <c r="B2264" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2264" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2264" s="2" t="n">
@@ -47993,11 +47993,11 @@
         <v>57274</v>
       </c>
       <c r="B2265" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2265" s="2" t="n">
@@ -48035,11 +48035,11 @@
         <v>57275</v>
       </c>
       <c r="B2267" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2267" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2267" s="2" t="n">
@@ -48056,11 +48056,11 @@
         <v>57276</v>
       </c>
       <c r="B2268" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2268" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2268" s="2" t="n">
@@ -48266,11 +48266,11 @@
         <v>57553</v>
       </c>
       <c r="B2278" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2278" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2278" s="2" t="n">
@@ -48392,11 +48392,11 @@
         <v>57801</v>
       </c>
       <c r="B2284" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2284" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2284" s="2" t="n">
@@ -48497,11 +48497,11 @@
         <v>58548</v>
       </c>
       <c r="B2289" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2289" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2289" s="2" t="n">
@@ -48602,11 +48602,11 @@
         <v>58925</v>
       </c>
       <c r="B2294" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2294" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2294" s="2" t="n">
@@ -48749,11 +48749,11 @@
         <v>59161</v>
       </c>
       <c r="B2301" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2301" s="2" t="n">
@@ -48770,11 +48770,11 @@
         <v>59163</v>
       </c>
       <c r="B2302" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2302" s="2" t="n">
@@ -48812,11 +48812,11 @@
         <v>59247</v>
       </c>
       <c r="B2304" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2304" s="2" t="n">
@@ -49106,11 +49106,11 @@
         <v>60340</v>
       </c>
       <c r="B2318" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2318" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2318" s="2" t="n">
@@ -49148,11 +49148,11 @@
         <v>60343</v>
       </c>
       <c r="B2320" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2320" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2320" s="2" t="n">
@@ -49169,11 +49169,11 @@
         <v>60344</v>
       </c>
       <c r="B2321" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2321" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2321" s="2" t="n">
@@ -49316,11 +49316,11 @@
         <v>60493</v>
       </c>
       <c r="B2328" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2328" s="2" t="n">
@@ -49547,11 +49547,11 @@
         <v>60853</v>
       </c>
       <c r="B2339" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2339" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2339" s="2" t="n">
@@ -49568,11 +49568,11 @@
         <v>61224</v>
       </c>
       <c r="B2340" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2340" s="2" t="n">
@@ -50093,11 +50093,11 @@
         <v>62896</v>
       </c>
       <c r="B2365" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2365" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2365" s="2" t="n">
@@ -50156,11 +50156,11 @@
         <v>63293</v>
       </c>
       <c r="B2368" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2368" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2368" s="2" t="n">
@@ -50177,11 +50177,11 @@
         <v>63373</v>
       </c>
       <c r="B2369" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2369" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2369" s="2" t="n">
@@ -50555,11 +50555,11 @@
         <v>63958</v>
       </c>
       <c r="B2387" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2387" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2387" s="2" t="n">
@@ -50576,11 +50576,11 @@
         <v>64169</v>
       </c>
       <c r="B2388" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2388" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2388" s="2" t="n">
@@ -50597,11 +50597,11 @@
         <v>64170</v>
       </c>
       <c r="B2389" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2389" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2389" s="2" t="n">
@@ -50681,11 +50681,11 @@
         <v>64290</v>
       </c>
       <c r="B2393" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2393" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2393" s="2" t="n">
@@ -51080,11 +51080,11 @@
         <v>64787</v>
       </c>
       <c r="B2412" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2412" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2412" s="2" t="n">
@@ -51101,11 +51101,11 @@
         <v>64725</v>
       </c>
       <c r="B2413" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2413" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2413" s="2" t="n">
@@ -51164,11 +51164,11 @@
         <v>64903</v>
       </c>
       <c r="B2416" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2416" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2416" s="2" t="n">
@@ -51227,11 +51227,11 @@
         <v>65062</v>
       </c>
       <c r="B2419" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2419" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2419" s="2" t="n">
@@ -51332,11 +51332,11 @@
         <v>65259</v>
       </c>
       <c r="B2424" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2424" s="2" t="n">
@@ -51395,11 +51395,11 @@
         <v>65382</v>
       </c>
       <c r="B2427" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2427" s="2" t="n">
@@ -51416,11 +51416,11 @@
         <v>65384</v>
       </c>
       <c r="B2428" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2428" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2428" s="2" t="n">
@@ -51437,11 +51437,11 @@
         <v>65490</v>
       </c>
       <c r="B2429" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2429" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2429" s="2" t="n">
@@ -51479,11 +51479,11 @@
         <v>65492</v>
       </c>
       <c r="B2431" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2431" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2431" s="2" t="n">
@@ -51500,11 +51500,11 @@
         <v>65493</v>
       </c>
       <c r="B2432" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2432" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2432" s="2" t="n">
@@ -51521,11 +51521,11 @@
         <v>65494</v>
       </c>
       <c r="B2433" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2433" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2433" s="2" t="n">
@@ -51563,11 +51563,11 @@
         <v>65616</v>
       </c>
       <c r="B2435" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2435" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2435" s="2" t="n">
@@ -51584,11 +51584,11 @@
         <v>65617</v>
       </c>
       <c r="B2436" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2436" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2436" s="2" t="n">
@@ -51773,11 +51773,11 @@
         <v>66092</v>
       </c>
       <c r="B2445" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2445" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2445" s="2" t="n">
@@ -52130,11 +52130,11 @@
         <v>66925</v>
       </c>
       <c r="B2462" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2462" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2462" s="2" t="n">
@@ -52172,11 +52172,11 @@
         <v>66926</v>
       </c>
       <c r="B2464" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2464" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2464" s="2" t="n">
@@ -52319,11 +52319,11 @@
         <v>68005</v>
       </c>
       <c r="B2471" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2471" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2471" s="2" t="n">
@@ -52340,11 +52340,11 @@
         <v>67484</v>
       </c>
       <c r="B2472" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2472" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2472" s="2" t="n">
@@ -52382,11 +52382,11 @@
         <v>67768</v>
       </c>
       <c r="B2474" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2474" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2474" s="2" t="n">
@@ -52424,11 +52424,11 @@
         <v>67821</v>
       </c>
       <c r="B2476" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2476" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2476" s="2" t="n">
@@ -52445,11 +52445,11 @@
         <v>67822</v>
       </c>
       <c r="B2477" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2477" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2477" s="2" t="n">
@@ -52487,11 +52487,11 @@
         <v>67824</v>
       </c>
       <c r="B2479" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2479" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2479" s="2" t="n">
@@ -52571,11 +52571,11 @@
         <v>68079</v>
       </c>
       <c r="B2483" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2483" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2483" s="2" t="n">
@@ -52634,11 +52634,11 @@
         <v>68066</v>
       </c>
       <c r="B2486" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2486" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2486" s="2" t="n">
@@ -52886,11 +52886,11 @@
         <v>68531</v>
       </c>
       <c r="B2498" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2498" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2498" s="2" t="n">
@@ -53096,11 +53096,11 @@
         <v>69335</v>
       </c>
       <c r="B2508" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2508" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2508" s="2" t="n">
@@ -53159,11 +53159,11 @@
         <v>69177</v>
       </c>
       <c r="B2511" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2511" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2511" s="2" t="n">
@@ -53222,11 +53222,11 @@
         <v>69433</v>
       </c>
       <c r="B2514" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2514" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2514" s="2" t="n">
@@ -53495,11 +53495,11 @@
         <v>69909</v>
       </c>
       <c r="B2527" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2527" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2527" s="2" t="n">
@@ -53600,11 +53600,11 @@
         <v>70228</v>
       </c>
       <c r="B2532" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2532" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2532" s="2" t="n">
@@ -53768,11 +53768,11 @@
         <v>70230</v>
       </c>
       <c r="B2540" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2540" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2540" s="2" t="n">
@@ -53957,11 +53957,11 @@
         <v>70652</v>
       </c>
       <c r="B2549" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2549" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2549" s="2" t="n">
@@ -54062,11 +54062,11 @@
         <v>70654</v>
       </c>
       <c r="B2554" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2554" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2554" s="2" t="n">
@@ -54104,11 +54104,11 @@
         <v>70655</v>
       </c>
       <c r="B2556" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2556" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2556" s="2" t="n">
@@ -54251,11 +54251,11 @@
         <v>71221</v>
       </c>
       <c r="B2563" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2563" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2563" s="2" t="n">
@@ -54272,11 +54272,11 @@
         <v>71222</v>
       </c>
       <c r="B2564" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2564" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2564" s="2" t="n">
@@ -54545,11 +54545,11 @@
         <v>71610</v>
       </c>
       <c r="B2577" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2577" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2577" s="2" t="n">
@@ -54566,11 +54566,11 @@
         <v>71611</v>
       </c>
       <c r="B2578" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2578" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2578" s="2" t="n">
@@ -54587,11 +54587,11 @@
         <v>71540</v>
       </c>
       <c r="B2579" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2579" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2579" s="2" t="n">
@@ -54776,11 +54776,11 @@
         <v>71847</v>
       </c>
       <c r="B2588" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2588" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2588" s="2" t="n">
@@ -54797,11 +54797,11 @@
         <v>71833</v>
       </c>
       <c r="B2589" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2589" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2589" s="2" t="n">
@@ -54965,11 +54965,11 @@
         <v>72059</v>
       </c>
       <c r="B2597" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2597" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2597" s="2" t="n">
@@ -55280,11 +55280,11 @@
         <v>72611</v>
       </c>
       <c r="B2612" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2612" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2612" s="2" t="n">
@@ -55301,11 +55301,11 @@
         <v>72613</v>
       </c>
       <c r="B2613" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2613" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2613" s="2" t="n">
@@ -55322,11 +55322,11 @@
         <v>72614</v>
       </c>
       <c r="B2614" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2614" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2614" s="2" t="n">
@@ -55343,11 +55343,11 @@
         <v>72615</v>
       </c>
       <c r="B2615" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2615" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2615" s="2" t="n">
@@ -55406,11 +55406,11 @@
         <v>72720</v>
       </c>
       <c r="B2618" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2618" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2618" s="2" t="n">
@@ -55469,11 +55469,11 @@
         <v>72904</v>
       </c>
       <c r="B2621" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2621" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2621" s="2" t="n">
@@ -55490,11 +55490,11 @@
         <v>72905</v>
       </c>
       <c r="B2622" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2622" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2622" s="2" t="n">
@@ -55553,11 +55553,11 @@
         <v>73215</v>
       </c>
       <c r="B2625" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2625" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2625" s="2" t="n">
@@ -55616,11 +55616,11 @@
         <v>73340</v>
       </c>
       <c r="B2628" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2628" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2628" s="2" t="n">
@@ -56183,11 +56183,11 @@
         <v>74274</v>
       </c>
       <c r="B2655" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2655" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2655" s="2" t="n">
@@ -56225,11 +56225,11 @@
         <v>74276</v>
       </c>
       <c r="B2657" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2657" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2657" s="2" t="n">
@@ -56246,11 +56246,11 @@
         <v>74277</v>
       </c>
       <c r="B2658" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2658" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2658" s="2" t="n">
@@ -56267,11 +56267,11 @@
         <v>74278</v>
       </c>
       <c r="B2659" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2659" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2659" s="2" t="n">
@@ -56288,11 +56288,11 @@
         <v>74279</v>
       </c>
       <c r="B2660" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2660" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2660" s="2" t="n">
@@ -56351,11 +56351,11 @@
         <v>74283</v>
       </c>
       <c r="B2663" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2663" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2663" s="2" t="n">
@@ -56456,11 +56456,11 @@
         <v>74336</v>
       </c>
       <c r="B2668" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2668" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2668" s="2" t="n">
@@ -56477,11 +56477,11 @@
         <v>74337</v>
       </c>
       <c r="B2669" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2669" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2669" s="2" t="n">
@@ -56561,11 +56561,11 @@
         <v>74421</v>
       </c>
       <c r="B2673" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2673" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2673" s="2" t="n">
@@ -56582,11 +56582,11 @@
         <v>74422</v>
       </c>
       <c r="B2674" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2674" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2674" s="2" t="n">
@@ -56624,11 +56624,11 @@
         <v>74476</v>
       </c>
       <c r="B2676" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2676" s="2" t="n">
@@ -56645,11 +56645,11 @@
         <v>74493</v>
       </c>
       <c r="B2677" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2677" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2677" s="2" t="n">
@@ -56666,11 +56666,11 @@
         <v>74539</v>
       </c>
       <c r="B2678" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2678" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2678" s="2" t="n">
@@ -56750,11 +56750,11 @@
         <v>74540</v>
       </c>
       <c r="B2682" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2682" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2682" s="2" t="n">
@@ -56771,11 +56771,11 @@
         <v>74541</v>
       </c>
       <c r="B2683" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2683" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2683" s="2" t="n">
@@ -56834,11 +56834,11 @@
         <v>74779</v>
       </c>
       <c r="B2686" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2686" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2686" s="2" t="n">
@@ -56960,11 +56960,11 @@
         <v>74869</v>
       </c>
       <c r="B2692" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2692" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2692" s="2" t="n">
@@ -57107,11 +57107,11 @@
         <v>75135</v>
       </c>
       <c r="B2699" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2699" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2699" s="2" t="n">
@@ -57296,11 +57296,11 @@
         <v>75193</v>
       </c>
       <c r="B2708" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2708" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2708" s="2" t="n">
@@ -57338,11 +57338,11 @@
         <v>75195</v>
       </c>
       <c r="B2710" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2710" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2710" s="2" t="n">
@@ -57359,11 +57359,11 @@
         <v>75196</v>
       </c>
       <c r="B2711" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2711" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2711" s="2" t="n">
@@ -57380,11 +57380,11 @@
         <v>75197</v>
       </c>
       <c r="B2712" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2712" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2712" s="2" t="n">
@@ -57569,11 +57569,11 @@
         <v>75328</v>
       </c>
       <c r="B2721" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2721" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2721" s="2" t="n">
@@ -57590,11 +57590,11 @@
         <v>75343</v>
       </c>
       <c r="B2722" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2722" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2722" s="2" t="n">
@@ -57611,11 +57611,11 @@
         <v>75329</v>
       </c>
       <c r="B2723" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2723" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2723" s="2" t="n">
@@ -57674,11 +57674,11 @@
         <v>75349</v>
       </c>
       <c r="B2726" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2726" s="2" t="n">
@@ -57695,11 +57695,11 @@
         <v>75350</v>
       </c>
       <c r="B2727" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2727" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2727" s="2" t="n">
@@ -57716,11 +57716,11 @@
         <v>75351</v>
       </c>
       <c r="B2728" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2728" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2728" s="2" t="n">
@@ -57737,11 +57737,11 @@
         <v>75396</v>
       </c>
       <c r="B2729" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2729" s="2" t="n">
@@ -57800,11 +57800,11 @@
         <v>75403</v>
       </c>
       <c r="B2732" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2732" s="2" t="n">
@@ -57821,11 +57821,11 @@
         <v>75405</v>
       </c>
       <c r="B2733" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2733" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2733" s="2" t="n">
@@ -57905,11 +57905,11 @@
         <v>75443</v>
       </c>
       <c r="B2737" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2737" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2737" s="2" t="n">
@@ -57926,11 +57926,11 @@
         <v>75445</v>
       </c>
       <c r="B2738" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2738" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2738" s="2" t="n">
@@ -58010,11 +58010,11 @@
         <v>75609</v>
       </c>
       <c r="B2742" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2742" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2742" s="2" t="n">
@@ -58031,11 +58031,11 @@
         <v>75615</v>
       </c>
       <c r="B2743" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2743" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2743" s="2" t="n">
@@ -58115,11 +58115,11 @@
         <v>75734</v>
       </c>
       <c r="B2747" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2747" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2747" s="2" t="n">
@@ -58283,11 +58283,11 @@
         <v>75848</v>
       </c>
       <c r="B2755" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2755" s="2" t="n">
@@ -58451,11 +58451,11 @@
         <v>76000</v>
       </c>
       <c r="B2763" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2763" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2763" s="2" t="n">
@@ -58472,11 +58472,11 @@
         <v>76002</v>
       </c>
       <c r="B2764" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2764" s="2" t="n">
@@ -58535,11 +58535,11 @@
         <v>76127</v>
       </c>
       <c r="B2767" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2767" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2767" s="2" t="n">
@@ -58703,11 +58703,11 @@
         <v>76191</v>
       </c>
       <c r="B2775" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2775" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2775" s="2" t="n">
@@ -58724,11 +58724,11 @@
         <v>76234</v>
       </c>
       <c r="B2776" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2776" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2776" s="2" t="n">
@@ -58745,11 +58745,11 @@
         <v>76265</v>
       </c>
       <c r="B2777" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2777" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2777" s="2" t="n">
@@ -58892,11 +58892,11 @@
         <v>76263</v>
       </c>
       <c r="B2784" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2784" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2784" s="2" t="n">
@@ -58955,11 +58955,11 @@
         <v>76267</v>
       </c>
       <c r="B2787" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2787" s="2" t="n">
@@ -58976,11 +58976,11 @@
         <v>76306</v>
       </c>
       <c r="B2788" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2788" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2788" s="2" t="n">
@@ -59060,11 +59060,11 @@
         <v>76416</v>
       </c>
       <c r="B2792" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2792" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2792" s="2" t="n">
@@ -59081,11 +59081,11 @@
         <v>76415</v>
       </c>
       <c r="B2793" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2793" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2793" s="2" t="n">
@@ -59102,11 +59102,11 @@
         <v>76418</v>
       </c>
       <c r="B2794" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2794" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2794" s="2" t="n">
@@ -59417,11 +59417,11 @@
         <v>76727</v>
       </c>
       <c r="B2809" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2809" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2809" s="2" t="n">
@@ -59438,11 +59438,11 @@
         <v>76722</v>
       </c>
       <c r="B2810" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2810" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2810" s="2" t="n">
@@ -59459,11 +59459,11 @@
         <v>76726</v>
       </c>
       <c r="B2811" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2811" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2811" s="2" t="n">
@@ -59480,11 +59480,11 @@
         <v>76724</v>
       </c>
       <c r="B2812" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2812" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2812" s="2" t="n">
@@ -59522,11 +59522,11 @@
         <v>76767</v>
       </c>
       <c r="B2814" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2814" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2814" s="2" t="n">
@@ -59543,11 +59543,11 @@
         <v>76766</v>
       </c>
       <c r="B2815" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2815" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2815" s="2" t="n">
@@ -59585,11 +59585,11 @@
         <v>76797</v>
       </c>
       <c r="B2817" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2817" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2817" s="2" t="n">
@@ -59606,11 +59606,11 @@
         <v>76796</v>
       </c>
       <c r="B2818" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2818" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2818" s="2" t="n">
@@ -59669,11 +59669,11 @@
         <v>76889</v>
       </c>
       <c r="B2821" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2821" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2821" s="2" t="n">
@@ -59690,11 +59690,11 @@
         <v>76888</v>
       </c>
       <c r="B2822" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2822" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2822" s="2" t="n">
@@ -60005,11 +60005,11 @@
         <v>77167</v>
       </c>
       <c r="B2837" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2837" s="2" t="n">
@@ -60110,11 +60110,11 @@
         <v>77230</v>
       </c>
       <c r="B2842" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2842" s="2" t="n">
@@ -60131,11 +60131,11 @@
         <v>77305</v>
       </c>
       <c r="B2843" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2843" s="2" t="n">
@@ -60173,11 +60173,11 @@
         <v>77308</v>
       </c>
       <c r="B2845" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2845" s="2" t="n">
@@ -60194,11 +60194,11 @@
         <v>77275</v>
       </c>
       <c r="B2846" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2846" s="2" t="n">
@@ -60404,11 +60404,11 @@
         <v>77449</v>
       </c>
       <c r="B2856" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2856" s="2" t="n">
@@ -60572,11 +60572,11 @@
         <v>77608</v>
       </c>
       <c r="B2864" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2864" s="2" t="n">
@@ -60593,11 +60593,11 @@
         <v>77658</v>
       </c>
       <c r="B2865" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2865" s="2" t="n">
@@ -60656,11 +60656,11 @@
         <v>77662</v>
       </c>
       <c r="B2868" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2868" s="2" t="n">
@@ -60677,11 +60677,11 @@
         <v>77663</v>
       </c>
       <c r="B2869" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2869" s="2" t="n">
@@ -60719,11 +60719,11 @@
         <v>77664</v>
       </c>
       <c r="B2871" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2871" s="2" t="n">
@@ -60845,11 +60845,11 @@
         <v>77894</v>
       </c>
       <c r="B2877" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2877" s="2" t="n">
@@ -60908,11 +60908,11 @@
         <v>77958</v>
       </c>
       <c r="B2880" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2880" s="2" t="n">
@@ -60971,11 +60971,11 @@
         <v>78002</v>
       </c>
       <c r="B2883" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2883" s="2" t="n">
@@ -60992,11 +60992,11 @@
         <v>78003</v>
       </c>
       <c r="B2884" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2884" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2884" s="2" t="n">
@@ -61013,11 +61013,11 @@
         <v>78004</v>
       </c>
       <c r="B2885" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2885" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2885" s="2" t="n">
@@ -61139,11 +61139,11 @@
         <v>78184</v>
       </c>
       <c r="B2891" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2891" s="2" t="n">
@@ -61496,11 +61496,11 @@
         <v>78345</v>
       </c>
       <c r="B2908" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2908" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2908" s="2" t="n">
@@ -61517,11 +61517,11 @@
         <v>78346</v>
       </c>
       <c r="B2909" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2909" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2909" s="2" t="n">
@@ -61538,11 +61538,11 @@
         <v>78347</v>
       </c>
       <c r="B2910" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C2910" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D2910" s="2" t="n">
@@ -84467,7 +84467,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>12960</v>
+        <v>30616</v>
       </c>
       <c r="B4002" t="n">
         <v>2</v>
@@ -84478,7 +84478,7 @@
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45896</v>
+        <v>45901</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,7 +84488,7 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>32964</v>
+        <v>31787</v>
       </c>
       <c r="B4003" t="n">
         <v>2</v>
@@ -84499,7 +84499,7 @@
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45916</v>
+        <v>45919</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,7 +84509,7 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>66888</v>
+        <v>43516</v>
       </c>
       <c r="B4004" t="n">
         <v>2</v>
@@ -84520,7 +84520,7 @@
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45897</v>
+        <v>45912</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,7 +84530,7 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>66889</v>
+        <v>66880</v>
       </c>
       <c r="B4005" t="n">
         <v>2</v>
@@ -84541,7 +84541,7 @@
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,7 +84551,7 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>66890</v>
+        <v>66881</v>
       </c>
       <c r="B4006" t="n">
         <v>2</v>
@@ -84562,7 +84562,7 @@
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,7 +84572,7 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>67994</v>
+        <v>66882</v>
       </c>
       <c r="B4007" t="n">
         <v>2</v>
@@ -84583,7 +84583,7 @@
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,7 +84593,7 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>73707</v>
+        <v>66883</v>
       </c>
       <c r="B4008" t="n">
         <v>2</v>
@@ -84604,7 +84604,7 @@
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45912</v>
+        <v>45895</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,7 +84614,7 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>74911</v>
+        <v>67918</v>
       </c>
       <c r="B4009" t="n">
         <v>2</v>
@@ -84625,7 +84625,7 @@
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>24589</v>
+        <v>68886</v>
       </c>
       <c r="B4010" t="n">
         <v>2</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,7 +84656,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>34583</v>
+        <v>72681</v>
       </c>
       <c r="B4011" t="n">
         <v>2</v>
@@ -84667,7 +84667,7 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,7 +84677,7 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>38864</v>
+        <v>79197</v>
       </c>
       <c r="B4012" t="n">
         <v>2</v>
@@ -84688,7 +84688,7 @@
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,7 +84698,7 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>55858</v>
+        <v>70306</v>
       </c>
       <c r="B4013" t="n">
         <v>2</v>
@@ -84709,7 +84709,7 @@
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45899</v>
+        <v>45910</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,7 +84719,7 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>66891</v>
+        <v>71191</v>
       </c>
       <c r="B4014" t="n">
         <v>2</v>
@@ -84730,7 +84730,7 @@
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45912</v>
+        <v>45910</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,7 +84740,7 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>71818</v>
+        <v>72680</v>
       </c>
       <c r="B4015" t="n">
         <v>2</v>
@@ -84751,7 +84751,7 @@
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45905</v>
+        <v>45911</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>74462</v>
+        <v>79649</v>
       </c>
       <c r="B4016" t="n">
         <v>2</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45910</v>
+        <v>45924</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>78387</v>
+        <v>33709</v>
       </c>
       <c r="B4017" t="n">
         <v>2</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,7 +84803,7 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>78388</v>
+        <v>45941</v>
       </c>
       <c r="B4018" t="n">
         <v>2</v>
@@ -84814,7 +84814,7 @@
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,7 +84824,7 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>48071</v>
+        <v>47075</v>
       </c>
       <c r="B4019" t="n">
         <v>2</v>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45896</v>
+        <v>45911</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>48104</v>
+        <v>48065</v>
       </c>
       <c r="B4020" t="n">
         <v>2</v>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>49089</v>
+        <v>50720</v>
       </c>
       <c r="B4021" t="n">
         <v>2</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>53789</v>
+        <v>57370</v>
       </c>
       <c r="B4022" t="n">
         <v>2</v>
@@ -84898,7 +84898,7 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45898</v>
+        <v>45922</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>57848</v>
+        <v>62085</v>
       </c>
       <c r="B4023" t="n">
         <v>2</v>
@@ -84919,7 +84919,7 @@
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,7 +84929,7 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>57681</v>
+        <v>65743</v>
       </c>
       <c r="B4024" t="n">
         <v>2</v>
@@ -84940,7 +84940,7 @@
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>57682</v>
+        <v>77559</v>
       </c>
       <c r="B4025" t="n">
         <v>2</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,7 +84971,7 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>60069</v>
+        <v>77560</v>
       </c>
       <c r="B4026" t="n">
         <v>2</v>
@@ -84992,7 +84992,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>61423</v>
+        <v>79316</v>
       </c>
       <c r="B4027" t="n">
         <v>2</v>
@@ -85003,7 +85003,7 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45899</v>
+        <v>45923</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,7 +85013,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>61424</v>
+        <v>34191</v>
       </c>
       <c r="B4028" t="n">
         <v>2</v>
@@ -85024,7 +85024,7 @@
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>66021</v>
+        <v>41914</v>
       </c>
       <c r="B4029" t="n">
         <v>2</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45899</v>
+        <v>45912</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>74326</v>
+        <v>43165</v>
       </c>
       <c r="B4030" t="n">
         <v>2</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45915</v>
+        <v>45903</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>75346</v>
+        <v>45655</v>
       </c>
       <c r="B4031" t="n">
         <v>2</v>
@@ -85087,7 +85087,7 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,7 +85097,7 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>76969</v>
+        <v>45656</v>
       </c>
       <c r="B4032" t="n">
         <v>2</v>
@@ -85108,7 +85108,7 @@
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,7 +85118,7 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>31992</v>
+        <v>49316</v>
       </c>
       <c r="B4033" t="n">
         <v>2</v>
@@ -85129,7 +85129,7 @@
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45919</v>
+        <v>45904</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>39901</v>
+        <v>69740</v>
       </c>
       <c r="B4034" t="n">
         <v>2</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45918</v>
+        <v>45908</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,7 +85160,7 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>43676</v>
+        <v>72029</v>
       </c>
       <c r="B4035" t="n">
         <v>2</v>
@@ -85171,7 +85171,7 @@
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45918</v>
+        <v>45897</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>52565</v>
+        <v>74938</v>
       </c>
       <c r="B4036" t="n">
         <v>2</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,7 +85202,7 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>60555</v>
+        <v>77693</v>
       </c>
       <c r="B4037" t="n">
         <v>2</v>
@@ -85213,7 +85213,7 @@
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45896</v>
+        <v>45923</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,7 +85223,7 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>63865</v>
+        <v>79949</v>
       </c>
       <c r="B4038" t="n">
         <v>2</v>
@@ -85234,7 +85234,7 @@
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>65134</v>
+        <v>34583</v>
       </c>
       <c r="B4039" t="n">
         <v>2</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,7 +85265,7 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>67358</v>
+        <v>60555</v>
       </c>
       <c r="B4040" t="n">
         <v>2</v>
@@ -85276,7 +85276,7 @@
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,7 +85286,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>69027</v>
+        <v>66888</v>
       </c>
       <c r="B4041" t="n">
         <v>2</v>
@@ -85297,7 +85297,7 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,7 +85307,7 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>69029</v>
+        <v>66889</v>
       </c>
       <c r="B4042" t="n">
         <v>2</v>
@@ -85318,7 +85318,7 @@
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,7 +85328,7 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>69030</v>
+        <v>66890</v>
       </c>
       <c r="B4043" t="n">
         <v>2</v>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45923</v>
+        <v>45896</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,7 +85349,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>75181</v>
+        <v>67994</v>
       </c>
       <c r="B4044" t="n">
         <v>2</v>
@@ -85360,7 +85360,7 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,7 +85370,7 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>34191</v>
+        <v>74326</v>
       </c>
       <c r="B4045" t="n">
         <v>2</v>
@@ -85381,7 +85381,7 @@
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,7 +85391,7 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>50720</v>
+        <v>75346</v>
       </c>
       <c r="B4046" t="n">
         <v>2</v>
@@ -85402,7 +85402,7 @@
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45911</v>
+        <v>45918</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,7 +85412,7 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>66880</v>
+        <v>24589</v>
       </c>
       <c r="B4047" t="n">
         <v>2</v>
@@ -85423,7 +85423,7 @@
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,7 +85433,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>66881</v>
+        <v>31992</v>
       </c>
       <c r="B4048" t="n">
         <v>2</v>
@@ -85444,7 +85444,7 @@
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45908</v>
+        <v>45919</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,7 +85454,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>66882</v>
+        <v>52565</v>
       </c>
       <c r="B4049" t="n">
         <v>2</v>
@@ -85465,7 +85465,7 @@
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45917</v>
+        <v>45905</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,7 +85475,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>66883</v>
+        <v>55858</v>
       </c>
       <c r="B4050" t="n">
         <v>2</v>
@@ -85486,7 +85486,7 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45895</v>
+        <v>45899</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>67918</v>
+        <v>57848</v>
       </c>
       <c r="B4051" t="n">
         <v>2</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,7 +85517,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>72029</v>
+        <v>57681</v>
       </c>
       <c r="B4052" t="n">
         <v>2</v>
@@ -85528,7 +85528,7 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,7 +85538,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>74938</v>
+        <v>57682</v>
       </c>
       <c r="B4053" t="n">
         <v>2</v>
@@ -85549,7 +85549,7 @@
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,7 +85559,7 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>79197</v>
+        <v>60069</v>
       </c>
       <c r="B4054" t="n">
         <v>2</v>
@@ -85570,7 +85570,7 @@
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45923</v>
+        <v>45918</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,7 +85580,7 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>30616</v>
+        <v>61423</v>
       </c>
       <c r="B4055" t="n">
         <v>2</v>
@@ -85591,7 +85591,7 @@
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45901</v>
+        <v>45899</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,7 +85601,7 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>31787</v>
+        <v>61424</v>
       </c>
       <c r="B4056" t="n">
         <v>2</v>
@@ -85612,7 +85612,7 @@
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45919</v>
+        <v>45904</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,7 +85622,7 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>57370</v>
+        <v>63865</v>
       </c>
       <c r="B4057" t="n">
         <v>2</v>
@@ -85633,7 +85633,7 @@
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45922</v>
+        <v>45905</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>62085</v>
+        <v>66021</v>
       </c>
       <c r="B4058" t="n">
         <v>2</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45904</v>
+        <v>45899</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,7 +85664,7 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>65743</v>
+        <v>67358</v>
       </c>
       <c r="B4059" t="n">
         <v>2</v>
@@ -85675,7 +85675,7 @@
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>68886</v>
+        <v>69027</v>
       </c>
       <c r="B4060" t="n">
         <v>2</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,7 +85706,7 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>77559</v>
+        <v>69029</v>
       </c>
       <c r="B4061" t="n">
         <v>2</v>
@@ -85717,7 +85717,7 @@
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>77560</v>
+        <v>69030</v>
       </c>
       <c r="B4062" t="n">
         <v>2</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,7 +85748,7 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>79649</v>
+        <v>75181</v>
       </c>
       <c r="B4063" t="n">
         <v>2</v>
@@ -85759,7 +85759,7 @@
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45924</v>
+        <v>45895</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,7 +85769,7 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>33709</v>
+        <v>76969</v>
       </c>
       <c r="B4064" t="n">
         <v>2</v>
@@ -85780,7 +85780,7 @@
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45905</v>
+        <v>45911</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,7 +85790,7 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>41914</v>
+        <v>12960</v>
       </c>
       <c r="B4065" t="n">
         <v>2</v>
@@ -85801,7 +85801,7 @@
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45912</v>
+        <v>45896</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,7 +85811,7 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>43516</v>
+        <v>38864</v>
       </c>
       <c r="B4066" t="n">
         <v>2</v>
@@ -85822,7 +85822,7 @@
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,7 +85832,7 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>45941</v>
+        <v>39901</v>
       </c>
       <c r="B4067" t="n">
         <v>2</v>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45901</v>
+        <v>45918</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,7 +85853,7 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>47075</v>
+        <v>43676</v>
       </c>
       <c r="B4068" t="n">
         <v>2</v>
@@ -85864,7 +85864,7 @@
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45911</v>
+        <v>45918</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,7 +85874,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>48065</v>
+        <v>48071</v>
       </c>
       <c r="B4069" t="n">
         <v>2</v>
@@ -85885,7 +85885,7 @@
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,7 +85895,7 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>49316</v>
+        <v>48104</v>
       </c>
       <c r="B4070" t="n">
         <v>2</v>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>69740</v>
+        <v>66891</v>
       </c>
       <c r="B4071" t="n">
         <v>2</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,7 +85937,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>70306</v>
+        <v>71818</v>
       </c>
       <c r="B4072" t="n">
         <v>2</v>
@@ -85948,7 +85948,7 @@
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45910</v>
+        <v>45905</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,7 +85958,7 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>72681</v>
+        <v>74462</v>
       </c>
       <c r="B4073" t="n">
         <v>2</v>
@@ -85969,7 +85969,7 @@
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,7 +85979,7 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>79316</v>
+        <v>78387</v>
       </c>
       <c r="B4074" t="n">
         <v>2</v>
@@ -85990,7 +85990,7 @@
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45923</v>
+        <v>45912</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,7 +86000,7 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>43165</v>
+        <v>78388</v>
       </c>
       <c r="B4075" t="n">
         <v>2</v>
@@ -86011,7 +86011,7 @@
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>45655</v>
+        <v>32964</v>
       </c>
       <c r="B4076" t="n">
         <v>2</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45905</v>
+        <v>45916</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,7 +86042,7 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>45656</v>
+        <v>49089</v>
       </c>
       <c r="B4077" t="n">
         <v>2</v>
@@ -86053,7 +86053,7 @@
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45898</v>
+        <v>45915</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,7 +86063,7 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>71191</v>
+        <v>53789</v>
       </c>
       <c r="B4078" t="n">
         <v>2</v>
@@ -86074,7 +86074,7 @@
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,7 +86084,7 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>72680</v>
+        <v>65134</v>
       </c>
       <c r="B4079" t="n">
         <v>2</v>
@@ -86095,7 +86095,7 @@
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,7 +86105,7 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>77693</v>
+        <v>73707</v>
       </c>
       <c r="B4080" t="n">
         <v>2</v>
@@ -86116,7 +86116,7 @@
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45923</v>
+        <v>45912</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,7 +86126,7 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>79949</v>
+        <v>74911</v>
       </c>
       <c r="B4081" t="n">
         <v>2</v>
@@ -86137,7 +86137,7 @@
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45924</v>
+        <v>45903</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,7 +86147,7 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>24352</v>
+        <v>28623</v>
       </c>
       <c r="B4082" t="n">
         <v>2</v>
@@ -86158,7 +86158,7 @@
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,7 +86168,7 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>42270</v>
+        <v>66559</v>
       </c>
       <c r="B4083" t="n">
         <v>2</v>
@@ -86179,7 +86179,7 @@
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45917</v>
+        <v>45899</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>66559</v>
+        <v>66884</v>
       </c>
       <c r="B4084" t="n">
         <v>2</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45899</v>
+        <v>45916</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,7 +86210,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>66884</v>
+        <v>66886</v>
       </c>
       <c r="B4085" t="n">
         <v>2</v>
@@ -86221,7 +86221,7 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45916</v>
+        <v>45911</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,7 +86231,7 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>66886</v>
+        <v>74254</v>
       </c>
       <c r="B4086" t="n">
         <v>2</v>
@@ -86242,7 +86242,7 @@
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>73706</v>
+        <v>77248</v>
       </c>
       <c r="B4087" t="n">
         <v>2</v>
@@ -86263,7 +86263,7 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,7 +86273,7 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>75928</v>
+        <v>79318</v>
       </c>
       <c r="B4088" t="n">
         <v>2</v>
@@ -86284,7 +86284,7 @@
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,7 +86294,7 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>76278</v>
+        <v>17382</v>
       </c>
       <c r="B4089" t="n">
         <v>2</v>
@@ -86305,7 +86305,7 @@
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,7 +86315,7 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>77248</v>
+        <v>36075</v>
       </c>
       <c r="B4090" t="n">
         <v>2</v>
@@ -86326,7 +86326,7 @@
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,7 +86336,7 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>79318</v>
+        <v>60175</v>
       </c>
       <c r="B4091" t="n">
         <v>2</v>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,7 +86357,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>28623</v>
+        <v>61188</v>
       </c>
       <c r="B4092" t="n">
         <v>2</v>
@@ -86368,7 +86368,7 @@
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,7 +86378,7 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>62088</v>
+        <v>67109</v>
       </c>
       <c r="B4093" t="n">
         <v>2</v>
@@ -86389,7 +86389,7 @@
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,7 +86399,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>66709</v>
+        <v>69031</v>
       </c>
       <c r="B4094" t="n">
         <v>2</v>
@@ -86410,7 +86410,7 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,7 +86420,7 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>75685</v>
+        <v>71105</v>
       </c>
       <c r="B4095" t="n">
         <v>2</v>
@@ -86431,7 +86431,7 @@
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,7 +86441,7 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>76469</v>
+        <v>75928</v>
       </c>
       <c r="B4096" t="n">
         <v>2</v>
@@ -86452,7 +86452,7 @@
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45898</v>
+        <v>45915</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,7 +86462,7 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>11491</v>
+        <v>76278</v>
       </c>
       <c r="B4097" t="n">
         <v>2</v>
@@ -86473,7 +86473,7 @@
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45919</v>
+        <v>45910</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>17382</v>
+        <v>78016</v>
       </c>
       <c r="B4098" t="n">
         <v>2</v>
@@ -86494,7 +86494,7 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>36075</v>
+        <v>36668</v>
       </c>
       <c r="B4101" t="n">
         <v>2</v>
@@ -86557,7 +86557,7 @@
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,7 +86567,7 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>41916</v>
+        <v>42270</v>
       </c>
       <c r="B4102" t="n">
         <v>2</v>
@@ -86578,7 +86578,7 @@
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,7 +86588,7 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>51292</v>
+        <v>45344</v>
       </c>
       <c r="B4103" t="n">
         <v>2</v>
@@ -86599,7 +86599,7 @@
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,7 +86609,7 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>60175</v>
+        <v>62088</v>
       </c>
       <c r="B4104" t="n">
         <v>2</v>
@@ -86620,7 +86620,7 @@
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,7 +86630,7 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>61188</v>
+        <v>66709</v>
       </c>
       <c r="B4105" t="n">
         <v>2</v>
@@ -86641,7 +86641,7 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45902</v>
+        <v>45922</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>74254</v>
+        <v>75685</v>
       </c>
       <c r="B4106" t="n">
         <v>2</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>78016</v>
+        <v>76469</v>
       </c>
       <c r="B4107" t="n">
         <v>2</v>
@@ -86683,7 +86683,7 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,7 +86693,7 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>36668</v>
+        <v>11491</v>
       </c>
       <c r="B4108" t="n">
         <v>2</v>
@@ -86704,7 +86704,7 @@
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45922</v>
+        <v>45919</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,7 +86714,7 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>45344</v>
+        <v>24352</v>
       </c>
       <c r="B4109" t="n">
         <v>2</v>
@@ -86725,7 +86725,7 @@
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,7 +86735,7 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>67109</v>
+        <v>41916</v>
       </c>
       <c r="B4110" t="n">
         <v>2</v>
@@ -86746,7 +86746,7 @@
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,7 +86756,7 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>69031</v>
+        <v>51292</v>
       </c>
       <c r="B4111" t="n">
         <v>2</v>
@@ -86767,7 +86767,7 @@
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,7 +86777,7 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>71105</v>
+        <v>73706</v>
       </c>
       <c r="B4112" t="n">
         <v>2</v>
@@ -86788,7 +86788,7 @@
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45909</v>
+        <v>45918</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86819,7 +86819,7 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>15245</v>
+        <v>40863</v>
       </c>
       <c r="B4114" t="n">
         <v>2</v>
@@ -86830,7 +86830,7 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,7 +86840,7 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>24353</v>
+        <v>42176</v>
       </c>
       <c r="B4115" t="n">
         <v>2</v>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,7 +86861,7 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>59497</v>
+        <v>50350</v>
       </c>
       <c r="B4116" t="n">
         <v>2</v>
@@ -86872,7 +86872,7 @@
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86924,7 +86924,7 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>72260</v>
+        <v>72844</v>
       </c>
       <c r="B4119" t="n">
         <v>2</v>
@@ -86935,7 +86935,7 @@
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,7 +86945,7 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>74739</v>
+        <v>77247</v>
       </c>
       <c r="B4120" t="n">
         <v>2</v>
@@ -86956,7 +86956,7 @@
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,7 +86966,7 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>76154</v>
+        <v>78192</v>
       </c>
       <c r="B4121" t="n">
         <v>2</v>
@@ -86977,7 +86977,7 @@
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>77247</v>
+        <v>79196</v>
       </c>
       <c r="B4122" t="n">
         <v>2</v>
@@ -86998,7 +86998,7 @@
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,7 +87008,7 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>78192</v>
+        <v>79319</v>
       </c>
       <c r="B4123" t="n">
         <v>2</v>
@@ -87019,7 +87019,7 @@
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>79196</v>
+        <v>79569</v>
       </c>
       <c r="B4124" t="n">
         <v>2</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,7 +87050,7 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>79319</v>
+        <v>79405</v>
       </c>
       <c r="B4125" t="n">
         <v>2</v>
@@ -87061,7 +87061,7 @@
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45912</v>
+        <v>45901</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,7 +87071,7 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>79569</v>
+        <v>28872</v>
       </c>
       <c r="B4126" t="n">
         <v>2</v>
@@ -87082,7 +87082,7 @@
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,7 +87092,7 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>79405</v>
+        <v>36076</v>
       </c>
       <c r="B4127" t="n">
         <v>2</v>
@@ -87103,7 +87103,7 @@
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,7 +87113,7 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>62087</v>
+        <v>40072</v>
       </c>
       <c r="B4128" t="n">
         <v>2</v>
@@ -87124,7 +87124,7 @@
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45901</v>
+        <v>45916</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,7 +87134,7 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>62984</v>
+        <v>66076</v>
       </c>
       <c r="B4129" t="n">
         <v>2</v>
@@ -87145,7 +87145,7 @@
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,7 +87155,7 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>66792</v>
+        <v>70304</v>
       </c>
       <c r="B4130" t="n">
         <v>2</v>
@@ -87166,7 +87166,7 @@
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>66794</v>
+        <v>75182</v>
       </c>
       <c r="B4131" t="n">
         <v>2</v>
@@ -87187,7 +87187,7 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,7 +87197,7 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>71817</v>
+        <v>76154</v>
       </c>
       <c r="B4132" t="n">
         <v>2</v>
@@ -87208,7 +87208,7 @@
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,7 +87218,7 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>76470</v>
+        <v>77029</v>
       </c>
       <c r="B4133" t="n">
         <v>2</v>
@@ -87229,7 +87229,7 @@
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,7 +87239,7 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>78458</v>
+        <v>78015</v>
       </c>
       <c r="B4134" t="n">
         <v>2</v>
@@ -87250,7 +87250,7 @@
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,7 +87260,7 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>14827</v>
+        <v>15245</v>
       </c>
       <c r="B4135" t="n">
         <v>2</v>
@@ -87271,7 +87271,7 @@
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45919</v>
+        <v>45915</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,7 +87281,7 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>35735</v>
+        <v>39902</v>
       </c>
       <c r="B4136" t="n">
         <v>2</v>
@@ -87292,7 +87292,7 @@
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45917</v>
+        <v>45910</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,7 +87302,7 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>36076</v>
+        <v>41315</v>
       </c>
       <c r="B4137" t="n">
         <v>2</v>
@@ -87313,7 +87313,7 @@
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,7 +87323,7 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>39227</v>
+        <v>47074</v>
       </c>
       <c r="B4138" t="n">
         <v>2</v>
@@ -87334,7 +87334,7 @@
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,7 +87344,7 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>40072</v>
+        <v>48067</v>
       </c>
       <c r="B4139" t="n">
         <v>2</v>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,7 +87365,7 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>40863</v>
+        <v>62087</v>
       </c>
       <c r="B4140" t="n">
         <v>2</v>
@@ -87376,7 +87376,7 @@
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,7 +87386,7 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>47074</v>
+        <v>62984</v>
       </c>
       <c r="B4141" t="n">
         <v>2</v>
@@ -87407,7 +87407,7 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>48067</v>
+        <v>66792</v>
       </c>
       <c r="B4142" t="n">
         <v>2</v>
@@ -87418,7 +87418,7 @@
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45909</v>
+        <v>45895</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>53692</v>
+        <v>66794</v>
       </c>
       <c r="B4143" t="n">
         <v>2</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,7 +87449,7 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>66076</v>
+        <v>68266</v>
       </c>
       <c r="B4144" t="n">
         <v>2</v>
@@ -87460,7 +87460,7 @@
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,7 +87470,7 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>69559</v>
+        <v>71817</v>
       </c>
       <c r="B4145" t="n">
         <v>2</v>
@@ -87481,7 +87481,7 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>70304</v>
+        <v>76470</v>
       </c>
       <c r="B4146" t="n">
         <v>2</v>
@@ -87502,7 +87502,7 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,7 +87512,7 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>72844</v>
+        <v>78458</v>
       </c>
       <c r="B4147" t="n">
         <v>2</v>
@@ -87523,7 +87523,7 @@
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,7 +87533,7 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>77029</v>
+        <v>14827</v>
       </c>
       <c r="B4148" t="n">
         <v>2</v>
@@ -87544,7 +87544,7 @@
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,7 +87554,7 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>78015</v>
+        <v>24353</v>
       </c>
       <c r="B4149" t="n">
         <v>2</v>
@@ -87575,7 +87575,7 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>28872</v>
+        <v>35735</v>
       </c>
       <c r="B4150" t="n">
         <v>2</v>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,7 +87596,7 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>39902</v>
+        <v>39227</v>
       </c>
       <c r="B4151" t="n">
         <v>2</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,7 +87617,7 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>41315</v>
+        <v>53692</v>
       </c>
       <c r="B4152" t="n">
         <v>2</v>
@@ -87628,7 +87628,7 @@
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,7 +87638,7 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>42176</v>
+        <v>59497</v>
       </c>
       <c r="B4153" t="n">
         <v>2</v>
@@ -87649,7 +87649,7 @@
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>50350</v>
+        <v>69559</v>
       </c>
       <c r="B4154" t="n">
         <v>2</v>
@@ -87670,7 +87670,7 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,7 +87680,7 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>68266</v>
+        <v>72260</v>
       </c>
       <c r="B4155" t="n">
         <v>2</v>
@@ -87691,7 +87691,7 @@
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>75182</v>
+        <v>74739</v>
       </c>
       <c r="B4156" t="n">
         <v>2</v>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3463</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>438</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -87819,7 +87819,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -785,11 +785,11 @@
         <v>15607</v>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
@@ -5594,11 +5594,11 @@
         <v>35708</v>
       </c>
       <c r="B246" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D246" s="2" t="n">
@@ -8849,11 +8849,11 @@
         <v>47160</v>
       </c>
       <c r="B401" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D401" s="2" t="n">
@@ -9206,11 +9206,11 @@
         <v>48423</v>
       </c>
       <c r="B418" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D418" s="2" t="n">
@@ -10382,11 +10382,11 @@
         <v>51915</v>
       </c>
       <c r="B474" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D474" s="2" t="n">
@@ -11243,11 +11243,11 @@
         <v>55790</v>
       </c>
       <c r="B515" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D515" s="2" t="n">
@@ -11957,11 +11957,11 @@
         <v>58980</v>
       </c>
       <c r="B549" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D549" s="2" t="n">
@@ -14540,11 +14540,11 @@
         <v>66677</v>
       </c>
       <c r="B672" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D672" s="2" t="n">
@@ -14918,11 +14918,11 @@
         <v>67718</v>
       </c>
       <c r="B690" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D690" s="2" t="n">
@@ -17585,11 +17585,11 @@
         <v>72542</v>
       </c>
       <c r="B817" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D817" s="2" t="n">
@@ -19769,11 +19769,11 @@
         <v>75399</v>
       </c>
       <c r="B921" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D921" s="2" t="n">
@@ -19832,11 +19832,11 @@
         <v>75655</v>
       </c>
       <c r="B924" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D924" s="2" t="n">
@@ -24389,11 +24389,11 @@
         <v>31823</v>
       </c>
       <c r="B1141" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1141" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1141" s="2" t="n">
@@ -24998,11 +24998,11 @@
         <v>37025</v>
       </c>
       <c r="B1170" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1170" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1170" s="2" t="n">
@@ -37619,11 +37619,11 @@
         <v>79166</v>
       </c>
       <c r="B1771" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1771" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1771" s="2" t="n">
@@ -38312,11 +38312,11 @@
         <v>79333</v>
       </c>
       <c r="B1804" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1804" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1804" s="2" t="n">
@@ -42554,11 +42554,11 @@
         <v>10777</v>
       </c>
       <c r="B2006" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2006" s="2" t="n">
@@ -46523,11 +46523,11 @@
         <v>51434</v>
       </c>
       <c r="B2195" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2195" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2195" s="2" t="n">
@@ -47993,11 +47993,11 @@
         <v>57274</v>
       </c>
       <c r="B2265" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2265" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2265" s="2" t="n">
@@ -52634,11 +52634,11 @@
         <v>68066</v>
       </c>
       <c r="B2486" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2486" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2486" s="2" t="n">
@@ -57737,11 +57737,11 @@
         <v>75396</v>
       </c>
       <c r="B2729" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2729" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2729" s="2" t="n">
@@ -58283,11 +58283,11 @@
         <v>75848</v>
       </c>
       <c r="B2755" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2755" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2755" s="2" t="n">
@@ -60005,11 +60005,11 @@
         <v>77167</v>
       </c>
       <c r="B2837" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2837" s="2" t="n">
@@ -60572,11 +60572,11 @@
         <v>77608</v>
       </c>
       <c r="B2864" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2864" s="2" t="n">
@@ -62882,11 +62882,11 @@
         <v>79991</v>
       </c>
       <c r="B2974" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2974" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2974" s="2" t="n">
@@ -84467,7 +84467,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>30616</v>
+        <v>34191</v>
       </c>
       <c r="B4002" t="n">
         <v>2</v>
@@ -84478,7 +84478,7 @@
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,7 +84488,7 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>31787</v>
+        <v>43516</v>
       </c>
       <c r="B4003" t="n">
         <v>2</v>
@@ -84499,7 +84499,7 @@
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,7 +84509,7 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>43516</v>
+        <v>66880</v>
       </c>
       <c r="B4004" t="n">
         <v>2</v>
@@ -84520,7 +84520,7 @@
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45912</v>
+        <v>45902</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,7 +84530,7 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>66880</v>
+        <v>66881</v>
       </c>
       <c r="B4005" t="n">
         <v>2</v>
@@ -84541,7 +84541,7 @@
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,7 +84551,7 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>66881</v>
+        <v>66882</v>
       </c>
       <c r="B4006" t="n">
         <v>2</v>
@@ -84562,7 +84562,7 @@
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,7 +84572,7 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>66882</v>
+        <v>66883</v>
       </c>
       <c r="B4007" t="n">
         <v>2</v>
@@ -84583,7 +84583,7 @@
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,7 +84593,7 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>66883</v>
+        <v>67918</v>
       </c>
       <c r="B4008" t="n">
         <v>2</v>
@@ -84604,7 +84604,7 @@
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,7 +84614,7 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>67918</v>
+        <v>70306</v>
       </c>
       <c r="B4009" t="n">
         <v>2</v>
@@ -84625,7 +84625,7 @@
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>68886</v>
+        <v>72681</v>
       </c>
       <c r="B4010" t="n">
         <v>2</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,7 +84656,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>72681</v>
+        <v>79197</v>
       </c>
       <c r="B4011" t="n">
         <v>2</v>
@@ -84667,7 +84667,7 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,7 +84677,7 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>79197</v>
+        <v>45941</v>
       </c>
       <c r="B4012" t="n">
         <v>2</v>
@@ -84688,7 +84688,7 @@
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,7 +84698,7 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>70306</v>
+        <v>47075</v>
       </c>
       <c r="B4013" t="n">
         <v>2</v>
@@ -84709,7 +84709,7 @@
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,7 +84719,7 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>71191</v>
+        <v>48065</v>
       </c>
       <c r="B4014" t="n">
         <v>2</v>
@@ -84730,7 +84730,7 @@
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,7 +84740,7 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>72680</v>
+        <v>50720</v>
       </c>
       <c r="B4015" t="n">
         <v>2</v>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>79649</v>
+        <v>57370</v>
       </c>
       <c r="B4016" t="n">
         <v>2</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>33709</v>
+        <v>62085</v>
       </c>
       <c r="B4017" t="n">
         <v>2</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,7 +84803,7 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>45941</v>
+        <v>65743</v>
       </c>
       <c r="B4018" t="n">
         <v>2</v>
@@ -84824,7 +84824,7 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>47075</v>
+        <v>77559</v>
       </c>
       <c r="B4019" t="n">
         <v>2</v>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>48065</v>
+        <v>77560</v>
       </c>
       <c r="B4020" t="n">
         <v>2</v>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45898</v>
+        <v>45918</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>50720</v>
+        <v>79649</v>
       </c>
       <c r="B4021" t="n">
         <v>2</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45911</v>
+        <v>45924</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>57370</v>
+        <v>30616</v>
       </c>
       <c r="B4022" t="n">
         <v>2</v>
@@ -84898,7 +84898,7 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45922</v>
+        <v>45901</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>62085</v>
+        <v>31787</v>
       </c>
       <c r="B4023" t="n">
         <v>2</v>
@@ -84919,7 +84919,7 @@
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,7 +84929,7 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>65743</v>
+        <v>49316</v>
       </c>
       <c r="B4024" t="n">
         <v>2</v>
@@ -84940,7 +84940,7 @@
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>77559</v>
+        <v>68886</v>
       </c>
       <c r="B4025" t="n">
         <v>2</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45902</v>
+        <v>45911</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,7 +84971,7 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>77560</v>
+        <v>71191</v>
       </c>
       <c r="B4026" t="n">
         <v>2</v>
@@ -84982,7 +84982,7 @@
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,7 +84992,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>79316</v>
+        <v>72680</v>
       </c>
       <c r="B4027" t="n">
         <v>2</v>
@@ -85003,7 +85003,7 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,7 +85013,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>34191</v>
+        <v>79316</v>
       </c>
       <c r="B4028" t="n">
         <v>2</v>
@@ -85024,7 +85024,7 @@
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45909</v>
+        <v>45923</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>41914</v>
+        <v>33709</v>
       </c>
       <c r="B4029" t="n">
         <v>2</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>43165</v>
+        <v>41914</v>
       </c>
       <c r="B4030" t="n">
         <v>2</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>45655</v>
+        <v>43165</v>
       </c>
       <c r="B4031" t="n">
         <v>2</v>
@@ -85087,7 +85087,7 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,7 +85097,7 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>45656</v>
+        <v>45655</v>
       </c>
       <c r="B4032" t="n">
         <v>2</v>
@@ -85108,7 +85108,7 @@
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,7 +85118,7 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>49316</v>
+        <v>45656</v>
       </c>
       <c r="B4033" t="n">
         <v>2</v>
@@ -85129,7 +85129,7 @@
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>34583</v>
+        <v>11491</v>
       </c>
       <c r="B4039" t="n">
         <v>2</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,7 +85265,7 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>60555</v>
+        <v>24352</v>
       </c>
       <c r="B4040" t="n">
         <v>2</v>
@@ -85276,7 +85276,7 @@
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,7 +85286,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>66888</v>
+        <v>66559</v>
       </c>
       <c r="B4041" t="n">
         <v>2</v>
@@ -85297,7 +85297,7 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,7 +85307,7 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>66889</v>
+        <v>66884</v>
       </c>
       <c r="B4042" t="n">
         <v>2</v>
@@ -85318,7 +85318,7 @@
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45895</v>
+        <v>45916</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,7 +85328,7 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>66890</v>
+        <v>66886</v>
       </c>
       <c r="B4043" t="n">
         <v>2</v>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45896</v>
+        <v>45911</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,7 +85349,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>67994</v>
+        <v>69031</v>
       </c>
       <c r="B4044" t="n">
         <v>2</v>
@@ -85360,7 +85360,7 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,7 +85370,7 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>74326</v>
+        <v>74254</v>
       </c>
       <c r="B4045" t="n">
         <v>2</v>
@@ -85381,7 +85381,7 @@
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,7 +85391,7 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>75346</v>
+        <v>77248</v>
       </c>
       <c r="B4046" t="n">
         <v>2</v>
@@ -85402,7 +85402,7 @@
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,7 +85412,7 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>24589</v>
+        <v>79318</v>
       </c>
       <c r="B4047" t="n">
         <v>2</v>
@@ -85423,7 +85423,7 @@
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45917</v>
+        <v>45908</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,7 +85433,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>31992</v>
+        <v>17382</v>
       </c>
       <c r="B4048" t="n">
         <v>2</v>
@@ -85444,7 +85444,7 @@
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,7 +85454,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>52565</v>
+        <v>28623</v>
       </c>
       <c r="B4049" t="n">
         <v>2</v>
@@ -85465,7 +85465,7 @@
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,7 +85475,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>55858</v>
+        <v>36668</v>
       </c>
       <c r="B4050" t="n">
         <v>2</v>
@@ -85486,7 +85486,7 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45899</v>
+        <v>45922</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>57848</v>
+        <v>42270</v>
       </c>
       <c r="B4051" t="n">
         <v>2</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,7 +85517,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>57681</v>
+        <v>45344</v>
       </c>
       <c r="B4052" t="n">
         <v>2</v>
@@ -85528,7 +85528,7 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,7 +85538,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>57682</v>
+        <v>62088</v>
       </c>
       <c r="B4053" t="n">
         <v>2</v>
@@ -85549,7 +85549,7 @@
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,7 +85559,7 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>60069</v>
+        <v>66709</v>
       </c>
       <c r="B4054" t="n">
         <v>2</v>
@@ -85570,7 +85570,7 @@
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,7 +85580,7 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>61423</v>
+        <v>75685</v>
       </c>
       <c r="B4055" t="n">
         <v>2</v>
@@ -85591,7 +85591,7 @@
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45899</v>
+        <v>45908</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,7 +85601,7 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>61424</v>
+        <v>76469</v>
       </c>
       <c r="B4056" t="n">
         <v>2</v>
@@ -85612,7 +85612,7 @@
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,7 +85622,7 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>63865</v>
+        <v>36075</v>
       </c>
       <c r="B4057" t="n">
         <v>2</v>
@@ -85633,7 +85633,7 @@
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45905</v>
+        <v>45895</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>66021</v>
+        <v>51292</v>
       </c>
       <c r="B4058" t="n">
         <v>2</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45899</v>
+        <v>45911</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,7 +85664,7 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>67358</v>
+        <v>67109</v>
       </c>
       <c r="B4059" t="n">
         <v>2</v>
@@ -85675,7 +85675,7 @@
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>69027</v>
+        <v>71105</v>
       </c>
       <c r="B4060" t="n">
         <v>2</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,7 +85706,7 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>69029</v>
+        <v>75928</v>
       </c>
       <c r="B4061" t="n">
         <v>2</v>
@@ -85717,7 +85717,7 @@
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>69030</v>
+        <v>76278</v>
       </c>
       <c r="B4062" t="n">
         <v>2</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,7 +85748,7 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>75181</v>
+        <v>78016</v>
       </c>
       <c r="B4063" t="n">
         <v>2</v>
@@ -85759,7 +85759,7 @@
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,7 +85769,7 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>76969</v>
+        <v>28130</v>
       </c>
       <c r="B4064" t="n">
         <v>2</v>
@@ -85780,7 +85780,7 @@
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,7 +85790,7 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>12960</v>
+        <v>32590</v>
       </c>
       <c r="B4065" t="n">
         <v>2</v>
@@ -85801,7 +85801,7 @@
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,7 +85811,7 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>38864</v>
+        <v>41916</v>
       </c>
       <c r="B4066" t="n">
         <v>2</v>
@@ -85822,7 +85822,7 @@
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,7 +85832,7 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>39901</v>
+        <v>60175</v>
       </c>
       <c r="B4067" t="n">
         <v>2</v>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45918</v>
+        <v>45897</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,7 +85853,7 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>43676</v>
+        <v>61188</v>
       </c>
       <c r="B4068" t="n">
         <v>2</v>
@@ -85864,7 +85864,7 @@
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,7 +85874,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>48071</v>
+        <v>73706</v>
       </c>
       <c r="B4069" t="n">
         <v>2</v>
@@ -85885,7 +85885,7 @@
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45896</v>
+        <v>45918</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,7 +85895,7 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>48104</v>
+        <v>79829</v>
       </c>
       <c r="B4070" t="n">
         <v>2</v>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>66891</v>
+        <v>14827</v>
       </c>
       <c r="B4071" t="n">
         <v>2</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,7 +85937,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>71818</v>
+        <v>24353</v>
       </c>
       <c r="B4072" t="n">
         <v>2</v>
@@ -85948,7 +85948,7 @@
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,7 +85958,7 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>74462</v>
+        <v>35735</v>
       </c>
       <c r="B4073" t="n">
         <v>2</v>
@@ -85969,7 +85969,7 @@
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,7 +85979,7 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>78387</v>
+        <v>39227</v>
       </c>
       <c r="B4074" t="n">
         <v>2</v>
@@ -85990,7 +85990,7 @@
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45912</v>
+        <v>45895</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,7 +86000,7 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>78388</v>
+        <v>42176</v>
       </c>
       <c r="B4075" t="n">
         <v>2</v>
@@ -86011,7 +86011,7 @@
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>32964</v>
+        <v>50350</v>
       </c>
       <c r="B4076" t="n">
         <v>2</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,7 +86042,7 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>49089</v>
+        <v>66885</v>
       </c>
       <c r="B4077" t="n">
         <v>2</v>
@@ -86053,7 +86053,7 @@
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45915</v>
+        <v>45895</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,7 +86063,7 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>53789</v>
+        <v>66887</v>
       </c>
       <c r="B4078" t="n">
         <v>2</v>
@@ -86074,7 +86074,7 @@
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45898</v>
+        <v>45916</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,7 +86084,7 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>65134</v>
+        <v>70304</v>
       </c>
       <c r="B4079" t="n">
         <v>2</v>
@@ -86095,7 +86095,7 @@
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,7 +86105,7 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>73707</v>
+        <v>72844</v>
       </c>
       <c r="B4080" t="n">
         <v>2</v>
@@ -86116,7 +86116,7 @@
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,7 +86126,7 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>74911</v>
+        <v>77247</v>
       </c>
       <c r="B4081" t="n">
         <v>2</v>
@@ -86137,7 +86137,7 @@
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,7 +86147,7 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>28623</v>
+        <v>78192</v>
       </c>
       <c r="B4082" t="n">
         <v>2</v>
@@ -86158,7 +86158,7 @@
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45918</v>
+        <v>45908</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,7 +86168,7 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>66559</v>
+        <v>79196</v>
       </c>
       <c r="B4083" t="n">
         <v>2</v>
@@ -86179,7 +86179,7 @@
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45899</v>
+        <v>45897</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>66884</v>
+        <v>79319</v>
       </c>
       <c r="B4084" t="n">
         <v>2</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,7 +86210,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>66886</v>
+        <v>79569</v>
       </c>
       <c r="B4085" t="n">
         <v>2</v>
@@ -86221,7 +86221,7 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,7 +86231,7 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>74254</v>
+        <v>79405</v>
       </c>
       <c r="B4086" t="n">
         <v>2</v>
@@ -86242,7 +86242,7 @@
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>77248</v>
+        <v>39902</v>
       </c>
       <c r="B4087" t="n">
         <v>2</v>
@@ -86263,7 +86263,7 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,7 +86273,7 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>79318</v>
+        <v>41315</v>
       </c>
       <c r="B4088" t="n">
         <v>2</v>
@@ -86284,7 +86284,7 @@
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,7 +86294,7 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>17382</v>
+        <v>47074</v>
       </c>
       <c r="B4089" t="n">
         <v>2</v>
@@ -86305,7 +86305,7 @@
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45916</v>
+        <v>45897</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,7 +86315,7 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>36075</v>
+        <v>48067</v>
       </c>
       <c r="B4090" t="n">
         <v>2</v>
@@ -86326,7 +86326,7 @@
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,7 +86336,7 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>60175</v>
+        <v>62087</v>
       </c>
       <c r="B4091" t="n">
         <v>2</v>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,7 +86357,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>61188</v>
+        <v>62984</v>
       </c>
       <c r="B4092" t="n">
         <v>2</v>
@@ -86368,7 +86368,7 @@
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,7 +86378,7 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>67109</v>
+        <v>66792</v>
       </c>
       <c r="B4093" t="n">
         <v>2</v>
@@ -86389,7 +86389,7 @@
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45909</v>
+        <v>45895</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,7 +86399,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>69031</v>
+        <v>66794</v>
       </c>
       <c r="B4094" t="n">
         <v>2</v>
@@ -86410,7 +86410,7 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,7 +86420,7 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>71105</v>
+        <v>68266</v>
       </c>
       <c r="B4095" t="n">
         <v>2</v>
@@ -86431,7 +86431,7 @@
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,7 +86441,7 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>75928</v>
+        <v>71817</v>
       </c>
       <c r="B4096" t="n">
         <v>2</v>
@@ -86452,7 +86452,7 @@
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,7 +86462,7 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>76278</v>
+        <v>76470</v>
       </c>
       <c r="B4097" t="n">
         <v>2</v>
@@ -86473,7 +86473,7 @@
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>78016</v>
+        <v>78458</v>
       </c>
       <c r="B4098" t="n">
         <v>2</v>
@@ -86494,7 +86494,7 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,7 +86504,7 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>28130</v>
+        <v>15245</v>
       </c>
       <c r="B4099" t="n">
         <v>2</v>
@@ -86515,7 +86515,7 @@
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,7 +86525,7 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>32590</v>
+        <v>28872</v>
       </c>
       <c r="B4100" t="n">
         <v>2</v>
@@ -86536,7 +86536,7 @@
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>36668</v>
+        <v>36076</v>
       </c>
       <c r="B4101" t="n">
         <v>2</v>
@@ -86557,7 +86557,7 @@
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45922</v>
+        <v>45896</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,7 +86567,7 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>42270</v>
+        <v>40072</v>
       </c>
       <c r="B4102" t="n">
         <v>2</v>
@@ -86578,7 +86578,7 @@
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,7 +86588,7 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>45344</v>
+        <v>53692</v>
       </c>
       <c r="B4103" t="n">
         <v>2</v>
@@ -86599,7 +86599,7 @@
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45910</v>
+        <v>45896</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,7 +86609,7 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>62088</v>
+        <v>59497</v>
       </c>
       <c r="B4104" t="n">
         <v>2</v>
@@ -86620,7 +86620,7 @@
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,7 +86630,7 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>66709</v>
+        <v>75182</v>
       </c>
       <c r="B4105" t="n">
         <v>2</v>
@@ -86641,7 +86641,7 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>75685</v>
+        <v>76154</v>
       </c>
       <c r="B4106" t="n">
         <v>2</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>76469</v>
+        <v>77029</v>
       </c>
       <c r="B4107" t="n">
         <v>2</v>
@@ -86683,7 +86683,7 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,7 +86693,7 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>11491</v>
+        <v>78015</v>
       </c>
       <c r="B4108" t="n">
         <v>2</v>
@@ -86704,7 +86704,7 @@
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45919</v>
+        <v>45915</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,7 +86714,7 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>24352</v>
+        <v>40863</v>
       </c>
       <c r="B4109" t="n">
         <v>2</v>
@@ -86725,7 +86725,7 @@
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45908</v>
+        <v>45916</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,7 +86735,7 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>41916</v>
+        <v>66076</v>
       </c>
       <c r="B4110" t="n">
         <v>2</v>
@@ -86746,7 +86746,7 @@
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,7 +86756,7 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>51292</v>
+        <v>69559</v>
       </c>
       <c r="B4111" t="n">
         <v>2</v>
@@ -86767,7 +86767,7 @@
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,7 +86777,7 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>73706</v>
+        <v>72260</v>
       </c>
       <c r="B4112" t="n">
         <v>2</v>
@@ -86788,7 +86788,7 @@
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>79829</v>
+        <v>74739</v>
       </c>
       <c r="B4113" t="n">
         <v>2</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,7 +86819,7 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>40863</v>
+        <v>79828</v>
       </c>
       <c r="B4114" t="n">
         <v>2</v>
@@ -86830,7 +86830,7 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,7 +86840,7 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>42176</v>
+        <v>32964</v>
       </c>
       <c r="B4115" t="n">
         <v>2</v>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,7 +86861,7 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>50350</v>
+        <v>60555</v>
       </c>
       <c r="B4116" t="n">
         <v>2</v>
@@ -86872,7 +86872,7 @@
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45915</v>
+        <v>45896</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,7 +86882,7 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>66885</v>
+        <v>66888</v>
       </c>
       <c r="B4117" t="n">
         <v>2</v>
@@ -86893,7 +86893,7 @@
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,7 +86903,7 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>66887</v>
+        <v>66889</v>
       </c>
       <c r="B4118" t="n">
         <v>2</v>
@@ -86914,7 +86914,7 @@
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,7 +86924,7 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>72844</v>
+        <v>66890</v>
       </c>
       <c r="B4119" t="n">
         <v>2</v>
@@ -86935,7 +86935,7 @@
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,7 +86945,7 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>77247</v>
+        <v>67994</v>
       </c>
       <c r="B4120" t="n">
         <v>2</v>
@@ -86956,7 +86956,7 @@
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45908</v>
+        <v>45922</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,7 +86966,7 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>78192</v>
+        <v>69027</v>
       </c>
       <c r="B4121" t="n">
         <v>2</v>
@@ -86977,7 +86977,7 @@
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>79196</v>
+        <v>69029</v>
       </c>
       <c r="B4122" t="n">
         <v>2</v>
@@ -86998,7 +86998,7 @@
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,7 +87008,7 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>79319</v>
+        <v>69030</v>
       </c>
       <c r="B4123" t="n">
         <v>2</v>
@@ -87019,7 +87019,7 @@
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45912</v>
+        <v>45923</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>79569</v>
+        <v>74326</v>
       </c>
       <c r="B4124" t="n">
         <v>2</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,7 +87050,7 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>79405</v>
+        <v>75346</v>
       </c>
       <c r="B4125" t="n">
         <v>2</v>
@@ -87061,7 +87061,7 @@
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45901</v>
+        <v>45918</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,7 +87071,7 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>28872</v>
+        <v>24589</v>
       </c>
       <c r="B4126" t="n">
         <v>2</v>
@@ -87082,7 +87082,7 @@
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,7 +87092,7 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>36076</v>
+        <v>31992</v>
       </c>
       <c r="B4127" t="n">
         <v>2</v>
@@ -87103,7 +87103,7 @@
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45896</v>
+        <v>45919</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,7 +87113,7 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>40072</v>
+        <v>38864</v>
       </c>
       <c r="B4128" t="n">
         <v>2</v>
@@ -87124,7 +87124,7 @@
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,7 +87134,7 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>66076</v>
+        <v>39901</v>
       </c>
       <c r="B4129" t="n">
         <v>2</v>
@@ -87145,7 +87145,7 @@
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,7 +87155,7 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>70304</v>
+        <v>43676</v>
       </c>
       <c r="B4130" t="n">
         <v>2</v>
@@ -87166,7 +87166,7 @@
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45910</v>
+        <v>45918</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>75182</v>
+        <v>48071</v>
       </c>
       <c r="B4131" t="n">
         <v>2</v>
@@ -87187,7 +87187,7 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,7 +87197,7 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>76154</v>
+        <v>48104</v>
       </c>
       <c r="B4132" t="n">
         <v>2</v>
@@ -87208,7 +87208,7 @@
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,7 +87218,7 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>77029</v>
+        <v>66891</v>
       </c>
       <c r="B4133" t="n">
         <v>2</v>
@@ -87229,7 +87229,7 @@
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,7 +87239,7 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>78015</v>
+        <v>71818</v>
       </c>
       <c r="B4134" t="n">
         <v>2</v>
@@ -87250,7 +87250,7 @@
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,7 +87260,7 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>15245</v>
+        <v>74462</v>
       </c>
       <c r="B4135" t="n">
         <v>2</v>
@@ -87271,7 +87271,7 @@
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,7 +87281,7 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>39902</v>
+        <v>78387</v>
       </c>
       <c r="B4136" t="n">
         <v>2</v>
@@ -87292,7 +87292,7 @@
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,7 +87302,7 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>41315</v>
+        <v>78388</v>
       </c>
       <c r="B4137" t="n">
         <v>2</v>
@@ -87313,7 +87313,7 @@
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,7 +87323,7 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>47074</v>
+        <v>12960</v>
       </c>
       <c r="B4138" t="n">
         <v>2</v>
@@ -87334,7 +87334,7 @@
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,7 +87344,7 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>48067</v>
+        <v>34583</v>
       </c>
       <c r="B4139" t="n">
         <v>2</v>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,7 +87365,7 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>62087</v>
+        <v>49089</v>
       </c>
       <c r="B4140" t="n">
         <v>2</v>
@@ -87376,7 +87376,7 @@
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,7 +87386,7 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>62984</v>
+        <v>53789</v>
       </c>
       <c r="B4141" t="n">
         <v>2</v>
@@ -87397,7 +87397,7 @@
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,7 +87407,7 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>66792</v>
+        <v>65134</v>
       </c>
       <c r="B4142" t="n">
         <v>2</v>
@@ -87418,7 +87418,7 @@
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>66794</v>
+        <v>67358</v>
       </c>
       <c r="B4143" t="n">
         <v>2</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,7 +87449,7 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>68266</v>
+        <v>75181</v>
       </c>
       <c r="B4144" t="n">
         <v>2</v>
@@ -87460,7 +87460,7 @@
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,7 +87470,7 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>71817</v>
+        <v>76969</v>
       </c>
       <c r="B4145" t="n">
         <v>2</v>
@@ -87481,7 +87481,7 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45902</v>
+        <v>45911</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>76470</v>
+        <v>52565</v>
       </c>
       <c r="B4146" t="n">
         <v>2</v>
@@ -87502,7 +87502,7 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,7 +87512,7 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>78458</v>
+        <v>55858</v>
       </c>
       <c r="B4147" t="n">
         <v>2</v>
@@ -87523,7 +87523,7 @@
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,7 +87533,7 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>14827</v>
+        <v>57848</v>
       </c>
       <c r="B4148" t="n">
         <v>2</v>
@@ -87544,7 +87544,7 @@
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45919</v>
+        <v>45908</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,7 +87554,7 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>24353</v>
+        <v>57681</v>
       </c>
       <c r="B4149" t="n">
         <v>2</v>
@@ -87565,7 +87565,7 @@
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45915</v>
+        <v>45895</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,7 +87575,7 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>35735</v>
+        <v>57682</v>
       </c>
       <c r="B4150" t="n">
         <v>2</v>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45917</v>
+        <v>45910</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,7 +87596,7 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>39227</v>
+        <v>60069</v>
       </c>
       <c r="B4151" t="n">
         <v>2</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45895</v>
+        <v>45918</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,7 +87617,7 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>53692</v>
+        <v>61423</v>
       </c>
       <c r="B4152" t="n">
         <v>2</v>
@@ -87628,7 +87628,7 @@
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,7 +87638,7 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>59497</v>
+        <v>61424</v>
       </c>
       <c r="B4153" t="n">
         <v>2</v>
@@ -87649,7 +87649,7 @@
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>69559</v>
+        <v>63865</v>
       </c>
       <c r="B4154" t="n">
         <v>2</v>
@@ -87670,7 +87670,7 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,7 +87680,7 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>72260</v>
+        <v>66021</v>
       </c>
       <c r="B4155" t="n">
         <v>2</v>
@@ -87691,7 +87691,7 @@
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45903</v>
+        <v>45899</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>74739</v>
+        <v>73707</v>
       </c>
       <c r="B4156" t="n">
         <v>2</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>79828</v>
+        <v>74911</v>
       </c>
       <c r="B4157" t="n">
         <v>2</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3222</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>662</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -554,11 +554,11 @@
         <v>19843</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -869,11 +869,11 @@
         <v>12796</v>
       </c>
       <c r="B21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
@@ -5867,11 +5867,11 @@
         <v>37125</v>
       </c>
       <c r="B259" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D259" s="2" t="n">
@@ -10466,11 +10466,11 @@
         <v>52213</v>
       </c>
       <c r="B478" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D478" s="2" t="n">
@@ -26153,11 +26153,11 @@
         <v>45004</v>
       </c>
       <c r="B1225" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1225" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1225" s="2" t="n">
@@ -39068,11 +39068,11 @@
         <v>79540</v>
       </c>
       <c r="B1840" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1840" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1840" s="2" t="n">
@@ -51857,11 +51857,11 @@
         <v>66449</v>
       </c>
       <c r="B2449" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2449" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2449" s="2" t="n">
@@ -52382,11 +52382,11 @@
         <v>67768</v>
       </c>
       <c r="B2474" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2474" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2474" s="2" t="n">
@@ -61139,11 +61139,11 @@
         <v>78184</v>
       </c>
       <c r="B2891" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2891" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2891" s="2" t="n">
@@ -62294,11 +62294,11 @@
         <v>79359</v>
       </c>
       <c r="B2946" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2946" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2946" s="2" t="n">
@@ -84467,7 +84467,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>30616</v>
+        <v>36076</v>
       </c>
       <c r="B4002" t="n">
         <v>9</v>
@@ -84478,7 +84478,7 @@
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,7 +84488,7 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>31787</v>
+        <v>40072</v>
       </c>
       <c r="B4003" t="n">
         <v>2</v>
@@ -84499,7 +84499,7 @@
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,7 +84509,7 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>57370</v>
+        <v>66076</v>
       </c>
       <c r="B4004" t="n">
         <v>2</v>
@@ -84520,7 +84520,7 @@
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,18 +84530,18 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>62085</v>
+        <v>69559</v>
       </c>
       <c r="B4005" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4005" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,7 +84551,7 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>65743</v>
+        <v>72260</v>
       </c>
       <c r="B4006" t="n">
         <v>9</v>
@@ -84562,7 +84562,7 @@
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,18 +84572,18 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>77559</v>
+        <v>74739</v>
       </c>
       <c r="B4007" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4007" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,18 +84593,18 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>77560</v>
+        <v>76154</v>
       </c>
       <c r="B4008" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45918</v>
+        <v>45898</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,7 +84614,7 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>79197</v>
+        <v>77029</v>
       </c>
       <c r="B4009" t="n">
         <v>2</v>
@@ -84625,7 +84625,7 @@
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45923</v>
+        <v>45911</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>34191</v>
+        <v>78015</v>
       </c>
       <c r="B4010" t="n">
         <v>2</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,18 +84656,18 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>41914</v>
+        <v>79196</v>
       </c>
       <c r="B4011" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4011" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,7 +84677,7 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>43516</v>
+        <v>79319</v>
       </c>
       <c r="B4012" t="n">
         <v>2</v>
@@ -84698,7 +84698,7 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>45941</v>
+        <v>79569</v>
       </c>
       <c r="B4013" t="n">
         <v>9</v>
@@ -84719,18 +84719,18 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>47075</v>
+        <v>79405</v>
       </c>
       <c r="B4014" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,18 +84740,18 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>48065</v>
+        <v>15245</v>
       </c>
       <c r="B4015" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4015" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45898</v>
+        <v>45915</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,18 +84761,18 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>50720</v>
+        <v>28872</v>
       </c>
       <c r="B4016" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4016" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>68886</v>
+        <v>40863</v>
       </c>
       <c r="B4017" t="n">
         <v>2</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,18 +84803,18 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>72681</v>
+        <v>42176</v>
       </c>
       <c r="B4018" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4018" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45898</v>
+        <v>45917</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,18 +84824,18 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>79649</v>
+        <v>47074</v>
       </c>
       <c r="B4019" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45924</v>
+        <v>45897</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>33709</v>
+        <v>48067</v>
       </c>
       <c r="B4020" t="n">
         <v>2</v>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>43165</v>
+        <v>62087</v>
       </c>
       <c r="B4021" t="n">
         <v>9</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,18 +84887,18 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>45655</v>
+        <v>62984</v>
       </c>
       <c r="B4022" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>45656</v>
+        <v>66792</v>
       </c>
       <c r="B4023" t="n">
         <v>9</v>
@@ -84919,7 +84919,7 @@
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,7 +84929,7 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>49316</v>
+        <v>66794</v>
       </c>
       <c r="B4024" t="n">
         <v>9</v>
@@ -84940,7 +84940,7 @@
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>66880</v>
+        <v>68266</v>
       </c>
       <c r="B4025" t="n">
         <v>9</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,18 +84971,18 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>66881</v>
+        <v>71817</v>
       </c>
       <c r="B4026" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4026" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,18 +84992,18 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>66882</v>
+        <v>76470</v>
       </c>
       <c r="B4027" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4027" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,7 +85013,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>66883</v>
+        <v>78458</v>
       </c>
       <c r="B4028" t="n">
         <v>9</v>
@@ -85024,7 +85024,7 @@
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,18 +85034,18 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>67918</v>
+        <v>14827</v>
       </c>
       <c r="B4029" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4029" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>70306</v>
+        <v>24353</v>
       </c>
       <c r="B4030" t="n">
         <v>2</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>71191</v>
+        <v>35735</v>
       </c>
       <c r="B4031" t="n">
         <v>2</v>
@@ -85087,7 +85087,7 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,18 +85097,18 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>72680</v>
+        <v>39227</v>
       </c>
       <c r="B4032" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4032" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45911</v>
+        <v>45895</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,18 +85118,18 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>79316</v>
+        <v>53692</v>
       </c>
       <c r="B4033" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4033" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45923</v>
+        <v>45896</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>69740</v>
+        <v>59497</v>
       </c>
       <c r="B4034" t="n">
         <v>2</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,7 +85160,7 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>72029</v>
+        <v>72844</v>
       </c>
       <c r="B4035" t="n">
         <v>9</v>
@@ -85171,7 +85171,7 @@
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,18 +85181,18 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>74938</v>
+        <v>77247</v>
       </c>
       <c r="B4036" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4036" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45901</v>
+        <v>45908</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,7 +85202,7 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>77693</v>
+        <v>78192</v>
       </c>
       <c r="B4037" t="n">
         <v>2</v>
@@ -85213,7 +85213,7 @@
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,7 +85223,7 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>79949</v>
+        <v>39902</v>
       </c>
       <c r="B4038" t="n">
         <v>2</v>
@@ -85234,7 +85234,7 @@
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,18 +85244,18 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>15245</v>
+        <v>41315</v>
       </c>
       <c r="B4039" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4039" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,18 +85265,18 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>36076</v>
+        <v>50350</v>
       </c>
       <c r="B4040" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4040" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,18 +85286,18 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>40072</v>
+        <v>66885</v>
       </c>
       <c r="B4041" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4041" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,18 +85307,18 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>62087</v>
+        <v>66887</v>
       </c>
       <c r="B4042" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4042" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45901</v>
+        <v>45916</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,18 +85328,18 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>62984</v>
+        <v>70304</v>
       </c>
       <c r="B4043" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4043" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,18 +85349,18 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>66792</v>
+        <v>75182</v>
       </c>
       <c r="B4044" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4044" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,18 +85370,18 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>66794</v>
+        <v>79828</v>
       </c>
       <c r="B4045" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4045" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>68266</v>
+        <v>33709</v>
       </c>
       <c r="B4046" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,18 +85412,18 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>76470</v>
+        <v>69740</v>
       </c>
       <c r="B4047" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4047" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,18 +85433,18 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>78192</v>
+        <v>72029</v>
       </c>
       <c r="B4048" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4048" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,7 +85454,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>79196</v>
+        <v>74938</v>
       </c>
       <c r="B4049" t="n">
         <v>9</v>
@@ -85465,7 +85465,7 @@
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,7 +85475,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>79319</v>
+        <v>79197</v>
       </c>
       <c r="B4050" t="n">
         <v>2</v>
@@ -85486,7 +85486,7 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45912</v>
+        <v>45923</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>79569</v>
+        <v>30616</v>
       </c>
       <c r="B4051" t="n">
         <v>9</v>
@@ -85517,18 +85517,18 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>79405</v>
+        <v>31787</v>
       </c>
       <c r="B4052" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4052" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,7 +85538,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>14827</v>
+        <v>43516</v>
       </c>
       <c r="B4053" t="n">
         <v>2</v>
@@ -85549,7 +85549,7 @@
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,18 +85559,18 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>24353</v>
+        <v>45941</v>
       </c>
       <c r="B4054" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4054" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,7 +85580,7 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>35735</v>
+        <v>47075</v>
       </c>
       <c r="B4055" t="n">
         <v>2</v>
@@ -85591,7 +85591,7 @@
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,7 +85601,7 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>39227</v>
+        <v>48065</v>
       </c>
       <c r="B4056" t="n">
         <v>9</v>
@@ -85612,7 +85612,7 @@
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,18 +85622,18 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>47074</v>
+        <v>50720</v>
       </c>
       <c r="B4057" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4057" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45897</v>
+        <v>45911</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>48067</v>
+        <v>57370</v>
       </c>
       <c r="B4058" t="n">
         <v>2</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45909</v>
+        <v>45922</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,18 +85664,18 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>59497</v>
+        <v>62085</v>
       </c>
       <c r="B4059" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4059" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>71817</v>
+        <v>65743</v>
       </c>
       <c r="B4060" t="n">
         <v>9</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,7 +85706,7 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>72844</v>
+        <v>77559</v>
       </c>
       <c r="B4061" t="n">
         <v>9</v>
@@ -85717,7 +85717,7 @@
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>77247</v>
+        <v>77560</v>
       </c>
       <c r="B4062" t="n">
         <v>2</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,18 +85748,18 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>78458</v>
+        <v>79649</v>
       </c>
       <c r="B4063" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4063" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45896</v>
+        <v>45924</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,18 +85769,18 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>28872</v>
+        <v>34191</v>
       </c>
       <c r="B4064" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4064" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,7 +85790,7 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>40863</v>
+        <v>41914</v>
       </c>
       <c r="B4065" t="n">
         <v>2</v>
@@ -85801,7 +85801,7 @@
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>42176</v>
+        <v>43165</v>
       </c>
       <c r="B4066" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,18 +85832,18 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>53692</v>
+        <v>45655</v>
       </c>
       <c r="B4067" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4067" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,7 +85853,7 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>66885</v>
+        <v>45656</v>
       </c>
       <c r="B4068" t="n">
         <v>9</v>
@@ -85864,7 +85864,7 @@
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,18 +85874,18 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>66887</v>
+        <v>49316</v>
       </c>
       <c r="B4069" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4069" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,7 +85895,7 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>70304</v>
+        <v>68886</v>
       </c>
       <c r="B4070" t="n">
         <v>2</v>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,18 +85916,18 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>75182</v>
+        <v>72681</v>
       </c>
       <c r="B4071" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4071" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,18 +85937,18 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>76154</v>
+        <v>79316</v>
       </c>
       <c r="B4072" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4072" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,18 +85958,18 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>77029</v>
+        <v>66880</v>
       </c>
       <c r="B4073" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,7 +85979,7 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>78015</v>
+        <v>66881</v>
       </c>
       <c r="B4074" t="n">
         <v>2</v>
@@ -85990,7 +85990,7 @@
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,7 +86000,7 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>39902</v>
+        <v>66882</v>
       </c>
       <c r="B4075" t="n">
         <v>2</v>
@@ -86011,7 +86011,7 @@
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>41315</v>
+        <v>66883</v>
       </c>
       <c r="B4076" t="n">
         <v>9</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,18 +86042,18 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>50350</v>
+        <v>67918</v>
       </c>
       <c r="B4077" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4077" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45915</v>
+        <v>45898</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,7 +86063,7 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>66076</v>
+        <v>70306</v>
       </c>
       <c r="B4078" t="n">
         <v>2</v>
@@ -86074,7 +86074,7 @@
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45917</v>
+        <v>45910</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,7 +86084,7 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>69559</v>
+        <v>71191</v>
       </c>
       <c r="B4079" t="n">
         <v>2</v>
@@ -86095,7 +86095,7 @@
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,18 +86105,18 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>72260</v>
+        <v>72680</v>
       </c>
       <c r="B4080" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4080" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,7 +86126,7 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>74739</v>
+        <v>77693</v>
       </c>
       <c r="B4081" t="n">
         <v>2</v>
@@ -86137,7 +86137,7 @@
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45909</v>
+        <v>45923</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,7 +86147,7 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>79828</v>
+        <v>79949</v>
       </c>
       <c r="B4082" t="n">
         <v>2</v>
@@ -86158,7 +86158,7 @@
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,18 +86168,18 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>28623</v>
+        <v>28130</v>
       </c>
       <c r="B4083" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4083" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>36075</v>
+        <v>32590</v>
       </c>
       <c r="B4084" t="n">
         <v>9</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,7 +86210,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>62088</v>
+        <v>36075</v>
       </c>
       <c r="B4085" t="n">
         <v>9</v>
@@ -86221,7 +86221,7 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,18 +86231,18 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>66709</v>
+        <v>60175</v>
       </c>
       <c r="B4086" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4086" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45922</v>
+        <v>45897</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,18 +86252,18 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>75685</v>
+        <v>61188</v>
       </c>
       <c r="B4087" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4087" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,18 +86273,18 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>76469</v>
+        <v>73706</v>
       </c>
       <c r="B4088" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4088" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45898</v>
+        <v>45918</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,7 +86294,7 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>79318</v>
+        <v>75928</v>
       </c>
       <c r="B4089" t="n">
         <v>2</v>
@@ -86305,7 +86305,7 @@
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,7 +86315,7 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>11491</v>
+        <v>76278</v>
       </c>
       <c r="B4090" t="n">
         <v>2</v>
@@ -86326,7 +86326,7 @@
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45919</v>
+        <v>45910</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,18 +86336,18 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>24352</v>
+        <v>78016</v>
       </c>
       <c r="B4091" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4091" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,18 +86357,18 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>41916</v>
+        <v>79318</v>
       </c>
       <c r="B4092" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4092" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,18 +86378,18 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>67109</v>
+        <v>62088</v>
       </c>
       <c r="B4093" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4093" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,7 +86399,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>74254</v>
+        <v>66709</v>
       </c>
       <c r="B4094" t="n">
         <v>2</v>
@@ -86410,7 +86410,7 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45916</v>
+        <v>45922</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,18 +86420,18 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>77248</v>
+        <v>75685</v>
       </c>
       <c r="B4095" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4095" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,18 +86441,18 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>51292</v>
+        <v>76469</v>
       </c>
       <c r="B4096" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4096" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,18 +86462,18 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>66559</v>
+        <v>11491</v>
       </c>
       <c r="B4097" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4097" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45899</v>
+        <v>45919</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>66884</v>
+        <v>24352</v>
       </c>
       <c r="B4098" t="n">
         <v>2</v>
@@ -86494,7 +86494,7 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,18 +86504,18 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>66886</v>
+        <v>41916</v>
       </c>
       <c r="B4099" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4099" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,7 +86525,7 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>69031</v>
+        <v>51292</v>
       </c>
       <c r="B4100" t="n">
         <v>2</v>
@@ -86536,7 +86536,7 @@
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>71105</v>
+        <v>67109</v>
       </c>
       <c r="B4101" t="n">
         <v>2</v>
@@ -86567,7 +86567,7 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>75928</v>
+        <v>74254</v>
       </c>
       <c r="B4102" t="n">
         <v>2</v>
@@ -86578,7 +86578,7 @@
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,18 +86588,18 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>76278</v>
+        <v>77248</v>
       </c>
       <c r="B4103" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4103" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,18 +86609,18 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>78016</v>
+        <v>17382</v>
       </c>
       <c r="B4104" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4104" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45904</v>
+        <v>45916</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,7 +86630,7 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>17382</v>
+        <v>28623</v>
       </c>
       <c r="B4105" t="n">
         <v>2</v>
@@ -86641,7 +86641,7 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,18 +86651,18 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>28130</v>
+        <v>36668</v>
       </c>
       <c r="B4106" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4106" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45903</v>
+        <v>45922</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,18 +86672,18 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>32590</v>
+        <v>42270</v>
       </c>
       <c r="B4107" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4107" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,7 +86693,7 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>36668</v>
+        <v>45344</v>
       </c>
       <c r="B4108" t="n">
         <v>2</v>
@@ -86704,7 +86704,7 @@
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45922</v>
+        <v>45910</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,18 +86714,18 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>42270</v>
+        <v>66559</v>
       </c>
       <c r="B4109" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4109" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45917</v>
+        <v>45899</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,7 +86735,7 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>45344</v>
+        <v>66884</v>
       </c>
       <c r="B4110" t="n">
         <v>2</v>
@@ -86746,7 +86746,7 @@
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,18 +86756,18 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>60175</v>
+        <v>66886</v>
       </c>
       <c r="B4111" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4111" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45897</v>
+        <v>45911</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,18 +86777,18 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>61188</v>
+        <v>69031</v>
       </c>
       <c r="B4112" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4112" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>73706</v>
+        <v>71105</v>
       </c>
       <c r="B4113" t="n">
         <v>2</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45918</v>
+        <v>45909</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86840,18 +86840,18 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>12960</v>
+        <v>52565</v>
       </c>
       <c r="B4115" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4115" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,18 +86861,18 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>24589</v>
+        <v>55858</v>
       </c>
       <c r="B4116" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4116" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45917</v>
+        <v>45899</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,18 +86882,18 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>34583</v>
+        <v>57848</v>
       </c>
       <c r="B4117" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4117" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,18 +86903,18 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>52565</v>
+        <v>57681</v>
       </c>
       <c r="B4118" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4118" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45905</v>
+        <v>45895</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,18 +86924,18 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>55858</v>
+        <v>57682</v>
       </c>
       <c r="B4119" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4119" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45899</v>
+        <v>45910</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,7 +86945,7 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>66891</v>
+        <v>60069</v>
       </c>
       <c r="B4120" t="n">
         <v>2</v>
@@ -86956,7 +86956,7 @@
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45912</v>
+        <v>45918</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,18 +86966,18 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>74462</v>
+        <v>61423</v>
       </c>
       <c r="B4121" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4121" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45910</v>
+        <v>45899</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,18 +86987,18 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>32964</v>
+        <v>61424</v>
       </c>
       <c r="B4122" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4122" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,7 +87008,7 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>48071</v>
+        <v>63865</v>
       </c>
       <c r="B4123" t="n">
         <v>9</v>
@@ -87019,7 +87019,7 @@
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,18 +87029,18 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>48104</v>
+        <v>66021</v>
       </c>
       <c r="B4124" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4124" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45905</v>
+        <v>45899</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,18 +87050,18 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>63865</v>
+        <v>73707</v>
       </c>
       <c r="B4125" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4125" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,7 +87071,7 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>65134</v>
+        <v>74911</v>
       </c>
       <c r="B4126" t="n">
         <v>9</v>
@@ -87082,7 +87082,7 @@
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,18 +87092,18 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>67358</v>
+        <v>76969</v>
       </c>
       <c r="B4127" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4127" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45897</v>
+        <v>45911</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,7 +87113,7 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>71818</v>
+        <v>12960</v>
       </c>
       <c r="B4128" t="n">
         <v>9</v>
@@ -87124,7 +87124,7 @@
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,18 +87134,18 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>74326</v>
+        <v>34583</v>
       </c>
       <c r="B4129" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4129" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,18 +87155,18 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>75346</v>
+        <v>48071</v>
       </c>
       <c r="B4130" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4130" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>78387</v>
+        <v>48104</v>
       </c>
       <c r="B4131" t="n">
         <v>2</v>
@@ -87187,7 +87187,7 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,18 +87197,18 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>78388</v>
+        <v>66891</v>
       </c>
       <c r="B4132" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4132" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,18 +87218,18 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>31992</v>
+        <v>71818</v>
       </c>
       <c r="B4133" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4133" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45919</v>
+        <v>45905</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,7 +87239,7 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>49089</v>
+        <v>74462</v>
       </c>
       <c r="B4134" t="n">
         <v>2</v>
@@ -87250,7 +87250,7 @@
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,18 +87260,18 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>53789</v>
+        <v>78387</v>
       </c>
       <c r="B4135" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4135" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,7 +87281,7 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>60555</v>
+        <v>78388</v>
       </c>
       <c r="B4136" t="n">
         <v>9</v>
@@ -87292,7 +87292,7 @@
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,18 +87302,18 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>66888</v>
+        <v>32964</v>
       </c>
       <c r="B4137" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4137" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,18 +87323,18 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>66889</v>
+        <v>49089</v>
       </c>
       <c r="B4138" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4138" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,7 +87344,7 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>66890</v>
+        <v>53789</v>
       </c>
       <c r="B4139" t="n">
         <v>9</v>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,18 +87365,18 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>67994</v>
+        <v>65134</v>
       </c>
       <c r="B4140" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4140" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45922</v>
+        <v>45902</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,7 +87386,7 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>69027</v>
+        <v>67358</v>
       </c>
       <c r="B4141" t="n">
         <v>9</v>
@@ -87397,7 +87397,7 @@
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,18 +87407,18 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>69029</v>
+        <v>74326</v>
       </c>
       <c r="B4142" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4142" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>69030</v>
+        <v>75346</v>
       </c>
       <c r="B4143" t="n">
         <v>2</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45923</v>
+        <v>45918</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,18 +87449,18 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>75181</v>
+        <v>24589</v>
       </c>
       <c r="B4144" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4144" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45895</v>
+        <v>45917</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,7 +87470,7 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>76969</v>
+        <v>31992</v>
       </c>
       <c r="B4145" t="n">
         <v>2</v>
@@ -87481,7 +87481,7 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87554,18 +87554,18 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>57848</v>
+        <v>60555</v>
       </c>
       <c r="B4149" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4149" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,7 +87575,7 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>57681</v>
+        <v>66888</v>
       </c>
       <c r="B4150" t="n">
         <v>9</v>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,18 +87596,18 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>57682</v>
+        <v>66889</v>
       </c>
       <c r="B4151" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4151" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,18 +87617,18 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>60069</v>
+        <v>66890</v>
       </c>
       <c r="B4152" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4152" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,18 +87638,18 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>61423</v>
+        <v>67994</v>
       </c>
       <c r="B4153" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4153" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45899</v>
+        <v>45922</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>61424</v>
+        <v>69027</v>
       </c>
       <c r="B4154" t="n">
         <v>9</v>
@@ -87670,7 +87670,7 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,7 +87680,7 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>66021</v>
+        <v>69029</v>
       </c>
       <c r="B4155" t="n">
         <v>9</v>
@@ -87691,7 +87691,7 @@
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>73707</v>
+        <v>69030</v>
       </c>
       <c r="B4156" t="n">
         <v>2</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45912</v>
+        <v>45923</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>74911</v>
+        <v>75181</v>
       </c>
       <c r="B4157" t="n">
         <v>9</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1386</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -7337,11 +7337,11 @@
         <v>41272</v>
       </c>
       <c r="B329" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
@@ -7358,11 +7358,11 @@
         <v>41306</v>
       </c>
       <c r="B330" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
@@ -10928,11 +10928,11 @@
         <v>54667</v>
       </c>
       <c r="B500" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D500" s="2" t="n">
@@ -10970,11 +10970,11 @@
         <v>55055</v>
       </c>
       <c r="B502" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D502" s="2" t="n">
@@ -11453,11 +11453,11 @@
         <v>56388</v>
       </c>
       <c r="B525" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D525" s="2" t="n">
@@ -12482,11 +12482,11 @@
         <v>60649</v>
       </c>
       <c r="B574" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D574" s="2" t="n">
@@ -20546,11 +20546,11 @@
         <v>76945</v>
       </c>
       <c r="B958" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D958" s="2" t="n">
@@ -25019,11 +25019,11 @@
         <v>37032</v>
       </c>
       <c r="B1171" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1171" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1171" s="2" t="n">
@@ -38837,11 +38837,11 @@
         <v>79437</v>
       </c>
       <c r="B1829" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1829" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1829" s="2" t="n">
@@ -40391,11 +40391,11 @@
         <v>79966</v>
       </c>
       <c r="B1903" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1903" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1903" s="2" t="n">
@@ -42491,11 +42491,11 @@
         <v>20819</v>
       </c>
       <c r="B2003" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2003" s="2" t="n">
@@ -42512,11 +42512,11 @@
         <v>12111</v>
       </c>
       <c r="B2004" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2004" s="2" t="n">
@@ -45809,11 +45809,11 @@
         <v>48384</v>
       </c>
       <c r="B2161" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2161" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2161" s="2" t="n">
@@ -47636,11 +47636,11 @@
         <v>55670</v>
       </c>
       <c r="B2248" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2248" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2248" s="2" t="n">
@@ -48812,11 +48812,11 @@
         <v>59247</v>
       </c>
       <c r="B2304" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2304" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2304" s="2" t="n">
@@ -50534,11 +50534,11 @@
         <v>64018</v>
       </c>
       <c r="B2386" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2386" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2386" s="2" t="n">
@@ -50996,11 +50996,11 @@
         <v>64576</v>
       </c>
       <c r="B2408" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2408" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2408" s="2" t="n">
@@ -51773,11 +51773,11 @@
         <v>66092</v>
       </c>
       <c r="B2445" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2445" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2445" s="2" t="n">
@@ -52613,11 +52613,11 @@
         <v>67924</v>
       </c>
       <c r="B2485" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2485" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2485" s="2" t="n">
@@ -54104,11 +54104,11 @@
         <v>70655</v>
       </c>
       <c r="B2556" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2556" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2556" s="2" t="n">
@@ -54209,11 +54209,11 @@
         <v>70833</v>
       </c>
       <c r="B2561" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2561" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2561" s="2" t="n">
@@ -54587,11 +54587,11 @@
         <v>71540</v>
       </c>
       <c r="B2579" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2579" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2579" s="2" t="n">
@@ -54839,11 +54839,11 @@
         <v>71849</v>
       </c>
       <c r="B2591" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2591" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2591" s="2" t="n">
@@ -55889,11 +55889,11 @@
         <v>74092</v>
       </c>
       <c r="B2641" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2641" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2641" s="2" t="n">
@@ -56624,11 +56624,11 @@
         <v>74476</v>
       </c>
       <c r="B2676" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2676" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2676" s="2" t="n">
@@ -57128,11 +57128,11 @@
         <v>75080</v>
       </c>
       <c r="B2700" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2700" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2700" s="2" t="n">
@@ -58472,11 +58472,11 @@
         <v>76002</v>
       </c>
       <c r="B2764" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2764" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2764" s="2" t="n">
@@ -58955,11 +58955,11 @@
         <v>76267</v>
       </c>
       <c r="B2787" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2787" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2787" s="2" t="n">
@@ -59186,11 +59186,11 @@
         <v>76633</v>
       </c>
       <c r="B2798" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2798" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2798" s="2" t="n">
@@ -60194,11 +60194,11 @@
         <v>77275</v>
       </c>
       <c r="B2846" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2846" s="2" t="n">
@@ -60425,11 +60425,11 @@
         <v>77503</v>
       </c>
       <c r="B2857" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2857" s="2" t="n">
@@ -62735,11 +62735,11 @@
         <v>79754</v>
       </c>
       <c r="B2967" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2967" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2967" s="2" t="n">
@@ -64772,11 +64772,11 @@
         <v>19074</v>
       </c>
       <c r="B3064" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3064" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3064" s="2" t="n">
@@ -66914,11 +66914,11 @@
         <v>29339</v>
       </c>
       <c r="B3166" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3166" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3166" s="2" t="n">
@@ -72122,11 +72122,11 @@
         <v>54101</v>
       </c>
       <c r="B3414" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3414" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3414" s="2" t="n">
@@ -73613,11 +73613,11 @@
         <v>62105</v>
       </c>
       <c r="B3485" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3485" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3485" s="2" t="n">
@@ -75986,11 +75986,11 @@
         <v>69327</v>
       </c>
       <c r="B3598" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3598" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3598" s="2" t="n">
@@ -78527,11 +78527,11 @@
         <v>74772</v>
       </c>
       <c r="B3719" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3719" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3719" s="2" t="n">
@@ -79136,11 +79136,11 @@
         <v>75507</v>
       </c>
       <c r="B3748" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3748" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3748" s="2" t="n">
@@ -84467,18 +84467,18 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>36076</v>
+        <v>11491</v>
       </c>
       <c r="B4002" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4002" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45896</v>
+        <v>45919</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,18 +84488,18 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>40072</v>
+        <v>28130</v>
       </c>
       <c r="B4003" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4003" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45916</v>
+        <v>45903</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,7 +84509,7 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>66076</v>
+        <v>42270</v>
       </c>
       <c r="B4004" t="n">
         <v>2</v>
@@ -84530,7 +84530,7 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>69559</v>
+        <v>66709</v>
       </c>
       <c r="B4005" t="n">
         <v>2</v>
@@ -84541,7 +84541,7 @@
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45909</v>
+        <v>45922</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,18 +84551,18 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>72260</v>
+        <v>73706</v>
       </c>
       <c r="B4006" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4006" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45903</v>
+        <v>45918</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,7 +84572,7 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>74739</v>
+        <v>75928</v>
       </c>
       <c r="B4007" t="n">
         <v>2</v>
@@ -84583,7 +84583,7 @@
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,18 +84593,18 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>76154</v>
+        <v>76278</v>
       </c>
       <c r="B4008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4008" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,18 +84614,18 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>77029</v>
+        <v>78016</v>
       </c>
       <c r="B4009" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4009" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45911</v>
+        <v>45904</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>78015</v>
+        <v>79318</v>
       </c>
       <c r="B4010" t="n">
         <v>2</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,18 +84656,18 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>79196</v>
+        <v>24352</v>
       </c>
       <c r="B4011" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4011" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45897</v>
+        <v>45908</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,18 +84677,18 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>79319</v>
+        <v>32590</v>
       </c>
       <c r="B4012" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4012" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45912</v>
+        <v>45904</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,18 +84698,18 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>79569</v>
+        <v>36668</v>
       </c>
       <c r="B4013" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4013" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45901</v>
+        <v>45922</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,18 +84719,18 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>79405</v>
+        <v>69031</v>
       </c>
       <c r="B4014" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,7 +84740,7 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>15245</v>
+        <v>74254</v>
       </c>
       <c r="B4015" t="n">
         <v>2</v>
@@ -84751,7 +84751,7 @@
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>28872</v>
+        <v>77248</v>
       </c>
       <c r="B4016" t="n">
         <v>9</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>40863</v>
+        <v>45344</v>
       </c>
       <c r="B4017" t="n">
         <v>2</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45916</v>
+        <v>45910</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,7 +84803,7 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>42176</v>
+        <v>51292</v>
       </c>
       <c r="B4018" t="n">
         <v>2</v>
@@ -84814,7 +84814,7 @@
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,18 +84824,18 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>47074</v>
+        <v>67109</v>
       </c>
       <c r="B4019" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,18 +84845,18 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>48067</v>
+        <v>79829</v>
       </c>
       <c r="B4020" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4020" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,18 +84866,18 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>62087</v>
+        <v>17382</v>
       </c>
       <c r="B4021" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4021" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45901</v>
+        <v>45916</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,18 +84887,18 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>62984</v>
+        <v>28623</v>
       </c>
       <c r="B4022" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4022" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45897</v>
+        <v>45918</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,14 +84908,14 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>66792</v>
+        <v>36075</v>
       </c>
       <c r="B4023" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4023" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4023" s="2" t="n">
@@ -84929,7 +84929,7 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>66794</v>
+        <v>41916</v>
       </c>
       <c r="B4024" t="n">
         <v>9</v>
@@ -84940,7 +84940,7 @@
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>68266</v>
+        <v>60175</v>
       </c>
       <c r="B4025" t="n">
         <v>9</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,7 +84971,7 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>71817</v>
+        <v>61188</v>
       </c>
       <c r="B4026" t="n">
         <v>9</v>
@@ -84992,7 +84992,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>76470</v>
+        <v>62088</v>
       </c>
       <c r="B4027" t="n">
         <v>9</v>
@@ -85003,7 +85003,7 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,7 +85013,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>78458</v>
+        <v>66559</v>
       </c>
       <c r="B4028" t="n">
         <v>9</v>
@@ -85024,7 +85024,7 @@
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>14827</v>
+        <v>66884</v>
       </c>
       <c r="B4029" t="n">
         <v>2</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>24353</v>
+        <v>66886</v>
       </c>
       <c r="B4030" t="n">
         <v>2</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>35735</v>
+        <v>71105</v>
       </c>
       <c r="B4031" t="n">
         <v>2</v>
@@ -85087,7 +85087,7 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45917</v>
+        <v>45909</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,18 +85097,18 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>39227</v>
+        <v>75685</v>
       </c>
       <c r="B4032" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4032" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,7 +85118,7 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>53692</v>
+        <v>76469</v>
       </c>
       <c r="B4033" t="n">
         <v>9</v>
@@ -85129,7 +85129,7 @@
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,18 +85139,18 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>59497</v>
+        <v>34583</v>
       </c>
       <c r="B4034" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4034" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,7 +85160,7 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>72844</v>
+        <v>48071</v>
       </c>
       <c r="B4035" t="n">
         <v>9</v>
@@ -85171,7 +85171,7 @@
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>77247</v>
+        <v>48104</v>
       </c>
       <c r="B4036" t="n">
         <v>2</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,18 +85202,18 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>78192</v>
+        <v>60555</v>
       </c>
       <c r="B4037" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4037" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,7 +85223,7 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>39902</v>
+        <v>66891</v>
       </c>
       <c r="B4038" t="n">
         <v>2</v>
@@ -85234,7 +85234,7 @@
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,18 +85244,18 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>41315</v>
+        <v>73707</v>
       </c>
       <c r="B4039" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4039" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,18 +85265,18 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>50350</v>
+        <v>75181</v>
       </c>
       <c r="B4040" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4040" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45915</v>
+        <v>45895</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,18 +85286,18 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>66885</v>
+        <v>76969</v>
       </c>
       <c r="B4041" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4041" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45895</v>
+        <v>45911</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,7 +85307,7 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>66887</v>
+        <v>38864</v>
       </c>
       <c r="B4042" t="n">
         <v>2</v>
@@ -85318,7 +85318,7 @@
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,18 +85328,18 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>70304</v>
+        <v>66021</v>
       </c>
       <c r="B4043" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4043" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45910</v>
+        <v>45899</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,18 +85349,18 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>75182</v>
+        <v>69027</v>
       </c>
       <c r="B4044" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4044" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,18 +85370,18 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>79828</v>
+        <v>69029</v>
       </c>
       <c r="B4045" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4045" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45917</v>
+        <v>45901</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,7 +85391,7 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>33709</v>
+        <v>69030</v>
       </c>
       <c r="B4046" t="n">
         <v>2</v>
@@ -85402,7 +85402,7 @@
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45905</v>
+        <v>45923</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,7 +85412,7 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>69740</v>
+        <v>74326</v>
       </c>
       <c r="B4047" t="n">
         <v>2</v>
@@ -85423,7 +85423,7 @@
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,18 +85433,18 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>72029</v>
+        <v>75346</v>
       </c>
       <c r="B4048" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4048" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45897</v>
+        <v>45918</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,7 +85454,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>74938</v>
+        <v>12960</v>
       </c>
       <c r="B4049" t="n">
         <v>9</v>
@@ -85465,7 +85465,7 @@
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,7 +85475,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>79197</v>
+        <v>32964</v>
       </c>
       <c r="B4050" t="n">
         <v>2</v>
@@ -85486,7 +85486,7 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45923</v>
+        <v>45916</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,18 +85496,18 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>30616</v>
+        <v>43676</v>
       </c>
       <c r="B4051" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4051" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45901</v>
+        <v>45918</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,7 +85517,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>31787</v>
+        <v>49089</v>
       </c>
       <c r="B4052" t="n">
         <v>2</v>
@@ -85528,7 +85528,7 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45919</v>
+        <v>45915</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,18 +85538,18 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>43516</v>
+        <v>53789</v>
       </c>
       <c r="B4053" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4053" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,7 +85559,7 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>45941</v>
+        <v>63865</v>
       </c>
       <c r="B4054" t="n">
         <v>9</v>
@@ -85570,7 +85570,7 @@
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,18 +85580,18 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>47075</v>
+        <v>65134</v>
       </c>
       <c r="B4055" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4055" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,7 +85601,7 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>48065</v>
+        <v>67358</v>
       </c>
       <c r="B4056" t="n">
         <v>9</v>
@@ -85612,7 +85612,7 @@
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,18 +85622,18 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>50720</v>
+        <v>71818</v>
       </c>
       <c r="B4057" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4057" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>57370</v>
+        <v>74462</v>
       </c>
       <c r="B4058" t="n">
         <v>2</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45922</v>
+        <v>45910</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,18 +85664,18 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>62085</v>
+        <v>24589</v>
       </c>
       <c r="B4059" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4059" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,18 +85685,18 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>65743</v>
+        <v>31992</v>
       </c>
       <c r="B4060" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4060" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,18 +85706,18 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>77559</v>
+        <v>39901</v>
       </c>
       <c r="B4061" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4061" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>77560</v>
+        <v>52565</v>
       </c>
       <c r="B4062" t="n">
         <v>2</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,18 +85748,18 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>79649</v>
+        <v>55858</v>
       </c>
       <c r="B4063" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4063" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45924</v>
+        <v>45899</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,7 +85769,7 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>34191</v>
+        <v>57848</v>
       </c>
       <c r="B4064" t="n">
         <v>2</v>
@@ -85780,7 +85780,7 @@
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,18 +85790,18 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>41914</v>
+        <v>57681</v>
       </c>
       <c r="B4065" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4065" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45912</v>
+        <v>45895</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>43165</v>
+        <v>57682</v>
       </c>
       <c r="B4066" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,7 +85832,7 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>45655</v>
+        <v>60069</v>
       </c>
       <c r="B4067" t="n">
         <v>2</v>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,7 +85853,7 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>45656</v>
+        <v>61423</v>
       </c>
       <c r="B4068" t="n">
         <v>9</v>
@@ -85864,7 +85864,7 @@
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,7 +85874,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>49316</v>
+        <v>61424</v>
       </c>
       <c r="B4069" t="n">
         <v>9</v>
@@ -85895,18 +85895,18 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>68886</v>
+        <v>66888</v>
       </c>
       <c r="B4070" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4070" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>72681</v>
+        <v>66889</v>
       </c>
       <c r="B4071" t="n">
         <v>9</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,18 +85937,18 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>79316</v>
+        <v>66890</v>
       </c>
       <c r="B4072" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4072" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45923</v>
+        <v>45896</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,18 +85958,18 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>66880</v>
+        <v>67994</v>
       </c>
       <c r="B4073" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45902</v>
+        <v>45922</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,18 +85979,18 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>66881</v>
+        <v>74911</v>
       </c>
       <c r="B4074" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4074" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,7 +86000,7 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>66882</v>
+        <v>78387</v>
       </c>
       <c r="B4075" t="n">
         <v>2</v>
@@ -86011,7 +86011,7 @@
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>66883</v>
+        <v>78388</v>
       </c>
       <c r="B4076" t="n">
         <v>9</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,18 +86042,18 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>67918</v>
+        <v>14827</v>
       </c>
       <c r="B4077" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4077" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,18 +86063,18 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>70306</v>
+        <v>28872</v>
       </c>
       <c r="B4078" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4078" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,18 +86084,18 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>71191</v>
+        <v>41315</v>
       </c>
       <c r="B4079" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4079" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,7 +86105,7 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>72680</v>
+        <v>48067</v>
       </c>
       <c r="B4080" t="n">
         <v>2</v>
@@ -86116,7 +86116,7 @@
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,18 +86126,18 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>77693</v>
+        <v>66792</v>
       </c>
       <c r="B4081" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4081" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45923</v>
+        <v>45895</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,18 +86147,18 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>79949</v>
+        <v>66794</v>
       </c>
       <c r="B4082" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4082" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45924</v>
+        <v>45903</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,7 +86168,7 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>28130</v>
+        <v>68266</v>
       </c>
       <c r="B4083" t="n">
         <v>9</v>
@@ -86179,7 +86179,7 @@
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,18 +86189,18 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>32590</v>
+        <v>69559</v>
       </c>
       <c r="B4084" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4084" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,7 +86210,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>36075</v>
+        <v>72260</v>
       </c>
       <c r="B4085" t="n">
         <v>9</v>
@@ -86221,7 +86221,7 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,18 +86231,18 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>60175</v>
+        <v>75182</v>
       </c>
       <c r="B4086" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4086" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>61188</v>
+        <v>76154</v>
       </c>
       <c r="B4087" t="n">
         <v>9</v>
@@ -86263,7 +86263,7 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,7 +86273,7 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>73706</v>
+        <v>77029</v>
       </c>
       <c r="B4088" t="n">
         <v>2</v>
@@ -86284,7 +86284,7 @@
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45918</v>
+        <v>45911</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,7 +86294,7 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>75928</v>
+        <v>78015</v>
       </c>
       <c r="B4089" t="n">
         <v>2</v>
@@ -86315,18 +86315,18 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>76278</v>
+        <v>79196</v>
       </c>
       <c r="B4090" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4090" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,18 +86336,18 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>78016</v>
+        <v>79319</v>
       </c>
       <c r="B4091" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4091" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,18 +86357,18 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>79318</v>
+        <v>79569</v>
       </c>
       <c r="B4092" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4092" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,7 +86378,7 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>62088</v>
+        <v>79405</v>
       </c>
       <c r="B4093" t="n">
         <v>9</v>
@@ -86389,7 +86389,7 @@
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,7 +86399,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>66709</v>
+        <v>24353</v>
       </c>
       <c r="B4094" t="n">
         <v>2</v>
@@ -86410,7 +86410,7 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,7 +86420,7 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>75685</v>
+        <v>40072</v>
       </c>
       <c r="B4095" t="n">
         <v>2</v>
@@ -86431,7 +86431,7 @@
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45908</v>
+        <v>45916</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,7 +86441,7 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>76469</v>
+        <v>47074</v>
       </c>
       <c r="B4096" t="n">
         <v>9</v>
@@ -86452,7 +86452,7 @@
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,7 +86462,7 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>11491</v>
+        <v>59497</v>
       </c>
       <c r="B4097" t="n">
         <v>2</v>
@@ -86473,7 +86473,7 @@
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>24352</v>
+        <v>66076</v>
       </c>
       <c r="B4098" t="n">
         <v>2</v>
@@ -86494,7 +86494,7 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,18 +86504,18 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>41916</v>
+        <v>70304</v>
       </c>
       <c r="B4099" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4099" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>51292</v>
+        <v>72844</v>
       </c>
       <c r="B4100" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>67109</v>
+        <v>77247</v>
       </c>
       <c r="B4101" t="n">
         <v>2</v>
@@ -86557,7 +86557,7 @@
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,7 +86567,7 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>74254</v>
+        <v>78192</v>
       </c>
       <c r="B4102" t="n">
         <v>2</v>
@@ -86578,7 +86578,7 @@
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,18 +86588,18 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>77248</v>
+        <v>15245</v>
       </c>
       <c r="B4103" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4103" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,7 +86609,7 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>17382</v>
+        <v>35735</v>
       </c>
       <c r="B4104" t="n">
         <v>2</v>
@@ -86620,7 +86620,7 @@
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,18 +86630,18 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>28623</v>
+        <v>39227</v>
       </c>
       <c r="B4105" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4105" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>36668</v>
+        <v>40863</v>
       </c>
       <c r="B4106" t="n">
         <v>2</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45922</v>
+        <v>45916</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>42270</v>
+        <v>42176</v>
       </c>
       <c r="B4107" t="n">
         <v>2</v>
@@ -86693,7 +86693,7 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>45344</v>
+        <v>50350</v>
       </c>
       <c r="B4108" t="n">
         <v>2</v>
@@ -86704,7 +86704,7 @@
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,7 +86714,7 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>66559</v>
+        <v>53692</v>
       </c>
       <c r="B4109" t="n">
         <v>9</v>
@@ -86725,7 +86725,7 @@
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,18 +86735,18 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>66884</v>
+        <v>71817</v>
       </c>
       <c r="B4110" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4110" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45916</v>
+        <v>45902</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,7 +86756,7 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>66886</v>
+        <v>79828</v>
       </c>
       <c r="B4111" t="n">
         <v>2</v>
@@ -86767,7 +86767,7 @@
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45911</v>
+        <v>45917</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,18 +86777,18 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>69031</v>
+        <v>36076</v>
       </c>
       <c r="B4112" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4112" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45917</v>
+        <v>45896</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>71105</v>
+        <v>39902</v>
       </c>
       <c r="B4113" t="n">
         <v>2</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,7 +86819,7 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>79829</v>
+        <v>62087</v>
       </c>
       <c r="B4114" t="n">
         <v>9</v>
@@ -86830,7 +86830,7 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,18 +86840,18 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>52565</v>
+        <v>62984</v>
       </c>
       <c r="B4115" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4115" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,7 +86861,7 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>55858</v>
+        <v>66885</v>
       </c>
       <c r="B4116" t="n">
         <v>9</v>
@@ -86872,7 +86872,7 @@
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45899</v>
+        <v>45895</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,7 +86882,7 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>57848</v>
+        <v>66887</v>
       </c>
       <c r="B4117" t="n">
         <v>2</v>
@@ -86893,7 +86893,7 @@
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45908</v>
+        <v>45916</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,18 +86903,18 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>57681</v>
+        <v>74739</v>
       </c>
       <c r="B4118" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4118" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,18 +86924,18 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>57682</v>
+        <v>76470</v>
       </c>
       <c r="B4119" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4119" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,18 +86945,18 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>60069</v>
+        <v>78458</v>
       </c>
       <c r="B4120" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4120" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,7 +86966,7 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>61423</v>
+        <v>30616</v>
       </c>
       <c r="B4121" t="n">
         <v>9</v>
@@ -86977,7 +86977,7 @@
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,18 +86987,18 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>61424</v>
+        <v>31787</v>
       </c>
       <c r="B4122" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4122" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,18 +87008,18 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>63865</v>
+        <v>43516</v>
       </c>
       <c r="B4123" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4123" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>66021</v>
+        <v>45941</v>
       </c>
       <c r="B4124" t="n">
         <v>9</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,18 +87050,18 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>73707</v>
+        <v>48065</v>
       </c>
       <c r="B4125" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4125" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,18 +87071,18 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>74911</v>
+        <v>50720</v>
       </c>
       <c r="B4126" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4126" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,18 +87092,18 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>76969</v>
+        <v>65743</v>
       </c>
       <c r="B4127" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4127" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,18 +87113,18 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>12960</v>
+        <v>69740</v>
       </c>
       <c r="B4128" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4128" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,7 +87134,7 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>34583</v>
+        <v>72029</v>
       </c>
       <c r="B4129" t="n">
         <v>9</v>
@@ -87145,7 +87145,7 @@
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,18 +87155,18 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>48071</v>
+        <v>79197</v>
       </c>
       <c r="B4130" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4130" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45896</v>
+        <v>45923</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>48104</v>
+        <v>33709</v>
       </c>
       <c r="B4131" t="n">
         <v>2</v>
@@ -87197,7 +87197,7 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>66891</v>
+        <v>47075</v>
       </c>
       <c r="B4132" t="n">
         <v>2</v>
@@ -87208,7 +87208,7 @@
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,18 +87218,18 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>71818</v>
+        <v>70306</v>
       </c>
       <c r="B4133" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4133" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,18 +87239,18 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>74462</v>
+        <v>72681</v>
       </c>
       <c r="B4134" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4134" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,7 +87260,7 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>78387</v>
+        <v>79649</v>
       </c>
       <c r="B4135" t="n">
         <v>2</v>
@@ -87271,7 +87271,7 @@
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45912</v>
+        <v>45924</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,18 +87281,18 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>78388</v>
+        <v>34191</v>
       </c>
       <c r="B4136" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4136" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,18 +87302,18 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>32964</v>
+        <v>49316</v>
       </c>
       <c r="B4137" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4137" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,7 +87323,7 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>49089</v>
+        <v>57370</v>
       </c>
       <c r="B4138" t="n">
         <v>2</v>
@@ -87334,7 +87334,7 @@
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,18 +87344,18 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>53789</v>
+        <v>77693</v>
       </c>
       <c r="B4139" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4139" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45898</v>
+        <v>45923</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,18 +87365,18 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>65134</v>
+        <v>79949</v>
       </c>
       <c r="B4140" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4140" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45902</v>
+        <v>45924</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,18 +87386,18 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>67358</v>
+        <v>41914</v>
       </c>
       <c r="B4141" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4141" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45897</v>
+        <v>45912</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,18 +87407,18 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>74326</v>
+        <v>43165</v>
       </c>
       <c r="B4142" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4142" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45915</v>
+        <v>45903</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>75346</v>
+        <v>45655</v>
       </c>
       <c r="B4143" t="n">
         <v>2</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,18 +87449,18 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>24589</v>
+        <v>45656</v>
       </c>
       <c r="B4144" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4144" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,18 +87470,18 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>31992</v>
+        <v>62085</v>
       </c>
       <c r="B4145" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4145" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45919</v>
+        <v>45904</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,18 +87491,18 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>38864</v>
+        <v>66880</v>
       </c>
       <c r="B4146" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4146" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,7 +87512,7 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>39901</v>
+        <v>66881</v>
       </c>
       <c r="B4147" t="n">
         <v>2</v>
@@ -87523,7 +87523,7 @@
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45918</v>
+        <v>45908</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,7 +87533,7 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>43676</v>
+        <v>66882</v>
       </c>
       <c r="B4148" t="n">
         <v>2</v>
@@ -87544,7 +87544,7 @@
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,7 +87554,7 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>60555</v>
+        <v>66883</v>
       </c>
       <c r="B4149" t="n">
         <v>9</v>
@@ -87565,7 +87565,7 @@
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,7 +87575,7 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>66888</v>
+        <v>67918</v>
       </c>
       <c r="B4150" t="n">
         <v>9</v>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,18 +87596,18 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>66889</v>
+        <v>68886</v>
       </c>
       <c r="B4151" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4151" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45895</v>
+        <v>45911</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,18 +87617,18 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>66890</v>
+        <v>71191</v>
       </c>
       <c r="B4152" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4152" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45896</v>
+        <v>45910</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,7 +87638,7 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>67994</v>
+        <v>72680</v>
       </c>
       <c r="B4153" t="n">
         <v>2</v>
@@ -87649,7 +87649,7 @@
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45922</v>
+        <v>45911</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>69027</v>
+        <v>74938</v>
       </c>
       <c r="B4154" t="n">
         <v>9</v>
@@ -87670,7 +87670,7 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,7 +87680,7 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>69029</v>
+        <v>77559</v>
       </c>
       <c r="B4155" t="n">
         <v>9</v>
@@ -87691,7 +87691,7 @@
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>69030</v>
+        <v>77560</v>
       </c>
       <c r="B4156" t="n">
         <v>2</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45923</v>
+        <v>45918</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,18 +87722,18 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>75181</v>
+        <v>79316</v>
       </c>
       <c r="B4157" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4157" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2461</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1376</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -3851,11 +3851,11 @@
         <v>29726</v>
       </c>
       <c r="B163" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D163" s="2" t="n">
@@ -3893,11 +3893,11 @@
         <v>29968</v>
       </c>
       <c r="B165" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
@@ -4607,11 +4607,11 @@
         <v>31765</v>
       </c>
       <c r="B199" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D199" s="2" t="n">
@@ -5132,11 +5132,11 @@
         <v>34685</v>
       </c>
       <c r="B224" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D224" s="2" t="n">
@@ -5510,11 +5510,11 @@
         <v>35525</v>
       </c>
       <c r="B242" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D242" s="2" t="n">
@@ -7484,11 +7484,11 @@
         <v>41734</v>
       </c>
       <c r="B336" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
@@ -8009,11 +8009,11 @@
         <v>43723</v>
       </c>
       <c r="B361" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D361" s="2" t="n">
@@ -9794,11 +9794,11 @@
         <v>50059</v>
       </c>
       <c r="B446" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D446" s="2" t="n">
@@ -9962,11 +9962,11 @@
         <v>50704</v>
       </c>
       <c r="B454" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D454" s="2" t="n">
@@ -10907,11 +10907,11 @@
         <v>54715</v>
       </c>
       <c r="B499" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D499" s="2" t="n">
@@ -11201,11 +11201,11 @@
         <v>55761</v>
       </c>
       <c r="B513" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D513" s="2" t="n">
@@ -11432,11 +11432,11 @@
         <v>56214</v>
       </c>
       <c r="B524" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D524" s="2" t="n">
@@ -13154,11 +13154,11 @@
         <v>61945</v>
       </c>
       <c r="B606" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D606" s="2" t="n">
@@ -13343,11 +13343,11 @@
         <v>62372</v>
       </c>
       <c r="B615" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D615" s="2" t="n">
@@ -15170,11 +15170,11 @@
         <v>68093</v>
       </c>
       <c r="B702" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D702" s="2" t="n">
@@ -18194,11 +18194,11 @@
         <v>73554</v>
       </c>
       <c r="B846" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D846" s="2" t="n">
@@ -19265,11 +19265,11 @@
         <v>74949</v>
       </c>
       <c r="B897" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D897" s="2" t="n">
@@ -19412,11 +19412,11 @@
         <v>75027</v>
       </c>
       <c r="B904" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D904" s="2" t="n">
@@ -19937,11 +19937,11 @@
         <v>75938</v>
       </c>
       <c r="B929" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D929" s="2" t="n">
@@ -20000,11 +20000,11 @@
         <v>76072</v>
       </c>
       <c r="B932" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D932" s="2" t="n">
@@ -25754,11 +25754,11 @@
         <v>42031</v>
       </c>
       <c r="B1206" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1206" s="2" t="n">
@@ -39173,11 +39173,11 @@
         <v>79533</v>
       </c>
       <c r="B1845" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1845" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1845" s="2" t="n">
@@ -41819,11 +41819,11 @@
         <v>80430</v>
       </c>
       <c r="B1971" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D1971" s="2" t="n">
@@ -42281,11 +42281,11 @@
         <v>80707</v>
       </c>
       <c r="B1993" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="D1993" s="2" t="n">
@@ -45956,11 +45956,11 @@
         <v>49790</v>
       </c>
       <c r="B2168" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2168" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2168" s="2" t="n">
@@ -48959,11 +48959,11 @@
         <v>60155</v>
       </c>
       <c r="B2311" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2311" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2311" s="2" t="n">
@@ -53957,11 +53957,11 @@
         <v>70652</v>
       </c>
       <c r="B2549" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2549" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2549" s="2" t="n">
@@ -58367,11 +58367,11 @@
         <v>76050</v>
       </c>
       <c r="B2759" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2759" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2759" s="2" t="n">
@@ -61181,11 +61181,11 @@
         <v>78176</v>
       </c>
       <c r="B2893" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2893" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2893" s="2" t="n">
@@ -61286,11 +61286,11 @@
         <v>78269</v>
       </c>
       <c r="B2898" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2898" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2898" s="2" t="n">
@@ -63428,11 +63428,11 @@
         <v>80659</v>
       </c>
       <c r="B3000" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3000" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3000" s="2" t="n">
@@ -65822,11 +65822,11 @@
         <v>25722</v>
       </c>
       <c r="B3114" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3114" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3114" s="2" t="n">
@@ -68783,11 +68783,11 @@
         <v>38929</v>
       </c>
       <c r="B3255" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3255" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3255" s="2" t="n">
@@ -71429,11 +71429,11 @@
         <v>52526</v>
       </c>
       <c r="B3381" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3381" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3381" s="2" t="n">
@@ -76658,11 +76658,11 @@
         <v>70930</v>
       </c>
       <c r="B3630" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3630" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3630" s="2" t="n">
@@ -78128,11 +78128,11 @@
         <v>74270</v>
       </c>
       <c r="B3700" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3700" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3700" s="2" t="n">
@@ -79346,11 +79346,11 @@
         <v>75690</v>
       </c>
       <c r="B3758" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3758" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3758" s="2" t="n">
@@ -84467,7 +84467,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>11491</v>
+        <v>67109</v>
       </c>
       <c r="B4002" t="n">
         <v>2</v>
@@ -84478,7 +84478,7 @@
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,18 +84488,18 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>28130</v>
+        <v>69031</v>
       </c>
       <c r="B4003" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4003" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,7 +84509,7 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>42270</v>
+        <v>75685</v>
       </c>
       <c r="B4004" t="n">
         <v>2</v>
@@ -84520,7 +84520,7 @@
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45917</v>
+        <v>45908</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,18 +84530,18 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>66709</v>
+        <v>76469</v>
       </c>
       <c r="B4005" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4005" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45922</v>
+        <v>45898</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,7 +84551,7 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>73706</v>
+        <v>79318</v>
       </c>
       <c r="B4006" t="n">
         <v>2</v>
@@ -84562,7 +84562,7 @@
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45918</v>
+        <v>45908</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,7 +84572,7 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>75928</v>
+        <v>28623</v>
       </c>
       <c r="B4007" t="n">
         <v>2</v>
@@ -84583,7 +84583,7 @@
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,18 +84593,18 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>76278</v>
+        <v>41916</v>
       </c>
       <c r="B4008" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4008" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,7 +84614,7 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>78016</v>
+        <v>62088</v>
       </c>
       <c r="B4009" t="n">
         <v>9</v>
@@ -84625,7 +84625,7 @@
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>79318</v>
+        <v>66709</v>
       </c>
       <c r="B4010" t="n">
         <v>2</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45908</v>
+        <v>45922</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,7 +84656,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>24352</v>
+        <v>74254</v>
       </c>
       <c r="B4011" t="n">
         <v>2</v>
@@ -84667,7 +84667,7 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45908</v>
+        <v>45916</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,7 +84677,7 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>32590</v>
+        <v>77248</v>
       </c>
       <c r="B4012" t="n">
         <v>9</v>
@@ -84688,7 +84688,7 @@
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,7 +84698,7 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>36668</v>
+        <v>17382</v>
       </c>
       <c r="B4013" t="n">
         <v>2</v>
@@ -84709,7 +84709,7 @@
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45922</v>
+        <v>45916</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,18 +84719,18 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>69031</v>
+        <v>28130</v>
       </c>
       <c r="B4014" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,18 +84740,18 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>74254</v>
+        <v>32590</v>
       </c>
       <c r="B4015" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4015" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,18 +84761,18 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>77248</v>
+        <v>36075</v>
       </c>
       <c r="B4016" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4016" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>45344</v>
+        <v>42270</v>
       </c>
       <c r="B4017" t="n">
         <v>2</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,7 +84803,7 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>51292</v>
+        <v>45344</v>
       </c>
       <c r="B4018" t="n">
         <v>2</v>
@@ -84814,7 +84814,7 @@
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,18 +84824,18 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>67109</v>
+        <v>66559</v>
       </c>
       <c r="B4019" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45909</v>
+        <v>45899</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,18 +84845,18 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>79829</v>
+        <v>66884</v>
       </c>
       <c r="B4020" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4020" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45903</v>
+        <v>45916</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>17382</v>
+        <v>66886</v>
       </c>
       <c r="B4021" t="n">
         <v>2</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45916</v>
+        <v>45911</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>28623</v>
+        <v>71105</v>
       </c>
       <c r="B4022" t="n">
         <v>2</v>
@@ -84898,7 +84898,7 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45918</v>
+        <v>45909</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,18 +84908,18 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>36075</v>
+        <v>75928</v>
       </c>
       <c r="B4023" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4023" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,18 +84929,18 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>41916</v>
+        <v>76278</v>
       </c>
       <c r="B4024" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4024" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>60175</v>
+        <v>78016</v>
       </c>
       <c r="B4025" t="n">
         <v>9</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,18 +84971,18 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>61188</v>
+        <v>11491</v>
       </c>
       <c r="B4026" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45902</v>
+        <v>45919</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,18 +84992,18 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>62088</v>
+        <v>24352</v>
       </c>
       <c r="B4027" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4027" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,18 +85013,18 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>66559</v>
+        <v>36668</v>
       </c>
       <c r="B4028" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4028" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45899</v>
+        <v>45922</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>66884</v>
+        <v>51292</v>
       </c>
       <c r="B4029" t="n">
         <v>2</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45916</v>
+        <v>45911</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,18 +85055,18 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>66886</v>
+        <v>60175</v>
       </c>
       <c r="B4030" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4030" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,18 +85076,18 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>71105</v>
+        <v>61188</v>
       </c>
       <c r="B4031" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4031" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,7 +85097,7 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>75685</v>
+        <v>73706</v>
       </c>
       <c r="B4032" t="n">
         <v>2</v>
@@ -85108,7 +85108,7 @@
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,7 +85118,7 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>76469</v>
+        <v>79829</v>
       </c>
       <c r="B4033" t="n">
         <v>9</v>
@@ -85129,7 +85129,7 @@
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,18 +85139,18 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>34583</v>
+        <v>35735</v>
       </c>
       <c r="B4034" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4034" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,18 +85160,18 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>48071</v>
+        <v>39227</v>
       </c>
       <c r="B4035" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4035" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>48104</v>
+        <v>42176</v>
       </c>
       <c r="B4036" t="n">
         <v>2</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,7 +85202,7 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>60555</v>
+        <v>47074</v>
       </c>
       <c r="B4037" t="n">
         <v>9</v>
@@ -85213,7 +85213,7 @@
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,7 +85223,7 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>66891</v>
+        <v>48067</v>
       </c>
       <c r="B4038" t="n">
         <v>2</v>
@@ -85234,7 +85234,7 @@
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>73707</v>
+        <v>59497</v>
       </c>
       <c r="B4039" t="n">
         <v>2</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45912</v>
+        <v>45918</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,18 +85265,18 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>75181</v>
+        <v>66076</v>
       </c>
       <c r="B4040" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4040" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45895</v>
+        <v>45917</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,7 +85286,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>76969</v>
+        <v>70304</v>
       </c>
       <c r="B4041" t="n">
         <v>2</v>
@@ -85297,7 +85297,7 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,18 +85307,18 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>38864</v>
+        <v>76470</v>
       </c>
       <c r="B4042" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4042" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45915</v>
+        <v>45903</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,7 +85328,7 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>66021</v>
+        <v>78458</v>
       </c>
       <c r="B4043" t="n">
         <v>9</v>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,7 +85349,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>69027</v>
+        <v>79196</v>
       </c>
       <c r="B4044" t="n">
         <v>9</v>
@@ -85360,7 +85360,7 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,18 +85370,18 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>69029</v>
+        <v>79319</v>
       </c>
       <c r="B4045" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4045" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45901</v>
+        <v>45912</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>69030</v>
+        <v>79569</v>
       </c>
       <c r="B4046" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,18 +85412,18 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>74326</v>
+        <v>79405</v>
       </c>
       <c r="B4047" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4047" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,7 +85433,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>75346</v>
+        <v>15245</v>
       </c>
       <c r="B4048" t="n">
         <v>2</v>
@@ -85444,7 +85444,7 @@
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,18 +85454,18 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>12960</v>
+        <v>40863</v>
       </c>
       <c r="B4049" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4049" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45896</v>
+        <v>45916</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,18 +85475,18 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>32964</v>
+        <v>62087</v>
       </c>
       <c r="B4050" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4050" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,18 +85496,18 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>43676</v>
+        <v>62984</v>
       </c>
       <c r="B4051" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4051" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45918</v>
+        <v>45897</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,18 +85517,18 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>49089</v>
+        <v>66792</v>
       </c>
       <c r="B4052" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4052" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45915</v>
+        <v>45895</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,7 +85538,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>53789</v>
+        <v>66794</v>
       </c>
       <c r="B4053" t="n">
         <v>9</v>
@@ -85549,7 +85549,7 @@
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,7 +85559,7 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>63865</v>
+        <v>68266</v>
       </c>
       <c r="B4054" t="n">
         <v>9</v>
@@ -85570,7 +85570,7 @@
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,7 +85580,7 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>65134</v>
+        <v>71817</v>
       </c>
       <c r="B4055" t="n">
         <v>9</v>
@@ -85601,7 +85601,7 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>67358</v>
+        <v>72844</v>
       </c>
       <c r="B4056" t="n">
         <v>9</v>
@@ -85612,7 +85612,7 @@
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,18 +85622,18 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>71818</v>
+        <v>77247</v>
       </c>
       <c r="B4057" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4057" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>74462</v>
+        <v>78192</v>
       </c>
       <c r="B4058" t="n">
         <v>2</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,18 +85664,18 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>24589</v>
+        <v>36076</v>
       </c>
       <c r="B4059" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4059" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45917</v>
+        <v>45896</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>31992</v>
+        <v>39902</v>
       </c>
       <c r="B4060" t="n">
         <v>2</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45919</v>
+        <v>45910</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,18 +85706,18 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>39901</v>
+        <v>41315</v>
       </c>
       <c r="B4061" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4061" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>52565</v>
+        <v>50350</v>
       </c>
       <c r="B4062" t="n">
         <v>2</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,7 +85748,7 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>55858</v>
+        <v>66885</v>
       </c>
       <c r="B4063" t="n">
         <v>9</v>
@@ -85759,7 +85759,7 @@
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45899</v>
+        <v>45895</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,7 +85769,7 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>57848</v>
+        <v>66887</v>
       </c>
       <c r="B4064" t="n">
         <v>2</v>
@@ -85780,7 +85780,7 @@
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45908</v>
+        <v>45916</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,18 +85790,18 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>57681</v>
+        <v>75182</v>
       </c>
       <c r="B4065" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4065" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>57682</v>
+        <v>76154</v>
       </c>
       <c r="B4066" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,7 +85832,7 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>60069</v>
+        <v>77029</v>
       </c>
       <c r="B4067" t="n">
         <v>2</v>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45918</v>
+        <v>45911</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,18 +85853,18 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>61423</v>
+        <v>78015</v>
       </c>
       <c r="B4068" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4068" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45899</v>
+        <v>45915</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,18 +85874,18 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>61424</v>
+        <v>14827</v>
       </c>
       <c r="B4069" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4069" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,18 +85895,18 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>66888</v>
+        <v>24353</v>
       </c>
       <c r="B4070" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4070" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45897</v>
+        <v>45915</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>66889</v>
+        <v>28872</v>
       </c>
       <c r="B4071" t="n">
         <v>9</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,18 +85937,18 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>66890</v>
+        <v>40072</v>
       </c>
       <c r="B4072" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4072" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45896</v>
+        <v>45916</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,18 +85958,18 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>67994</v>
+        <v>53692</v>
       </c>
       <c r="B4073" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45922</v>
+        <v>45896</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,18 +85979,18 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>74911</v>
+        <v>69559</v>
       </c>
       <c r="B4074" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4074" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,18 +86000,18 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>78387</v>
+        <v>72260</v>
       </c>
       <c r="B4075" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4075" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45912</v>
+        <v>45903</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,18 +86021,18 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>78388</v>
+        <v>74739</v>
       </c>
       <c r="B4076" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4076" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,7 +86042,7 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>14827</v>
+        <v>79828</v>
       </c>
       <c r="B4077" t="n">
         <v>2</v>
@@ -86053,7 +86053,7 @@
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,18 +86063,18 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>28872</v>
+        <v>32964</v>
       </c>
       <c r="B4078" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4078" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,7 +86084,7 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>41315</v>
+        <v>48071</v>
       </c>
       <c r="B4079" t="n">
         <v>9</v>
@@ -86095,7 +86095,7 @@
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,7 +86105,7 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>48067</v>
+        <v>48104</v>
       </c>
       <c r="B4080" t="n">
         <v>2</v>
@@ -86116,7 +86116,7 @@
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,18 +86126,18 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>66792</v>
+        <v>63865</v>
       </c>
       <c r="B4081" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4081" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,7 +86147,7 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>66794</v>
+        <v>66021</v>
       </c>
       <c r="B4082" t="n">
         <v>9</v>
@@ -86158,7 +86158,7 @@
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45903</v>
+        <v>45899</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,7 +86168,7 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>68266</v>
+        <v>67358</v>
       </c>
       <c r="B4083" t="n">
         <v>9</v>
@@ -86179,7 +86179,7 @@
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,18 +86189,18 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>69559</v>
+        <v>69027</v>
       </c>
       <c r="B4084" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4084" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,7 +86210,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>72260</v>
+        <v>69029</v>
       </c>
       <c r="B4085" t="n">
         <v>9</v>
@@ -86221,7 +86221,7 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,7 +86231,7 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>75182</v>
+        <v>69030</v>
       </c>
       <c r="B4086" t="n">
         <v>2</v>
@@ -86242,7 +86242,7 @@
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45909</v>
+        <v>45923</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,18 +86252,18 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>76154</v>
+        <v>74462</v>
       </c>
       <c r="B4087" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4087" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,7 +86273,7 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>77029</v>
+        <v>78387</v>
       </c>
       <c r="B4088" t="n">
         <v>2</v>
@@ -86284,7 +86284,7 @@
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,18 +86294,18 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>78015</v>
+        <v>78388</v>
       </c>
       <c r="B4089" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4089" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,7 +86315,7 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>79196</v>
+        <v>12960</v>
       </c>
       <c r="B4090" t="n">
         <v>9</v>
@@ -86326,7 +86326,7 @@
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,7 +86336,7 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>79319</v>
+        <v>24589</v>
       </c>
       <c r="B4091" t="n">
         <v>2</v>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,7 +86357,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>79569</v>
+        <v>34583</v>
       </c>
       <c r="B4092" t="n">
         <v>9</v>
@@ -86368,7 +86368,7 @@
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,18 +86378,18 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>79405</v>
+        <v>49089</v>
       </c>
       <c r="B4093" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4093" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,7 +86399,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>24353</v>
+        <v>52565</v>
       </c>
       <c r="B4094" t="n">
         <v>2</v>
@@ -86410,7 +86410,7 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,18 +86420,18 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>40072</v>
+        <v>55858</v>
       </c>
       <c r="B4095" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4095" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45916</v>
+        <v>45899</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,18 +86441,18 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>47074</v>
+        <v>66891</v>
       </c>
       <c r="B4096" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4096" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45897</v>
+        <v>45912</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,18 +86462,18 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>59497</v>
+        <v>71818</v>
       </c>
       <c r="B4097" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4097" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>66076</v>
+        <v>74326</v>
       </c>
       <c r="B4098" t="n">
         <v>2</v>
@@ -86494,7 +86494,7 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,7 +86504,7 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>70304</v>
+        <v>75346</v>
       </c>
       <c r="B4099" t="n">
         <v>2</v>
@@ -86515,7 +86515,7 @@
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45910</v>
+        <v>45918</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>72844</v>
+        <v>39901</v>
       </c>
       <c r="B4100" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>77247</v>
+        <v>43676</v>
       </c>
       <c r="B4101" t="n">
         <v>2</v>
@@ -86557,7 +86557,7 @@
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,18 +86567,18 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>78192</v>
+        <v>60555</v>
       </c>
       <c r="B4102" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4102" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,18 +86588,18 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>15245</v>
+        <v>66888</v>
       </c>
       <c r="B4103" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4103" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,18 +86609,18 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>35735</v>
+        <v>66889</v>
       </c>
       <c r="B4104" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4104" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,7 +86630,7 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>39227</v>
+        <v>66890</v>
       </c>
       <c r="B4105" t="n">
         <v>9</v>
@@ -86641,7 +86641,7 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>40863</v>
+        <v>67994</v>
       </c>
       <c r="B4106" t="n">
         <v>2</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45916</v>
+        <v>45922</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,18 +86672,18 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>42176</v>
+        <v>75181</v>
       </c>
       <c r="B4107" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4107" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,7 +86693,7 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>50350</v>
+        <v>76969</v>
       </c>
       <c r="B4108" t="n">
         <v>2</v>
@@ -86704,7 +86704,7 @@
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,18 +86714,18 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>53692</v>
+        <v>31992</v>
       </c>
       <c r="B4109" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4109" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45896</v>
+        <v>45919</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,18 +86735,18 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>71817</v>
+        <v>38864</v>
       </c>
       <c r="B4110" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4110" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,18 +86756,18 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>79828</v>
+        <v>53789</v>
       </c>
       <c r="B4111" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4111" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,18 +86777,18 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>36076</v>
+        <v>57848</v>
       </c>
       <c r="B4112" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4112" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,18 +86798,18 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>39902</v>
+        <v>57681</v>
       </c>
       <c r="B4113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4113" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,18 +86819,18 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>62087</v>
+        <v>57682</v>
       </c>
       <c r="B4114" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4114" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,18 +86840,18 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>62984</v>
+        <v>60069</v>
       </c>
       <c r="B4115" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4115" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45897</v>
+        <v>45918</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,7 +86861,7 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>66885</v>
+        <v>61423</v>
       </c>
       <c r="B4116" t="n">
         <v>9</v>
@@ -86872,7 +86872,7 @@
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45895</v>
+        <v>45899</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,18 +86882,18 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>66887</v>
+        <v>61424</v>
       </c>
       <c r="B4117" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4117" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,18 +86903,18 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>74739</v>
+        <v>65134</v>
       </c>
       <c r="B4118" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4118" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,18 +86924,18 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>76470</v>
+        <v>73707</v>
       </c>
       <c r="B4119" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4119" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,7 +86945,7 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>78458</v>
+        <v>74911</v>
       </c>
       <c r="B4120" t="n">
         <v>9</v>
@@ -86956,7 +86956,7 @@
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,18 +86966,18 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>30616</v>
+        <v>34191</v>
       </c>
       <c r="B4121" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4121" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>31787</v>
+        <v>43516</v>
       </c>
       <c r="B4122" t="n">
         <v>2</v>
@@ -86998,7 +86998,7 @@
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,18 +87008,18 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>43516</v>
+        <v>45941</v>
       </c>
       <c r="B4123" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4123" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45912</v>
+        <v>45901</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,18 +87029,18 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>45941</v>
+        <v>47075</v>
       </c>
       <c r="B4124" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4124" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87092,18 +87092,18 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>65743</v>
+        <v>70306</v>
       </c>
       <c r="B4127" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4127" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,18 +87113,18 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>69740</v>
+        <v>77559</v>
       </c>
       <c r="B4128" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4128" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,18 +87134,18 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>72029</v>
+        <v>77560</v>
       </c>
       <c r="B4129" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4129" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45897</v>
+        <v>45918</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87176,18 +87176,18 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>33709</v>
+        <v>30616</v>
       </c>
       <c r="B4131" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4131" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,7 +87197,7 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>47075</v>
+        <v>31787</v>
       </c>
       <c r="B4132" t="n">
         <v>2</v>
@@ -87208,7 +87208,7 @@
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,7 +87218,7 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>70306</v>
+        <v>41914</v>
       </c>
       <c r="B4133" t="n">
         <v>2</v>
@@ -87229,7 +87229,7 @@
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,7 +87239,7 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>72681</v>
+        <v>43165</v>
       </c>
       <c r="B4134" t="n">
         <v>9</v>
@@ -87250,7 +87250,7 @@
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,7 +87260,7 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>79649</v>
+        <v>45655</v>
       </c>
       <c r="B4135" t="n">
         <v>2</v>
@@ -87271,7 +87271,7 @@
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45924</v>
+        <v>45905</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,18 +87281,18 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>34191</v>
+        <v>45656</v>
       </c>
       <c r="B4136" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4136" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87344,18 +87344,18 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>77693</v>
+        <v>62085</v>
       </c>
       <c r="B4139" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4139" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45923</v>
+        <v>45904</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,18 +87365,18 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>79949</v>
+        <v>65743</v>
       </c>
       <c r="B4140" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4140" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45924</v>
+        <v>45901</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,18 +87386,18 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>41914</v>
+        <v>72681</v>
       </c>
       <c r="B4141" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4141" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,18 +87407,18 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>43165</v>
+        <v>79649</v>
       </c>
       <c r="B4142" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4142" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>45655</v>
+        <v>33709</v>
       </c>
       <c r="B4143" t="n">
         <v>2</v>
@@ -87449,7 +87449,7 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>45656</v>
+        <v>66880</v>
       </c>
       <c r="B4144" t="n">
         <v>9</v>
@@ -87460,7 +87460,7 @@
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,18 +87470,18 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>62085</v>
+        <v>66881</v>
       </c>
       <c r="B4145" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4145" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,18 +87491,18 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>66880</v>
+        <v>66882</v>
       </c>
       <c r="B4146" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4146" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,18 +87512,18 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>66881</v>
+        <v>66883</v>
       </c>
       <c r="B4147" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4147" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45908</v>
+        <v>45895</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,18 +87533,18 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>66882</v>
+        <v>67918</v>
       </c>
       <c r="B4148" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4148" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,18 +87554,18 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>66883</v>
+        <v>68886</v>
       </c>
       <c r="B4149" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4149" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45895</v>
+        <v>45911</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,18 +87575,18 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>67918</v>
+        <v>71191</v>
       </c>
       <c r="B4150" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4150" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,7 +87596,7 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>68886</v>
+        <v>72680</v>
       </c>
       <c r="B4151" t="n">
         <v>2</v>
@@ -87617,7 +87617,7 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>71191</v>
+        <v>79316</v>
       </c>
       <c r="B4152" t="n">
         <v>2</v>
@@ -87628,7 +87628,7 @@
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,7 +87638,7 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>72680</v>
+        <v>69740</v>
       </c>
       <c r="B4153" t="n">
         <v>2</v>
@@ -87649,7 +87649,7 @@
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>74938</v>
+        <v>72029</v>
       </c>
       <c r="B4154" t="n">
         <v>9</v>
@@ -87670,7 +87670,7 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,7 +87680,7 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>77559</v>
+        <v>74938</v>
       </c>
       <c r="B4155" t="n">
         <v>9</v>
@@ -87691,7 +87691,7 @@
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>77560</v>
+        <v>77693</v>
       </c>
       <c r="B4156" t="n">
         <v>2</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>79316</v>
+        <v>79949</v>
       </c>
       <c r="B4157" t="n">
         <v>2</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45923</v>
+        <v>45924</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1341</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -87819,7 +87819,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -40895,11 +40895,11 @@
         <v>80198</v>
       </c>
       <c r="B1927" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1927" s="2" t="n">
@@ -41756,11 +41756,11 @@
         <v>80428</v>
       </c>
       <c r="B1968" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1968" s="2" t="n">
@@ -43121,11 +43121,11 @@
         <v>24145</v>
       </c>
       <c r="B2033" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2033" s="2" t="n">
@@ -62504,11 +62504,11 @@
         <v>79545</v>
       </c>
       <c r="B2956" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2956" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2956" s="2" t="n">
@@ -84467,7 +84467,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>67109</v>
+        <v>11491</v>
       </c>
       <c r="B4002" t="n">
         <v>2</v>
@@ -84478,7 +84478,7 @@
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45909</v>
+        <v>45919</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,7 +84488,7 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>69031</v>
+        <v>24352</v>
       </c>
       <c r="B4003" t="n">
         <v>2</v>
@@ -84499,7 +84499,7 @@
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45917</v>
+        <v>45908</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,7 +84509,7 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>75685</v>
+        <v>28623</v>
       </c>
       <c r="B4004" t="n">
         <v>2</v>
@@ -84520,7 +84520,7 @@
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,18 +84530,18 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>76469</v>
+        <v>36075</v>
       </c>
       <c r="B4005" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4005" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,18 +84551,18 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>79318</v>
+        <v>60175</v>
       </c>
       <c r="B4006" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4006" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,18 +84572,18 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>28623</v>
+        <v>61188</v>
       </c>
       <c r="B4007" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4007" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,18 +84593,18 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>41916</v>
+        <v>67109</v>
       </c>
       <c r="B4008" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4008" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,18 +84614,18 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>62088</v>
+        <v>74254</v>
       </c>
       <c r="B4009" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45902</v>
+        <v>45916</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,18 +84635,18 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>66709</v>
+        <v>77248</v>
       </c>
       <c r="B4010" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4010" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45922</v>
+        <v>45903</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,7 +84656,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>74254</v>
+        <v>79318</v>
       </c>
       <c r="B4011" t="n">
         <v>2</v>
@@ -84667,7 +84667,7 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,18 +84677,18 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>77248</v>
+        <v>51292</v>
       </c>
       <c r="B4012" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,7 +84698,7 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>17382</v>
+        <v>66709</v>
       </c>
       <c r="B4013" t="n">
         <v>2</v>
@@ -84709,7 +84709,7 @@
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45916</v>
+        <v>45922</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,18 +84719,18 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>28130</v>
+        <v>75685</v>
       </c>
       <c r="B4014" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,7 +84740,7 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>32590</v>
+        <v>76469</v>
       </c>
       <c r="B4015" t="n">
         <v>9</v>
@@ -84751,7 +84751,7 @@
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,18 +84761,18 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>36075</v>
+        <v>17382</v>
       </c>
       <c r="B4016" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4016" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45895</v>
+        <v>45916</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,18 +84782,18 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>42270</v>
+        <v>28130</v>
       </c>
       <c r="B4017" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4017" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,18 +84803,18 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>45344</v>
+        <v>32590</v>
       </c>
       <c r="B4018" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4018" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,18 +84824,18 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>66559</v>
+        <v>36668</v>
       </c>
       <c r="B4019" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45899</v>
+        <v>45922</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>66884</v>
+        <v>42270</v>
       </c>
       <c r="B4020" t="n">
         <v>2</v>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>66886</v>
+        <v>45344</v>
       </c>
       <c r="B4021" t="n">
         <v>2</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,18 +84887,18 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>71105</v>
+        <v>66559</v>
       </c>
       <c r="B4022" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4022" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45909</v>
+        <v>45899</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>75928</v>
+        <v>66884</v>
       </c>
       <c r="B4023" t="n">
         <v>2</v>
@@ -84919,7 +84919,7 @@
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,7 +84929,7 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>76278</v>
+        <v>66886</v>
       </c>
       <c r="B4024" t="n">
         <v>2</v>
@@ -84940,7 +84940,7 @@
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,18 +84950,18 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>78016</v>
+        <v>69031</v>
       </c>
       <c r="B4025" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4025" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,7 +84971,7 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>11491</v>
+        <v>71105</v>
       </c>
       <c r="B4026" t="n">
         <v>2</v>
@@ -84982,7 +84982,7 @@
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,7 +84992,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>24352</v>
+        <v>75928</v>
       </c>
       <c r="B4027" t="n">
         <v>2</v>
@@ -85003,7 +85003,7 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,7 +85013,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>36668</v>
+        <v>76278</v>
       </c>
       <c r="B4028" t="n">
         <v>2</v>
@@ -85024,7 +85024,7 @@
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45922</v>
+        <v>45910</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,18 +85034,18 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>51292</v>
+        <v>78016</v>
       </c>
       <c r="B4029" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4029" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45911</v>
+        <v>45904</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>60175</v>
+        <v>41916</v>
       </c>
       <c r="B4030" t="n">
         <v>9</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>61188</v>
+        <v>62088</v>
       </c>
       <c r="B4031" t="n">
         <v>9</v>
@@ -85139,18 +85139,18 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>35735</v>
+        <v>30616</v>
       </c>
       <c r="B4034" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4034" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45917</v>
+        <v>45901</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,18 +85160,18 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>39227</v>
+        <v>31787</v>
       </c>
       <c r="B4035" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4035" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45895</v>
+        <v>45919</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>42176</v>
+        <v>68886</v>
       </c>
       <c r="B4036" t="n">
         <v>2</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,7 +85202,7 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>47074</v>
+        <v>72681</v>
       </c>
       <c r="B4037" t="n">
         <v>9</v>
@@ -85213,7 +85213,7 @@
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,7 +85223,7 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>48067</v>
+        <v>79197</v>
       </c>
       <c r="B4038" t="n">
         <v>2</v>
@@ -85234,7 +85234,7 @@
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45909</v>
+        <v>45923</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>59497</v>
+        <v>33709</v>
       </c>
       <c r="B4039" t="n">
         <v>2</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,18 +85265,18 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>66076</v>
+        <v>43165</v>
       </c>
       <c r="B4040" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4040" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,7 +85286,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>70304</v>
+        <v>45655</v>
       </c>
       <c r="B4041" t="n">
         <v>2</v>
@@ -85297,7 +85297,7 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45910</v>
+        <v>45905</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,7 +85307,7 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>76470</v>
+        <v>45656</v>
       </c>
       <c r="B4042" t="n">
         <v>9</v>
@@ -85318,7 +85318,7 @@
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,7 +85328,7 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>78458</v>
+        <v>49316</v>
       </c>
       <c r="B4043" t="n">
         <v>9</v>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,7 +85349,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>79196</v>
+        <v>77559</v>
       </c>
       <c r="B4044" t="n">
         <v>9</v>
@@ -85360,7 +85360,7 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,7 +85370,7 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>79319</v>
+        <v>77560</v>
       </c>
       <c r="B4045" t="n">
         <v>2</v>
@@ -85381,7 +85381,7 @@
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45912</v>
+        <v>45918</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>79569</v>
+        <v>79649</v>
       </c>
       <c r="B4046" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45901</v>
+        <v>45924</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,7 +85412,7 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>79405</v>
+        <v>66880</v>
       </c>
       <c r="B4047" t="n">
         <v>9</v>
@@ -85423,7 +85423,7 @@
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,7 +85433,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>15245</v>
+        <v>66881</v>
       </c>
       <c r="B4048" t="n">
         <v>2</v>
@@ -85444,7 +85444,7 @@
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,7 +85454,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>40863</v>
+        <v>66882</v>
       </c>
       <c r="B4049" t="n">
         <v>2</v>
@@ -85465,7 +85465,7 @@
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,7 +85475,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>62087</v>
+        <v>66883</v>
       </c>
       <c r="B4050" t="n">
         <v>9</v>
@@ -85486,7 +85486,7 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>62984</v>
+        <v>67918</v>
       </c>
       <c r="B4051" t="n">
         <v>9</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,18 +85517,18 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>66792</v>
+        <v>70306</v>
       </c>
       <c r="B4052" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4052" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,18 +85538,18 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>66794</v>
+        <v>71191</v>
       </c>
       <c r="B4053" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4053" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,18 +85559,18 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>68266</v>
+        <v>72680</v>
       </c>
       <c r="B4054" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4054" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,18 +85580,18 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>71817</v>
+        <v>79316</v>
       </c>
       <c r="B4055" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4055" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45902</v>
+        <v>45923</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,18 +85601,18 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>72844</v>
+        <v>34191</v>
       </c>
       <c r="B4056" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4056" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,7 +85622,7 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>77247</v>
+        <v>41914</v>
       </c>
       <c r="B4057" t="n">
         <v>2</v>
@@ -85633,7 +85633,7 @@
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>78192</v>
+        <v>43516</v>
       </c>
       <c r="B4058" t="n">
         <v>2</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,7 +85664,7 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>36076</v>
+        <v>45941</v>
       </c>
       <c r="B4059" t="n">
         <v>9</v>
@@ -85675,7 +85675,7 @@
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45896</v>
+        <v>45901</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>39902</v>
+        <v>47075</v>
       </c>
       <c r="B4060" t="n">
         <v>2</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,7 +85706,7 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>41315</v>
+        <v>48065</v>
       </c>
       <c r="B4061" t="n">
         <v>9</v>
@@ -85717,7 +85717,7 @@
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>50350</v>
+        <v>50720</v>
       </c>
       <c r="B4062" t="n">
         <v>2</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,18 +85748,18 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>66885</v>
+        <v>57370</v>
       </c>
       <c r="B4063" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4063" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,18 +85769,18 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>66887</v>
+        <v>62085</v>
       </c>
       <c r="B4064" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4064" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,18 +85790,18 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>75182</v>
+        <v>65743</v>
       </c>
       <c r="B4065" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4065" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>76154</v>
+        <v>69740</v>
       </c>
       <c r="B4066" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,18 +85832,18 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>77029</v>
+        <v>72029</v>
       </c>
       <c r="B4067" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4067" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,18 +85853,18 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>78015</v>
+        <v>74938</v>
       </c>
       <c r="B4068" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4068" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,7 +85874,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>14827</v>
+        <v>77693</v>
       </c>
       <c r="B4069" t="n">
         <v>2</v>
@@ -85885,7 +85885,7 @@
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,7 +85895,7 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>24353</v>
+        <v>79949</v>
       </c>
       <c r="B4070" t="n">
         <v>2</v>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45915</v>
+        <v>45924</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>28872</v>
+        <v>34583</v>
       </c>
       <c r="B4071" t="n">
         <v>9</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,7 +85937,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>40072</v>
+        <v>52565</v>
       </c>
       <c r="B4072" t="n">
         <v>2</v>
@@ -85948,7 +85948,7 @@
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45916</v>
+        <v>45905</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,7 +85958,7 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>53692</v>
+        <v>55858</v>
       </c>
       <c r="B4073" t="n">
         <v>9</v>
@@ -85969,7 +85969,7 @@
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,7 +85979,7 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>69559</v>
+        <v>57848</v>
       </c>
       <c r="B4074" t="n">
         <v>2</v>
@@ -85990,7 +85990,7 @@
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,18 +86000,18 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>72260</v>
+        <v>57681</v>
       </c>
       <c r="B4075" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4075" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>74739</v>
+        <v>57682</v>
       </c>
       <c r="B4076" t="n">
         <v>2</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,7 +86042,7 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>79828</v>
+        <v>60069</v>
       </c>
       <c r="B4077" t="n">
         <v>2</v>
@@ -86053,7 +86053,7 @@
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,18 +86063,18 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>32964</v>
+        <v>61423</v>
       </c>
       <c r="B4078" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4078" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45916</v>
+        <v>45899</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,7 +86084,7 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>48071</v>
+        <v>61424</v>
       </c>
       <c r="B4079" t="n">
         <v>9</v>
@@ -86095,7 +86095,7 @@
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,18 +86105,18 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>48104</v>
+        <v>65134</v>
       </c>
       <c r="B4080" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4080" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,7 +86126,7 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>63865</v>
+        <v>67358</v>
       </c>
       <c r="B4081" t="n">
         <v>9</v>
@@ -86137,7 +86137,7 @@
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,18 +86147,18 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>66021</v>
+        <v>74326</v>
       </c>
       <c r="B4082" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4082" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45899</v>
+        <v>45915</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,18 +86168,18 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>67358</v>
+        <v>75346</v>
       </c>
       <c r="B4083" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4083" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45897</v>
+        <v>45918</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>69027</v>
+        <v>12960</v>
       </c>
       <c r="B4084" t="n">
         <v>9</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,18 +86210,18 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>69029</v>
+        <v>24589</v>
       </c>
       <c r="B4085" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4085" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,7 +86231,7 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>69030</v>
+        <v>31992</v>
       </c>
       <c r="B4086" t="n">
         <v>2</v>
@@ -86242,7 +86242,7 @@
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45923</v>
+        <v>45919</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>74462</v>
+        <v>49089</v>
       </c>
       <c r="B4087" t="n">
         <v>2</v>
@@ -86263,7 +86263,7 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,18 +86273,18 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>78387</v>
+        <v>53789</v>
       </c>
       <c r="B4088" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4088" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,7 +86294,7 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>78388</v>
+        <v>60555</v>
       </c>
       <c r="B4089" t="n">
         <v>9</v>
@@ -86305,7 +86305,7 @@
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,7 +86315,7 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>12960</v>
+        <v>63865</v>
       </c>
       <c r="B4090" t="n">
         <v>9</v>
@@ -86326,7 +86326,7 @@
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,18 +86336,18 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>24589</v>
+        <v>66021</v>
       </c>
       <c r="B4091" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4091" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45917</v>
+        <v>45899</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,18 +86357,18 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>34583</v>
+        <v>66891</v>
       </c>
       <c r="B4092" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4092" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,18 +86378,18 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>49089</v>
+        <v>71818</v>
       </c>
       <c r="B4093" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4093" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,7 +86399,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>52565</v>
+        <v>74462</v>
       </c>
       <c r="B4094" t="n">
         <v>2</v>
@@ -86410,7 +86410,7 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,18 +86420,18 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>55858</v>
+        <v>78387</v>
       </c>
       <c r="B4095" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4095" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45899</v>
+        <v>45912</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,18 +86441,18 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>66891</v>
+        <v>78388</v>
       </c>
       <c r="B4096" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4096" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,18 +86462,18 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>71818</v>
+        <v>38864</v>
       </c>
       <c r="B4097" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4097" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>74326</v>
+        <v>39901</v>
       </c>
       <c r="B4098" t="n">
         <v>2</v>
@@ -86494,7 +86494,7 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,7 +86504,7 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>75346</v>
+        <v>43676</v>
       </c>
       <c r="B4099" t="n">
         <v>2</v>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>39901</v>
+        <v>66888</v>
       </c>
       <c r="B4100" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45918</v>
+        <v>45897</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,18 +86546,18 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>43676</v>
+        <v>66889</v>
       </c>
       <c r="B4101" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4101" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,7 +86567,7 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>60555</v>
+        <v>66890</v>
       </c>
       <c r="B4102" t="n">
         <v>9</v>
@@ -86588,18 +86588,18 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>66888</v>
+        <v>67994</v>
       </c>
       <c r="B4103" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4103" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45897</v>
+        <v>45922</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,7 +86609,7 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>66889</v>
+        <v>69027</v>
       </c>
       <c r="B4104" t="n">
         <v>9</v>
@@ -86620,7 +86620,7 @@
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,7 +86630,7 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>66890</v>
+        <v>69029</v>
       </c>
       <c r="B4105" t="n">
         <v>9</v>
@@ -86641,7 +86641,7 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45896</v>
+        <v>45901</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>67994</v>
+        <v>69030</v>
       </c>
       <c r="B4106" t="n">
         <v>2</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86714,7 +86714,7 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>31992</v>
+        <v>32964</v>
       </c>
       <c r="B4109" t="n">
         <v>2</v>
@@ -86725,7 +86725,7 @@
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,18 +86735,18 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>38864</v>
+        <v>48071</v>
       </c>
       <c r="B4110" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4110" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45915</v>
+        <v>45896</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,18 +86756,18 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>53789</v>
+        <v>48104</v>
       </c>
       <c r="B4111" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4111" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,7 +86777,7 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>57848</v>
+        <v>73707</v>
       </c>
       <c r="B4112" t="n">
         <v>2</v>
@@ -86788,7 +86788,7 @@
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,18 +86798,18 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>57681</v>
+        <v>74911</v>
       </c>
       <c r="B4113" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4113" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,7 +86819,7 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>57682</v>
+        <v>14827</v>
       </c>
       <c r="B4114" t="n">
         <v>2</v>
@@ -86830,7 +86830,7 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45910</v>
+        <v>45919</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,7 +86840,7 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>60069</v>
+        <v>24353</v>
       </c>
       <c r="B4115" t="n">
         <v>2</v>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,7 +86861,7 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>61423</v>
+        <v>36076</v>
       </c>
       <c r="B4116" t="n">
         <v>9</v>
@@ -86872,7 +86872,7 @@
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,18 +86882,18 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>61424</v>
+        <v>40072</v>
       </c>
       <c r="B4117" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4117" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45904</v>
+        <v>45916</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,7 +86903,7 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>65134</v>
+        <v>72844</v>
       </c>
       <c r="B4118" t="n">
         <v>9</v>
@@ -86914,7 +86914,7 @@
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,7 +86924,7 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>73707</v>
+        <v>77247</v>
       </c>
       <c r="B4119" t="n">
         <v>2</v>
@@ -86935,7 +86935,7 @@
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45912</v>
+        <v>45908</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,18 +86945,18 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>74911</v>
+        <v>78192</v>
       </c>
       <c r="B4120" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4120" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,18 +86966,18 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>34191</v>
+        <v>79196</v>
       </c>
       <c r="B4121" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4121" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45909</v>
+        <v>45897</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>43516</v>
+        <v>79319</v>
       </c>
       <c r="B4122" t="n">
         <v>2</v>
@@ -87008,7 +87008,7 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>45941</v>
+        <v>79569</v>
       </c>
       <c r="B4123" t="n">
         <v>9</v>
@@ -87029,18 +87029,18 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>47075</v>
+        <v>79405</v>
       </c>
       <c r="B4124" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4124" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,18 +87050,18 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>48065</v>
+        <v>15245</v>
       </c>
       <c r="B4125" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4125" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45898</v>
+        <v>45915</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,18 +87071,18 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>50720</v>
+        <v>28872</v>
       </c>
       <c r="B4126" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4126" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,7 +87092,7 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>70306</v>
+        <v>40863</v>
       </c>
       <c r="B4127" t="n">
         <v>2</v>
@@ -87103,7 +87103,7 @@
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,18 +87113,18 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>77559</v>
+        <v>42176</v>
       </c>
       <c r="B4128" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4128" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,18 +87134,18 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>77560</v>
+        <v>53692</v>
       </c>
       <c r="B4129" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4129" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,7 +87155,7 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>79197</v>
+        <v>66076</v>
       </c>
       <c r="B4130" t="n">
         <v>2</v>
@@ -87166,7 +87166,7 @@
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45923</v>
+        <v>45917</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,18 +87176,18 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>30616</v>
+        <v>66792</v>
       </c>
       <c r="B4131" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4131" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,18 +87197,18 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>31787</v>
+        <v>66794</v>
       </c>
       <c r="B4132" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4132" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45919</v>
+        <v>45903</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,18 +87218,18 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>41914</v>
+        <v>68266</v>
       </c>
       <c r="B4133" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4133" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,7 +87239,7 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>43165</v>
+        <v>71817</v>
       </c>
       <c r="B4134" t="n">
         <v>9</v>
@@ -87250,7 +87250,7 @@
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,18 +87260,18 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>45655</v>
+        <v>76470</v>
       </c>
       <c r="B4135" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4135" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,7 +87281,7 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>45656</v>
+        <v>78458</v>
       </c>
       <c r="B4136" t="n">
         <v>9</v>
@@ -87292,7 +87292,7 @@
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,18 +87302,18 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>49316</v>
+        <v>39902</v>
       </c>
       <c r="B4137" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4137" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45904</v>
+        <v>45910</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,18 +87323,18 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>57370</v>
+        <v>41315</v>
       </c>
       <c r="B4138" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4138" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45922</v>
+        <v>45904</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,18 +87344,18 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>62085</v>
+        <v>50350</v>
       </c>
       <c r="B4139" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4139" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,18 +87365,18 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>65743</v>
+        <v>59497</v>
       </c>
       <c r="B4140" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4140" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45901</v>
+        <v>45918</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,7 +87386,7 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>72681</v>
+        <v>66885</v>
       </c>
       <c r="B4141" t="n">
         <v>9</v>
@@ -87397,7 +87397,7 @@
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,7 +87407,7 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>79649</v>
+        <v>66887</v>
       </c>
       <c r="B4142" t="n">
         <v>2</v>
@@ -87418,7 +87418,7 @@
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45924</v>
+        <v>45916</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>33709</v>
+        <v>70304</v>
       </c>
       <c r="B4143" t="n">
         <v>2</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,18 +87449,18 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>66880</v>
+        <v>75182</v>
       </c>
       <c r="B4144" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4144" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,18 +87470,18 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>66881</v>
+        <v>76154</v>
       </c>
       <c r="B4145" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4145" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>66882</v>
+        <v>77029</v>
       </c>
       <c r="B4146" t="n">
         <v>2</v>
@@ -87502,7 +87502,7 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,18 +87512,18 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>66883</v>
+        <v>78015</v>
       </c>
       <c r="B4147" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4147" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,18 +87533,18 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>67918</v>
+        <v>35735</v>
       </c>
       <c r="B4148" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4148" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45898</v>
+        <v>45917</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,18 +87554,18 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>68886</v>
+        <v>39227</v>
       </c>
       <c r="B4149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4149" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45911</v>
+        <v>45895</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,18 +87575,18 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>71191</v>
+        <v>47074</v>
       </c>
       <c r="B4150" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4150" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,7 +87596,7 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>72680</v>
+        <v>48067</v>
       </c>
       <c r="B4151" t="n">
         <v>2</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,18 +87617,18 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>79316</v>
+        <v>62087</v>
       </c>
       <c r="B4152" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4152" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,18 +87638,18 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>69740</v>
+        <v>62984</v>
       </c>
       <c r="B4153" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4153" t="inlineStr">
         <is>
-          <t>Alistamiento</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,18 +87659,18 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>72029</v>
+        <v>69559</v>
       </c>
       <c r="B4154" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4154" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Alistamiento</t>
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,7 +87680,7 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>74938</v>
+        <v>72260</v>
       </c>
       <c r="B4155" t="n">
         <v>9</v>
@@ -87691,7 +87691,7 @@
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>77693</v>
+        <v>74739</v>
       </c>
       <c r="B4156" t="n">
         <v>2</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45923</v>
+        <v>45909</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>79949</v>
+        <v>79828</v>
       </c>
       <c r="B4157" t="n">
         <v>2</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -638,11 +638,11 @@
         <v>11689</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
@@ -848,11 +848,11 @@
         <v>12867</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
@@ -1709,11 +1709,11 @@
         <v>18078</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
@@ -3557,11 +3557,11 @@
         <v>28838</v>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
@@ -4019,11 +4019,11 @@
         <v>30293</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
@@ -5783,11 +5783,11 @@
         <v>37024</v>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D255" s="2" t="n">
@@ -5951,11 +5951,11 @@
         <v>37448</v>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D263" s="2" t="n">
@@ -8660,11 +8660,11 @@
         <v>46879</v>
       </c>
       <c r="B392" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D392" s="2" t="n">
@@ -9353,11 +9353,11 @@
         <v>49070</v>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D425" s="2" t="n">
@@ -9584,11 +9584,11 @@
         <v>49745</v>
       </c>
       <c r="B436" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D436" s="2" t="n">
@@ -10697,11 +10697,11 @@
         <v>52965</v>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D489" s="2" t="n">
@@ -19790,11 +19790,11 @@
         <v>75483</v>
       </c>
       <c r="B922" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D922" s="2" t="n">
@@ -20168,11 +20168,11 @@
         <v>76498</v>
       </c>
       <c r="B940" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D940" s="2" t="n">
@@ -21113,11 +21113,11 @@
         <v>78202</v>
       </c>
       <c r="B985" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D985" s="2" t="n">
@@ -21344,11 +21344,11 @@
         <v>78287</v>
       </c>
       <c r="B996" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D996" s="2" t="n">
@@ -28967,11 +28967,11 @@
         <v>56931</v>
       </c>
       <c r="B1359" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1359" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1359" s="2" t="n">
@@ -31928,11 +31928,11 @@
         <v>66959</v>
       </c>
       <c r="B1500" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1500" s="2" t="n">
@@ -38963,11 +38963,11 @@
         <v>79586</v>
       </c>
       <c r="B1835" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1835" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1835" s="2" t="n">
@@ -40370,11 +40370,11 @@
         <v>79965</v>
       </c>
       <c r="B1902" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1902" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1902" s="2" t="n">
@@ -41924,11 +41924,11 @@
         <v>80547</v>
       </c>
       <c r="B1976" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1976" s="2" t="n">
@@ -43751,11 +43751,11 @@
         <v>31929</v>
       </c>
       <c r="B2063" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2063" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2063" s="2" t="n">
@@ -43898,11 +43898,11 @@
         <v>33653</v>
       </c>
       <c r="B2070" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2070" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2070" s="2" t="n">
@@ -44003,11 +44003,11 @@
         <v>36013</v>
       </c>
       <c r="B2075" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2075" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2075" s="2" t="n">
@@ -45095,11 +45095,11 @@
         <v>43196</v>
       </c>
       <c r="B2127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2127" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2127" s="2" t="n">
@@ -45263,11 +45263,11 @@
         <v>45676</v>
       </c>
       <c r="B2135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2135" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2135" s="2" t="n">
@@ -46544,11 +46544,11 @@
         <v>51435</v>
       </c>
       <c r="B2196" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2196" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2196" s="2" t="n">
@@ -46649,11 +46649,11 @@
         <v>52405</v>
       </c>
       <c r="B2201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2201" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2201" s="2" t="n">
@@ -47195,11 +47195,11 @@
         <v>53508</v>
       </c>
       <c r="B2227" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2227" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2227" s="2" t="n">
@@ -48077,11 +48077,11 @@
         <v>57126</v>
       </c>
       <c r="B2269" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2269" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2269" s="2" t="n">
@@ -49568,11 +49568,11 @@
         <v>61224</v>
       </c>
       <c r="B2340" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2340" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2340" s="2" t="n">
@@ -49715,11 +49715,11 @@
         <v>61674</v>
       </c>
       <c r="B2347" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2347" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2347" s="2" t="n">
@@ -50849,11 +50849,11 @@
         <v>64567</v>
       </c>
       <c r="B2401" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2401" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2401" s="2" t="n">
@@ -51374,11 +51374,11 @@
         <v>65292</v>
       </c>
       <c r="B2426" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2426" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2426" s="2" t="n">
@@ -55028,11 +55028,11 @@
         <v>72111</v>
       </c>
       <c r="B2600" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2600" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2600" s="2" t="n">
@@ -55175,11 +55175,11 @@
         <v>72320</v>
       </c>
       <c r="B2607" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2607" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2607" s="2" t="n">
@@ -55490,11 +55490,11 @@
         <v>72905</v>
       </c>
       <c r="B2622" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2622" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2622" s="2" t="n">
@@ -56372,11 +56372,11 @@
         <v>74288</v>
       </c>
       <c r="B2664" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2664" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2664" s="2" t="n">
@@ -57527,11 +57527,11 @@
         <v>75325</v>
       </c>
       <c r="B2719" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2719" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2719" s="2" t="n">
@@ -57800,11 +57800,11 @@
         <v>75403</v>
       </c>
       <c r="B2732" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2732" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2732" s="2" t="n">
@@ -58346,11 +58346,11 @@
         <v>75935</v>
       </c>
       <c r="B2758" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2758" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2758" s="2" t="n">
@@ -60404,11 +60404,11 @@
         <v>77449</v>
       </c>
       <c r="B2856" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2856" s="2" t="n">
@@ -63659,11 +63659,11 @@
         <v>20901</v>
       </c>
       <c r="B3011" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3011" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3011" s="2" t="n">
@@ -65423,11 +65423,11 @@
         <v>23641</v>
       </c>
       <c r="B3095" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3095" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3095" s="2" t="n">
@@ -66809,11 +66809,11 @@
         <v>29145</v>
       </c>
       <c r="B3161" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3161" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3161" s="2" t="n">
@@ -67439,11 +67439,11 @@
         <v>31547</v>
       </c>
       <c r="B3191" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3191" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3191" s="2" t="n">
@@ -70190,11 +70190,11 @@
         <v>47387</v>
       </c>
       <c r="B3322" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3322" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3322" s="2" t="n">
@@ -70967,11 +70967,11 @@
         <v>49665</v>
       </c>
       <c r="B3359" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3359" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3359" s="2" t="n">
@@ -72500,11 +72500,11 @@
         <v>55677</v>
       </c>
       <c r="B3432" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3432" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3432" s="2" t="n">
@@ -72710,11 +72710,11 @@
         <v>57202</v>
       </c>
       <c r="B3442" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3442" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3442" s="2" t="n">
@@ -73067,11 +73067,11 @@
         <v>59987</v>
       </c>
       <c r="B3459" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3459" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3459" s="2" t="n">
@@ -73739,11 +73739,11 @@
         <v>62379</v>
       </c>
       <c r="B3491" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3491" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3491" s="2" t="n">
@@ -75461,11 +75461,11 @@
         <v>67289</v>
       </c>
       <c r="B3573" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3573" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3573" s="2" t="n">
@@ -77057,11 +77057,11 @@
         <v>71873</v>
       </c>
       <c r="B3649" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3649" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3649" s="2" t="n">
@@ -77876,11 +77876,11 @@
         <v>74119</v>
       </c>
       <c r="B3688" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3688" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3688" s="2" t="n">
@@ -78065,11 +78065,11 @@
         <v>74287</v>
       </c>
       <c r="B3697" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3697" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3697" s="2" t="n">
@@ -78422,11 +78422,11 @@
         <v>74568</v>
       </c>
       <c r="B3714" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3714" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3714" s="2" t="n">
@@ -79304,11 +79304,11 @@
         <v>75578</v>
       </c>
       <c r="B3756" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3756" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3756" s="2" t="n">
@@ -79388,11 +79388,11 @@
         <v>75725</v>
       </c>
       <c r="B3760" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3760" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3760" s="2" t="n">
@@ -84449,11 +84449,11 @@
         <v>80747</v>
       </c>
       <c r="B4001" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4001" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4001" s="2" t="n">
@@ -84467,18 +84467,18 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>41916</v>
+        <v>34191</v>
       </c>
       <c r="B4002" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4002" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,18 +84488,18 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>62088</v>
+        <v>41914</v>
       </c>
       <c r="B4003" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4003" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45902</v>
+        <v>45912</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,18 +84509,18 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>66709</v>
+        <v>49316</v>
       </c>
       <c r="B4004" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4004" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45922</v>
+        <v>45904</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,7 +84530,7 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>74254</v>
+        <v>57370</v>
       </c>
       <c r="B4005" t="n">
         <v>1</v>
@@ -84541,7 +84541,7 @@
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45916</v>
+        <v>45922</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,7 +84551,7 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>77248</v>
+        <v>62085</v>
       </c>
       <c r="B4006" t="n">
         <v>9</v>
@@ -84562,7 +84562,7 @@
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,18 +84572,18 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>79318</v>
+        <v>65743</v>
       </c>
       <c r="B4007" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4007" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,7 +84593,7 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>28130</v>
+        <v>77559</v>
       </c>
       <c r="B4008" t="n">
         <v>9</v>
@@ -84604,7 +84604,7 @@
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,18 +84614,18 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>32590</v>
+        <v>77560</v>
       </c>
       <c r="B4009" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>51292</v>
+        <v>79649</v>
       </c>
       <c r="B4010" t="n">
         <v>1</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45911</v>
+        <v>45924</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,18 +84656,18 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>60175</v>
+        <v>33709</v>
       </c>
       <c r="B4011" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4011" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,7 +84677,7 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>61188</v>
+        <v>45941</v>
       </c>
       <c r="B4012" t="n">
         <v>9</v>
@@ -84688,7 +84688,7 @@
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,7 +84698,7 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>67109</v>
+        <v>47075</v>
       </c>
       <c r="B4013" t="n">
         <v>1</v>
@@ -84709,7 +84709,7 @@
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,18 +84719,18 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>75685</v>
+        <v>48065</v>
       </c>
       <c r="B4014" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,7 +84740,7 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>76469</v>
+        <v>66880</v>
       </c>
       <c r="B4015" t="n">
         <v>9</v>
@@ -84751,7 +84751,7 @@
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>11491</v>
+        <v>66881</v>
       </c>
       <c r="B4016" t="n">
         <v>1</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45919</v>
+        <v>45908</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>24352</v>
+        <v>66882</v>
       </c>
       <c r="B4017" t="n">
         <v>1</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,18 +84803,18 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>36668</v>
+        <v>66883</v>
       </c>
       <c r="B4018" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4018" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45922</v>
+        <v>45895</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,18 +84824,18 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>42270</v>
+        <v>67918</v>
       </c>
       <c r="B4019" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>45344</v>
+        <v>70306</v>
       </c>
       <c r="B4020" t="n">
         <v>1</v>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>66559</v>
+        <v>72681</v>
       </c>
       <c r="B4021" t="n">
         <v>9</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45899</v>
+        <v>45898</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>66884</v>
+        <v>79197</v>
       </c>
       <c r="B4022" t="n">
         <v>1</v>
@@ -84898,7 +84898,7 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>66886</v>
+        <v>43516</v>
       </c>
       <c r="B4023" t="n">
         <v>1</v>
@@ -84919,7 +84919,7 @@
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,7 +84929,7 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>69031</v>
+        <v>50720</v>
       </c>
       <c r="B4024" t="n">
         <v>1</v>
@@ -84940,7 +84940,7 @@
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>71105</v>
+        <v>68886</v>
       </c>
       <c r="B4025" t="n">
         <v>1</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,7 +84971,7 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>75928</v>
+        <v>71191</v>
       </c>
       <c r="B4026" t="n">
         <v>1</v>
@@ -84982,7 +84982,7 @@
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,7 +84992,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>76278</v>
+        <v>72680</v>
       </c>
       <c r="B4027" t="n">
         <v>1</v>
@@ -85003,7 +85003,7 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,18 +85013,18 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>78016</v>
+        <v>79316</v>
       </c>
       <c r="B4028" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4028" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45904</v>
+        <v>45923</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>79829</v>
+        <v>30616</v>
       </c>
       <c r="B4029" t="n">
         <v>9</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>17382</v>
+        <v>31787</v>
       </c>
       <c r="B4030" t="n">
         <v>1</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45916</v>
+        <v>45919</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,18 +85076,18 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>28623</v>
+        <v>43165</v>
       </c>
       <c r="B4031" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4031" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,18 +85097,18 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>36075</v>
+        <v>45655</v>
       </c>
       <c r="B4032" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4032" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,18 +85118,18 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>73706</v>
+        <v>45656</v>
       </c>
       <c r="B4033" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4033" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45918</v>
+        <v>45898</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>34191</v>
+        <v>69740</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,18 +85160,18 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>41914</v>
+        <v>72029</v>
       </c>
       <c r="B4035" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4035" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,18 +85181,18 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>43516</v>
+        <v>74938</v>
       </c>
       <c r="B4036" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4036" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45912</v>
+        <v>45901</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,18 +85202,18 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>45941</v>
+        <v>77693</v>
       </c>
       <c r="B4037" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4037" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45901</v>
+        <v>45923</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,7 +85223,7 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>47075</v>
+        <v>79949</v>
       </c>
       <c r="B4038" t="n">
         <v>1</v>
@@ -85234,7 +85234,7 @@
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45911</v>
+        <v>45924</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,18 +85244,18 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>48065</v>
+        <v>11491</v>
       </c>
       <c r="B4039" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4039" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,7 +85265,7 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>50720</v>
+        <v>24352</v>
       </c>
       <c r="B4040" t="n">
         <v>1</v>
@@ -85276,7 +85276,7 @@
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,18 +85286,18 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>57370</v>
+        <v>41916</v>
       </c>
       <c r="B4041" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4041" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45922</v>
+        <v>45902</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,18 +85307,18 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>62085</v>
+        <v>51292</v>
       </c>
       <c r="B4042" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4042" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,7 +85328,7 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>65743</v>
+        <v>62088</v>
       </c>
       <c r="B4043" t="n">
         <v>9</v>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,18 +85349,18 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>72681</v>
+        <v>66709</v>
       </c>
       <c r="B4044" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4044" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45898</v>
+        <v>45922</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,7 +85370,7 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>79197</v>
+        <v>75685</v>
       </c>
       <c r="B4045" t="n">
         <v>1</v>
@@ -85381,7 +85381,7 @@
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>33709</v>
+        <v>76469</v>
       </c>
       <c r="B4046" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,18 +85412,18 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>43165</v>
+        <v>17382</v>
       </c>
       <c r="B4047" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4047" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45903</v>
+        <v>45916</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,18 +85433,18 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>45655</v>
+        <v>28130</v>
       </c>
       <c r="B4048" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4048" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,7 +85454,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>45656</v>
+        <v>32590</v>
       </c>
       <c r="B4049" t="n">
         <v>9</v>
@@ -85465,7 +85465,7 @@
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,18 +85475,18 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>49316</v>
+        <v>36075</v>
       </c>
       <c r="B4050" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4050" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>68886</v>
+        <v>45344</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,7 +85517,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>77559</v>
+        <v>66559</v>
       </c>
       <c r="B4052" t="n">
         <v>9</v>
@@ -85528,7 +85528,7 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45902</v>
+        <v>45899</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,7 +85538,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>77560</v>
+        <v>66884</v>
       </c>
       <c r="B4053" t="n">
         <v>1</v>
@@ -85549,7 +85549,7 @@
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,7 +85559,7 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>79649</v>
+        <v>66886</v>
       </c>
       <c r="B4054" t="n">
         <v>1</v>
@@ -85570,7 +85570,7 @@
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45924</v>
+        <v>45911</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,18 +85580,18 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>66880</v>
+        <v>69031</v>
       </c>
       <c r="B4055" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4055" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,7 +85601,7 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>66881</v>
+        <v>74254</v>
       </c>
       <c r="B4056" t="n">
         <v>1</v>
@@ -85612,7 +85612,7 @@
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45908</v>
+        <v>45916</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,18 +85622,18 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>66882</v>
+        <v>77248</v>
       </c>
       <c r="B4057" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4057" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,18 +85643,18 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>66883</v>
+        <v>79318</v>
       </c>
       <c r="B4058" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4058" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,18 +85664,18 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>67918</v>
+        <v>36668</v>
       </c>
       <c r="B4059" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4059" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45898</v>
+        <v>45922</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>70306</v>
+        <v>42270</v>
       </c>
       <c r="B4060" t="n">
         <v>1</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,7 +85706,7 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>71191</v>
+        <v>67109</v>
       </c>
       <c r="B4061" t="n">
         <v>1</v>
@@ -85717,7 +85717,7 @@
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>72680</v>
+        <v>71105</v>
       </c>
       <c r="B4062" t="n">
         <v>1</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,7 +85748,7 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>79316</v>
+        <v>75928</v>
       </c>
       <c r="B4063" t="n">
         <v>1</v>
@@ -85759,7 +85759,7 @@
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,7 +85769,7 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>79949</v>
+        <v>76278</v>
       </c>
       <c r="B4064" t="n">
         <v>1</v>
@@ -85780,7 +85780,7 @@
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,7 +85790,7 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>30616</v>
+        <v>78016</v>
       </c>
       <c r="B4065" t="n">
         <v>9</v>
@@ -85801,7 +85801,7 @@
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,7 +85811,7 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>31787</v>
+        <v>28623</v>
       </c>
       <c r="B4066" t="n">
         <v>1</v>
@@ -85822,7 +85822,7 @@
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,18 +85832,18 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>69740</v>
+        <v>60175</v>
       </c>
       <c r="B4067" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4067" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,7 +85853,7 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>72029</v>
+        <v>61188</v>
       </c>
       <c r="B4068" t="n">
         <v>9</v>
@@ -85864,7 +85864,7 @@
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,18 +85874,18 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>74938</v>
+        <v>73706</v>
       </c>
       <c r="B4069" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4069" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45901</v>
+        <v>45918</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,18 +85895,18 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>77693</v>
+        <v>79829</v>
       </c>
       <c r="B4070" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4070" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45923</v>
+        <v>45903</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85937,18 +85937,18 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>48071</v>
+        <v>49089</v>
       </c>
       <c r="B4072" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4072" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,18 +85958,18 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>48104</v>
+        <v>53789</v>
       </c>
       <c r="B4073" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -86000,18 +86000,18 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>74326</v>
+        <v>71818</v>
       </c>
       <c r="B4075" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4075" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>75346</v>
+        <v>74462</v>
       </c>
       <c r="B4076" t="n">
         <v>1</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,18 +86042,18 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>12960</v>
+        <v>78387</v>
       </c>
       <c r="B4077" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4077" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,18 +86063,18 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>49089</v>
+        <v>78388</v>
       </c>
       <c r="B4078" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4078" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,18 +86084,18 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>53789</v>
+        <v>43676</v>
       </c>
       <c r="B4079" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4079" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45898</v>
+        <v>45918</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,18 +86105,18 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>57848</v>
+        <v>48071</v>
       </c>
       <c r="B4080" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4080" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,18 +86126,18 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>57681</v>
+        <v>48104</v>
       </c>
       <c r="B4081" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4081" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,18 +86147,18 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>57682</v>
+        <v>66888</v>
       </c>
       <c r="B4082" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4082" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,18 +86168,18 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>60069</v>
+        <v>66889</v>
       </c>
       <c r="B4083" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4083" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>61423</v>
+        <v>66890</v>
       </c>
       <c r="B4084" t="n">
         <v>9</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45899</v>
+        <v>45896</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,18 +86210,18 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>61424</v>
+        <v>67994</v>
       </c>
       <c r="B4085" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4085" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45904</v>
+        <v>45922</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,7 +86231,7 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>65134</v>
+        <v>69027</v>
       </c>
       <c r="B4086" t="n">
         <v>9</v>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>67358</v>
+        <v>69029</v>
       </c>
       <c r="B4087" t="n">
         <v>9</v>
@@ -86263,7 +86263,7 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,18 +86273,18 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>71818</v>
+        <v>69030</v>
       </c>
       <c r="B4088" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4088" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45905</v>
+        <v>45923</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,7 +86294,7 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>74462</v>
+        <v>74326</v>
       </c>
       <c r="B4089" t="n">
         <v>1</v>
@@ -86305,7 +86305,7 @@
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,7 +86315,7 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>78387</v>
+        <v>75346</v>
       </c>
       <c r="B4090" t="n">
         <v>1</v>
@@ -86326,7 +86326,7 @@
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45912</v>
+        <v>45918</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,18 +86336,18 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>78388</v>
+        <v>31992</v>
       </c>
       <c r="B4091" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4091" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,7 +86357,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>31992</v>
+        <v>38864</v>
       </c>
       <c r="B4092" t="n">
         <v>1</v>
@@ -86368,7 +86368,7 @@
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45919</v>
+        <v>45915</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,7 +86378,7 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>38864</v>
+        <v>39901</v>
       </c>
       <c r="B4093" t="n">
         <v>1</v>
@@ -86389,7 +86389,7 @@
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,18 +86399,18 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>39901</v>
+        <v>60555</v>
       </c>
       <c r="B4094" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4094" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,18 +86420,18 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>43676</v>
+        <v>63865</v>
       </c>
       <c r="B4095" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4095" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,7 +86441,7 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>66888</v>
+        <v>65134</v>
       </c>
       <c r="B4096" t="n">
         <v>9</v>
@@ -86452,7 +86452,7 @@
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,18 +86462,18 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>66889</v>
+        <v>67358</v>
       </c>
       <c r="B4097" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4097" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,18 +86483,18 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>66890</v>
+        <v>75181</v>
       </c>
       <c r="B4098" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4098" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,7 +86504,7 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>67994</v>
+        <v>76969</v>
       </c>
       <c r="B4099" t="n">
         <v>1</v>
@@ -86515,7 +86515,7 @@
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45922</v>
+        <v>45911</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>69027</v>
+        <v>12960</v>
       </c>
       <c r="B4100" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,18 +86546,18 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>69029</v>
+        <v>24589</v>
       </c>
       <c r="B4101" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4101" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,18 +86567,18 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>69030</v>
+        <v>34583</v>
       </c>
       <c r="B4102" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4102" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45923</v>
+        <v>45904</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,18 +86588,18 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>75181</v>
+        <v>52565</v>
       </c>
       <c r="B4103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4103" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,18 +86609,18 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>76969</v>
+        <v>55858</v>
       </c>
       <c r="B4104" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4104" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45911</v>
+        <v>45899</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,7 +86630,7 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>24589</v>
+        <v>57848</v>
       </c>
       <c r="B4105" t="n">
         <v>1</v>
@@ -86641,7 +86641,7 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45917</v>
+        <v>45908</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,18 +86651,18 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>34583</v>
+        <v>57681</v>
       </c>
       <c r="B4106" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4106" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>52565</v>
+        <v>57682</v>
       </c>
       <c r="B4107" t="n">
         <v>1</v>
@@ -86683,7 +86683,7 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,18 +86693,18 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>55858</v>
+        <v>60069</v>
       </c>
       <c r="B4108" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4108" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45899</v>
+        <v>45918</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,18 +86714,18 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>60555</v>
+        <v>61423</v>
       </c>
       <c r="B4109" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4109" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,7 +86735,7 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>63865</v>
+        <v>61424</v>
       </c>
       <c r="B4110" t="n">
         <v>9</v>
@@ -86746,7 +86746,7 @@
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86819,7 +86819,7 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>35735</v>
+        <v>14827</v>
       </c>
       <c r="B4114" t="n">
         <v>1</v>
@@ -86830,7 +86830,7 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,18 +86840,18 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>39227</v>
+        <v>24353</v>
       </c>
       <c r="B4115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4115" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,18 +86861,18 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>47074</v>
+        <v>35735</v>
       </c>
       <c r="B4116" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4116" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,18 +86882,18 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>48067</v>
+        <v>39227</v>
       </c>
       <c r="B4117" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4117" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45909</v>
+        <v>45895</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,18 +86903,18 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>62087</v>
+        <v>53692</v>
       </c>
       <c r="B4118" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4118" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,7 +86924,7 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>62984</v>
+        <v>62087</v>
       </c>
       <c r="B4119" t="n">
         <v>9</v>
@@ -86935,7 +86935,7 @@
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,18 +86945,18 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>66792</v>
+        <v>62984</v>
       </c>
       <c r="B4120" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4120" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,18 +86966,18 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>66794</v>
+        <v>66792</v>
       </c>
       <c r="B4121" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4121" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>68266</v>
+        <v>66794</v>
       </c>
       <c r="B4122" t="n">
         <v>9</v>
@@ -86998,7 +86998,7 @@
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,7 +87008,7 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>72844</v>
+        <v>68266</v>
       </c>
       <c r="B4123" t="n">
         <v>9</v>
@@ -87019,7 +87019,7 @@
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,18 +87029,18 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>77247</v>
+        <v>71817</v>
       </c>
       <c r="B4124" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4124" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,18 +87050,18 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>78192</v>
+        <v>76470</v>
       </c>
       <c r="B4125" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4125" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,18 +87071,18 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>79196</v>
+        <v>78458</v>
       </c>
       <c r="B4126" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4126" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,18 +87092,18 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>79319</v>
+        <v>36076</v>
       </c>
       <c r="B4127" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4127" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45912</v>
+        <v>45896</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,18 +87113,18 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>79569</v>
+        <v>40072</v>
       </c>
       <c r="B4128" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4128" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45901</v>
+        <v>45916</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,7 +87134,7 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>79405</v>
+        <v>47074</v>
       </c>
       <c r="B4129" t="n">
         <v>9</v>
@@ -87145,7 +87145,7 @@
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,7 +87155,7 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>15245</v>
+        <v>48067</v>
       </c>
       <c r="B4130" t="n">
         <v>1</v>
@@ -87166,7 +87166,7 @@
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>40863</v>
+        <v>59497</v>
       </c>
       <c r="B4131" t="n">
         <v>1</v>
@@ -87187,7 +87187,7 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,18 +87197,18 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>42176</v>
+        <v>66885</v>
       </c>
       <c r="B4132" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4132" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,18 +87218,18 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>53692</v>
+        <v>66887</v>
       </c>
       <c r="B4133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4133" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45896</v>
+        <v>45916</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,18 +87239,18 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>71817</v>
+        <v>70304</v>
       </c>
       <c r="B4134" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4134" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,7 +87260,7 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>76470</v>
+        <v>72844</v>
       </c>
       <c r="B4135" t="n">
         <v>9</v>
@@ -87271,7 +87271,7 @@
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,18 +87281,18 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>78458</v>
+        <v>77247</v>
       </c>
       <c r="B4136" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4136" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,7 +87302,7 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>14827</v>
+        <v>78192</v>
       </c>
       <c r="B4137" t="n">
         <v>1</v>
@@ -87313,7 +87313,7 @@
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45919</v>
+        <v>45908</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,18 +87323,18 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>24353</v>
+        <v>79196</v>
       </c>
       <c r="B4138" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4138" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,18 +87344,18 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>28872</v>
+        <v>79319</v>
       </c>
       <c r="B4139" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4139" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45897</v>
+        <v>45912</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,18 +87365,18 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>39902</v>
+        <v>79569</v>
       </c>
       <c r="B4140" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4140" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,7 +87386,7 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>41315</v>
+        <v>79405</v>
       </c>
       <c r="B4141" t="n">
         <v>9</v>
@@ -87397,7 +87397,7 @@
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,18 +87407,18 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>50350</v>
+        <v>28872</v>
       </c>
       <c r="B4142" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4142" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>59497</v>
+        <v>39902</v>
       </c>
       <c r="B4143" t="n">
         <v>1</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,18 +87449,18 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>66885</v>
+        <v>41315</v>
       </c>
       <c r="B4144" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4144" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,7 +87470,7 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>66887</v>
+        <v>50350</v>
       </c>
       <c r="B4145" t="n">
         <v>1</v>
@@ -87481,7 +87481,7 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>70304</v>
+        <v>75182</v>
       </c>
       <c r="B4146" t="n">
         <v>1</v>
@@ -87502,7 +87502,7 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,18 +87512,18 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>75182</v>
+        <v>76154</v>
       </c>
       <c r="B4147" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4147" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,18 +87533,18 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>76154</v>
+        <v>77029</v>
       </c>
       <c r="B4148" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4148" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,7 +87554,7 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>77029</v>
+        <v>78015</v>
       </c>
       <c r="B4149" t="n">
         <v>1</v>
@@ -87565,7 +87565,7 @@
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,7 +87575,7 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>78015</v>
+        <v>15245</v>
       </c>
       <c r="B4150" t="n">
         <v>1</v>
@@ -87596,7 +87596,7 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>79828</v>
+        <v>40863</v>
       </c>
       <c r="B4151" t="n">
         <v>1</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,18 +87617,18 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>36076</v>
+        <v>42176</v>
       </c>
       <c r="B4152" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4152" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45896</v>
+        <v>45917</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,7 +87638,7 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>40072</v>
+        <v>66076</v>
       </c>
       <c r="B4153" t="n">
         <v>1</v>
@@ -87649,7 +87649,7 @@
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>66076</v>
+        <v>69559</v>
       </c>
       <c r="B4154" t="n">
         <v>1</v>
@@ -87670,7 +87670,7 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45917</v>
+        <v>45909</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,18 +87680,18 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>69559</v>
+        <v>72260</v>
       </c>
       <c r="B4155" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4155" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,18 +87701,18 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>72260</v>
+        <v>74739</v>
       </c>
       <c r="B4156" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4156" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>74739</v>
+        <v>79828</v>
       </c>
       <c r="B4157" t="n">
         <v>1</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45909</v>
+        <v>45917</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3015</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>711</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>306</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -3305,11 +3305,11 @@
         <v>27992</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
@@ -7589,11 +7589,11 @@
         <v>42694</v>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
@@ -8429,11 +8429,11 @@
         <v>45585</v>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D381" s="2" t="n">
@@ -13385,11 +13385,11 @@
         <v>62619</v>
       </c>
       <c r="B617" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D617" s="2" t="n">
@@ -16346,11 +16346,11 @@
         <v>70441</v>
       </c>
       <c r="B758" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D758" s="2" t="n">
@@ -17690,11 +17690,11 @@
         <v>72666</v>
       </c>
       <c r="B822" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D822" s="2" t="n">
@@ -18299,11 +18299,11 @@
         <v>73742</v>
       </c>
       <c r="B851" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D851" s="2" t="n">
@@ -21218,11 +21218,11 @@
         <v>78168</v>
       </c>
       <c r="B990" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D990" s="2" t="n">
@@ -44780,11 +44780,11 @@
         <v>41290</v>
       </c>
       <c r="B2112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2112" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2112" s="2" t="n">
@@ -60131,11 +60131,11 @@
         <v>77305</v>
       </c>
       <c r="B2843" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2843" s="2" t="n">
@@ -65465,11 +65465,11 @@
         <v>24005</v>
       </c>
       <c r="B3097" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3097" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3097" s="2" t="n">
@@ -71219,11 +71219,11 @@
         <v>50317</v>
       </c>
       <c r="B3371" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3371" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3371" s="2" t="n">
@@ -72143,11 +72143,11 @@
         <v>54151</v>
       </c>
       <c r="B3415" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3415" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3415" s="2" t="n">
@@ -76322,11 +76322,11 @@
         <v>70258</v>
       </c>
       <c r="B3614" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3614" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3614" s="2" t="n">
@@ -77918,11 +77918,11 @@
         <v>74126</v>
       </c>
       <c r="B3690" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3690" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3690" s="2" t="n">
@@ -84467,7 +84467,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>34191</v>
+        <v>32964</v>
       </c>
       <c r="B4002" t="n">
         <v>1</v>
@@ -84478,7 +84478,7 @@
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45909</v>
+        <v>45916</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,7 +84488,7 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>41914</v>
+        <v>57848</v>
       </c>
       <c r="B4003" t="n">
         <v>1</v>
@@ -84499,7 +84499,7 @@
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45912</v>
+        <v>45908</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,18 +84509,18 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>49316</v>
+        <v>57681</v>
       </c>
       <c r="B4004" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4004" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,7 +84530,7 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>57370</v>
+        <v>57682</v>
       </c>
       <c r="B4005" t="n">
         <v>1</v>
@@ -84541,7 +84541,7 @@
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45922</v>
+        <v>45910</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,18 +84551,18 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>62085</v>
+        <v>60069</v>
       </c>
       <c r="B4006" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4006" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,7 +84572,7 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>65743</v>
+        <v>61423</v>
       </c>
       <c r="B4007" t="n">
         <v>9</v>
@@ -84583,7 +84583,7 @@
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45901</v>
+        <v>45899</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,7 +84593,7 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>77559</v>
+        <v>61424</v>
       </c>
       <c r="B4008" t="n">
         <v>9</v>
@@ -84604,7 +84604,7 @@
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,18 +84614,18 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>77560</v>
+        <v>65134</v>
       </c>
       <c r="B4009" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4009" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,18 +84635,18 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>79649</v>
+        <v>67358</v>
       </c>
       <c r="B4010" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4010" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45924</v>
+        <v>45897</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,7 +84656,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>33709</v>
+        <v>74326</v>
       </c>
       <c r="B4011" t="n">
         <v>1</v>
@@ -84667,7 +84667,7 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,18 +84677,18 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>45941</v>
+        <v>75346</v>
       </c>
       <c r="B4012" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45901</v>
+        <v>45918</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,18 +84698,18 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>47075</v>
+        <v>12960</v>
       </c>
       <c r="B4013" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4013" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45911</v>
+        <v>45896</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,18 +84719,18 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>48065</v>
+        <v>31992</v>
       </c>
       <c r="B4014" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,18 +84740,18 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>66880</v>
+        <v>38864</v>
       </c>
       <c r="B4015" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4015" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45902</v>
+        <v>45915</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>66881</v>
+        <v>39901</v>
       </c>
       <c r="B4016" t="n">
         <v>1</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>66882</v>
+        <v>43676</v>
       </c>
       <c r="B4017" t="n">
         <v>1</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,18 +84803,18 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>66883</v>
+        <v>49089</v>
       </c>
       <c r="B4018" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4018" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,7 +84824,7 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>67918</v>
+        <v>55858</v>
       </c>
       <c r="B4019" t="n">
         <v>9</v>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>70306</v>
+        <v>66891</v>
       </c>
       <c r="B4020" t="n">
         <v>1</v>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>72681</v>
+        <v>71818</v>
       </c>
       <c r="B4021" t="n">
         <v>9</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>79197</v>
+        <v>74462</v>
       </c>
       <c r="B4022" t="n">
         <v>1</v>
@@ -84898,7 +84898,7 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>43516</v>
+        <v>78387</v>
       </c>
       <c r="B4023" t="n">
         <v>1</v>
@@ -84929,18 +84929,18 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>50720</v>
+        <v>78388</v>
       </c>
       <c r="B4024" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4024" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>68886</v>
+        <v>24589</v>
       </c>
       <c r="B4025" t="n">
         <v>1</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45911</v>
+        <v>45917</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,18 +84971,18 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>71191</v>
+        <v>34583</v>
       </c>
       <c r="B4026" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4026" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,7 +84992,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>72680</v>
+        <v>52565</v>
       </c>
       <c r="B4027" t="n">
         <v>1</v>
@@ -85003,7 +85003,7 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,18 +85013,18 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>79316</v>
+        <v>60555</v>
       </c>
       <c r="B4028" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4028" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45923</v>
+        <v>45896</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>30616</v>
+        <v>63865</v>
       </c>
       <c r="B4029" t="n">
         <v>9</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,18 +85055,18 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>31787</v>
+        <v>66021</v>
       </c>
       <c r="B4030" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4030" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45919</v>
+        <v>45899</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,18 +85076,18 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>43165</v>
+        <v>73707</v>
       </c>
       <c r="B4031" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4031" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,18 +85097,18 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>45655</v>
+        <v>74911</v>
       </c>
       <c r="B4032" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4032" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,18 +85118,18 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>45656</v>
+        <v>48071</v>
       </c>
       <c r="B4033" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4033" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>69740</v>
+        <v>48104</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,7 +85160,7 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>72029</v>
+        <v>53789</v>
       </c>
       <c r="B4035" t="n">
         <v>9</v>
@@ -85171,7 +85171,7 @@
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>74938</v>
+        <v>66888</v>
       </c>
       <c r="B4036" t="n">
         <v>9</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,18 +85202,18 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>77693</v>
+        <v>66889</v>
       </c>
       <c r="B4037" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4037" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45923</v>
+        <v>45895</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,18 +85223,18 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>79949</v>
+        <v>66890</v>
       </c>
       <c r="B4038" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4038" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45924</v>
+        <v>45896</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>11491</v>
+        <v>67994</v>
       </c>
       <c r="B4039" t="n">
         <v>1</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45919</v>
+        <v>45922</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,18 +85265,18 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>24352</v>
+        <v>69027</v>
       </c>
       <c r="B4040" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4040" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,7 +85286,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>41916</v>
+        <v>69029</v>
       </c>
       <c r="B4041" t="n">
         <v>9</v>
@@ -85297,7 +85297,7 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,7 +85307,7 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>51292</v>
+        <v>69030</v>
       </c>
       <c r="B4042" t="n">
         <v>1</v>
@@ -85318,7 +85318,7 @@
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45911</v>
+        <v>45923</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,18 +85328,18 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>62088</v>
+        <v>75181</v>
       </c>
       <c r="B4043" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4043" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,7 +85349,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>66709</v>
+        <v>76969</v>
       </c>
       <c r="B4044" t="n">
         <v>1</v>
@@ -85360,7 +85360,7 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45922</v>
+        <v>45911</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,7 +85370,7 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>75685</v>
+        <v>35735</v>
       </c>
       <c r="B4045" t="n">
         <v>1</v>
@@ -85381,7 +85381,7 @@
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>76469</v>
+        <v>39227</v>
       </c>
       <c r="B4046" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,7 +85412,7 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>17382</v>
+        <v>42176</v>
       </c>
       <c r="B4047" t="n">
         <v>1</v>
@@ -85423,7 +85423,7 @@
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,18 +85433,18 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>28130</v>
+        <v>50350</v>
       </c>
       <c r="B4048" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4048" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,7 +85454,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>32590</v>
+        <v>72844</v>
       </c>
       <c r="B4049" t="n">
         <v>9</v>
@@ -85465,7 +85465,7 @@
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,18 +85475,18 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>36075</v>
+        <v>77247</v>
       </c>
       <c r="B4050" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4050" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>45344</v>
+        <v>78192</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,7 +85517,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>66559</v>
+        <v>79196</v>
       </c>
       <c r="B4052" t="n">
         <v>9</v>
@@ -85528,7 +85528,7 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45899</v>
+        <v>45897</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,7 +85538,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>66884</v>
+        <v>79319</v>
       </c>
       <c r="B4053" t="n">
         <v>1</v>
@@ -85549,7 +85549,7 @@
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,18 +85559,18 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>66886</v>
+        <v>79569</v>
       </c>
       <c r="B4054" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4054" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,18 +85580,18 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>69031</v>
+        <v>79405</v>
       </c>
       <c r="B4055" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4055" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45917</v>
+        <v>45901</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,7 +85601,7 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>74254</v>
+        <v>15245</v>
       </c>
       <c r="B4056" t="n">
         <v>1</v>
@@ -85612,7 +85612,7 @@
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,7 +85622,7 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>77248</v>
+        <v>28872</v>
       </c>
       <c r="B4057" t="n">
         <v>9</v>
@@ -85633,7 +85633,7 @@
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>79318</v>
+        <v>39902</v>
       </c>
       <c r="B4058" t="n">
         <v>1</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,18 +85664,18 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>36668</v>
+        <v>41315</v>
       </c>
       <c r="B4059" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4059" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45922</v>
+        <v>45904</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,18 +85685,18 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>42270</v>
+        <v>47074</v>
       </c>
       <c r="B4060" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4060" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45917</v>
+        <v>45897</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,18 +85706,18 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>67109</v>
+        <v>62087</v>
       </c>
       <c r="B4061" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4061" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,18 +85727,18 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>71105</v>
+        <v>62984</v>
       </c>
       <c r="B4062" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4062" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45909</v>
+        <v>45897</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,18 +85748,18 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>75928</v>
+        <v>66792</v>
       </c>
       <c r="B4063" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4063" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45915</v>
+        <v>45895</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,18 +85769,18 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>76278</v>
+        <v>66794</v>
       </c>
       <c r="B4064" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4064" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,7 +85790,7 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>78016</v>
+        <v>68266</v>
       </c>
       <c r="B4065" t="n">
         <v>9</v>
@@ -85801,7 +85801,7 @@
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>28623</v>
+        <v>71817</v>
       </c>
       <c r="B4066" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,7 +85832,7 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>60175</v>
+        <v>76470</v>
       </c>
       <c r="B4067" t="n">
         <v>9</v>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,18 +85853,18 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>61188</v>
+        <v>78458</v>
       </c>
       <c r="B4068" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4068" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,7 +85874,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>73706</v>
+        <v>40072</v>
       </c>
       <c r="B4069" t="n">
         <v>1</v>
@@ -85885,7 +85885,7 @@
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,18 +85895,18 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>79829</v>
+        <v>66076</v>
       </c>
       <c r="B4070" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4070" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>32964</v>
+        <v>69559</v>
       </c>
       <c r="B4071" t="n">
         <v>1</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,18 +85937,18 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>49089</v>
+        <v>72260</v>
       </c>
       <c r="B4072" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4072" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45915</v>
+        <v>45903</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,18 +85958,18 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>53789</v>
+        <v>74739</v>
       </c>
       <c r="B4073" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,7 +85979,7 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>66891</v>
+        <v>79828</v>
       </c>
       <c r="B4074" t="n">
         <v>1</v>
@@ -85990,7 +85990,7 @@
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,18 +86000,18 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>71818</v>
+        <v>14827</v>
       </c>
       <c r="B4075" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4075" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>74462</v>
+        <v>24353</v>
       </c>
       <c r="B4076" t="n">
         <v>1</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,18 +86042,18 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>78387</v>
+        <v>36076</v>
       </c>
       <c r="B4077" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4077" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45912</v>
+        <v>45896</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,18 +86063,18 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>78388</v>
+        <v>40863</v>
       </c>
       <c r="B4078" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4078" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45905</v>
+        <v>45916</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,7 +86084,7 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>43676</v>
+        <v>48067</v>
       </c>
       <c r="B4079" t="n">
         <v>1</v>
@@ -86095,7 +86095,7 @@
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45918</v>
+        <v>45909</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,14 +86105,14 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>48071</v>
+        <v>53692</v>
       </c>
       <c r="B4080" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4080" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4080" s="2" t="n">
@@ -86126,7 +86126,7 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>48104</v>
+        <v>59497</v>
       </c>
       <c r="B4081" t="n">
         <v>1</v>
@@ -86137,7 +86137,7 @@
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,18 +86147,18 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>66888</v>
+        <v>66885</v>
       </c>
       <c r="B4082" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4082" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,18 +86168,18 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>66889</v>
+        <v>66887</v>
       </c>
       <c r="B4083" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4083" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45895</v>
+        <v>45916</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,18 +86189,18 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>66890</v>
+        <v>70304</v>
       </c>
       <c r="B4084" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4084" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45896</v>
+        <v>45910</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,7 +86210,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>67994</v>
+        <v>75182</v>
       </c>
       <c r="B4085" t="n">
         <v>1</v>
@@ -86221,7 +86221,7 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,7 +86231,7 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>69027</v>
+        <v>76154</v>
       </c>
       <c r="B4086" t="n">
         <v>9</v>
@@ -86242,7 +86242,7 @@
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,18 +86252,18 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>69029</v>
+        <v>77029</v>
       </c>
       <c r="B4087" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4087" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,7 +86273,7 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>69030</v>
+        <v>78015</v>
       </c>
       <c r="B4088" t="n">
         <v>1</v>
@@ -86284,7 +86284,7 @@
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,18 +86294,18 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>74326</v>
+        <v>60175</v>
       </c>
       <c r="B4089" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4089" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,18 +86315,18 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>75346</v>
+        <v>61188</v>
       </c>
       <c r="B4090" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4090" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,7 +86336,7 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>31992</v>
+        <v>67109</v>
       </c>
       <c r="B4091" t="n">
         <v>1</v>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45919</v>
+        <v>45909</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,7 +86357,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>38864</v>
+        <v>74254</v>
       </c>
       <c r="B4092" t="n">
         <v>1</v>
@@ -86368,7 +86368,7 @@
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,18 +86378,18 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>39901</v>
+        <v>77248</v>
       </c>
       <c r="B4093" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4093" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,18 +86399,18 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>60555</v>
+        <v>79318</v>
       </c>
       <c r="B4094" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4094" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,18 +86420,18 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>63865</v>
+        <v>36668</v>
       </c>
       <c r="B4095" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4095" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45905</v>
+        <v>45922</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,18 +86441,18 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>65134</v>
+        <v>42270</v>
       </c>
       <c r="B4096" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4096" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,18 +86462,18 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>67358</v>
+        <v>45344</v>
       </c>
       <c r="B4097" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4097" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,18 +86483,18 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>75181</v>
+        <v>62088</v>
       </c>
       <c r="B4098" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4098" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,7 +86504,7 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>76969</v>
+        <v>66709</v>
       </c>
       <c r="B4099" t="n">
         <v>1</v>
@@ -86515,7 +86515,7 @@
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45911</v>
+        <v>45922</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>12960</v>
+        <v>75685</v>
       </c>
       <c r="B4100" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,18 +86546,18 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>24589</v>
+        <v>76469</v>
       </c>
       <c r="B4101" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4101" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,18 +86567,18 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>34583</v>
+        <v>17382</v>
       </c>
       <c r="B4102" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4102" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45904</v>
+        <v>45916</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,7 +86588,7 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>52565</v>
+        <v>28623</v>
       </c>
       <c r="B4103" t="n">
         <v>1</v>
@@ -86599,7 +86599,7 @@
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,18 +86609,18 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>55858</v>
+        <v>73706</v>
       </c>
       <c r="B4104" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4104" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45899</v>
+        <v>45918</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,18 +86630,18 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>57848</v>
+        <v>79829</v>
       </c>
       <c r="B4105" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4105" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,18 +86651,18 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>57681</v>
+        <v>11491</v>
       </c>
       <c r="B4106" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4106" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45895</v>
+        <v>45919</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>57682</v>
+        <v>24352</v>
       </c>
       <c r="B4107" t="n">
         <v>1</v>
@@ -86683,7 +86683,7 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,18 +86693,18 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>60069</v>
+        <v>28130</v>
       </c>
       <c r="B4108" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4108" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,7 +86714,7 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>61423</v>
+        <v>32590</v>
       </c>
       <c r="B4109" t="n">
         <v>9</v>
@@ -86725,7 +86725,7 @@
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45899</v>
+        <v>45904</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,18 +86735,18 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>61424</v>
+        <v>36075</v>
       </c>
       <c r="B4110" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4110" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,7 +86756,7 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>66021</v>
+        <v>41916</v>
       </c>
       <c r="B4111" t="n">
         <v>9</v>
@@ -86767,7 +86767,7 @@
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45899</v>
+        <v>45902</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,7 +86777,7 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>73707</v>
+        <v>51292</v>
       </c>
       <c r="B4112" t="n">
         <v>1</v>
@@ -86788,7 +86788,7 @@
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>74911</v>
+        <v>66559</v>
       </c>
       <c r="B4113" t="n">
         <v>9</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45903</v>
+        <v>45899</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,7 +86819,7 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>14827</v>
+        <v>66884</v>
       </c>
       <c r="B4114" t="n">
         <v>1</v>
@@ -86830,7 +86830,7 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,7 +86840,7 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>24353</v>
+        <v>66886</v>
       </c>
       <c r="B4115" t="n">
         <v>1</v>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,7 +86861,7 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>35735</v>
+        <v>69031</v>
       </c>
       <c r="B4116" t="n">
         <v>1</v>
@@ -86882,18 +86882,18 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>39227</v>
+        <v>71105</v>
       </c>
       <c r="B4117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4117" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,18 +86903,18 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>53692</v>
+        <v>75928</v>
       </c>
       <c r="B4118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4118" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,18 +86924,18 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>62087</v>
+        <v>76278</v>
       </c>
       <c r="B4119" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4119" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,7 +86945,7 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>62984</v>
+        <v>78016</v>
       </c>
       <c r="B4120" t="n">
         <v>9</v>
@@ -86956,7 +86956,7 @@
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,18 +86966,18 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>66792</v>
+        <v>34191</v>
       </c>
       <c r="B4121" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4121" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>66794</v>
+        <v>43165</v>
       </c>
       <c r="B4122" t="n">
         <v>9</v>
@@ -87008,18 +87008,18 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>68266</v>
+        <v>45655</v>
       </c>
       <c r="B4123" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4123" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>71817</v>
+        <v>45656</v>
       </c>
       <c r="B4124" t="n">
         <v>9</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,18 +87050,18 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>76470</v>
+        <v>68886</v>
       </c>
       <c r="B4125" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4125" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,18 +87071,18 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>78458</v>
+        <v>72681</v>
       </c>
       <c r="B4126" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4126" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,18 +87092,18 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>36076</v>
+        <v>79197</v>
       </c>
       <c r="B4127" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4127" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45896</v>
+        <v>45923</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,18 +87113,18 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>40072</v>
+        <v>45941</v>
       </c>
       <c r="B4128" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4128" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,18 +87134,18 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>47074</v>
+        <v>47075</v>
       </c>
       <c r="B4129" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4129" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45897</v>
+        <v>45911</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,18 +87155,18 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>48067</v>
+        <v>49316</v>
       </c>
       <c r="B4130" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4130" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45909</v>
+        <v>45904</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>59497</v>
+        <v>57370</v>
       </c>
       <c r="B4131" t="n">
         <v>1</v>
@@ -87187,7 +87187,7 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,18 +87197,18 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>66885</v>
+        <v>62085</v>
       </c>
       <c r="B4132" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4132" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,18 +87218,18 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>66887</v>
+        <v>65743</v>
       </c>
       <c r="B4133" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4133" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,18 +87239,18 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>70304</v>
+        <v>77559</v>
       </c>
       <c r="B4134" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4134" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,18 +87260,18 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>72844</v>
+        <v>77560</v>
       </c>
       <c r="B4135" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4135" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45905</v>
+        <v>45918</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,7 +87281,7 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>77247</v>
+        <v>79649</v>
       </c>
       <c r="B4136" t="n">
         <v>1</v>
@@ -87292,7 +87292,7 @@
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,18 +87302,18 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>78192</v>
+        <v>30616</v>
       </c>
       <c r="B4137" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4137" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,18 +87323,18 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>79196</v>
+        <v>31787</v>
       </c>
       <c r="B4138" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4138" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,7 +87344,7 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>79319</v>
+        <v>69740</v>
       </c>
       <c r="B4139" t="n">
         <v>1</v>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45912</v>
+        <v>45908</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,7 +87365,7 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>79569</v>
+        <v>72029</v>
       </c>
       <c r="B4140" t="n">
         <v>9</v>
@@ -87376,7 +87376,7 @@
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,7 +87386,7 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>79405</v>
+        <v>74938</v>
       </c>
       <c r="B4141" t="n">
         <v>9</v>
@@ -87407,18 +87407,18 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>28872</v>
+        <v>77693</v>
       </c>
       <c r="B4142" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4142" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45897</v>
+        <v>45923</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>39902</v>
+        <v>79949</v>
       </c>
       <c r="B4143" t="n">
         <v>1</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45910</v>
+        <v>45924</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,18 +87449,18 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>41315</v>
+        <v>33709</v>
       </c>
       <c r="B4144" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4144" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,7 +87470,7 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>50350</v>
+        <v>41914</v>
       </c>
       <c r="B4145" t="n">
         <v>1</v>
@@ -87481,7 +87481,7 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45915</v>
+        <v>45912</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>75182</v>
+        <v>43516</v>
       </c>
       <c r="B4146" t="n">
         <v>1</v>
@@ -87502,7 +87502,7 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,7 +87512,7 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>76154</v>
+        <v>48065</v>
       </c>
       <c r="B4147" t="n">
         <v>9</v>
@@ -87533,7 +87533,7 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>77029</v>
+        <v>50720</v>
       </c>
       <c r="B4148" t="n">
         <v>1</v>
@@ -87554,18 +87554,18 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>78015</v>
+        <v>66880</v>
       </c>
       <c r="B4149" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4149" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45915</v>
+        <v>45902</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,7 +87575,7 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>15245</v>
+        <v>66881</v>
       </c>
       <c r="B4150" t="n">
         <v>1</v>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,7 +87596,7 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>40863</v>
+        <v>66882</v>
       </c>
       <c r="B4151" t="n">
         <v>1</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,18 +87617,18 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>42176</v>
+        <v>66883</v>
       </c>
       <c r="B4152" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4152" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,18 +87638,18 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>66076</v>
+        <v>67918</v>
       </c>
       <c r="B4153" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4153" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>69559</v>
+        <v>70306</v>
       </c>
       <c r="B4154" t="n">
         <v>1</v>
@@ -87670,7 +87670,7 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,18 +87680,18 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>72260</v>
+        <v>71191</v>
       </c>
       <c r="B4155" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4155" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>74739</v>
+        <v>72680</v>
       </c>
       <c r="B4156" t="n">
         <v>1</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>79828</v>
+        <v>79316</v>
       </c>
       <c r="B4157" t="n">
         <v>1</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45917</v>
+        <v>45923</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2984</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -1100,11 +1100,11 @@
         <v>13850</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -4229,11 +4229,11 @@
         <v>30736</v>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
@@ -7736,11 +7736,11 @@
         <v>42887</v>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
@@ -12713,11 +12713,11 @@
         <v>60787</v>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D585" s="2" t="n">
@@ -12944,11 +12944,11 @@
         <v>61335</v>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D596" s="2" t="n">
@@ -19811,11 +19811,11 @@
         <v>75493</v>
       </c>
       <c r="B923" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D923" s="2" t="n">
@@ -45557,11 +45557,11 @@
         <v>47133</v>
       </c>
       <c r="B2149" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2149" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2149" s="2" t="n">
@@ -60971,11 +60971,11 @@
         <v>78002</v>
       </c>
       <c r="B2883" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2883" s="2" t="n">
@@ -66998,11 +66998,11 @@
         <v>29786</v>
       </c>
       <c r="B3170" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3170" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3170" s="2" t="n">
@@ -67796,11 +67796,11 @@
         <v>33697</v>
       </c>
       <c r="B3208" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3208" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3208" s="2" t="n">
@@ -68510,11 +68510,11 @@
         <v>36995</v>
       </c>
       <c r="B3242" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3242" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3242" s="2" t="n">
@@ -69497,11 +69497,11 @@
         <v>43143</v>
       </c>
       <c r="B3289" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3289" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3289" s="2" t="n">
@@ -69917,11 +69917,11 @@
         <v>46806</v>
       </c>
       <c r="B3309" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3309" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3309" s="2" t="n">
@@ -73172,11 +73172,11 @@
         <v>60460</v>
       </c>
       <c r="B3464" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3464" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3464" s="2" t="n">
@@ -73802,11 +73802,11 @@
         <v>62780</v>
       </c>
       <c r="B3494" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3494" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3494" s="2" t="n">
@@ -74222,11 +74222,11 @@
         <v>64180</v>
       </c>
       <c r="B3514" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3514" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3514" s="2" t="n">
@@ -77183,11 +77183,11 @@
         <v>72309</v>
       </c>
       <c r="B3655" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3655" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3655" s="2" t="n">
@@ -77204,11 +77204,11 @@
         <v>72240</v>
       </c>
       <c r="B3656" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3656" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3656" s="2" t="n">
@@ -79031,11 +79031,11 @@
         <v>75286</v>
       </c>
       <c r="B3743" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3743" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3743" s="2" t="n">
@@ -80375,11 +80375,11 @@
         <v>77023</v>
       </c>
       <c r="B3807" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3807" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3807" s="2" t="n">
@@ -81593,11 +81593,11 @@
         <v>78065</v>
       </c>
       <c r="B3865" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3865" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3865" s="2" t="n">
@@ -84467,18 +84467,18 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>32964</v>
+        <v>36075</v>
       </c>
       <c r="B4002" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4002" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,18 +84488,18 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>57848</v>
+        <v>62088</v>
       </c>
       <c r="B4003" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4003" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,18 +84509,18 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>57681</v>
+        <v>66709</v>
       </c>
       <c r="B4004" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4004" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,7 +84530,7 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>57682</v>
+        <v>75685</v>
       </c>
       <c r="B4005" t="n">
         <v>1</v>
@@ -84541,7 +84541,7 @@
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,18 +84551,18 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>60069</v>
+        <v>76469</v>
       </c>
       <c r="B4006" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4006" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45918</v>
+        <v>45898</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,18 +84572,18 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>61423</v>
+        <v>11491</v>
       </c>
       <c r="B4007" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4007" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45899</v>
+        <v>45919</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,18 +84593,18 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>61424</v>
+        <v>24352</v>
       </c>
       <c r="B4008" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4008" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,7 +84614,7 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>65134</v>
+        <v>28130</v>
       </c>
       <c r="B4009" t="n">
         <v>9</v>
@@ -84625,7 +84625,7 @@
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>67358</v>
+        <v>32590</v>
       </c>
       <c r="B4010" t="n">
         <v>9</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,18 +84656,18 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>74326</v>
+        <v>60175</v>
       </c>
       <c r="B4011" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4011" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,18 +84677,18 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>75346</v>
+        <v>61188</v>
       </c>
       <c r="B4012" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4012" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,18 +84698,18 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>12960</v>
+        <v>67109</v>
       </c>
       <c r="B4013" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4013" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,7 +84719,7 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>31992</v>
+        <v>74254</v>
       </c>
       <c r="B4014" t="n">
         <v>1</v>
@@ -84730,7 +84730,7 @@
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,18 +84740,18 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>38864</v>
+        <v>77248</v>
       </c>
       <c r="B4015" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4015" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45915</v>
+        <v>45903</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,18 +84761,18 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>39901</v>
+        <v>78016</v>
       </c>
       <c r="B4016" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4016" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>43676</v>
+        <v>79318</v>
       </c>
       <c r="B4017" t="n">
         <v>1</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45918</v>
+        <v>45908</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,7 +84803,7 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>49089</v>
+        <v>17382</v>
       </c>
       <c r="B4018" t="n">
         <v>1</v>
@@ -84814,7 +84814,7 @@
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,18 +84824,18 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>55858</v>
+        <v>28623</v>
       </c>
       <c r="B4019" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45899</v>
+        <v>45918</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>66891</v>
+        <v>36668</v>
       </c>
       <c r="B4020" t="n">
         <v>1</v>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45912</v>
+        <v>45922</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,18 +84866,18 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>71818</v>
+        <v>42270</v>
       </c>
       <c r="B4021" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4021" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>74462</v>
+        <v>45344</v>
       </c>
       <c r="B4022" t="n">
         <v>1</v>
@@ -84908,18 +84908,18 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>78387</v>
+        <v>66559</v>
       </c>
       <c r="B4023" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4023" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45912</v>
+        <v>45899</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,18 +84929,18 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>78388</v>
+        <v>66884</v>
       </c>
       <c r="B4024" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4024" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45905</v>
+        <v>45916</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>24589</v>
+        <v>66886</v>
       </c>
       <c r="B4025" t="n">
         <v>1</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,18 +84971,18 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>34583</v>
+        <v>69031</v>
       </c>
       <c r="B4026" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,7 +84992,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>52565</v>
+        <v>71105</v>
       </c>
       <c r="B4027" t="n">
         <v>1</v>
@@ -85003,7 +85003,7 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,18 +85013,18 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>60555</v>
+        <v>75928</v>
       </c>
       <c r="B4028" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4028" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,18 +85034,18 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>63865</v>
+        <v>76278</v>
       </c>
       <c r="B4029" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4029" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>66021</v>
+        <v>41916</v>
       </c>
       <c r="B4030" t="n">
         <v>9</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45899</v>
+        <v>45902</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>73707</v>
+        <v>51292</v>
       </c>
       <c r="B4031" t="n">
         <v>1</v>
@@ -85087,7 +85087,7 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,18 +85097,18 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>74911</v>
+        <v>73706</v>
       </c>
       <c r="B4032" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4032" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45903</v>
+        <v>45918</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,18 +85118,18 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>48071</v>
+        <v>79829</v>
       </c>
       <c r="B4033" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4033" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>48104</v>
+        <v>33709</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -85160,18 +85160,18 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>53789</v>
+        <v>43516</v>
       </c>
       <c r="B4035" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4035" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>66888</v>
+        <v>45941</v>
       </c>
       <c r="B4036" t="n">
         <v>9</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,18 +85202,18 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>66889</v>
+        <v>68886</v>
       </c>
       <c r="B4037" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4037" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45895</v>
+        <v>45911</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,7 +85223,7 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>66890</v>
+        <v>72681</v>
       </c>
       <c r="B4038" t="n">
         <v>9</v>
@@ -85234,7 +85234,7 @@
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>67994</v>
+        <v>79197</v>
       </c>
       <c r="B4039" t="n">
         <v>1</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,7 +85265,7 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>69027</v>
+        <v>30616</v>
       </c>
       <c r="B4040" t="n">
         <v>9</v>
@@ -85276,7 +85276,7 @@
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,18 +85286,18 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>69029</v>
+        <v>31787</v>
       </c>
       <c r="B4041" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4041" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,18 +85307,18 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>69030</v>
+        <v>48065</v>
       </c>
       <c r="B4042" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4042" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45923</v>
+        <v>45898</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,18 +85328,18 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>75181</v>
+        <v>50720</v>
       </c>
       <c r="B4043" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4043" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45895</v>
+        <v>45911</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,7 +85349,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>76969</v>
+        <v>57370</v>
       </c>
       <c r="B4044" t="n">
         <v>1</v>
@@ -85360,7 +85360,7 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45911</v>
+        <v>45922</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,18 +85370,18 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>35735</v>
+        <v>62085</v>
       </c>
       <c r="B4045" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4045" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45917</v>
+        <v>45904</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>39227</v>
+        <v>65743</v>
       </c>
       <c r="B4046" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,18 +85412,18 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>42176</v>
+        <v>77559</v>
       </c>
       <c r="B4047" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4047" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45917</v>
+        <v>45902</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,7 +85433,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>50350</v>
+        <v>77560</v>
       </c>
       <c r="B4048" t="n">
         <v>1</v>
@@ -85444,7 +85444,7 @@
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,18 +85454,18 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>72844</v>
+        <v>79649</v>
       </c>
       <c r="B4049" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4049" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,18 +85475,18 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>77247</v>
+        <v>66880</v>
       </c>
       <c r="B4050" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4050" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>78192</v>
+        <v>66881</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -85517,18 +85517,18 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>79196</v>
+        <v>66882</v>
       </c>
       <c r="B4052" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4052" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,18 +85538,18 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>79319</v>
+        <v>66883</v>
       </c>
       <c r="B4053" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4053" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45912</v>
+        <v>45895</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,7 +85559,7 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>79569</v>
+        <v>67918</v>
       </c>
       <c r="B4054" t="n">
         <v>9</v>
@@ -85570,7 +85570,7 @@
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,18 +85580,18 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>79405</v>
+        <v>70306</v>
       </c>
       <c r="B4055" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4055" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,7 +85601,7 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>15245</v>
+        <v>71191</v>
       </c>
       <c r="B4056" t="n">
         <v>1</v>
@@ -85612,7 +85612,7 @@
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,18 +85622,18 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>28872</v>
+        <v>72680</v>
       </c>
       <c r="B4057" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4057" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45897</v>
+        <v>45911</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>39902</v>
+        <v>79316</v>
       </c>
       <c r="B4058" t="n">
         <v>1</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,18 +85664,18 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>41315</v>
+        <v>34191</v>
       </c>
       <c r="B4059" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4059" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,18 +85685,18 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>47074</v>
+        <v>41914</v>
       </c>
       <c r="B4060" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4060" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45897</v>
+        <v>45912</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,7 +85706,7 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>62087</v>
+        <v>43165</v>
       </c>
       <c r="B4061" t="n">
         <v>9</v>
@@ -85717,7 +85717,7 @@
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,18 +85727,18 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>62984</v>
+        <v>45655</v>
       </c>
       <c r="B4062" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4062" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,18 +85748,18 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>66792</v>
+        <v>45656</v>
       </c>
       <c r="B4063" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4063" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,18 +85769,18 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>66794</v>
+        <v>47075</v>
       </c>
       <c r="B4064" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4064" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,7 +85790,7 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>68266</v>
+        <v>49316</v>
       </c>
       <c r="B4065" t="n">
         <v>9</v>
@@ -85801,7 +85801,7 @@
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>71817</v>
+        <v>69740</v>
       </c>
       <c r="B4066" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,7 +85832,7 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>76470</v>
+        <v>72029</v>
       </c>
       <c r="B4067" t="n">
         <v>9</v>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45903</v>
+        <v>45897</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,18 +85853,18 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>78458</v>
+        <v>74938</v>
       </c>
       <c r="B4068" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4068" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45896</v>
+        <v>45901</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,7 +85874,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>40072</v>
+        <v>77693</v>
       </c>
       <c r="B4069" t="n">
         <v>1</v>
@@ -85885,7 +85885,7 @@
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,7 +85895,7 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>66076</v>
+        <v>79949</v>
       </c>
       <c r="B4070" t="n">
         <v>1</v>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>69559</v>
+        <v>52565</v>
       </c>
       <c r="B4071" t="n">
         <v>1</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,7 +85937,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>72260</v>
+        <v>55858</v>
       </c>
       <c r="B4072" t="n">
         <v>9</v>
@@ -85948,7 +85948,7 @@
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45903</v>
+        <v>45899</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,7 +85958,7 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>74739</v>
+        <v>57848</v>
       </c>
       <c r="B4073" t="n">
         <v>1</v>
@@ -85969,7 +85969,7 @@
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,18 +85979,18 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>79828</v>
+        <v>57681</v>
       </c>
       <c r="B4074" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4074" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,7 +86000,7 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>14827</v>
+        <v>57682</v>
       </c>
       <c r="B4075" t="n">
         <v>1</v>
@@ -86011,7 +86011,7 @@
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45919</v>
+        <v>45910</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>24353</v>
+        <v>60069</v>
       </c>
       <c r="B4076" t="n">
         <v>1</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,18 +86042,18 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>36076</v>
+        <v>61423</v>
       </c>
       <c r="B4077" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4077" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45896</v>
+        <v>45899</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,18 +86063,18 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>40863</v>
+        <v>61424</v>
       </c>
       <c r="B4078" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4078" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,18 +86084,18 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>48067</v>
+        <v>65134</v>
       </c>
       <c r="B4079" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4079" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,18 +86105,18 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>53692</v>
+        <v>67358</v>
       </c>
       <c r="B4080" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4080" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,7 +86126,7 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>59497</v>
+        <v>74326</v>
       </c>
       <c r="B4081" t="n">
         <v>1</v>
@@ -86137,7 +86137,7 @@
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,18 +86147,18 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>66885</v>
+        <v>75346</v>
       </c>
       <c r="B4082" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4082" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45895</v>
+        <v>45918</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,18 +86168,18 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>66887</v>
+        <v>12960</v>
       </c>
       <c r="B4083" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4083" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45916</v>
+        <v>45896</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,18 +86189,18 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>70304</v>
+        <v>34583</v>
       </c>
       <c r="B4084" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4084" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,18 +86210,18 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>75182</v>
+        <v>48071</v>
       </c>
       <c r="B4085" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4085" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,18 +86231,18 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>76154</v>
+        <v>48104</v>
       </c>
       <c r="B4086" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4086" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>77029</v>
+        <v>66891</v>
       </c>
       <c r="B4087" t="n">
         <v>1</v>
@@ -86263,7 +86263,7 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,18 +86273,18 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>78015</v>
+        <v>71818</v>
       </c>
       <c r="B4088" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4088" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,18 +86294,18 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>60175</v>
+        <v>74462</v>
       </c>
       <c r="B4089" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4089" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,18 +86315,18 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>61188</v>
+        <v>78387</v>
       </c>
       <c r="B4090" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4090" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45902</v>
+        <v>45912</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,18 +86336,18 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>67109</v>
+        <v>78388</v>
       </c>
       <c r="B4091" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4091" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,7 +86357,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>74254</v>
+        <v>24589</v>
       </c>
       <c r="B4092" t="n">
         <v>1</v>
@@ -86368,7 +86368,7 @@
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,18 +86378,18 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>77248</v>
+        <v>31992</v>
       </c>
       <c r="B4093" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4093" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45903</v>
+        <v>45919</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,7 +86399,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>79318</v>
+        <v>38864</v>
       </c>
       <c r="B4094" t="n">
         <v>1</v>
@@ -86410,7 +86410,7 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,7 +86420,7 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>36668</v>
+        <v>39901</v>
       </c>
       <c r="B4095" t="n">
         <v>1</v>
@@ -86431,7 +86431,7 @@
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45922</v>
+        <v>45918</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,7 +86441,7 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>42270</v>
+        <v>43676</v>
       </c>
       <c r="B4096" t="n">
         <v>1</v>
@@ -86452,7 +86452,7 @@
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,18 +86462,18 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>45344</v>
+        <v>60555</v>
       </c>
       <c r="B4097" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4097" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45910</v>
+        <v>45896</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>62088</v>
+        <v>66888</v>
       </c>
       <c r="B4098" t="n">
         <v>9</v>
@@ -86494,7 +86494,7 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,18 +86504,18 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>66709</v>
+        <v>66889</v>
       </c>
       <c r="B4099" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4099" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45922</v>
+        <v>45895</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>75685</v>
+        <v>66890</v>
       </c>
       <c r="B4100" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,18 +86546,18 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>76469</v>
+        <v>67994</v>
       </c>
       <c r="B4101" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4101" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45898</v>
+        <v>45922</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,18 +86567,18 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>17382</v>
+        <v>69027</v>
       </c>
       <c r="B4102" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4102" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45916</v>
+        <v>45902</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,18 +86588,18 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>28623</v>
+        <v>69029</v>
       </c>
       <c r="B4103" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4103" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45918</v>
+        <v>45901</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,7 +86609,7 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>73706</v>
+        <v>69030</v>
       </c>
       <c r="B4104" t="n">
         <v>1</v>
@@ -86620,7 +86620,7 @@
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,18 +86630,18 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>79829</v>
+        <v>75181</v>
       </c>
       <c r="B4105" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4105" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>11491</v>
+        <v>76969</v>
       </c>
       <c r="B4106" t="n">
         <v>1</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>24352</v>
+        <v>32964</v>
       </c>
       <c r="B4107" t="n">
         <v>1</v>
@@ -86683,7 +86683,7 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45908</v>
+        <v>45916</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,18 +86693,18 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>28130</v>
+        <v>49089</v>
       </c>
       <c r="B4108" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4108" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,7 +86714,7 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>32590</v>
+        <v>53789</v>
       </c>
       <c r="B4109" t="n">
         <v>9</v>
@@ -86725,7 +86725,7 @@
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,18 +86735,18 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>36075</v>
+        <v>63865</v>
       </c>
       <c r="B4110" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4110" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,7 +86756,7 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>41916</v>
+        <v>66021</v>
       </c>
       <c r="B4111" t="n">
         <v>9</v>
@@ -86767,7 +86767,7 @@
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45902</v>
+        <v>45899</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,7 +86777,7 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>51292</v>
+        <v>73707</v>
       </c>
       <c r="B4112" t="n">
         <v>1</v>
@@ -86788,7 +86788,7 @@
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>66559</v>
+        <v>74911</v>
       </c>
       <c r="B4113" t="n">
         <v>9</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,7 +86819,7 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>66884</v>
+        <v>14827</v>
       </c>
       <c r="B4114" t="n">
         <v>1</v>
@@ -86830,7 +86830,7 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45916</v>
+        <v>45919</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,7 +86840,7 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>66886</v>
+        <v>24353</v>
       </c>
       <c r="B4115" t="n">
         <v>1</v>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,7 +86861,7 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>69031</v>
+        <v>40863</v>
       </c>
       <c r="B4116" t="n">
         <v>1</v>
@@ -86872,7 +86872,7 @@
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,7 +86882,7 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>71105</v>
+        <v>42176</v>
       </c>
       <c r="B4117" t="n">
         <v>1</v>
@@ -86893,7 +86893,7 @@
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45909</v>
+        <v>45917</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,18 +86903,18 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>75928</v>
+        <v>72844</v>
       </c>
       <c r="B4118" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4118" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,7 +86924,7 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>76278</v>
+        <v>77247</v>
       </c>
       <c r="B4119" t="n">
         <v>1</v>
@@ -86935,7 +86935,7 @@
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,18 +86945,18 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>78016</v>
+        <v>78015</v>
       </c>
       <c r="B4120" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4120" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,18 +86966,18 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>34191</v>
+        <v>79196</v>
       </c>
       <c r="B4121" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4121" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45909</v>
+        <v>45897</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,18 +86987,18 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>43165</v>
+        <v>79319</v>
       </c>
       <c r="B4122" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4122" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,18 +87008,18 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>45655</v>
+        <v>79569</v>
       </c>
       <c r="B4123" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4123" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>45656</v>
+        <v>79405</v>
       </c>
       <c r="B4124" t="n">
         <v>9</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,7 +87050,7 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>68886</v>
+        <v>15245</v>
       </c>
       <c r="B4125" t="n">
         <v>1</v>
@@ -87061,7 +87061,7 @@
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,7 +87071,7 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>72681</v>
+        <v>28872</v>
       </c>
       <c r="B4126" t="n">
         <v>9</v>
@@ -87082,7 +87082,7 @@
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,18 +87092,18 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>79197</v>
+        <v>36076</v>
       </c>
       <c r="B4127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4127" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45923</v>
+        <v>45896</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,18 +87113,18 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>45941</v>
+        <v>40072</v>
       </c>
       <c r="B4128" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4128" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45901</v>
+        <v>45916</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,7 +87134,7 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>47075</v>
+        <v>48067</v>
       </c>
       <c r="B4129" t="n">
         <v>1</v>
@@ -87145,7 +87145,7 @@
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,7 +87155,7 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>49316</v>
+        <v>62087</v>
       </c>
       <c r="B4130" t="n">
         <v>9</v>
@@ -87166,7 +87166,7 @@
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,18 +87176,18 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>57370</v>
+        <v>62984</v>
       </c>
       <c r="B4131" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4131" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45922</v>
+        <v>45897</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,18 +87197,18 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>62085</v>
+        <v>66792</v>
       </c>
       <c r="B4132" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4132" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,7 +87218,7 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>65743</v>
+        <v>66794</v>
       </c>
       <c r="B4133" t="n">
         <v>9</v>
@@ -87229,7 +87229,7 @@
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,7 +87239,7 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>77559</v>
+        <v>68266</v>
       </c>
       <c r="B4134" t="n">
         <v>9</v>
@@ -87250,7 +87250,7 @@
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,18 +87260,18 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>77560</v>
+        <v>71817</v>
       </c>
       <c r="B4135" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4135" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45918</v>
+        <v>45902</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,18 +87281,18 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>79649</v>
+        <v>76470</v>
       </c>
       <c r="B4136" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4136" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45924</v>
+        <v>45903</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,18 +87302,18 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>30616</v>
+        <v>78458</v>
       </c>
       <c r="B4137" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4137" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,7 +87323,7 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>31787</v>
+        <v>39902</v>
       </c>
       <c r="B4138" t="n">
         <v>1</v>
@@ -87334,7 +87334,7 @@
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45919</v>
+        <v>45910</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,18 +87344,18 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>69740</v>
+        <v>41315</v>
       </c>
       <c r="B4139" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4139" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,18 +87365,18 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>72029</v>
+        <v>50350</v>
       </c>
       <c r="B4140" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4140" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45897</v>
+        <v>45915</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,18 +87386,18 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>74938</v>
+        <v>66885</v>
       </c>
       <c r="B4141" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4141" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,7 +87407,7 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>77693</v>
+        <v>66887</v>
       </c>
       <c r="B4142" t="n">
         <v>1</v>
@@ -87418,7 +87418,7 @@
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45923</v>
+        <v>45916</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>79949</v>
+        <v>70304</v>
       </c>
       <c r="B4143" t="n">
         <v>1</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45924</v>
+        <v>45910</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,7 +87449,7 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>33709</v>
+        <v>75182</v>
       </c>
       <c r="B4144" t="n">
         <v>1</v>
@@ -87460,7 +87460,7 @@
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,18 +87470,18 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>41914</v>
+        <v>76154</v>
       </c>
       <c r="B4145" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4145" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>43516</v>
+        <v>77029</v>
       </c>
       <c r="B4146" t="n">
         <v>1</v>
@@ -87502,7 +87502,7 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,18 +87512,18 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>48065</v>
+        <v>78192</v>
       </c>
       <c r="B4147" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4147" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,7 +87533,7 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>50720</v>
+        <v>35735</v>
       </c>
       <c r="B4148" t="n">
         <v>1</v>
@@ -87544,7 +87544,7 @@
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45911</v>
+        <v>45917</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,18 +87554,18 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>66880</v>
+        <v>39227</v>
       </c>
       <c r="B4149" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4149" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,18 +87575,18 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>66881</v>
+        <v>47074</v>
       </c>
       <c r="B4150" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4150" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,18 +87596,18 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>66882</v>
+        <v>53692</v>
       </c>
       <c r="B4151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4151" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45917</v>
+        <v>45896</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,18 +87617,18 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>66883</v>
+        <v>59497</v>
       </c>
       <c r="B4152" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4152" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45895</v>
+        <v>45918</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,18 +87638,18 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>67918</v>
+        <v>66076</v>
       </c>
       <c r="B4153" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4153" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45898</v>
+        <v>45917</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>70306</v>
+        <v>69559</v>
       </c>
       <c r="B4154" t="n">
         <v>1</v>
@@ -87670,7 +87670,7 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45910</v>
+        <v>45909</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,18 +87680,18 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>71191</v>
+        <v>72260</v>
       </c>
       <c r="B4155" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4155" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45910</v>
+        <v>45903</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>72680</v>
+        <v>74739</v>
       </c>
       <c r="B4156" t="n">
         <v>1</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>79316</v>
+        <v>79828</v>
       </c>
       <c r="B4157" t="n">
         <v>1</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45923</v>
+        <v>45917</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2974</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>367</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -16598,11 +16598,11 @@
         <v>71055</v>
       </c>
       <c r="B770" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D770" s="2" t="n">
@@ -16724,11 +16724,11 @@
         <v>71082</v>
       </c>
       <c r="B776" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D776" s="2" t="n">
@@ -44150,11 +44150,11 @@
         <v>36752</v>
       </c>
       <c r="B2082" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2082" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2082" s="2" t="n">
@@ -46754,11 +46754,11 @@
         <v>52517</v>
       </c>
       <c r="B2206" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2206" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2206" s="2" t="n">
@@ -48770,11 +48770,11 @@
         <v>59163</v>
       </c>
       <c r="B2302" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2302" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2302" s="2" t="n">
@@ -51332,11 +51332,11 @@
         <v>65259</v>
       </c>
       <c r="B2424" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2424" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2424" s="2" t="n">
@@ -52445,11 +52445,11 @@
         <v>67822</v>
       </c>
       <c r="B2477" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2477" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2477" s="2" t="n">
@@ -53075,11 +53075,11 @@
         <v>69322</v>
       </c>
       <c r="B2507" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2507" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2507" s="2" t="n">
@@ -53768,11 +53768,11 @@
         <v>70230</v>
       </c>
       <c r="B2540" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2540" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2540" s="2" t="n">
@@ -55406,11 +55406,11 @@
         <v>72720</v>
       </c>
       <c r="B2618" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2618" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2618" s="2" t="n">
@@ -55553,11 +55553,11 @@
         <v>73215</v>
       </c>
       <c r="B2625" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2625" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2625" s="2" t="n">
@@ -63176,11 +63176,11 @@
         <v>80441</v>
       </c>
       <c r="B2988" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2988" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2988" s="2" t="n">
@@ -66347,11 +66347,11 @@
         <v>27514</v>
       </c>
       <c r="B3139" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3139" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3139" s="2" t="n">
@@ -68468,11 +68468,11 @@
         <v>37001</v>
       </c>
       <c r="B3240" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3240" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3240" s="2" t="n">
@@ -68594,11 +68594,11 @@
         <v>37503</v>
       </c>
       <c r="B3246" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3246" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3246" s="2" t="n">
@@ -70253,11 +70253,11 @@
         <v>47398</v>
       </c>
       <c r="B3325" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3325" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3325" s="2" t="n">
@@ -71870,11 +71870,11 @@
         <v>52901</v>
       </c>
       <c r="B3402" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3402" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3402" s="2" t="n">
@@ -72080,11 +72080,11 @@
         <v>54099</v>
       </c>
       <c r="B3412" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3412" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3412" s="2" t="n">
@@ -74852,11 +74852,11 @@
         <v>65602</v>
       </c>
       <c r="B3544" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3544" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3544" s="2" t="n">
@@ -77540,11 +77540,11 @@
         <v>73208</v>
       </c>
       <c r="B3672" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3672" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3672" s="2" t="n">
@@ -78212,11 +78212,11 @@
         <v>74363</v>
       </c>
       <c r="B3704" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3704" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3704" s="2" t="n">
@@ -78653,11 +78653,11 @@
         <v>74724</v>
       </c>
       <c r="B3725" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3725" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3725" s="2" t="n">
@@ -84467,18 +84467,18 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>36075</v>
+        <v>31992</v>
       </c>
       <c r="B4002" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4002" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45895</v>
+        <v>45919</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,18 +84488,18 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>62088</v>
+        <v>39901</v>
       </c>
       <c r="B4003" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4003" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,18 +84509,18 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>66709</v>
+        <v>48071</v>
       </c>
       <c r="B4004" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4004" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45922</v>
+        <v>45896</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,7 +84530,7 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>75685</v>
+        <v>48104</v>
       </c>
       <c r="B4005" t="n">
         <v>1</v>
@@ -84541,7 +84541,7 @@
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,7 +84551,7 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>76469</v>
+        <v>65134</v>
       </c>
       <c r="B4006" t="n">
         <v>9</v>
@@ -84562,7 +84562,7 @@
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,18 +84572,18 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>11491</v>
+        <v>67358</v>
       </c>
       <c r="B4007" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4007" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45919</v>
+        <v>45897</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,7 +84593,7 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>24352</v>
+        <v>74326</v>
       </c>
       <c r="B4008" t="n">
         <v>1</v>
@@ -84604,7 +84604,7 @@
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,18 +84614,18 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>28130</v>
+        <v>75346</v>
       </c>
       <c r="B4009" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45903</v>
+        <v>45918</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,18 +84635,18 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>32590</v>
+        <v>32964</v>
       </c>
       <c r="B4010" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4010" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45904</v>
+        <v>45916</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,18 +84656,18 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>60175</v>
+        <v>49089</v>
       </c>
       <c r="B4011" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4011" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45897</v>
+        <v>45915</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,7 +84677,7 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>61188</v>
+        <v>53789</v>
       </c>
       <c r="B4012" t="n">
         <v>9</v>
@@ -84688,7 +84688,7 @@
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,18 +84698,18 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>67109</v>
+        <v>66021</v>
       </c>
       <c r="B4013" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4013" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45909</v>
+        <v>45899</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,18 +84719,18 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>74254</v>
+        <v>71818</v>
       </c>
       <c r="B4014" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45916</v>
+        <v>45905</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,18 +84740,18 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>77248</v>
+        <v>74462</v>
       </c>
       <c r="B4015" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4015" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,18 +84761,18 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>78016</v>
+        <v>78387</v>
       </c>
       <c r="B4016" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4016" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,18 +84782,18 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>79318</v>
+        <v>78388</v>
       </c>
       <c r="B4017" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4017" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,18 +84803,18 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>17382</v>
+        <v>12960</v>
       </c>
       <c r="B4018" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4018" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45916</v>
+        <v>45896</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,7 +84824,7 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>28623</v>
+        <v>24589</v>
       </c>
       <c r="B4019" t="n">
         <v>1</v>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,18 +84845,18 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>36668</v>
+        <v>34583</v>
       </c>
       <c r="B4020" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4020" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45922</v>
+        <v>45904</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>42270</v>
+        <v>43676</v>
       </c>
       <c r="B4021" t="n">
         <v>1</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>45344</v>
+        <v>60069</v>
       </c>
       <c r="B4022" t="n">
         <v>1</v>
@@ -84898,7 +84898,7 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45910</v>
+        <v>45918</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>66559</v>
+        <v>61423</v>
       </c>
       <c r="B4023" t="n">
         <v>9</v>
@@ -84929,18 +84929,18 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>66884</v>
+        <v>61424</v>
       </c>
       <c r="B4024" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4024" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,18 +84950,18 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>66886</v>
+        <v>66888</v>
       </c>
       <c r="B4025" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4025" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,18 +84971,18 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>69031</v>
+        <v>66889</v>
       </c>
       <c r="B4026" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4026" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,18 +84992,18 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>71105</v>
+        <v>66890</v>
       </c>
       <c r="B4027" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4027" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,7 +85013,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>75928</v>
+        <v>67994</v>
       </c>
       <c r="B4028" t="n">
         <v>1</v>
@@ -85024,7 +85024,7 @@
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,18 +85034,18 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>76278</v>
+        <v>69027</v>
       </c>
       <c r="B4029" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4029" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>41916</v>
+        <v>69029</v>
       </c>
       <c r="B4030" t="n">
         <v>9</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>51292</v>
+        <v>69030</v>
       </c>
       <c r="B4031" t="n">
         <v>1</v>
@@ -85087,7 +85087,7 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45911</v>
+        <v>45923</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,7 +85097,7 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>73706</v>
+        <v>73707</v>
       </c>
       <c r="B4032" t="n">
         <v>1</v>
@@ -85108,7 +85108,7 @@
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45918</v>
+        <v>45912</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,7 +85118,7 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>79829</v>
+        <v>74911</v>
       </c>
       <c r="B4033" t="n">
         <v>9</v>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>33709</v>
+        <v>38864</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,7 +85160,7 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>43516</v>
+        <v>52565</v>
       </c>
       <c r="B4035" t="n">
         <v>1</v>
@@ -85171,7 +85171,7 @@
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>45941</v>
+        <v>55858</v>
       </c>
       <c r="B4036" t="n">
         <v>9</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45901</v>
+        <v>45899</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,7 +85202,7 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>68886</v>
+        <v>57848</v>
       </c>
       <c r="B4037" t="n">
         <v>1</v>
@@ -85213,7 +85213,7 @@
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,18 +85223,18 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>72681</v>
+        <v>57681</v>
       </c>
       <c r="B4038" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4038" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>79197</v>
+        <v>57682</v>
       </c>
       <c r="B4039" t="n">
         <v>1</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,18 +85265,18 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>30616</v>
+        <v>60555</v>
       </c>
       <c r="B4040" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4040" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,18 +85286,18 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>31787</v>
+        <v>63865</v>
       </c>
       <c r="B4041" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4041" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45919</v>
+        <v>45905</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,18 +85307,18 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>48065</v>
+        <v>66891</v>
       </c>
       <c r="B4042" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4042" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45898</v>
+        <v>45912</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,18 +85328,18 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>50720</v>
+        <v>75181</v>
       </c>
       <c r="B4043" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4043" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45911</v>
+        <v>45895</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,7 +85349,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>57370</v>
+        <v>76969</v>
       </c>
       <c r="B4044" t="n">
         <v>1</v>
@@ -85360,7 +85360,7 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45922</v>
+        <v>45911</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,7 +85370,7 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>62085</v>
+        <v>28872</v>
       </c>
       <c r="B4045" t="n">
         <v>9</v>
@@ -85381,7 +85381,7 @@
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>65743</v>
+        <v>36076</v>
       </c>
       <c r="B4046" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,18 +85412,18 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>77559</v>
+        <v>39902</v>
       </c>
       <c r="B4047" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4047" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,7 +85433,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>77560</v>
+        <v>40863</v>
       </c>
       <c r="B4048" t="n">
         <v>1</v>
@@ -85444,7 +85444,7 @@
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,7 +85454,7 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>79649</v>
+        <v>42176</v>
       </c>
       <c r="B4049" t="n">
         <v>1</v>
@@ -85465,7 +85465,7 @@
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,7 +85475,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>66880</v>
+        <v>47074</v>
       </c>
       <c r="B4050" t="n">
         <v>9</v>
@@ -85486,7 +85486,7 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>66881</v>
+        <v>48067</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,7 +85517,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>66882</v>
+        <v>59497</v>
       </c>
       <c r="B4052" t="n">
         <v>1</v>
@@ -85528,7 +85528,7 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,18 +85538,18 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>66883</v>
+        <v>72844</v>
       </c>
       <c r="B4053" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4053" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,18 +85559,18 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>67918</v>
+        <v>77247</v>
       </c>
       <c r="B4054" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4054" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,7 +85580,7 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>70306</v>
+        <v>78192</v>
       </c>
       <c r="B4055" t="n">
         <v>1</v>
@@ -85591,7 +85591,7 @@
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,18 +85601,18 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>71191</v>
+        <v>79196</v>
       </c>
       <c r="B4056" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4056" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,7 +85622,7 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>72680</v>
+        <v>79319</v>
       </c>
       <c r="B4057" t="n">
         <v>1</v>
@@ -85633,7 +85633,7 @@
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,18 +85643,18 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>79316</v>
+        <v>79569</v>
       </c>
       <c r="B4058" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4058" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45923</v>
+        <v>45901</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,18 +85664,18 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>34191</v>
+        <v>79405</v>
       </c>
       <c r="B4059" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4059" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>41914</v>
+        <v>14827</v>
       </c>
       <c r="B4060" t="n">
         <v>1</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45912</v>
+        <v>45919</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,18 +85706,18 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>43165</v>
+        <v>24353</v>
       </c>
       <c r="B4061" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4061" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>45655</v>
+        <v>35735</v>
       </c>
       <c r="B4062" t="n">
         <v>1</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,18 +85748,18 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>45656</v>
+        <v>39227</v>
       </c>
       <c r="B4063" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4063" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,18 +85769,18 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>47075</v>
+        <v>53692</v>
       </c>
       <c r="B4064" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4064" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45911</v>
+        <v>45896</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,7 +85790,7 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>49316</v>
+        <v>62087</v>
       </c>
       <c r="B4065" t="n">
         <v>9</v>
@@ -85801,7 +85801,7 @@
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>69740</v>
+        <v>62984</v>
       </c>
       <c r="B4066" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,18 +85832,18 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>72029</v>
+        <v>66076</v>
       </c>
       <c r="B4067" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4067" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,18 +85853,18 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>74938</v>
+        <v>69559</v>
       </c>
       <c r="B4068" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4068" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,18 +85874,18 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>77693</v>
+        <v>71817</v>
       </c>
       <c r="B4069" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4069" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45923</v>
+        <v>45902</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,18 +85895,18 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>79949</v>
+        <v>76470</v>
       </c>
       <c r="B4070" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4070" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45924</v>
+        <v>45903</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,18 +85916,18 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>52565</v>
+        <v>78458</v>
       </c>
       <c r="B4071" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4071" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,18 +85937,18 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>55858</v>
+        <v>15245</v>
       </c>
       <c r="B4072" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4072" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45899</v>
+        <v>45915</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,18 +85958,18 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>57848</v>
+        <v>41315</v>
       </c>
       <c r="B4073" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,18 +85979,18 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>57681</v>
+        <v>50350</v>
       </c>
       <c r="B4074" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4074" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,18 +86000,18 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>57682</v>
+        <v>66885</v>
       </c>
       <c r="B4075" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4075" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>60069</v>
+        <v>66887</v>
       </c>
       <c r="B4076" t="n">
         <v>1</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,18 +86042,18 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>61423</v>
+        <v>70304</v>
       </c>
       <c r="B4077" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4077" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45899</v>
+        <v>45910</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,7 +86063,7 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>61424</v>
+        <v>72260</v>
       </c>
       <c r="B4078" t="n">
         <v>9</v>
@@ -86074,7 +86074,7 @@
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,18 +86084,18 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>65134</v>
+        <v>74739</v>
       </c>
       <c r="B4079" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4079" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,18 +86105,18 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>67358</v>
+        <v>79828</v>
       </c>
       <c r="B4080" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4080" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,7 +86126,7 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>74326</v>
+        <v>40072</v>
       </c>
       <c r="B4081" t="n">
         <v>1</v>
@@ -86137,7 +86137,7 @@
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,18 +86147,18 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>75346</v>
+        <v>66792</v>
       </c>
       <c r="B4082" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4082" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,18 +86168,18 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>12960</v>
+        <v>66794</v>
       </c>
       <c r="B4083" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4083" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>34583</v>
+        <v>68266</v>
       </c>
       <c r="B4084" t="n">
         <v>9</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,18 +86210,18 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>48071</v>
+        <v>75182</v>
       </c>
       <c r="B4085" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4085" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,18 +86231,18 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>48104</v>
+        <v>76154</v>
       </c>
       <c r="B4086" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4086" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45905</v>
+        <v>45898</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>66891</v>
+        <v>77029</v>
       </c>
       <c r="B4087" t="n">
         <v>1</v>
@@ -86263,7 +86263,7 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,18 +86273,18 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>71818</v>
+        <v>78015</v>
       </c>
       <c r="B4088" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4088" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,7 +86294,7 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>74462</v>
+        <v>43516</v>
       </c>
       <c r="B4089" t="n">
         <v>1</v>
@@ -86305,7 +86305,7 @@
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,18 +86315,18 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>78387</v>
+        <v>45941</v>
       </c>
       <c r="B4090" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4090" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45912</v>
+        <v>45901</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,18 +86336,18 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>78388</v>
+        <v>47075</v>
       </c>
       <c r="B4091" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4091" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45905</v>
+        <v>45911</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,18 +86357,18 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>24589</v>
+        <v>48065</v>
       </c>
       <c r="B4092" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4092" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,7 +86378,7 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>31992</v>
+        <v>68886</v>
       </c>
       <c r="B4093" t="n">
         <v>1</v>
@@ -86389,7 +86389,7 @@
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45919</v>
+        <v>45911</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,18 +86399,18 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>38864</v>
+        <v>72681</v>
       </c>
       <c r="B4094" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4094" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45915</v>
+        <v>45898</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,7 +86420,7 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>39901</v>
+        <v>79197</v>
       </c>
       <c r="B4095" t="n">
         <v>1</v>
@@ -86431,7 +86431,7 @@
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45918</v>
+        <v>45923</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,7 +86441,7 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>43676</v>
+        <v>34191</v>
       </c>
       <c r="B4096" t="n">
         <v>1</v>
@@ -86452,7 +86452,7 @@
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45918</v>
+        <v>45909</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,18 +86462,18 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>60555</v>
+        <v>41914</v>
       </c>
       <c r="B4097" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4097" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>66888</v>
+        <v>43165</v>
       </c>
       <c r="B4098" t="n">
         <v>9</v>
@@ -86494,7 +86494,7 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,18 +86504,18 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>66889</v>
+        <v>45655</v>
       </c>
       <c r="B4099" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4099" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>66890</v>
+        <v>45656</v>
       </c>
       <c r="B4100" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,18 +86546,18 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>67994</v>
+        <v>49316</v>
       </c>
       <c r="B4101" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4101" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45922</v>
+        <v>45904</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,18 +86567,18 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>69027</v>
+        <v>57370</v>
       </c>
       <c r="B4102" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4102" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45902</v>
+        <v>45922</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,7 +86588,7 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>69029</v>
+        <v>62085</v>
       </c>
       <c r="B4103" t="n">
         <v>9</v>
@@ -86599,7 +86599,7 @@
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45901</v>
+        <v>45904</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,7 +86609,7 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>69030</v>
+        <v>69740</v>
       </c>
       <c r="B4104" t="n">
         <v>1</v>
@@ -86620,7 +86620,7 @@
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,18 +86630,18 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>75181</v>
+        <v>77559</v>
       </c>
       <c r="B4105" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4105" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>76969</v>
+        <v>77560</v>
       </c>
       <c r="B4106" t="n">
         <v>1</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45911</v>
+        <v>45918</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>32964</v>
+        <v>79649</v>
       </c>
       <c r="B4107" t="n">
         <v>1</v>
@@ -86683,7 +86683,7 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45916</v>
+        <v>45924</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,18 +86693,18 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>49089</v>
+        <v>30616</v>
       </c>
       <c r="B4108" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4108" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,18 +86714,18 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>53789</v>
+        <v>31787</v>
       </c>
       <c r="B4109" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4109" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,18 +86735,18 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>63865</v>
+        <v>50720</v>
       </c>
       <c r="B4110" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4110" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45905</v>
+        <v>45911</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,7 +86756,7 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>66021</v>
+        <v>66880</v>
       </c>
       <c r="B4111" t="n">
         <v>9</v>
@@ -86767,7 +86767,7 @@
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45899</v>
+        <v>45902</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,7 +86777,7 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>73707</v>
+        <v>66881</v>
       </c>
       <c r="B4112" t="n">
         <v>1</v>
@@ -86788,7 +86788,7 @@
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45912</v>
+        <v>45908</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,18 +86798,18 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>74911</v>
+        <v>66882</v>
       </c>
       <c r="B4113" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4113" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45903</v>
+        <v>45917</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,18 +86819,18 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>14827</v>
+        <v>66883</v>
       </c>
       <c r="B4114" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4114" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45919</v>
+        <v>45895</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,18 +86840,18 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>24353</v>
+        <v>67918</v>
       </c>
       <c r="B4115" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4115" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45915</v>
+        <v>45898</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,7 +86861,7 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>40863</v>
+        <v>70306</v>
       </c>
       <c r="B4116" t="n">
         <v>1</v>
@@ -86872,7 +86872,7 @@
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45916</v>
+        <v>45910</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,7 +86882,7 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>42176</v>
+        <v>71191</v>
       </c>
       <c r="B4117" t="n">
         <v>1</v>
@@ -86893,7 +86893,7 @@
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45917</v>
+        <v>45910</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,7 +86903,7 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>72844</v>
+        <v>72029</v>
       </c>
       <c r="B4118" t="n">
         <v>9</v>
@@ -86914,7 +86914,7 @@
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,18 +86924,18 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>77247</v>
+        <v>74938</v>
       </c>
       <c r="B4119" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4119" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,7 +86945,7 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>78015</v>
+        <v>77693</v>
       </c>
       <c r="B4120" t="n">
         <v>1</v>
@@ -86956,7 +86956,7 @@
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,18 +86966,18 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>79196</v>
+        <v>79949</v>
       </c>
       <c r="B4121" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4121" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45897</v>
+        <v>45924</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>79319</v>
+        <v>33709</v>
       </c>
       <c r="B4122" t="n">
         <v>1</v>
@@ -86998,7 +86998,7 @@
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,7 +87008,7 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>79569</v>
+        <v>65743</v>
       </c>
       <c r="B4123" t="n">
         <v>9</v>
@@ -87029,18 +87029,18 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>79405</v>
+        <v>72680</v>
       </c>
       <c r="B4124" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4124" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,7 +87050,7 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>15245</v>
+        <v>79316</v>
       </c>
       <c r="B4125" t="n">
         <v>1</v>
@@ -87061,7 +87061,7 @@
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,18 +87071,18 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>28872</v>
+        <v>17382</v>
       </c>
       <c r="B4126" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4126" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,7 +87092,7 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>36076</v>
+        <v>36075</v>
       </c>
       <c r="B4127" t="n">
         <v>4</v>
@@ -87103,7 +87103,7 @@
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,7 +87113,7 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>40072</v>
+        <v>67109</v>
       </c>
       <c r="B4128" t="n">
         <v>1</v>
@@ -87124,7 +87124,7 @@
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,7 +87134,7 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>48067</v>
+        <v>74254</v>
       </c>
       <c r="B4129" t="n">
         <v>1</v>
@@ -87145,7 +87145,7 @@
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45909</v>
+        <v>45916</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,7 +87155,7 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>62087</v>
+        <v>77248</v>
       </c>
       <c r="B4130" t="n">
         <v>9</v>
@@ -87166,7 +87166,7 @@
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,18 +87176,18 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>62984</v>
+        <v>79318</v>
       </c>
       <c r="B4131" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4131" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45897</v>
+        <v>45908</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,18 +87197,18 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>66792</v>
+        <v>11491</v>
       </c>
       <c r="B4132" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4132" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45895</v>
+        <v>45919</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,18 +87218,18 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>66794</v>
+        <v>24352</v>
       </c>
       <c r="B4133" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4133" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,7 +87239,7 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>68266</v>
+        <v>41916</v>
       </c>
       <c r="B4134" t="n">
         <v>9</v>
@@ -87250,7 +87250,7 @@
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,18 +87260,18 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>71817</v>
+        <v>51292</v>
       </c>
       <c r="B4135" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4135" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45902</v>
+        <v>45911</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,7 +87281,7 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>76470</v>
+        <v>62088</v>
       </c>
       <c r="B4136" t="n">
         <v>9</v>
@@ -87292,7 +87292,7 @@
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,18 +87302,18 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>78458</v>
+        <v>75685</v>
       </c>
       <c r="B4137" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4137" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45896</v>
+        <v>45908</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,18 +87323,18 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>39902</v>
+        <v>76469</v>
       </c>
       <c r="B4138" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4138" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,18 +87344,18 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>41315</v>
+        <v>28623</v>
       </c>
       <c r="B4139" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4139" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,7 +87365,7 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>50350</v>
+        <v>42270</v>
       </c>
       <c r="B4140" t="n">
         <v>1</v>
@@ -87376,7 +87376,7 @@
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,18 +87386,18 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>66885</v>
+        <v>45344</v>
       </c>
       <c r="B4141" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4141" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45895</v>
+        <v>45910</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,18 +87407,18 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>66887</v>
+        <v>60175</v>
       </c>
       <c r="B4142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4142" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45916</v>
+        <v>45897</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,18 +87428,18 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>70304</v>
+        <v>61188</v>
       </c>
       <c r="B4143" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4143" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,18 +87449,18 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>75182</v>
+        <v>66559</v>
       </c>
       <c r="B4144" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4144" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45909</v>
+        <v>45899</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,18 +87470,18 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>76154</v>
+        <v>66884</v>
       </c>
       <c r="B4145" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4145" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45898</v>
+        <v>45916</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>77029</v>
+        <v>66886</v>
       </c>
       <c r="B4146" t="n">
         <v>1</v>
@@ -87512,7 +87512,7 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>78192</v>
+        <v>69031</v>
       </c>
       <c r="B4147" t="n">
         <v>1</v>
@@ -87523,7 +87523,7 @@
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,7 +87533,7 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>35735</v>
+        <v>71105</v>
       </c>
       <c r="B4148" t="n">
         <v>1</v>
@@ -87544,7 +87544,7 @@
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45917</v>
+        <v>45909</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,18 +87554,18 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>39227</v>
+        <v>73706</v>
       </c>
       <c r="B4149" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4149" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45895</v>
+        <v>45918</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,7 +87575,7 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>47074</v>
+        <v>79829</v>
       </c>
       <c r="B4150" t="n">
         <v>9</v>
@@ -87586,7 +87586,7 @@
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,18 +87596,18 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>53692</v>
+        <v>28130</v>
       </c>
       <c r="B4151" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4151" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,18 +87617,18 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>59497</v>
+        <v>32590</v>
       </c>
       <c r="B4152" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4152" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,7 +87638,7 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>66076</v>
+        <v>36668</v>
       </c>
       <c r="B4153" t="n">
         <v>1</v>
@@ -87649,7 +87649,7 @@
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,7 +87659,7 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>69559</v>
+        <v>66709</v>
       </c>
       <c r="B4154" t="n">
         <v>1</v>
@@ -87670,7 +87670,7 @@
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45909</v>
+        <v>45922</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,18 +87680,18 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>72260</v>
+        <v>75928</v>
       </c>
       <c r="B4155" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4155" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>74739</v>
+        <v>76278</v>
       </c>
       <c r="B4156" t="n">
         <v>1</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,18 +87722,18 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>79828</v>
+        <v>78016</v>
       </c>
       <c r="B4157" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4157" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45917</v>
+        <v>45904</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2967</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -10256,11 +10256,11 @@
         <v>51506</v>
       </c>
       <c r="B468" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D468" s="2" t="n">
@@ -14204,11 +14204,11 @@
         <v>66166</v>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D656" s="2" t="n">
@@ -17543,11 +17543,11 @@
         <v>72657</v>
       </c>
       <c r="B815" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D815" s="2" t="n">
@@ -34469,11 +34469,11 @@
         <v>73464</v>
       </c>
       <c r="B1621" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1621" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1621" s="2" t="n">
@@ -44549,11 +44549,11 @@
         <v>40026</v>
       </c>
       <c r="B2101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2101" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2101" s="2" t="n">
@@ -45137,11 +45137,11 @@
         <v>43199</v>
       </c>
       <c r="B2129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2129" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2129" s="2" t="n">
@@ -47510,11 +47510,11 @@
         <v>54869</v>
       </c>
       <c r="B2242" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2242" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2242" s="2" t="n">
@@ -51395,11 +51395,11 @@
         <v>65382</v>
       </c>
       <c r="B2427" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2427" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2427" s="2" t="n">
@@ -55868,11 +55868,11 @@
         <v>74090</v>
       </c>
       <c r="B2640" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2640" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2640" s="2" t="n">
@@ -57674,11 +57674,11 @@
         <v>75349</v>
       </c>
       <c r="B2726" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2726" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2726" s="2" t="n">
@@ -59816,11 +59816,11 @@
         <v>77129</v>
       </c>
       <c r="B2828" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2828" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2828" s="2" t="n">
@@ -76007,11 +76007,11 @@
         <v>69397</v>
       </c>
       <c r="B3599" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3599" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3599" s="2" t="n">
@@ -76448,11 +76448,11 @@
         <v>70487</v>
       </c>
       <c r="B3620" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3620" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3620" s="2" t="n">
@@ -77624,11 +77624,11 @@
         <v>73432</v>
       </c>
       <c r="B3676" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3676" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3676" s="2" t="n">
@@ -79409,11 +79409,11 @@
         <v>75726</v>
       </c>
       <c r="B3761" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3761" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3761" s="2" t="n">
@@ -79598,11 +79598,11 @@
         <v>75897</v>
       </c>
       <c r="B3770" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3770" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3770" s="2" t="n">
@@ -81215,11 +81215,11 @@
         <v>77888</v>
       </c>
       <c r="B3847" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3847" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3847" s="2" t="n">
@@ -84467,18 +84467,18 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>31992</v>
+        <v>30616</v>
       </c>
       <c r="B4002" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4002" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45919</v>
+        <v>45901</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,7 +84488,7 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>39901</v>
+        <v>34191</v>
       </c>
       <c r="B4003" t="n">
         <v>1</v>
@@ -84499,7 +84499,7 @@
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45918</v>
+        <v>45909</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,18 +84509,18 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>48071</v>
+        <v>41914</v>
       </c>
       <c r="B4004" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4004" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,18 +84530,18 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>48104</v>
+        <v>43165</v>
       </c>
       <c r="B4005" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4005" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,18 +84551,18 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>65134</v>
+        <v>45655</v>
       </c>
       <c r="B4006" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4006" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,18 +84572,18 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>67358</v>
+        <v>45656</v>
       </c>
       <c r="B4007" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4007" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,7 +84593,7 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>74326</v>
+        <v>47075</v>
       </c>
       <c r="B4008" t="n">
         <v>1</v>
@@ -84604,7 +84604,7 @@
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,18 +84614,18 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>75346</v>
+        <v>48065</v>
       </c>
       <c r="B4009" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4009" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45918</v>
+        <v>45898</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>32964</v>
+        <v>68886</v>
       </c>
       <c r="B4010" t="n">
         <v>1</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45916</v>
+        <v>45911</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,7 +84656,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>49089</v>
+        <v>70306</v>
       </c>
       <c r="B4011" t="n">
         <v>1</v>
@@ -84667,7 +84667,7 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,18 +84677,18 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>53789</v>
+        <v>71191</v>
       </c>
       <c r="B4012" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,18 +84698,18 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>66021</v>
+        <v>72680</v>
       </c>
       <c r="B4013" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4013" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45899</v>
+        <v>45911</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,18 +84719,18 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>71818</v>
+        <v>79197</v>
       </c>
       <c r="B4014" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45905</v>
+        <v>45923</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,7 +84740,7 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>74462</v>
+        <v>31787</v>
       </c>
       <c r="B4015" t="n">
         <v>1</v>
@@ -84751,7 +84751,7 @@
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45910</v>
+        <v>45919</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>78387</v>
+        <v>33709</v>
       </c>
       <c r="B4016" t="n">
         <v>1</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45912</v>
+        <v>45905</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,18 +84782,18 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>78388</v>
+        <v>57370</v>
       </c>
       <c r="B4017" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4017" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45905</v>
+        <v>45922</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,18 +84803,18 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>12960</v>
+        <v>62085</v>
       </c>
       <c r="B4018" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4018" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,18 +84824,18 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>24589</v>
+        <v>65743</v>
       </c>
       <c r="B4019" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45917</v>
+        <v>45901</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>34583</v>
+        <v>77559</v>
       </c>
       <c r="B4020" t="n">
         <v>9</v>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>43676</v>
+        <v>77560</v>
       </c>
       <c r="B4021" t="n">
         <v>1</v>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>60069</v>
+        <v>79649</v>
       </c>
       <c r="B4022" t="n">
         <v>1</v>
@@ -84898,7 +84898,7 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45918</v>
+        <v>45924</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,18 +84908,18 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>61423</v>
+        <v>50720</v>
       </c>
       <c r="B4023" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4023" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45899</v>
+        <v>45911</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,7 +84929,7 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>61424</v>
+        <v>67918</v>
       </c>
       <c r="B4024" t="n">
         <v>9</v>
@@ -84940,7 +84940,7 @@
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>66888</v>
+        <v>72681</v>
       </c>
       <c r="B4025" t="n">
         <v>9</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,18 +84971,18 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>66889</v>
+        <v>79316</v>
       </c>
       <c r="B4026" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4026" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,18 +84992,18 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>66890</v>
+        <v>43516</v>
       </c>
       <c r="B4027" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4027" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45896</v>
+        <v>45912</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,18 +85013,18 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>67994</v>
+        <v>45941</v>
       </c>
       <c r="B4028" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4028" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45922</v>
+        <v>45901</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>69027</v>
+        <v>49316</v>
       </c>
       <c r="B4029" t="n">
         <v>9</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>69029</v>
+        <v>66880</v>
       </c>
       <c r="B4030" t="n">
         <v>9</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>69030</v>
+        <v>66881</v>
       </c>
       <c r="B4031" t="n">
         <v>1</v>
@@ -85087,7 +85087,7 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45923</v>
+        <v>45908</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,7 +85097,7 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>73707</v>
+        <v>66882</v>
       </c>
       <c r="B4032" t="n">
         <v>1</v>
@@ -85108,7 +85108,7 @@
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45912</v>
+        <v>45917</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,18 +85118,18 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>74911</v>
+        <v>66883</v>
       </c>
       <c r="B4033" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4033" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>38864</v>
+        <v>69740</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,18 +85160,18 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>52565</v>
+        <v>72029</v>
       </c>
       <c r="B4035" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4035" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>55858</v>
+        <v>74938</v>
       </c>
       <c r="B4036" t="n">
         <v>9</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,7 +85202,7 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>57848</v>
+        <v>77693</v>
       </c>
       <c r="B4037" t="n">
         <v>1</v>
@@ -85213,7 +85213,7 @@
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45908</v>
+        <v>45923</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,18 +85223,18 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>57681</v>
+        <v>79949</v>
       </c>
       <c r="B4038" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4038" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45895</v>
+        <v>45924</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>57682</v>
+        <v>11491</v>
       </c>
       <c r="B4039" t="n">
         <v>1</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45910</v>
+        <v>45919</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,18 +85265,18 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>60555</v>
+        <v>28130</v>
       </c>
       <c r="B4040" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4040" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,7 +85286,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>63865</v>
+        <v>41916</v>
       </c>
       <c r="B4041" t="n">
         <v>9</v>
@@ -85297,7 +85297,7 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,7 +85307,7 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>66891</v>
+        <v>67109</v>
       </c>
       <c r="B4042" t="n">
         <v>1</v>
@@ -85318,7 +85318,7 @@
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,18 +85328,18 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>75181</v>
+        <v>71105</v>
       </c>
       <c r="B4043" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4043" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,7 +85349,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>76969</v>
+        <v>75928</v>
       </c>
       <c r="B4044" t="n">
         <v>1</v>
@@ -85360,7 +85360,7 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,18 +85370,18 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>28872</v>
+        <v>76278</v>
       </c>
       <c r="B4045" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4045" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>36076</v>
+        <v>78016</v>
       </c>
       <c r="B4046" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,7 +85412,7 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>39902</v>
+        <v>79318</v>
       </c>
       <c r="B4047" t="n">
         <v>1</v>
@@ -85423,7 +85423,7 @@
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45910</v>
+        <v>45908</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,18 +85433,18 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>40863</v>
+        <v>36075</v>
       </c>
       <c r="B4048" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4048" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45916</v>
+        <v>45895</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,18 +85454,18 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>42176</v>
+        <v>62088</v>
       </c>
       <c r="B4049" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4049" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45917</v>
+        <v>45902</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,18 +85475,18 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>47074</v>
+        <v>66709</v>
       </c>
       <c r="B4050" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4050" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45897</v>
+        <v>45922</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>48067</v>
+        <v>75685</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,18 +85517,18 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>59497</v>
+        <v>76469</v>
       </c>
       <c r="B4052" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4052" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45918</v>
+        <v>45898</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,18 +85538,18 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>72844</v>
+        <v>24352</v>
       </c>
       <c r="B4053" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4053" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,7 +85559,7 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>77247</v>
+        <v>36668</v>
       </c>
       <c r="B4054" t="n">
         <v>1</v>
@@ -85570,7 +85570,7 @@
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45908</v>
+        <v>45922</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,7 +85580,7 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>78192</v>
+        <v>42270</v>
       </c>
       <c r="B4055" t="n">
         <v>1</v>
@@ -85591,7 +85591,7 @@
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,18 +85601,18 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>79196</v>
+        <v>45344</v>
       </c>
       <c r="B4056" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4056" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,18 +85622,18 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>79319</v>
+        <v>60175</v>
       </c>
       <c r="B4057" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4057" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>79569</v>
+        <v>61188</v>
       </c>
       <c r="B4058" t="n">
         <v>9</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,18 +85664,18 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>79405</v>
+        <v>69031</v>
       </c>
       <c r="B4059" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4059" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>14827</v>
+        <v>74254</v>
       </c>
       <c r="B4060" t="n">
         <v>1</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,18 +85706,18 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>24353</v>
+        <v>77248</v>
       </c>
       <c r="B4061" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4061" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45915</v>
+        <v>45903</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>35735</v>
+        <v>17382</v>
       </c>
       <c r="B4062" t="n">
         <v>1</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,18 +85748,18 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>39227</v>
+        <v>28623</v>
       </c>
       <c r="B4063" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4063" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45895</v>
+        <v>45918</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,18 +85769,18 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>53692</v>
+        <v>32590</v>
       </c>
       <c r="B4064" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4064" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,18 +85790,18 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>62087</v>
+        <v>51292</v>
       </c>
       <c r="B4065" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4065" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,7 +85811,7 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>62984</v>
+        <v>66559</v>
       </c>
       <c r="B4066" t="n">
         <v>9</v>
@@ -85822,7 +85822,7 @@
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,7 +85832,7 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>66076</v>
+        <v>66884</v>
       </c>
       <c r="B4067" t="n">
         <v>1</v>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,7 +85853,7 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>69559</v>
+        <v>66886</v>
       </c>
       <c r="B4068" t="n">
         <v>1</v>
@@ -85864,7 +85864,7 @@
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,18 +85874,18 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>71817</v>
+        <v>73706</v>
       </c>
       <c r="B4069" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4069" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,7 +85895,7 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>76470</v>
+        <v>79829</v>
       </c>
       <c r="B4070" t="n">
         <v>9</v>
@@ -85916,18 +85916,18 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>78458</v>
+        <v>15245</v>
       </c>
       <c r="B4071" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4071" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,7 +85937,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>15245</v>
+        <v>35735</v>
       </c>
       <c r="B4072" t="n">
         <v>1</v>
@@ -85948,7 +85948,7 @@
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,18 +85958,18 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>41315</v>
+        <v>39227</v>
       </c>
       <c r="B4073" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45904</v>
+        <v>45895</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,18 +85979,18 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>50350</v>
+        <v>47074</v>
       </c>
       <c r="B4074" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4074" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,18 +86000,18 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>66885</v>
+        <v>48067</v>
       </c>
       <c r="B4075" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4075" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>66887</v>
+        <v>59497</v>
       </c>
       <c r="B4076" t="n">
         <v>1</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86063,18 +86063,18 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>72260</v>
+        <v>75182</v>
       </c>
       <c r="B4078" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4078" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45903</v>
+        <v>45909</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,18 +86084,18 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>74739</v>
+        <v>76154</v>
       </c>
       <c r="B4079" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4079" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,7 +86105,7 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>79828</v>
+        <v>77029</v>
       </c>
       <c r="B4080" t="n">
         <v>1</v>
@@ -86116,7 +86116,7 @@
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45917</v>
+        <v>45911</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,7 +86126,7 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>40072</v>
+        <v>78015</v>
       </c>
       <c r="B4081" t="n">
         <v>1</v>
@@ -86137,7 +86137,7 @@
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,18 +86147,18 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>66792</v>
+        <v>79196</v>
       </c>
       <c r="B4082" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4082" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,18 +86168,18 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>66794</v>
+        <v>79319</v>
       </c>
       <c r="B4083" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4083" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45903</v>
+        <v>45912</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>68266</v>
+        <v>79569</v>
       </c>
       <c r="B4084" t="n">
         <v>9</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,18 +86210,18 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>75182</v>
+        <v>79405</v>
       </c>
       <c r="B4085" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4085" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,18 +86231,18 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>76154</v>
+        <v>36076</v>
       </c>
       <c r="B4086" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4086" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>77029</v>
+        <v>40072</v>
       </c>
       <c r="B4087" t="n">
         <v>1</v>
@@ -86263,7 +86263,7 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,18 +86273,18 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>78015</v>
+        <v>62087</v>
       </c>
       <c r="B4088" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4088" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45915</v>
+        <v>45901</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,18 +86294,18 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>43516</v>
+        <v>62984</v>
       </c>
       <c r="B4089" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4089" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,18 +86315,18 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>45941</v>
+        <v>66792</v>
       </c>
       <c r="B4090" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4090" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,18 +86336,18 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>47075</v>
+        <v>66794</v>
       </c>
       <c r="B4091" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4091" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45911</v>
+        <v>45903</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,7 +86357,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>48065</v>
+        <v>68266</v>
       </c>
       <c r="B4092" t="n">
         <v>9</v>
@@ -86378,18 +86378,18 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>68886</v>
+        <v>71817</v>
       </c>
       <c r="B4093" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4093" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,7 +86399,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>72681</v>
+        <v>76470</v>
       </c>
       <c r="B4094" t="n">
         <v>9</v>
@@ -86410,7 +86410,7 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,18 +86420,18 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>79197</v>
+        <v>78458</v>
       </c>
       <c r="B4095" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4095" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45923</v>
+        <v>45896</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,7 +86441,7 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>34191</v>
+        <v>24353</v>
       </c>
       <c r="B4096" t="n">
         <v>1</v>
@@ -86452,7 +86452,7 @@
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,18 +86462,18 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>41914</v>
+        <v>28872</v>
       </c>
       <c r="B4097" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4097" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,18 +86483,18 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>43165</v>
+        <v>39902</v>
       </c>
       <c r="B4098" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4098" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,18 +86504,18 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>45655</v>
+        <v>41315</v>
       </c>
       <c r="B4099" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4099" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45905</v>
+        <v>45904</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>45656</v>
+        <v>50350</v>
       </c>
       <c r="B4100" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45898</v>
+        <v>45915</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,18 +86546,18 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>49316</v>
+        <v>66076</v>
       </c>
       <c r="B4101" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4101" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,18 +86567,18 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>57370</v>
+        <v>72844</v>
       </c>
       <c r="B4102" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4102" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45922</v>
+        <v>45905</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,18 +86588,18 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>62085</v>
+        <v>77247</v>
       </c>
       <c r="B4103" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4103" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,7 +86609,7 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>69740</v>
+        <v>78192</v>
       </c>
       <c r="B4104" t="n">
         <v>1</v>
@@ -86630,18 +86630,18 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>77559</v>
+        <v>14827</v>
       </c>
       <c r="B4105" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4105" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45902</v>
+        <v>45919</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>77560</v>
+        <v>40863</v>
       </c>
       <c r="B4106" t="n">
         <v>1</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>79649</v>
+        <v>42176</v>
       </c>
       <c r="B4107" t="n">
         <v>1</v>
@@ -86683,7 +86683,7 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,18 +86693,18 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>30616</v>
+        <v>53692</v>
       </c>
       <c r="B4108" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4108" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45901</v>
+        <v>45896</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,18 +86714,18 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>31787</v>
+        <v>66885</v>
       </c>
       <c r="B4109" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4109" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45919</v>
+        <v>45895</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,7 +86735,7 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>50720</v>
+        <v>66887</v>
       </c>
       <c r="B4110" t="n">
         <v>1</v>
@@ -86746,7 +86746,7 @@
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,18 +86756,18 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>66880</v>
+        <v>69559</v>
       </c>
       <c r="B4111" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4111" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,18 +86777,18 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>66881</v>
+        <v>72260</v>
       </c>
       <c r="B4112" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4112" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>66882</v>
+        <v>74739</v>
       </c>
       <c r="B4113" t="n">
         <v>1</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45917</v>
+        <v>45909</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,18 +86819,18 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>66883</v>
+        <v>79828</v>
       </c>
       <c r="B4114" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4114" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45895</v>
+        <v>45917</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,18 +86840,18 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>67918</v>
+        <v>31992</v>
       </c>
       <c r="B4115" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4115" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45898</v>
+        <v>45919</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,18 +86861,18 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>70306</v>
+        <v>48071</v>
       </c>
       <c r="B4116" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4116" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45910</v>
+        <v>45896</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,7 +86882,7 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>71191</v>
+        <v>48104</v>
       </c>
       <c r="B4117" t="n">
         <v>1</v>
@@ -86893,7 +86893,7 @@
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45910</v>
+        <v>45905</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,7 +86903,7 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>72029</v>
+        <v>65134</v>
       </c>
       <c r="B4118" t="n">
         <v>9</v>
@@ -86914,7 +86914,7 @@
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,18 +86924,18 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>74938</v>
+        <v>67358</v>
       </c>
       <c r="B4119" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4119" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,18 +86945,18 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>77693</v>
+        <v>75181</v>
       </c>
       <c r="B4120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4120" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45923</v>
+        <v>45895</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,7 +86966,7 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>79949</v>
+        <v>76969</v>
       </c>
       <c r="B4121" t="n">
         <v>1</v>
@@ -86977,7 +86977,7 @@
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45924</v>
+        <v>45911</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>33709</v>
+        <v>24589</v>
       </c>
       <c r="B4122" t="n">
         <v>1</v>
@@ -86998,7 +86998,7 @@
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,18 +87008,18 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>65743</v>
+        <v>32964</v>
       </c>
       <c r="B4123" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4123" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45901</v>
+        <v>45916</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>72680</v>
+        <v>52565</v>
       </c>
       <c r="B4124" t="n">
         <v>1</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,18 +87050,18 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>79316</v>
+        <v>55858</v>
       </c>
       <c r="B4125" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4125" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45923</v>
+        <v>45899</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,7 +87071,7 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>17382</v>
+        <v>66891</v>
       </c>
       <c r="B4126" t="n">
         <v>1</v>
@@ -87082,7 +87082,7 @@
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,18 +87092,18 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>36075</v>
+        <v>71818</v>
       </c>
       <c r="B4127" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4127" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,7 +87113,7 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>67109</v>
+        <v>74462</v>
       </c>
       <c r="B4128" t="n">
         <v>1</v>
@@ -87124,7 +87124,7 @@
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,7 +87134,7 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>74254</v>
+        <v>78387</v>
       </c>
       <c r="B4129" t="n">
         <v>1</v>
@@ -87145,7 +87145,7 @@
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,7 +87155,7 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>77248</v>
+        <v>78388</v>
       </c>
       <c r="B4130" t="n">
         <v>9</v>
@@ -87166,7 +87166,7 @@
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>79318</v>
+        <v>38864</v>
       </c>
       <c r="B4131" t="n">
         <v>1</v>
@@ -87187,7 +87187,7 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45908</v>
+        <v>45915</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,7 +87197,7 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>11491</v>
+        <v>39901</v>
       </c>
       <c r="B4132" t="n">
         <v>1</v>
@@ -87208,7 +87208,7 @@
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,7 +87218,7 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>24352</v>
+        <v>43676</v>
       </c>
       <c r="B4133" t="n">
         <v>1</v>
@@ -87229,7 +87229,7 @@
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,18 +87239,18 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>41916</v>
+        <v>57848</v>
       </c>
       <c r="B4134" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4134" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,18 +87260,18 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>51292</v>
+        <v>57681</v>
       </c>
       <c r="B4135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4135" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45911</v>
+        <v>45895</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,18 +87281,18 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>62088</v>
+        <v>57682</v>
       </c>
       <c r="B4136" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4136" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,7 +87302,7 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>75685</v>
+        <v>60069</v>
       </c>
       <c r="B4137" t="n">
         <v>1</v>
@@ -87313,7 +87313,7 @@
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45908</v>
+        <v>45918</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,7 +87323,7 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>76469</v>
+        <v>61423</v>
       </c>
       <c r="B4138" t="n">
         <v>9</v>
@@ -87334,7 +87334,7 @@
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,18 +87344,18 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>28623</v>
+        <v>61424</v>
       </c>
       <c r="B4139" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4139" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,18 +87365,18 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>42270</v>
+        <v>63865</v>
       </c>
       <c r="B4140" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4140" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45917</v>
+        <v>45905</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,18 +87386,18 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>45344</v>
+        <v>66021</v>
       </c>
       <c r="B4141" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4141" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45910</v>
+        <v>45899</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,18 +87407,18 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>60175</v>
+        <v>67994</v>
       </c>
       <c r="B4142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4142" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45897</v>
+        <v>45922</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>61188</v>
+        <v>69027</v>
       </c>
       <c r="B4143" t="n">
         <v>9</v>
@@ -87449,7 +87449,7 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>66559</v>
+        <v>69029</v>
       </c>
       <c r="B4144" t="n">
         <v>9</v>
@@ -87460,7 +87460,7 @@
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,7 +87470,7 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>66884</v>
+        <v>69030</v>
       </c>
       <c r="B4145" t="n">
         <v>1</v>
@@ -87481,7 +87481,7 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45916</v>
+        <v>45923</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>66886</v>
+        <v>74326</v>
       </c>
       <c r="B4146" t="n">
         <v>1</v>
@@ -87502,7 +87502,7 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,7 +87512,7 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>69031</v>
+        <v>75346</v>
       </c>
       <c r="B4147" t="n">
         <v>1</v>
@@ -87523,7 +87523,7 @@
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,18 +87533,18 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>71105</v>
+        <v>12960</v>
       </c>
       <c r="B4148" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4148" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,18 +87554,18 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>73706</v>
+        <v>34583</v>
       </c>
       <c r="B4149" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4149" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45918</v>
+        <v>45904</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,18 +87575,18 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>79829</v>
+        <v>49089</v>
       </c>
       <c r="B4150" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4150" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,7 +87596,7 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>28130</v>
+        <v>53789</v>
       </c>
       <c r="B4151" t="n">
         <v>9</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,18 +87617,18 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>32590</v>
+        <v>60555</v>
       </c>
       <c r="B4152" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4152" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,18 +87638,18 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>36668</v>
+        <v>66888</v>
       </c>
       <c r="B4153" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4153" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45922</v>
+        <v>45897</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,18 +87659,18 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>66709</v>
+        <v>66889</v>
       </c>
       <c r="B4154" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4154" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45922</v>
+        <v>45895</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,18 +87680,18 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>75928</v>
+        <v>66890</v>
       </c>
       <c r="B4155" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4155" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45915</v>
+        <v>45896</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>76278</v>
+        <v>73707</v>
       </c>
       <c r="B4156" t="n">
         <v>1</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>78016</v>
+        <v>74911</v>
       </c>
       <c r="B4157" t="n">
         <v>9</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2956</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -2024,11 +2024,11 @@
         <v>12110</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
@@ -20819,11 +20819,11 @@
         <v>77830</v>
       </c>
       <c r="B971" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D971" s="2" t="n">
@@ -26279,11 +26279,11 @@
         <v>45412</v>
       </c>
       <c r="B1231" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1231" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1231" s="2" t="n">
@@ -37451,11 +37451,11 @@
         <v>78871</v>
       </c>
       <c r="B1763" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1763" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1763" s="2" t="n">
@@ -45578,11 +45578,11 @@
         <v>47135</v>
       </c>
       <c r="B2150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2150" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2150" s="2" t="n">
@@ -46250,11 +46250,11 @@
         <v>50985</v>
       </c>
       <c r="B2182" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2182" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2182" s="2" t="n">
@@ -48287,11 +48287,11 @@
         <v>57564</v>
       </c>
       <c r="B2279" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2279" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2279" s="2" t="n">
@@ -48749,11 +48749,11 @@
         <v>59161</v>
       </c>
       <c r="B2301" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2301" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2301" s="2" t="n">
@@ -55826,11 +55826,11 @@
         <v>74005</v>
       </c>
       <c r="B2638" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2638" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2638" s="2" t="n">
@@ -70568,11 +70568,11 @@
         <v>49050</v>
       </c>
       <c r="B3340" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3340" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3340" s="2" t="n">
@@ -73361,11 +73361,11 @@
         <v>60666</v>
       </c>
       <c r="B3473" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3473" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3473" s="2" t="n">
@@ -84467,18 +84467,18 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>30616</v>
+        <v>33709</v>
       </c>
       <c r="B4002" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4002" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,7 +84488,7 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>34191</v>
+        <v>50720</v>
       </c>
       <c r="B4003" t="n">
         <v>1</v>
@@ -84499,7 +84499,7 @@
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,18 +84509,18 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>41914</v>
+        <v>66880</v>
       </c>
       <c r="B4004" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4004" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45912</v>
+        <v>45902</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,18 +84530,18 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>43165</v>
+        <v>66881</v>
       </c>
       <c r="B4005" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4005" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,7 +84551,7 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>45655</v>
+        <v>66882</v>
       </c>
       <c r="B4006" t="n">
         <v>1</v>
@@ -84562,7 +84562,7 @@
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,18 +84572,18 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>45656</v>
+        <v>66883</v>
       </c>
       <c r="B4007" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4007" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,18 +84593,18 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>47075</v>
+        <v>67918</v>
       </c>
       <c r="B4008" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4008" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45911</v>
+        <v>45898</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,18 +84614,18 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>48065</v>
+        <v>70306</v>
       </c>
       <c r="B4009" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>68886</v>
+        <v>71191</v>
       </c>
       <c r="B4010" t="n">
         <v>1</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,7 +84656,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>70306</v>
+        <v>72680</v>
       </c>
       <c r="B4011" t="n">
         <v>1</v>
@@ -84667,7 +84667,7 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,7 +84677,7 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>71191</v>
+        <v>79197</v>
       </c>
       <c r="B4012" t="n">
         <v>1</v>
@@ -84688,7 +84688,7 @@
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,7 +84698,7 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>72680</v>
+        <v>68886</v>
       </c>
       <c r="B4013" t="n">
         <v>1</v>
@@ -84719,18 +84719,18 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>79197</v>
+        <v>77559</v>
       </c>
       <c r="B4014" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45923</v>
+        <v>45902</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,7 +84740,7 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>31787</v>
+        <v>77560</v>
       </c>
       <c r="B4015" t="n">
         <v>1</v>
@@ -84751,7 +84751,7 @@
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45919</v>
+        <v>45918</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>33709</v>
+        <v>79649</v>
       </c>
       <c r="B4016" t="n">
         <v>1</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45905</v>
+        <v>45924</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,18 +84782,18 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>57370</v>
+        <v>30616</v>
       </c>
       <c r="B4017" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4017" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45922</v>
+        <v>45901</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,18 +84803,18 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>62085</v>
+        <v>31787</v>
       </c>
       <c r="B4018" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4018" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,18 +84824,18 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>65743</v>
+        <v>43516</v>
       </c>
       <c r="B4019" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45901</v>
+        <v>45912</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>77559</v>
+        <v>45941</v>
       </c>
       <c r="B4020" t="n">
         <v>9</v>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>77560</v>
+        <v>47075</v>
       </c>
       <c r="B4021" t="n">
         <v>1</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45918</v>
+        <v>45911</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,18 +84887,18 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>79649</v>
+        <v>48065</v>
       </c>
       <c r="B4022" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4022" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45924</v>
+        <v>45898</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>50720</v>
+        <v>69740</v>
       </c>
       <c r="B4023" t="n">
         <v>1</v>
@@ -84919,7 +84919,7 @@
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,18 +84929,18 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>67918</v>
+        <v>72029</v>
       </c>
       <c r="B4024" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4024" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>72681</v>
+        <v>74938</v>
       </c>
       <c r="B4025" t="n">
         <v>9</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,7 +84971,7 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>79316</v>
+        <v>77693</v>
       </c>
       <c r="B4026" t="n">
         <v>1</v>
@@ -84992,7 +84992,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>43516</v>
+        <v>79949</v>
       </c>
       <c r="B4027" t="n">
         <v>1</v>
@@ -85003,7 +85003,7 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45912</v>
+        <v>45924</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,18 +85013,18 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>45941</v>
+        <v>34191</v>
       </c>
       <c r="B4028" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4028" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,18 +85034,18 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>49316</v>
+        <v>41914</v>
       </c>
       <c r="B4029" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4029" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>66880</v>
+        <v>43165</v>
       </c>
       <c r="B4030" t="n">
         <v>9</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>66881</v>
+        <v>45655</v>
       </c>
       <c r="B4031" t="n">
         <v>1</v>
@@ -85087,7 +85087,7 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,18 +85097,18 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>66882</v>
+        <v>45656</v>
       </c>
       <c r="B4032" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4032" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,18 +85118,18 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>66883</v>
+        <v>49316</v>
       </c>
       <c r="B4033" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4033" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>69740</v>
+        <v>57370</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45908</v>
+        <v>45922</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,18 +85160,18 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>72029</v>
+        <v>62085</v>
       </c>
       <c r="B4035" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4035" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45897</v>
+        <v>45904</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>74938</v>
+        <v>65743</v>
       </c>
       <c r="B4036" t="n">
         <v>9</v>
@@ -85202,18 +85202,18 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>77693</v>
+        <v>72681</v>
       </c>
       <c r="B4037" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4037" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45923</v>
+        <v>45898</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,7 +85223,7 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>79949</v>
+        <v>79316</v>
       </c>
       <c r="B4038" t="n">
         <v>1</v>
@@ -85234,7 +85234,7 @@
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45924</v>
+        <v>45923</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>11491</v>
+        <v>17382</v>
       </c>
       <c r="B4039" t="n">
         <v>1</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85286,7 +85286,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>41916</v>
+        <v>32590</v>
       </c>
       <c r="B4041" t="n">
         <v>9</v>
@@ -85297,7 +85297,7 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,18 +85307,18 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>67109</v>
+        <v>36075</v>
       </c>
       <c r="B4042" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4042" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45909</v>
+        <v>45895</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,7 +85328,7 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>71105</v>
+        <v>42270</v>
       </c>
       <c r="B4043" t="n">
         <v>1</v>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45909</v>
+        <v>45917</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,7 +85349,7 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>75928</v>
+        <v>45344</v>
       </c>
       <c r="B4044" t="n">
         <v>1</v>
@@ -85360,7 +85360,7 @@
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,18 +85370,18 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>76278</v>
+        <v>66559</v>
       </c>
       <c r="B4045" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4045" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45910</v>
+        <v>45899</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>78016</v>
+        <v>66884</v>
       </c>
       <c r="B4046" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45904</v>
+        <v>45916</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,7 +85412,7 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>79318</v>
+        <v>66886</v>
       </c>
       <c r="B4047" t="n">
         <v>1</v>
@@ -85423,7 +85423,7 @@
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,18 +85433,18 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>36075</v>
+        <v>69031</v>
       </c>
       <c r="B4048" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4048" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45895</v>
+        <v>45917</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,18 +85454,18 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>62088</v>
+        <v>71105</v>
       </c>
       <c r="B4049" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4049" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,7 +85475,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>66709</v>
+        <v>75928</v>
       </c>
       <c r="B4050" t="n">
         <v>1</v>
@@ -85486,7 +85486,7 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>75685</v>
+        <v>76278</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,7 +85517,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>76469</v>
+        <v>78016</v>
       </c>
       <c r="B4052" t="n">
         <v>9</v>
@@ -85528,7 +85528,7 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45898</v>
+        <v>45904</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,7 +85538,7 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>24352</v>
+        <v>79318</v>
       </c>
       <c r="B4053" t="n">
         <v>1</v>
@@ -85580,18 +85580,18 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>42270</v>
+        <v>60175</v>
       </c>
       <c r="B4055" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4055" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45917</v>
+        <v>45897</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,18 +85601,18 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>45344</v>
+        <v>61188</v>
       </c>
       <c r="B4056" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4056" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,18 +85622,18 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>60175</v>
+        <v>75685</v>
       </c>
       <c r="B4057" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4057" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45897</v>
+        <v>45908</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,7 +85643,7 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>61188</v>
+        <v>76469</v>
       </c>
       <c r="B4058" t="n">
         <v>9</v>
@@ -85654,7 +85654,7 @@
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45902</v>
+        <v>45898</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,7 +85664,7 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>69031</v>
+        <v>28623</v>
       </c>
       <c r="B4059" t="n">
         <v>1</v>
@@ -85675,7 +85675,7 @@
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>74254</v>
+        <v>67109</v>
       </c>
       <c r="B4060" t="n">
         <v>1</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45916</v>
+        <v>45909</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,18 +85706,18 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>77248</v>
+        <v>73706</v>
       </c>
       <c r="B4061" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4061" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45903</v>
+        <v>45918</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,18 +85727,18 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>17382</v>
+        <v>79829</v>
       </c>
       <c r="B4062" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4062" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45916</v>
+        <v>45903</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,7 +85748,7 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>28623</v>
+        <v>11491</v>
       </c>
       <c r="B4063" t="n">
         <v>1</v>
@@ -85759,7 +85759,7 @@
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,18 +85769,18 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>32590</v>
+        <v>24352</v>
       </c>
       <c r="B4064" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4064" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,18 +85790,18 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>51292</v>
+        <v>41916</v>
       </c>
       <c r="B4065" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4065" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>66559</v>
+        <v>51292</v>
       </c>
       <c r="B4066" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45899</v>
+        <v>45911</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,18 +85832,18 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>66884</v>
+        <v>62088</v>
       </c>
       <c r="B4067" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4067" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45916</v>
+        <v>45902</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,7 +85853,7 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>66886</v>
+        <v>66709</v>
       </c>
       <c r="B4068" t="n">
         <v>1</v>
@@ -85864,7 +85864,7 @@
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45911</v>
+        <v>45922</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,7 +85874,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>73706</v>
+        <v>74254</v>
       </c>
       <c r="B4069" t="n">
         <v>1</v>
@@ -85885,7 +85885,7 @@
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,7 +85895,7 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>79829</v>
+        <v>77248</v>
       </c>
       <c r="B4070" t="n">
         <v>9</v>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>15245</v>
+        <v>31992</v>
       </c>
       <c r="B4071" t="n">
         <v>1</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,7 +85937,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>35735</v>
+        <v>38864</v>
       </c>
       <c r="B4072" t="n">
         <v>1</v>
@@ -85948,7 +85948,7 @@
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45917</v>
+        <v>45915</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,18 +85958,18 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>39227</v>
+        <v>52565</v>
       </c>
       <c r="B4073" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,7 +85979,7 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>47074</v>
+        <v>55858</v>
       </c>
       <c r="B4074" t="n">
         <v>9</v>
@@ -85990,7 +85990,7 @@
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,7 +86000,7 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>48067</v>
+        <v>57848</v>
       </c>
       <c r="B4075" t="n">
         <v>1</v>
@@ -86011,7 +86011,7 @@
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45909</v>
+        <v>45908</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,18 +86021,18 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>59497</v>
+        <v>57681</v>
       </c>
       <c r="B4076" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4076" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,7 +86042,7 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>70304</v>
+        <v>57682</v>
       </c>
       <c r="B4077" t="n">
         <v>1</v>
@@ -86063,7 +86063,7 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>75182</v>
+        <v>60069</v>
       </c>
       <c r="B4078" t="n">
         <v>1</v>
@@ -86074,7 +86074,7 @@
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45909</v>
+        <v>45918</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,7 +86084,7 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>76154</v>
+        <v>61423</v>
       </c>
       <c r="B4079" t="n">
         <v>9</v>
@@ -86095,7 +86095,7 @@
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,18 +86105,18 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>77029</v>
+        <v>61424</v>
       </c>
       <c r="B4080" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4080" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45911</v>
+        <v>45904</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,18 +86126,18 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>78015</v>
+        <v>66021</v>
       </c>
       <c r="B4081" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4081" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45915</v>
+        <v>45899</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,18 +86147,18 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>79196</v>
+        <v>74462</v>
       </c>
       <c r="B4082" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4082" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45897</v>
+        <v>45910</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,7 +86168,7 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>79319</v>
+        <v>78387</v>
       </c>
       <c r="B4083" t="n">
         <v>1</v>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>79569</v>
+        <v>78388</v>
       </c>
       <c r="B4084" t="n">
         <v>9</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,18 +86210,18 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>79405</v>
+        <v>39901</v>
       </c>
       <c r="B4085" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4085" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45901</v>
+        <v>45918</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,18 +86231,18 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>36076</v>
+        <v>43676</v>
       </c>
       <c r="B4086" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4086" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45896</v>
+        <v>45918</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,18 +86252,18 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>40072</v>
+        <v>66888</v>
       </c>
       <c r="B4087" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4087" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45916</v>
+        <v>45897</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,18 +86273,18 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>62087</v>
+        <v>66889</v>
       </c>
       <c r="B4088" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4088" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45901</v>
+        <v>45895</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,18 +86294,18 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>62984</v>
+        <v>66890</v>
       </c>
       <c r="B4089" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4089" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,18 +86315,18 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>66792</v>
+        <v>67994</v>
       </c>
       <c r="B4090" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4090" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45895</v>
+        <v>45922</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,7 +86336,7 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>66794</v>
+        <v>69027</v>
       </c>
       <c r="B4091" t="n">
         <v>9</v>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,7 +86357,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>68266</v>
+        <v>69029</v>
       </c>
       <c r="B4092" t="n">
         <v>9</v>
@@ -86368,7 +86368,7 @@
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,18 +86378,18 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>71817</v>
+        <v>69030</v>
       </c>
       <c r="B4093" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4093" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45902</v>
+        <v>45923</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,18 +86399,18 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>76470</v>
+        <v>75181</v>
       </c>
       <c r="B4094" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4094" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,18 +86420,18 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>78458</v>
+        <v>76969</v>
       </c>
       <c r="B4095" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4095" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45896</v>
+        <v>45911</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,18 +86441,18 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>24353</v>
+        <v>12960</v>
       </c>
       <c r="B4096" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4096" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45915</v>
+        <v>45896</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,18 +86462,18 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>28872</v>
+        <v>24589</v>
       </c>
       <c r="B4097" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4097" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,18 +86483,18 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>39902</v>
+        <v>34583</v>
       </c>
       <c r="B4098" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4098" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,18 +86504,18 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>41315</v>
+        <v>48071</v>
       </c>
       <c r="B4099" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4099" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45904</v>
+        <v>45896</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,7 +86525,7 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>50350</v>
+        <v>48104</v>
       </c>
       <c r="B4100" t="n">
         <v>1</v>
@@ -86536,7 +86536,7 @@
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,18 +86546,18 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>66076</v>
+        <v>60555</v>
       </c>
       <c r="B4101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4101" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45917</v>
+        <v>45896</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,7 +86567,7 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>72844</v>
+        <v>63865</v>
       </c>
       <c r="B4102" t="n">
         <v>9</v>
@@ -86588,18 +86588,18 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>77247</v>
+        <v>65134</v>
       </c>
       <c r="B4103" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4103" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,18 +86609,18 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>78192</v>
+        <v>67358</v>
       </c>
       <c r="B4104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4104" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45908</v>
+        <v>45897</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,7 +86630,7 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>14827</v>
+        <v>73707</v>
       </c>
       <c r="B4105" t="n">
         <v>1</v>
@@ -86641,7 +86641,7 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,18 +86651,18 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>40863</v>
+        <v>74911</v>
       </c>
       <c r="B4106" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4106" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45916</v>
+        <v>45903</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>42176</v>
+        <v>32964</v>
       </c>
       <c r="B4107" t="n">
         <v>1</v>
@@ -86683,7 +86683,7 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,18 +86693,18 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>53692</v>
+        <v>49089</v>
       </c>
       <c r="B4108" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4108" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,18 +86714,18 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>66885</v>
+        <v>53789</v>
       </c>
       <c r="B4109" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4109" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,7 +86735,7 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>66887</v>
+        <v>66891</v>
       </c>
       <c r="B4110" t="n">
         <v>1</v>
@@ -86746,7 +86746,7 @@
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45916</v>
+        <v>45912</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,18 +86756,18 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>69559</v>
+        <v>71818</v>
       </c>
       <c r="B4111" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4111" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,18 +86777,18 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>72260</v>
+        <v>74326</v>
       </c>
       <c r="B4112" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4112" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45903</v>
+        <v>45915</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>74739</v>
+        <v>75346</v>
       </c>
       <c r="B4113" t="n">
         <v>1</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45909</v>
+        <v>45918</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,18 +86819,18 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>79828</v>
+        <v>36076</v>
       </c>
       <c r="B4114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4114" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45917</v>
+        <v>45896</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,7 +86840,7 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>31992</v>
+        <v>39902</v>
       </c>
       <c r="B4115" t="n">
         <v>1</v>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45919</v>
+        <v>45910</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,18 +86861,18 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>48071</v>
+        <v>41315</v>
       </c>
       <c r="B4116" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4116" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,7 +86882,7 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>48104</v>
+        <v>50350</v>
       </c>
       <c r="B4117" t="n">
         <v>1</v>
@@ -86893,7 +86893,7 @@
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,18 +86903,18 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>65134</v>
+        <v>59497</v>
       </c>
       <c r="B4118" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4118" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,18 +86924,18 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>67358</v>
+        <v>66885</v>
       </c>
       <c r="B4119" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4119" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,18 +86945,18 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>75181</v>
+        <v>66887</v>
       </c>
       <c r="B4120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4120" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45895</v>
+        <v>45916</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,7 +86966,7 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>76969</v>
+        <v>70304</v>
       </c>
       <c r="B4121" t="n">
         <v>1</v>
@@ -86977,7 +86977,7 @@
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45911</v>
+        <v>45910</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>24589</v>
+        <v>75182</v>
       </c>
       <c r="B4122" t="n">
         <v>1</v>
@@ -86998,7 +86998,7 @@
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45917</v>
+        <v>45909</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,18 +87008,18 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>32964</v>
+        <v>76154</v>
       </c>
       <c r="B4123" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4123" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45916</v>
+        <v>45898</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>52565</v>
+        <v>77029</v>
       </c>
       <c r="B4124" t="n">
         <v>1</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45905</v>
+        <v>45911</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,18 +87050,18 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>55858</v>
+        <v>78015</v>
       </c>
       <c r="B4125" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4125" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45899</v>
+        <v>45915</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,18 +87071,18 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>66891</v>
+        <v>79196</v>
       </c>
       <c r="B4126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4126" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,18 +87092,18 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>71818</v>
+        <v>79319</v>
       </c>
       <c r="B4127" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4127" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,18 +87113,18 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>74462</v>
+        <v>79569</v>
       </c>
       <c r="B4128" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4128" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,18 +87134,18 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>78387</v>
+        <v>79405</v>
       </c>
       <c r="B4129" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4129" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45912</v>
+        <v>45901</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,18 +87155,18 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>78388</v>
+        <v>28872</v>
       </c>
       <c r="B4130" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4130" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>38864</v>
+        <v>40072</v>
       </c>
       <c r="B4131" t="n">
         <v>1</v>
@@ -87187,7 +87187,7 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,7 +87197,7 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>39901</v>
+        <v>66076</v>
       </c>
       <c r="B4132" t="n">
         <v>1</v>
@@ -87208,7 +87208,7 @@
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,18 +87218,18 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>43676</v>
+        <v>76470</v>
       </c>
       <c r="B4133" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4133" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45918</v>
+        <v>45903</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,18 +87239,18 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>57848</v>
+        <v>78458</v>
       </c>
       <c r="B4134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4134" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4134" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
       <c r="E4134" t="inlineStr">
         <is>
@@ -87260,18 +87260,18 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>57681</v>
+        <v>15245</v>
       </c>
       <c r="B4135" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4135" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45895</v>
+        <v>45915</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,7 +87281,7 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>57682</v>
+        <v>40863</v>
       </c>
       <c r="B4136" t="n">
         <v>1</v>
@@ -87292,7 +87292,7 @@
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,7 +87302,7 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>60069</v>
+        <v>42176</v>
       </c>
       <c r="B4137" t="n">
         <v>1</v>
@@ -87313,7 +87313,7 @@
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,7 +87323,7 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>61423</v>
+        <v>47074</v>
       </c>
       <c r="B4138" t="n">
         <v>9</v>
@@ -87334,7 +87334,7 @@
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45899</v>
+        <v>45897</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,18 +87344,18 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>61424</v>
+        <v>48067</v>
       </c>
       <c r="B4139" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4139" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45904</v>
+        <v>45909</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,18 +87365,18 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>63865</v>
+        <v>69559</v>
       </c>
       <c r="B4140" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4140" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,7 +87386,7 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>66021</v>
+        <v>72260</v>
       </c>
       <c r="B4141" t="n">
         <v>9</v>
@@ -87397,7 +87397,7 @@
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,7 +87407,7 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>67994</v>
+        <v>74739</v>
       </c>
       <c r="B4142" t="n">
         <v>1</v>
@@ -87418,7 +87418,7 @@
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,18 +87428,18 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>69027</v>
+        <v>79828</v>
       </c>
       <c r="B4143" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4143" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,18 +87449,18 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>69029</v>
+        <v>14827</v>
       </c>
       <c r="B4144" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4144" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,7 +87470,7 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>69030</v>
+        <v>24353</v>
       </c>
       <c r="B4145" t="n">
         <v>1</v>
@@ -87481,7 +87481,7 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>74326</v>
+        <v>35735</v>
       </c>
       <c r="B4146" t="n">
         <v>1</v>
@@ -87502,7 +87502,7 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,18 +87512,18 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>75346</v>
+        <v>39227</v>
       </c>
       <c r="B4147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4147" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,7 +87533,7 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>12960</v>
+        <v>53692</v>
       </c>
       <c r="B4148" t="n">
         <v>4</v>
@@ -87554,7 +87554,7 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>34583</v>
+        <v>62087</v>
       </c>
       <c r="B4149" t="n">
         <v>9</v>
@@ -87565,7 +87565,7 @@
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45904</v>
+        <v>45901</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,18 +87575,18 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>49089</v>
+        <v>62984</v>
       </c>
       <c r="B4150" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4150" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,18 +87596,18 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>53789</v>
+        <v>66792</v>
       </c>
       <c r="B4151" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4151" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,18 +87617,18 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>60555</v>
+        <v>66794</v>
       </c>
       <c r="B4152" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4152" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,7 +87638,7 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>66888</v>
+        <v>68266</v>
       </c>
       <c r="B4153" t="n">
         <v>9</v>
@@ -87649,7 +87649,7 @@
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,18 +87659,18 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>66889</v>
+        <v>71817</v>
       </c>
       <c r="B4154" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4154" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,18 +87680,18 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>66890</v>
+        <v>72844</v>
       </c>
       <c r="B4155" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4155" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45896</v>
+        <v>45905</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,7 +87701,7 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>73707</v>
+        <v>77247</v>
       </c>
       <c r="B4156" t="n">
         <v>1</v>
@@ -87712,7 +87712,7 @@
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45912</v>
+        <v>45908</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,18 +87722,18 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>74911</v>
+        <v>78192</v>
       </c>
       <c r="B4157" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4157" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2946</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -1436,11 +1436,11 @@
         <v>16329</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
@@ -3284,11 +3284,11 @@
         <v>27989</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
@@ -4418,11 +4418,11 @@
         <v>31505</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
@@ -5930,11 +5930,11 @@
         <v>37477</v>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D262" s="2" t="n">
@@ -6224,11 +6224,11 @@
         <v>37808</v>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D276" s="2" t="n">
@@ -6980,11 +6980,11 @@
         <v>39891</v>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
@@ -13658,11 +13658,11 @@
         <v>63122</v>
       </c>
       <c r="B630" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D630" s="2" t="n">
@@ -13847,11 +13847,11 @@
         <v>64510</v>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D639" s="2" t="n">
@@ -13994,11 +13994,11 @@
         <v>65203</v>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D646" s="2" t="n">
@@ -14477,11 +14477,11 @@
         <v>66617</v>
       </c>
       <c r="B669" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D669" s="2" t="n">
@@ -15842,11 +15842,11 @@
         <v>69286</v>
       </c>
       <c r="B734" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D734" s="2" t="n">
@@ -17921,11 +17921,11 @@
         <v>73447</v>
       </c>
       <c r="B833" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D833" s="2" t="n">
@@ -18803,11 +18803,11 @@
         <v>74394</v>
       </c>
       <c r="B875" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D875" s="2" t="n">
@@ -19622,11 +19622,11 @@
         <v>75300</v>
       </c>
       <c r="B914" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D914" s="2" t="n">
@@ -20588,11 +20588,11 @@
         <v>77125</v>
       </c>
       <c r="B960" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D960" s="2" t="n">
@@ -21386,11 +21386,11 @@
         <v>78308</v>
       </c>
       <c r="B998" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D998" s="2" t="n">
@@ -27938,11 +27938,11 @@
         <v>51212</v>
       </c>
       <c r="B1310" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1310" s="2" t="n">
@@ -37451,11 +37451,11 @@
         <v>78871</v>
       </c>
       <c r="B1763" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1763" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1763" s="2" t="n">
@@ -41063,11 +41063,11 @@
         <v>80119</v>
       </c>
       <c r="B1935" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D1935" s="2" t="n">
@@ -50765,11 +50765,11 @@
         <v>64344</v>
       </c>
       <c r="B2397" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2397" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2397" s="2" t="n">
@@ -51857,11 +51857,11 @@
         <v>66449</v>
       </c>
       <c r="B2449" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2449" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2449" s="2" t="n">
@@ -55217,11 +55217,11 @@
         <v>72516</v>
       </c>
       <c r="B2609" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2609" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2609" s="2" t="n">
@@ -56729,11 +56729,11 @@
         <v>74537</v>
       </c>
       <c r="B2681" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2681" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2681" s="2" t="n">
@@ -61790,11 +61790,11 @@
         <v>78509</v>
       </c>
       <c r="B2922" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2922" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2922" s="2" t="n">
@@ -63848,11 +63848,11 @@
         <v>12863</v>
       </c>
       <c r="B3020" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3020" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3020" s="2" t="n">
@@ -69686,11 +69686,11 @@
         <v>45355</v>
       </c>
       <c r="B3298" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3298" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3298" s="2" t="n">
@@ -70904,11 +70904,11 @@
         <v>49351</v>
       </c>
       <c r="B3356" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3356" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3356" s="2" t="n">
@@ -72941,11 +72941,11 @@
         <v>59351</v>
       </c>
       <c r="B3453" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3453" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3453" s="2" t="n">
@@ -73949,11 +73949,11 @@
         <v>62916</v>
       </c>
       <c r="B3501" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3501" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3501" s="2" t="n">
@@ -74936,11 +74936,11 @@
         <v>65597</v>
       </c>
       <c r="B3548" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3548" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3548" s="2" t="n">
@@ -80060,11 +80060,11 @@
         <v>76575</v>
       </c>
       <c r="B3792" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3792" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3792" s="2" t="n">
@@ -81971,11 +81971,11 @@
         <v>78501</v>
       </c>
       <c r="B3883" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3883" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3883" s="2" t="n">
@@ -81992,11 +81992,11 @@
         <v>78546</v>
       </c>
       <c r="B3884" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3884" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3884" s="2" t="n">
@@ -84467,7 +84467,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>33709</v>
+        <v>36668</v>
       </c>
       <c r="B4002" t="n">
         <v>1</v>
@@ -84478,7 +84478,7 @@
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45905</v>
+        <v>45922</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,18 +84488,18 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>50720</v>
+        <v>62088</v>
       </c>
       <c r="B4003" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4003" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45911</v>
+        <v>45902</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,18 +84509,18 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>66880</v>
+        <v>66709</v>
       </c>
       <c r="B4004" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4004" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45902</v>
+        <v>45922</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,7 +84530,7 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>66881</v>
+        <v>75685</v>
       </c>
       <c r="B4005" t="n">
         <v>1</v>
@@ -84551,18 +84551,18 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>66882</v>
+        <v>76469</v>
       </c>
       <c r="B4006" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4006" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45917</v>
+        <v>45898</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,18 +84572,18 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>66883</v>
+        <v>11491</v>
       </c>
       <c r="B4007" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4007" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45895</v>
+        <v>45919</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,18 +84593,18 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>67918</v>
+        <v>24352</v>
       </c>
       <c r="B4008" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4008" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45898</v>
+        <v>45908</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,18 +84614,18 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>70306</v>
+        <v>41916</v>
       </c>
       <c r="B4009" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4009" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45910</v>
+        <v>45902</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>71191</v>
+        <v>51292</v>
       </c>
       <c r="B4010" t="n">
         <v>1</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,7 +84656,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>72680</v>
+        <v>74254</v>
       </c>
       <c r="B4011" t="n">
         <v>1</v>
@@ -84667,7 +84667,7 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,18 +84677,18 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>79197</v>
+        <v>77248</v>
       </c>
       <c r="B4012" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4012" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45923</v>
+        <v>45903</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,7 +84698,7 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>68886</v>
+        <v>79318</v>
       </c>
       <c r="B4013" t="n">
         <v>1</v>
@@ -84709,7 +84709,7 @@
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,18 +84719,18 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>77559</v>
+        <v>28623</v>
       </c>
       <c r="B4014" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4014" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,18 +84740,18 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>77560</v>
+        <v>66559</v>
       </c>
       <c r="B4015" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4015" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45918</v>
+        <v>45899</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>79649</v>
+        <v>66884</v>
       </c>
       <c r="B4016" t="n">
         <v>1</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45924</v>
+        <v>45916</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,18 +84782,18 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>30616</v>
+        <v>66886</v>
       </c>
       <c r="B4017" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4017" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,7 +84803,7 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>31787</v>
+        <v>69031</v>
       </c>
       <c r="B4018" t="n">
         <v>1</v>
@@ -84814,7 +84814,7 @@
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45919</v>
+        <v>45917</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,7 +84824,7 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>43516</v>
+        <v>71105</v>
       </c>
       <c r="B4019" t="n">
         <v>1</v>
@@ -84835,7 +84835,7 @@
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,7 +84845,7 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>45941</v>
+        <v>79829</v>
       </c>
       <c r="B4020" t="n">
         <v>9</v>
@@ -84856,7 +84856,7 @@
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>47075</v>
+        <v>17382</v>
       </c>
       <c r="B4021" t="n">
         <v>1</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>48065</v>
+        <v>28130</v>
       </c>
       <c r="B4022" t="n">
         <v>9</v>
@@ -84898,7 +84898,7 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45898</v>
+        <v>45903</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,18 +84908,18 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>69740</v>
+        <v>32590</v>
       </c>
       <c r="B4023" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4023" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45908</v>
+        <v>45904</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,7 +84929,7 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>72029</v>
+        <v>36075</v>
       </c>
       <c r="B4024" t="n">
         <v>4</v>
@@ -84940,7 +84940,7 @@
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,18 +84950,18 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>74938</v>
+        <v>42270</v>
       </c>
       <c r="B4025" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4025" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,7 +84971,7 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>77693</v>
+        <v>45344</v>
       </c>
       <c r="B4026" t="n">
         <v>1</v>
@@ -84982,7 +84982,7 @@
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,18 +84992,18 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>79949</v>
+        <v>60175</v>
       </c>
       <c r="B4027" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4027" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45924</v>
+        <v>45897</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,18 +85013,18 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>34191</v>
+        <v>61188</v>
       </c>
       <c r="B4028" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4028" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45909</v>
+        <v>45902</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>41914</v>
+        <v>67109</v>
       </c>
       <c r="B4029" t="n">
         <v>1</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45912</v>
+        <v>45909</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,18 +85055,18 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>43165</v>
+        <v>73706</v>
       </c>
       <c r="B4030" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4030" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45903</v>
+        <v>45918</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,7 +85076,7 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>45655</v>
+        <v>75928</v>
       </c>
       <c r="B4031" t="n">
         <v>1</v>
@@ -85087,7 +85087,7 @@
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45905</v>
+        <v>45915</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,18 +85097,18 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>45656</v>
+        <v>76278</v>
       </c>
       <c r="B4032" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4032" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,7 +85118,7 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>49316</v>
+        <v>78016</v>
       </c>
       <c r="B4033" t="n">
         <v>9</v>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>57370</v>
+        <v>34191</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,18 +85160,18 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>62085</v>
+        <v>41914</v>
       </c>
       <c r="B4035" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4035" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>65743</v>
+        <v>43165</v>
       </c>
       <c r="B4036" t="n">
         <v>9</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,18 +85202,18 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>72681</v>
+        <v>45655</v>
       </c>
       <c r="B4037" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4037" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,18 +85223,18 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>79316</v>
+        <v>45656</v>
       </c>
       <c r="B4038" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4038" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45923</v>
+        <v>45898</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,18 +85244,18 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>17382</v>
+        <v>49316</v>
       </c>
       <c r="B4039" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4039" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,18 +85265,18 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>28130</v>
+        <v>68886</v>
       </c>
       <c r="B4040" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4040" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,7 +85286,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>32590</v>
+        <v>72681</v>
       </c>
       <c r="B4041" t="n">
         <v>9</v>
@@ -85297,7 +85297,7 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,18 +85307,18 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>36075</v>
+        <v>79197</v>
       </c>
       <c r="B4042" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4042" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,7 +85328,7 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>42270</v>
+        <v>57370</v>
       </c>
       <c r="B4043" t="n">
         <v>1</v>
@@ -85339,7 +85339,7 @@
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,18 +85349,18 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>45344</v>
+        <v>62085</v>
       </c>
       <c r="B4044" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4044" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,7 +85370,7 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>66559</v>
+        <v>65743</v>
       </c>
       <c r="B4045" t="n">
         <v>9</v>
@@ -85381,7 +85381,7 @@
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>66884</v>
+        <v>77559</v>
       </c>
       <c r="B4046" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45916</v>
+        <v>45902</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,7 +85412,7 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>66886</v>
+        <v>77560</v>
       </c>
       <c r="B4047" t="n">
         <v>1</v>
@@ -85423,7 +85423,7 @@
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45911</v>
+        <v>45918</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,7 +85433,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>69031</v>
+        <v>79649</v>
       </c>
       <c r="B4048" t="n">
         <v>1</v>
@@ -85444,7 +85444,7 @@
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,18 +85454,18 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>71105</v>
+        <v>30616</v>
       </c>
       <c r="B4049" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4049" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,7 +85475,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>75928</v>
+        <v>31787</v>
       </c>
       <c r="B4050" t="n">
         <v>1</v>
@@ -85486,7 +85486,7 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>76278</v>
+        <v>43516</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,18 +85517,18 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>78016</v>
+        <v>47075</v>
       </c>
       <c r="B4052" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4052" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,18 +85538,18 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>79318</v>
+        <v>48065</v>
       </c>
       <c r="B4053" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4053" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,7 +85559,7 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>36668</v>
+        <v>50720</v>
       </c>
       <c r="B4054" t="n">
         <v>1</v>
@@ -85570,7 +85570,7 @@
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45922</v>
+        <v>45911</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,18 +85580,18 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>60175</v>
+        <v>66880</v>
       </c>
       <c r="B4055" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4055" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,18 +85601,18 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>61188</v>
+        <v>66881</v>
       </c>
       <c r="B4056" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4056" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,7 +85622,7 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>75685</v>
+        <v>66882</v>
       </c>
       <c r="B4057" t="n">
         <v>1</v>
@@ -85633,7 +85633,7 @@
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45908</v>
+        <v>45917</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,18 +85643,18 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>76469</v>
+        <v>66883</v>
       </c>
       <c r="B4058" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4058" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,18 +85664,18 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>28623</v>
+        <v>67918</v>
       </c>
       <c r="B4059" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4059" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45918</v>
+        <v>45898</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>67109</v>
+        <v>70306</v>
       </c>
       <c r="B4060" t="n">
         <v>1</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,7 +85706,7 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>73706</v>
+        <v>71191</v>
       </c>
       <c r="B4061" t="n">
         <v>1</v>
@@ -85717,7 +85717,7 @@
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,18 +85727,18 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>79829</v>
+        <v>72680</v>
       </c>
       <c r="B4062" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4062" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,7 +85748,7 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>11491</v>
+        <v>77693</v>
       </c>
       <c r="B4063" t="n">
         <v>1</v>
@@ -85759,7 +85759,7 @@
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,7 +85769,7 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>24352</v>
+        <v>79949</v>
       </c>
       <c r="B4064" t="n">
         <v>1</v>
@@ -85780,7 +85780,7 @@
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45908</v>
+        <v>45924</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,18 +85790,18 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>41916</v>
+        <v>33709</v>
       </c>
       <c r="B4065" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4065" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>51292</v>
+        <v>45941</v>
       </c>
       <c r="B4066" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45911</v>
+        <v>45901</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,18 +85832,18 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>62088</v>
+        <v>69740</v>
       </c>
       <c r="B4067" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4067" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,18 +85853,18 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>66709</v>
+        <v>72029</v>
       </c>
       <c r="B4068" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4068" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45922</v>
+        <v>45897</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,18 +85874,18 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>74254</v>
+        <v>74938</v>
       </c>
       <c r="B4069" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4069" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,18 +85895,18 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>77248</v>
+        <v>79316</v>
       </c>
       <c r="B4070" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4070" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45903</v>
+        <v>45923</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>31992</v>
+        <v>14827</v>
       </c>
       <c r="B4071" t="n">
         <v>1</v>
@@ -85937,7 +85937,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>38864</v>
+        <v>24353</v>
       </c>
       <c r="B4072" t="n">
         <v>1</v>
@@ -85958,7 +85958,7 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>52565</v>
+        <v>35735</v>
       </c>
       <c r="B4073" t="n">
         <v>1</v>
@@ -85969,7 +85969,7 @@
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45905</v>
+        <v>45917</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,18 +85979,18 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>55858</v>
+        <v>39227</v>
       </c>
       <c r="B4074" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4074" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45899</v>
+        <v>45895</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,18 +86000,18 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>57848</v>
+        <v>53692</v>
       </c>
       <c r="B4075" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4075" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,18 +86021,18 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>57681</v>
+        <v>59497</v>
       </c>
       <c r="B4076" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4076" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45895</v>
+        <v>45918</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,7 +86042,7 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>57682</v>
+        <v>66076</v>
       </c>
       <c r="B4077" t="n">
         <v>1</v>
@@ -86053,7 +86053,7 @@
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,18 +86063,18 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>60069</v>
+        <v>72844</v>
       </c>
       <c r="B4078" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4078" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,18 +86084,18 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>61423</v>
+        <v>77247</v>
       </c>
       <c r="B4079" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4079" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45899</v>
+        <v>45908</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,18 +86105,18 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>61424</v>
+        <v>78192</v>
       </c>
       <c r="B4080" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4080" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,18 +86126,18 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>66021</v>
+        <v>79196</v>
       </c>
       <c r="B4081" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4081" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45899</v>
+        <v>45897</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,7 +86147,7 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>74462</v>
+        <v>79319</v>
       </c>
       <c r="B4082" t="n">
         <v>1</v>
@@ -86158,7 +86158,7 @@
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,18 +86168,18 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>78387</v>
+        <v>79569</v>
       </c>
       <c r="B4083" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4083" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45912</v>
+        <v>45901</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>78388</v>
+        <v>79405</v>
       </c>
       <c r="B4084" t="n">
         <v>9</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,7 +86210,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>39901</v>
+        <v>15245</v>
       </c>
       <c r="B4085" t="n">
         <v>1</v>
@@ -86221,7 +86221,7 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,18 +86231,18 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>43676</v>
+        <v>28872</v>
       </c>
       <c r="B4086" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4086" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45918</v>
+        <v>45897</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,18 +86252,18 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>66888</v>
+        <v>40072</v>
       </c>
       <c r="B4087" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4087" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,18 +86273,18 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>66889</v>
+        <v>62087</v>
       </c>
       <c r="B4088" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4088" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,18 +86294,18 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>66890</v>
+        <v>62984</v>
       </c>
       <c r="B4089" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4089" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,18 +86315,18 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>67994</v>
+        <v>66792</v>
       </c>
       <c r="B4090" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4090" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45922</v>
+        <v>45895</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,7 +86336,7 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>69027</v>
+        <v>66794</v>
       </c>
       <c r="B4091" t="n">
         <v>9</v>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,7 +86357,7 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>69029</v>
+        <v>68266</v>
       </c>
       <c r="B4092" t="n">
         <v>9</v>
@@ -86368,7 +86368,7 @@
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,18 +86378,18 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>69030</v>
+        <v>71817</v>
       </c>
       <c r="B4093" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4093" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45923</v>
+        <v>45902</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,18 +86399,18 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>75181</v>
+        <v>76470</v>
       </c>
       <c r="B4094" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4094" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,18 +86420,18 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>76969</v>
+        <v>78458</v>
       </c>
       <c r="B4095" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4095" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45911</v>
+        <v>45896</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,18 +86441,18 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>12960</v>
+        <v>40863</v>
       </c>
       <c r="B4096" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4096" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45896</v>
+        <v>45916</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,7 +86462,7 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>24589</v>
+        <v>42176</v>
       </c>
       <c r="B4097" t="n">
         <v>1</v>
@@ -86483,18 +86483,18 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>34583</v>
+        <v>47074</v>
       </c>
       <c r="B4098" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4098" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,18 +86504,18 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>48071</v>
+        <v>48067</v>
       </c>
       <c r="B4099" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4099" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45896</v>
+        <v>45909</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>48104</v>
+        <v>66885</v>
       </c>
       <c r="B4100" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45905</v>
+        <v>45895</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,18 +86546,18 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>60555</v>
+        <v>66887</v>
       </c>
       <c r="B4101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4101" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45896</v>
+        <v>45916</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,18 +86567,18 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>63865</v>
+        <v>70304</v>
       </c>
       <c r="B4102" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4102" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45905</v>
+        <v>45910</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,18 +86588,18 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>65134</v>
+        <v>75182</v>
       </c>
       <c r="B4103" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4103" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,18 +86609,18 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>67358</v>
+        <v>79828</v>
       </c>
       <c r="B4104" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4104" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45897</v>
+        <v>45917</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,18 +86630,18 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>73707</v>
+        <v>36076</v>
       </c>
       <c r="B4105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4105" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45912</v>
+        <v>45896</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,18 +86651,18 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>74911</v>
+        <v>39902</v>
       </c>
       <c r="B4106" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4106" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,18 +86672,18 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>32964</v>
+        <v>41315</v>
       </c>
       <c r="B4107" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4107" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,7 +86693,7 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>49089</v>
+        <v>50350</v>
       </c>
       <c r="B4108" t="n">
         <v>1</v>
@@ -86714,18 +86714,18 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>53789</v>
+        <v>69559</v>
       </c>
       <c r="B4109" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4109" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,18 +86735,18 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>66891</v>
+        <v>72260</v>
       </c>
       <c r="B4110" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4110" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45912</v>
+        <v>45903</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,18 +86756,18 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>71818</v>
+        <v>74739</v>
       </c>
       <c r="B4111" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4111" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,18 +86777,18 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>74326</v>
+        <v>76154</v>
       </c>
       <c r="B4112" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4112" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45915</v>
+        <v>45898</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>75346</v>
+        <v>77029</v>
       </c>
       <c r="B4113" t="n">
         <v>1</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45918</v>
+        <v>45911</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,18 +86819,18 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>36076</v>
+        <v>78015</v>
       </c>
       <c r="B4114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4114" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,18 +86840,18 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>39902</v>
+        <v>12960</v>
       </c>
       <c r="B4115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4115" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45910</v>
+        <v>45896</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,18 +86861,18 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>41315</v>
+        <v>24589</v>
       </c>
       <c r="B4116" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4116" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45904</v>
+        <v>45917</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,7 +86882,7 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>50350</v>
+        <v>31992</v>
       </c>
       <c r="B4117" t="n">
         <v>1</v>
@@ -86893,7 +86893,7 @@
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45915</v>
+        <v>45919</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,7 +86903,7 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>59497</v>
+        <v>38864</v>
       </c>
       <c r="B4118" t="n">
         <v>1</v>
@@ -86914,7 +86914,7 @@
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45918</v>
+        <v>45915</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,18 +86924,18 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>66885</v>
+        <v>52565</v>
       </c>
       <c r="B4119" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4119" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,18 +86945,18 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>66887</v>
+        <v>55858</v>
       </c>
       <c r="B4120" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4120" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45916</v>
+        <v>45899</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,7 +86966,7 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>70304</v>
+        <v>66891</v>
       </c>
       <c r="B4121" t="n">
         <v>1</v>
@@ -86977,7 +86977,7 @@
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,18 +86987,18 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>75182</v>
+        <v>71818</v>
       </c>
       <c r="B4122" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4122" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,18 +87008,18 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>76154</v>
+        <v>74462</v>
       </c>
       <c r="B4123" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4123" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>77029</v>
+        <v>78387</v>
       </c>
       <c r="B4124" t="n">
         <v>1</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,18 +87050,18 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>78015</v>
+        <v>78388</v>
       </c>
       <c r="B4125" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4125" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,18 +87071,18 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>79196</v>
+        <v>32964</v>
       </c>
       <c r="B4126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4126" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,7 +87092,7 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>79319</v>
+        <v>49089</v>
       </c>
       <c r="B4127" t="n">
         <v>1</v>
@@ -87103,7 +87103,7 @@
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,7 +87113,7 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>79569</v>
+        <v>53789</v>
       </c>
       <c r="B4128" t="n">
         <v>9</v>
@@ -87124,7 +87124,7 @@
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,7 +87134,7 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>79405</v>
+        <v>63865</v>
       </c>
       <c r="B4129" t="n">
         <v>9</v>
@@ -87145,7 +87145,7 @@
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,18 +87155,18 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>28872</v>
+        <v>66021</v>
       </c>
       <c r="B4130" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4130" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>40072</v>
+        <v>74326</v>
       </c>
       <c r="B4131" t="n">
         <v>1</v>
@@ -87187,7 +87187,7 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45916</v>
+        <v>45915</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,7 +87197,7 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>66076</v>
+        <v>75346</v>
       </c>
       <c r="B4132" t="n">
         <v>1</v>
@@ -87208,7 +87208,7 @@
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,7 +87218,7 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>76470</v>
+        <v>34583</v>
       </c>
       <c r="B4133" t="n">
         <v>9</v>
@@ -87229,7 +87229,7 @@
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,14 +87239,14 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>78458</v>
+        <v>48071</v>
       </c>
       <c r="B4134" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4134" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4134" s="2" t="n">
@@ -87260,7 +87260,7 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>15245</v>
+        <v>48104</v>
       </c>
       <c r="B4135" t="n">
         <v>1</v>
@@ -87271,7 +87271,7 @@
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,18 +87281,18 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>40863</v>
+        <v>60555</v>
       </c>
       <c r="B4136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4136" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45916</v>
+        <v>45896</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,18 +87302,18 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>42176</v>
+        <v>66888</v>
       </c>
       <c r="B4137" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4137" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45917</v>
+        <v>45897</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,18 +87323,18 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>47074</v>
+        <v>66889</v>
       </c>
       <c r="B4138" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4138" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,18 +87344,18 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>48067</v>
+        <v>66890</v>
       </c>
       <c r="B4139" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4139" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45909</v>
+        <v>45896</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,7 +87365,7 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>69559</v>
+        <v>67994</v>
       </c>
       <c r="B4140" t="n">
         <v>1</v>
@@ -87376,7 +87376,7 @@
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45909</v>
+        <v>45922</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,7 +87386,7 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>72260</v>
+        <v>69027</v>
       </c>
       <c r="B4141" t="n">
         <v>9</v>
@@ -87397,7 +87397,7 @@
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,18 +87407,18 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>74739</v>
+        <v>69029</v>
       </c>
       <c r="B4142" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4142" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>79828</v>
+        <v>69030</v>
       </c>
       <c r="B4143" t="n">
         <v>1</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45917</v>
+        <v>45923</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,18 +87449,18 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>14827</v>
+        <v>75181</v>
       </c>
       <c r="B4144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4144" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45919</v>
+        <v>45895</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,7 +87470,7 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>24353</v>
+        <v>39901</v>
       </c>
       <c r="B4145" t="n">
         <v>1</v>
@@ -87481,7 +87481,7 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45915</v>
+        <v>45918</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,7 +87491,7 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>35735</v>
+        <v>43676</v>
       </c>
       <c r="B4146" t="n">
         <v>1</v>
@@ -87502,7 +87502,7 @@
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,18 +87512,18 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>39227</v>
+        <v>57848</v>
       </c>
       <c r="B4147" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4147" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,7 +87533,7 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>53692</v>
+        <v>57681</v>
       </c>
       <c r="B4148" t="n">
         <v>4</v>
@@ -87544,7 +87544,7 @@
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,18 +87554,18 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>62087</v>
+        <v>57682</v>
       </c>
       <c r="B4149" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4149" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,18 +87575,18 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>62984</v>
+        <v>60069</v>
       </c>
       <c r="B4150" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4150" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45897</v>
+        <v>45918</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,18 +87596,18 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>66792</v>
+        <v>61423</v>
       </c>
       <c r="B4151" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4151" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45895</v>
+        <v>45899</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,7 +87617,7 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>66794</v>
+        <v>61424</v>
       </c>
       <c r="B4152" t="n">
         <v>9</v>
@@ -87628,7 +87628,7 @@
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,7 +87638,7 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>68266</v>
+        <v>65134</v>
       </c>
       <c r="B4153" t="n">
         <v>9</v>
@@ -87649,7 +87649,7 @@
         </is>
       </c>
       <c r="D4153" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="E4153" t="inlineStr">
         <is>
@@ -87659,18 +87659,18 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>71817</v>
+        <v>67358</v>
       </c>
       <c r="B4154" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4154" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45902</v>
+        <v>45897</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,18 +87680,18 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>72844</v>
+        <v>73707</v>
       </c>
       <c r="B4155" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4155" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,18 +87701,18 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>77247</v>
+        <v>74911</v>
       </c>
       <c r="B4156" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4156" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>78192</v>
+        <v>76969</v>
       </c>
       <c r="B4157" t="n">
         <v>1</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2939</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -54125,11 +54125,11 @@
         <v>70754</v>
       </c>
       <c r="B2557" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2557" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D2557" s="2" t="n">
@@ -74474,11 +74474,11 @@
         <v>64744</v>
       </c>
       <c r="B3526" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3526" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3526" s="2" t="n">
@@ -75797,11 +75797,11 @@
         <v>68455</v>
       </c>
       <c r="B3589" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3589" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D3589" s="2" t="n">
@@ -84467,18 +84467,18 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>36668</v>
+        <v>41916</v>
       </c>
       <c r="B4002" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4002" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45922</v>
+        <v>45902</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,18 +84488,18 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>62088</v>
+        <v>51292</v>
       </c>
       <c r="B4003" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4003" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45902</v>
+        <v>45911</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,18 +84509,18 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>66709</v>
+        <v>60175</v>
       </c>
       <c r="B4004" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4004" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45922</v>
+        <v>45897</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,18 +84530,18 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>75685</v>
+        <v>61188</v>
       </c>
       <c r="B4005" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4005" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,18 +84551,18 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>76469</v>
+        <v>67109</v>
       </c>
       <c r="B4006" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4006" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45898</v>
+        <v>45909</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,7 +84572,7 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>11491</v>
+        <v>74254</v>
       </c>
       <c r="B4007" t="n">
         <v>1</v>
@@ -84583,7 +84583,7 @@
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45919</v>
+        <v>45916</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,18 +84593,18 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>24352</v>
+        <v>77248</v>
       </c>
       <c r="B4008" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4008" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,18 +84614,18 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>41916</v>
+        <v>79318</v>
       </c>
       <c r="B4009" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4009" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4009" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="E4009" t="inlineStr">
         <is>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>51292</v>
+        <v>36668</v>
       </c>
       <c r="B4010" t="n">
         <v>1</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45911</v>
+        <v>45922</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,7 +84656,7 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>74254</v>
+        <v>42270</v>
       </c>
       <c r="B4011" t="n">
         <v>1</v>
@@ -84667,7 +84667,7 @@
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,18 +84677,18 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>77248</v>
+        <v>45344</v>
       </c>
       <c r="B4012" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4012" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,18 +84698,18 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>79318</v>
+        <v>66559</v>
       </c>
       <c r="B4013" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4013" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45908</v>
+        <v>45899</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,7 +84719,7 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>28623</v>
+        <v>66884</v>
       </c>
       <c r="B4014" t="n">
         <v>1</v>
@@ -84730,7 +84730,7 @@
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45918</v>
+        <v>45916</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,18 +84740,18 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>66559</v>
+        <v>66886</v>
       </c>
       <c r="B4015" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4015" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4015" s="2" t="n">
-        <v>45899</v>
+        <v>45911</v>
       </c>
       <c r="E4015" t="inlineStr">
         <is>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>66884</v>
+        <v>69031</v>
       </c>
       <c r="B4016" t="n">
         <v>1</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>66886</v>
+        <v>71105</v>
       </c>
       <c r="B4017" t="n">
         <v>1</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45911</v>
+        <v>45909</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,7 +84803,7 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>69031</v>
+        <v>75685</v>
       </c>
       <c r="B4018" t="n">
         <v>1</v>
@@ -84814,7 +84814,7 @@
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45917</v>
+        <v>45908</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,18 +84824,18 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>71105</v>
+        <v>76469</v>
       </c>
       <c r="B4019" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,18 +84845,18 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>79829</v>
+        <v>11491</v>
       </c>
       <c r="B4020" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4020" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45903</v>
+        <v>45919</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>17382</v>
+        <v>24352</v>
       </c>
       <c r="B4021" t="n">
         <v>1</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,18 +84887,18 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>28130</v>
+        <v>28623</v>
       </c>
       <c r="B4022" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4022" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45903</v>
+        <v>45918</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>32590</v>
+        <v>79829</v>
       </c>
       <c r="B4023" t="n">
         <v>9</v>
@@ -84919,7 +84919,7 @@
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,18 +84929,18 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>36075</v>
+        <v>17382</v>
       </c>
       <c r="B4024" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4024" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45895</v>
+        <v>45916</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,18 +84950,18 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>42270</v>
+        <v>28130</v>
       </c>
       <c r="B4025" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4025" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45917</v>
+        <v>45903</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,18 +84971,18 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>45344</v>
+        <v>32590</v>
       </c>
       <c r="B4026" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4026" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45910</v>
+        <v>45904</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,7 +84992,7 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>60175</v>
+        <v>36075</v>
       </c>
       <c r="B4027" t="n">
         <v>4</v>
@@ -85003,7 +85003,7 @@
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,7 +85013,7 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>61188</v>
+        <v>62088</v>
       </c>
       <c r="B4028" t="n">
         <v>9</v>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>67109</v>
+        <v>66709</v>
       </c>
       <c r="B4029" t="n">
         <v>1</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45909</v>
+        <v>45922</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>34191</v>
+        <v>32964</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45909</v>
+        <v>45916</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,7 +85160,7 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>41914</v>
+        <v>49089</v>
       </c>
       <c r="B4035" t="n">
         <v>1</v>
@@ -85171,7 +85171,7 @@
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,7 +85181,7 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>43165</v>
+        <v>53789</v>
       </c>
       <c r="B4036" t="n">
         <v>9</v>
@@ -85192,7 +85192,7 @@
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45903</v>
+        <v>45898</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,7 +85202,7 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>45655</v>
+        <v>57848</v>
       </c>
       <c r="B4037" t="n">
         <v>1</v>
@@ -85213,7 +85213,7 @@
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,18 +85223,18 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>45656</v>
+        <v>57681</v>
       </c>
       <c r="B4038" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4038" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,18 +85244,18 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>49316</v>
+        <v>57682</v>
       </c>
       <c r="B4039" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4039" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45904</v>
+        <v>45910</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,7 +85265,7 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>68886</v>
+        <v>60069</v>
       </c>
       <c r="B4040" t="n">
         <v>1</v>
@@ -85276,7 +85276,7 @@
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45911</v>
+        <v>45918</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,7 +85286,7 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>72681</v>
+        <v>61423</v>
       </c>
       <c r="B4041" t="n">
         <v>9</v>
@@ -85297,7 +85297,7 @@
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,18 +85307,18 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>79197</v>
+        <v>61424</v>
       </c>
       <c r="B4042" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4042" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45923</v>
+        <v>45904</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,18 +85328,18 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>57370</v>
+        <v>65134</v>
       </c>
       <c r="B4043" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4043" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45922</v>
+        <v>45902</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,18 +85349,18 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>62085</v>
+        <v>67358</v>
       </c>
       <c r="B4044" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4044" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45904</v>
+        <v>45897</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,18 +85370,18 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>65743</v>
+        <v>74326</v>
       </c>
       <c r="B4045" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4045" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4045" s="2" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="E4045" t="inlineStr">
         <is>
@@ -85391,18 +85391,18 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>77559</v>
+        <v>75346</v>
       </c>
       <c r="B4046" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4046" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,18 +85412,18 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>77560</v>
+        <v>12960</v>
       </c>
       <c r="B4047" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4047" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,7 +85433,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>79649</v>
+        <v>24589</v>
       </c>
       <c r="B4048" t="n">
         <v>1</v>
@@ -85444,7 +85444,7 @@
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45924</v>
+        <v>45917</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,18 +85454,18 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>30616</v>
+        <v>31992</v>
       </c>
       <c r="B4049" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4049" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45901</v>
+        <v>45919</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,7 +85475,7 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>31787</v>
+        <v>38864</v>
       </c>
       <c r="B4050" t="n">
         <v>1</v>
@@ -85486,7 +85486,7 @@
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45919</v>
+        <v>45915</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>43516</v>
+        <v>39901</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45912</v>
+        <v>45918</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,7 +85517,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>47075</v>
+        <v>43676</v>
       </c>
       <c r="B4052" t="n">
         <v>1</v>
@@ -85528,7 +85528,7 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45911</v>
+        <v>45918</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,18 +85538,18 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>48065</v>
+        <v>60555</v>
       </c>
       <c r="B4053" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4053" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,18 +85559,18 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>50720</v>
+        <v>66888</v>
       </c>
       <c r="B4054" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4054" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45911</v>
+        <v>45897</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,18 +85580,18 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>66880</v>
+        <v>66889</v>
       </c>
       <c r="B4055" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4055" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45902</v>
+        <v>45895</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,18 +85601,18 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>66881</v>
+        <v>66890</v>
       </c>
       <c r="B4056" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4056" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45908</v>
+        <v>45896</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,7 +85622,7 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>66882</v>
+        <v>67994</v>
       </c>
       <c r="B4057" t="n">
         <v>1</v>
@@ -85633,7 +85633,7 @@
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45917</v>
+        <v>45922</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,18 +85643,18 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>66883</v>
+        <v>69027</v>
       </c>
       <c r="B4058" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4058" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,7 +85664,7 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>67918</v>
+        <v>69029</v>
       </c>
       <c r="B4059" t="n">
         <v>9</v>
@@ -85675,7 +85675,7 @@
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>70306</v>
+        <v>69030</v>
       </c>
       <c r="B4060" t="n">
         <v>1</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,18 +85706,18 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>71191</v>
+        <v>75181</v>
       </c>
       <c r="B4061" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4061" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45910</v>
+        <v>45895</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>72680</v>
+        <v>78387</v>
       </c>
       <c r="B4062" t="n">
         <v>1</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,18 +85748,18 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>77693</v>
+        <v>78388</v>
       </c>
       <c r="B4063" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4063" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45923</v>
+        <v>45905</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,18 +85769,18 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>79949</v>
+        <v>34583</v>
       </c>
       <c r="B4064" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4064" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45924</v>
+        <v>45904</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,18 +85790,18 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>33709</v>
+        <v>48071</v>
       </c>
       <c r="B4065" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4065" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>45941</v>
+        <v>48104</v>
       </c>
       <c r="B4066" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45901</v>
+        <v>45905</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,18 +85832,18 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>69740</v>
+        <v>63865</v>
       </c>
       <c r="B4067" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4067" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,18 +85853,18 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>72029</v>
+        <v>66021</v>
       </c>
       <c r="B4068" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4068" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,18 +85874,18 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>74938</v>
+        <v>74462</v>
       </c>
       <c r="B4069" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4069" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45901</v>
+        <v>45910</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,7 +85895,7 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>79316</v>
+        <v>52565</v>
       </c>
       <c r="B4070" t="n">
         <v>1</v>
@@ -85906,7 +85906,7 @@
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45923</v>
+        <v>45905</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,18 +85916,18 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>14827</v>
+        <v>55858</v>
       </c>
       <c r="B4071" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4071" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45919</v>
+        <v>45899</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,7 +85937,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>24353</v>
+        <v>66891</v>
       </c>
       <c r="B4072" t="n">
         <v>1</v>
@@ -85948,7 +85948,7 @@
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45915</v>
+        <v>45912</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,18 +85958,18 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>35735</v>
+        <v>71818</v>
       </c>
       <c r="B4073" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45917</v>
+        <v>45905</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,18 +85979,18 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>39227</v>
+        <v>73707</v>
       </c>
       <c r="B4074" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4074" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45895</v>
+        <v>45912</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,18 +86000,18 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>53692</v>
+        <v>74911</v>
       </c>
       <c r="B4075" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4075" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,7 +86021,7 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>59497</v>
+        <v>76969</v>
       </c>
       <c r="B4076" t="n">
         <v>1</v>
@@ -86032,7 +86032,7 @@
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45918</v>
+        <v>45911</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,7 +86042,7 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>66076</v>
+        <v>34191</v>
       </c>
       <c r="B4077" t="n">
         <v>1</v>
@@ -86053,7 +86053,7 @@
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45917</v>
+        <v>45909</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,18 +86063,18 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>72844</v>
+        <v>41914</v>
       </c>
       <c r="B4078" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4078" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45905</v>
+        <v>45912</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,18 +86084,18 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>77247</v>
+        <v>43165</v>
       </c>
       <c r="B4079" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4079" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,7 +86105,7 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>78192</v>
+        <v>45655</v>
       </c>
       <c r="B4080" t="n">
         <v>1</v>
@@ -86116,7 +86116,7 @@
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,18 +86126,18 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>79196</v>
+        <v>45656</v>
       </c>
       <c r="B4081" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4081" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,18 +86147,18 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>79319</v>
+        <v>49316</v>
       </c>
       <c r="B4082" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4082" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45912</v>
+        <v>45904</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,18 +86168,18 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>79569</v>
+        <v>68886</v>
       </c>
       <c r="B4083" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4083" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45901</v>
+        <v>45911</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,7 +86189,7 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>79405</v>
+        <v>72681</v>
       </c>
       <c r="B4084" t="n">
         <v>9</v>
@@ -86200,7 +86200,7 @@
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45901</v>
+        <v>45898</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,7 +86210,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>15245</v>
+        <v>79197</v>
       </c>
       <c r="B4085" t="n">
         <v>1</v>
@@ -86221,7 +86221,7 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,18 +86231,18 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>28872</v>
+        <v>66880</v>
       </c>
       <c r="B4086" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4086" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45897</v>
+        <v>45902</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>40072</v>
+        <v>66881</v>
       </c>
       <c r="B4087" t="n">
         <v>1</v>
@@ -86263,7 +86263,7 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45916</v>
+        <v>45908</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,18 +86273,18 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>62087</v>
+        <v>66882</v>
       </c>
       <c r="B4088" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4088" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,18 +86294,18 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>62984</v>
+        <v>66883</v>
       </c>
       <c r="B4089" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4089" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,18 +86315,18 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>66792</v>
+        <v>67918</v>
       </c>
       <c r="B4090" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4090" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45895</v>
+        <v>45898</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,18 +86336,18 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>66794</v>
+        <v>70306</v>
       </c>
       <c r="B4091" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4091" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,18 +86357,18 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>68266</v>
+        <v>71191</v>
       </c>
       <c r="B4092" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4092" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,18 +86378,18 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>71817</v>
+        <v>72680</v>
       </c>
       <c r="B4093" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4093" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45902</v>
+        <v>45911</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,7 +86399,7 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>76470</v>
+        <v>77559</v>
       </c>
       <c r="B4094" t="n">
         <v>9</v>
@@ -86410,7 +86410,7 @@
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,18 +86420,18 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>78458</v>
+        <v>77560</v>
       </c>
       <c r="B4095" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4095" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45896</v>
+        <v>45918</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,7 +86441,7 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>40863</v>
+        <v>79649</v>
       </c>
       <c r="B4096" t="n">
         <v>1</v>
@@ -86452,7 +86452,7 @@
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45916</v>
+        <v>45924</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,18 +86462,18 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>42176</v>
+        <v>30616</v>
       </c>
       <c r="B4097" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4097" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45917</v>
+        <v>45901</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,18 +86483,18 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>47074</v>
+        <v>31787</v>
       </c>
       <c r="B4098" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4098" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45897</v>
+        <v>45919</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,7 +86504,7 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>48067</v>
+        <v>43516</v>
       </c>
       <c r="B4099" t="n">
         <v>1</v>
@@ -86515,7 +86515,7 @@
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>66885</v>
+        <v>45941</v>
       </c>
       <c r="B4100" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>66887</v>
+        <v>47075</v>
       </c>
       <c r="B4101" t="n">
         <v>1</v>
@@ -86557,7 +86557,7 @@
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45916</v>
+        <v>45911</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,18 +86567,18 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>70304</v>
+        <v>48065</v>
       </c>
       <c r="B4102" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4102" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,7 +86588,7 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>75182</v>
+        <v>50720</v>
       </c>
       <c r="B4103" t="n">
         <v>1</v>
@@ -86599,7 +86599,7 @@
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,7 +86609,7 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>79828</v>
+        <v>69740</v>
       </c>
       <c r="B4104" t="n">
         <v>1</v>
@@ -86620,7 +86620,7 @@
         </is>
       </c>
       <c r="D4104" s="2" t="n">
-        <v>45917</v>
+        <v>45908</v>
       </c>
       <c r="E4104" t="inlineStr">
         <is>
@@ -86630,7 +86630,7 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>36076</v>
+        <v>72029</v>
       </c>
       <c r="B4105" t="n">
         <v>4</v>
@@ -86641,7 +86641,7 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>39902</v>
+        <v>77693</v>
       </c>
       <c r="B4106" t="n">
         <v>1</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45910</v>
+        <v>45923</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,18 +86672,18 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>41315</v>
+        <v>79949</v>
       </c>
       <c r="B4107" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4107" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45904</v>
+        <v>45924</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,7 +86693,7 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>50350</v>
+        <v>33709</v>
       </c>
       <c r="B4108" t="n">
         <v>1</v>
@@ -86704,7 +86704,7 @@
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,7 +86714,7 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>69559</v>
+        <v>57370</v>
       </c>
       <c r="B4109" t="n">
         <v>1</v>
@@ -86725,7 +86725,7 @@
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45909</v>
+        <v>45922</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,7 +86735,7 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>72260</v>
+        <v>62085</v>
       </c>
       <c r="B4110" t="n">
         <v>9</v>
@@ -86746,7 +86746,7 @@
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,18 +86756,18 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>74739</v>
+        <v>65743</v>
       </c>
       <c r="B4111" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4111" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45909</v>
+        <v>45901</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,7 +86777,7 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>76154</v>
+        <v>74938</v>
       </c>
       <c r="B4112" t="n">
         <v>9</v>
@@ -86788,7 +86788,7 @@
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45898</v>
+        <v>45901</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>77029</v>
+        <v>79316</v>
       </c>
       <c r="B4113" t="n">
         <v>1</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45911</v>
+        <v>45923</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,7 +86819,7 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>78015</v>
+        <v>35735</v>
       </c>
       <c r="B4114" t="n">
         <v>1</v>
@@ -86830,7 +86830,7 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,7 +86840,7 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>12960</v>
+        <v>39227</v>
       </c>
       <c r="B4115" t="n">
         <v>4</v>
@@ -86851,7 +86851,7 @@
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,18 +86861,18 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>24589</v>
+        <v>53692</v>
       </c>
       <c r="B4116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4116" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45917</v>
+        <v>45896</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,18 +86882,18 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>31992</v>
+        <v>72844</v>
       </c>
       <c r="B4117" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4117" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45919</v>
+        <v>45905</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,7 +86903,7 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>38864</v>
+        <v>77247</v>
       </c>
       <c r="B4118" t="n">
         <v>1</v>
@@ -86914,7 +86914,7 @@
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,7 +86924,7 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>52565</v>
+        <v>78192</v>
       </c>
       <c r="B4119" t="n">
         <v>1</v>
@@ -86935,7 +86935,7 @@
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,18 +86945,18 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>55858</v>
+        <v>79196</v>
       </c>
       <c r="B4120" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4120" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45899</v>
+        <v>45897</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,7 +86966,7 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>66891</v>
+        <v>79319</v>
       </c>
       <c r="B4121" t="n">
         <v>1</v>
@@ -86987,7 +86987,7 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>71818</v>
+        <v>79569</v>
       </c>
       <c r="B4122" t="n">
         <v>9</v>
@@ -86998,7 +86998,7 @@
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45905</v>
+        <v>45901</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,18 +87008,18 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>74462</v>
+        <v>79405</v>
       </c>
       <c r="B4123" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4123" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>78387</v>
+        <v>15245</v>
       </c>
       <c r="B4124" t="n">
         <v>1</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,18 +87050,18 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>78388</v>
+        <v>28872</v>
       </c>
       <c r="B4125" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4125" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,7 +87071,7 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>32964</v>
+        <v>39902</v>
       </c>
       <c r="B4126" t="n">
         <v>1</v>
@@ -87082,7 +87082,7 @@
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45916</v>
+        <v>45910</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,18 +87092,18 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>49089</v>
+        <v>41315</v>
       </c>
       <c r="B4127" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4127" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,18 +87113,18 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>53789</v>
+        <v>50350</v>
       </c>
       <c r="B4128" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4128" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45898</v>
+        <v>45915</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,18 +87134,18 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>63865</v>
+        <v>66885</v>
       </c>
       <c r="B4129" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4129" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45905</v>
+        <v>45895</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,18 +87155,18 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>66021</v>
+        <v>66887</v>
       </c>
       <c r="B4130" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4130" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45899</v>
+        <v>45916</v>
       </c>
       <c r="E4130" t="inlineStr">
         <is>
@@ -87176,7 +87176,7 @@
     </row>
     <row r="4131">
       <c r="A4131" t="n">
-        <v>74326</v>
+        <v>70304</v>
       </c>
       <c r="B4131" t="n">
         <v>1</v>
@@ -87187,7 +87187,7 @@
         </is>
       </c>
       <c r="D4131" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="E4131" t="inlineStr">
         <is>
@@ -87197,7 +87197,7 @@
     </row>
     <row r="4132">
       <c r="A4132" t="n">
-        <v>75346</v>
+        <v>75182</v>
       </c>
       <c r="B4132" t="n">
         <v>1</v>
@@ -87208,7 +87208,7 @@
         </is>
       </c>
       <c r="D4132" s="2" t="n">
-        <v>45918</v>
+        <v>45909</v>
       </c>
       <c r="E4132" t="inlineStr">
         <is>
@@ -87218,7 +87218,7 @@
     </row>
     <row r="4133">
       <c r="A4133" t="n">
-        <v>34583</v>
+        <v>76470</v>
       </c>
       <c r="B4133" t="n">
         <v>9</v>
@@ -87229,7 +87229,7 @@
         </is>
       </c>
       <c r="D4133" s="2" t="n">
-        <v>45904</v>
+        <v>45903</v>
       </c>
       <c r="E4133" t="inlineStr">
         <is>
@@ -87239,14 +87239,14 @@
     </row>
     <row r="4134">
       <c r="A4134" t="n">
-        <v>48071</v>
+        <v>78458</v>
       </c>
       <c r="B4134" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4134" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4134" s="2" t="n">
@@ -87260,7 +87260,7 @@
     </row>
     <row r="4135">
       <c r="A4135" t="n">
-        <v>48104</v>
+        <v>14827</v>
       </c>
       <c r="B4135" t="n">
         <v>1</v>
@@ -87271,7 +87271,7 @@
         </is>
       </c>
       <c r="D4135" s="2" t="n">
-        <v>45905</v>
+        <v>45919</v>
       </c>
       <c r="E4135" t="inlineStr">
         <is>
@@ -87281,18 +87281,18 @@
     </row>
     <row r="4136">
       <c r="A4136" t="n">
-        <v>60555</v>
+        <v>24353</v>
       </c>
       <c r="B4136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4136" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4136" s="2" t="n">
-        <v>45896</v>
+        <v>45915</v>
       </c>
       <c r="E4136" t="inlineStr">
         <is>
@@ -87302,18 +87302,18 @@
     </row>
     <row r="4137">
       <c r="A4137" t="n">
-        <v>66888</v>
+        <v>40863</v>
       </c>
       <c r="B4137" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4137" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4137" s="2" t="n">
-        <v>45897</v>
+        <v>45916</v>
       </c>
       <c r="E4137" t="inlineStr">
         <is>
@@ -87323,18 +87323,18 @@
     </row>
     <row r="4138">
       <c r="A4138" t="n">
-        <v>66889</v>
+        <v>42176</v>
       </c>
       <c r="B4138" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4138" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4138" s="2" t="n">
-        <v>45895</v>
+        <v>45917</v>
       </c>
       <c r="E4138" t="inlineStr">
         <is>
@@ -87344,7 +87344,7 @@
     </row>
     <row r="4139">
       <c r="A4139" t="n">
-        <v>66890</v>
+        <v>47074</v>
       </c>
       <c r="B4139" t="n">
         <v>7</v>
@@ -87355,7 +87355,7 @@
         </is>
       </c>
       <c r="D4139" s="2" t="n">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="E4139" t="inlineStr">
         <is>
@@ -87365,7 +87365,7 @@
     </row>
     <row r="4140">
       <c r="A4140" t="n">
-        <v>67994</v>
+        <v>48067</v>
       </c>
       <c r="B4140" t="n">
         <v>1</v>
@@ -87376,7 +87376,7 @@
         </is>
       </c>
       <c r="D4140" s="2" t="n">
-        <v>45922</v>
+        <v>45909</v>
       </c>
       <c r="E4140" t="inlineStr">
         <is>
@@ -87386,18 +87386,18 @@
     </row>
     <row r="4141">
       <c r="A4141" t="n">
-        <v>69027</v>
+        <v>59497</v>
       </c>
       <c r="B4141" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4141" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4141" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
       <c r="E4141" t="inlineStr">
         <is>
@@ -87407,18 +87407,18 @@
     </row>
     <row r="4142">
       <c r="A4142" t="n">
-        <v>69029</v>
+        <v>66076</v>
       </c>
       <c r="B4142" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4142" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4142" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
       <c r="E4142" t="inlineStr">
         <is>
@@ -87428,7 +87428,7 @@
     </row>
     <row r="4143">
       <c r="A4143" t="n">
-        <v>69030</v>
+        <v>69559</v>
       </c>
       <c r="B4143" t="n">
         <v>1</v>
@@ -87439,7 +87439,7 @@
         </is>
       </c>
       <c r="D4143" s="2" t="n">
-        <v>45923</v>
+        <v>45909</v>
       </c>
       <c r="E4143" t="inlineStr">
         <is>
@@ -87449,18 +87449,18 @@
     </row>
     <row r="4144">
       <c r="A4144" t="n">
-        <v>75181</v>
+        <v>72260</v>
       </c>
       <c r="B4144" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4144" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4144" s="2" t="n">
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="E4144" t="inlineStr">
         <is>
@@ -87470,7 +87470,7 @@
     </row>
     <row r="4145">
       <c r="A4145" t="n">
-        <v>39901</v>
+        <v>79828</v>
       </c>
       <c r="B4145" t="n">
         <v>1</v>
@@ -87481,7 +87481,7 @@
         </is>
       </c>
       <c r="D4145" s="2" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="E4145" t="inlineStr">
         <is>
@@ -87491,18 +87491,18 @@
     </row>
     <row r="4146">
       <c r="A4146" t="n">
-        <v>43676</v>
+        <v>36076</v>
       </c>
       <c r="B4146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4146" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4146" s="2" t="n">
-        <v>45918</v>
+        <v>45896</v>
       </c>
       <c r="E4146" t="inlineStr">
         <is>
@@ -87512,7 +87512,7 @@
     </row>
     <row r="4147">
       <c r="A4147" t="n">
-        <v>57848</v>
+        <v>40072</v>
       </c>
       <c r="B4147" t="n">
         <v>1</v>
@@ -87523,7 +87523,7 @@
         </is>
       </c>
       <c r="D4147" s="2" t="n">
-        <v>45908</v>
+        <v>45916</v>
       </c>
       <c r="E4147" t="inlineStr">
         <is>
@@ -87533,18 +87533,18 @@
     </row>
     <row r="4148">
       <c r="A4148" t="n">
-        <v>57681</v>
+        <v>62087</v>
       </c>
       <c r="B4148" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4148" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4148" s="2" t="n">
-        <v>45895</v>
+        <v>45901</v>
       </c>
       <c r="E4148" t="inlineStr">
         <is>
@@ -87554,18 +87554,18 @@
     </row>
     <row r="4149">
       <c r="A4149" t="n">
-        <v>57682</v>
+        <v>62984</v>
       </c>
       <c r="B4149" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4149" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4149" s="2" t="n">
-        <v>45910</v>
+        <v>45897</v>
       </c>
       <c r="E4149" t="inlineStr">
         <is>
@@ -87575,18 +87575,18 @@
     </row>
     <row r="4150">
       <c r="A4150" t="n">
-        <v>60069</v>
+        <v>66792</v>
       </c>
       <c r="B4150" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4150" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4150" s="2" t="n">
-        <v>45918</v>
+        <v>45895</v>
       </c>
       <c r="E4150" t="inlineStr">
         <is>
@@ -87596,7 +87596,7 @@
     </row>
     <row r="4151">
       <c r="A4151" t="n">
-        <v>61423</v>
+        <v>66794</v>
       </c>
       <c r="B4151" t="n">
         <v>9</v>
@@ -87607,7 +87607,7 @@
         </is>
       </c>
       <c r="D4151" s="2" t="n">
-        <v>45899</v>
+        <v>45903</v>
       </c>
       <c r="E4151" t="inlineStr">
         <is>
@@ -87617,7 +87617,7 @@
     </row>
     <row r="4152">
       <c r="A4152" t="n">
-        <v>61424</v>
+        <v>68266</v>
       </c>
       <c r="B4152" t="n">
         <v>9</v>
@@ -87628,7 +87628,7 @@
         </is>
       </c>
       <c r="D4152" s="2" t="n">
-        <v>45904</v>
+        <v>45898</v>
       </c>
       <c r="E4152" t="inlineStr">
         <is>
@@ -87638,7 +87638,7 @@
     </row>
     <row r="4153">
       <c r="A4153" t="n">
-        <v>65134</v>
+        <v>71817</v>
       </c>
       <c r="B4153" t="n">
         <v>9</v>
@@ -87659,18 +87659,18 @@
     </row>
     <row r="4154">
       <c r="A4154" t="n">
-        <v>67358</v>
+        <v>74739</v>
       </c>
       <c r="B4154" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4154" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4154" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
       <c r="E4154" t="inlineStr">
         <is>
@@ -87680,18 +87680,18 @@
     </row>
     <row r="4155">
       <c r="A4155" t="n">
-        <v>73707</v>
+        <v>76154</v>
       </c>
       <c r="B4155" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4155" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4155" s="2" t="n">
-        <v>45912</v>
+        <v>45898</v>
       </c>
       <c r="E4155" t="inlineStr">
         <is>
@@ -87701,18 +87701,18 @@
     </row>
     <row r="4156">
       <c r="A4156" t="n">
-        <v>74911</v>
+        <v>77029</v>
       </c>
       <c r="B4156" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4156" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4156" s="2" t="n">
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="E4156" t="inlineStr">
         <is>
@@ -87722,7 +87722,7 @@
     </row>
     <row r="4157">
       <c r="A4157" t="n">
-        <v>76969</v>
+        <v>78015</v>
       </c>
       <c r="B4157" t="n">
         <v>1</v>
@@ -87733,7 +87733,7 @@
         </is>
       </c>
       <c r="D4157" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="E4157" t="inlineStr">
         <is>
@@ -87779,7 +87779,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2920</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="3">
@@ -87789,7 +87789,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4">
@@ -87799,7 +87799,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5">
@@ -87809,7 +87809,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6">

--- a/Resultado/estado_gestion_todos.xlsx
+++ b/Resultado/estado_gestion_todos.xlsx
@@ -8156,11 +8156,11 @@
         <v>44877</v>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D368" s="2" t="n">
@@ -17438,11 +17438,11 @@
         <v>72932</v>
       </c>
       <c r="B810" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D810" s="2" t="n">
@@ -17669,11 +17669,11 @@
         <v>72743</v>
       </c>
       <c r="B821" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D821" s="2" t="n">
@@ -20567,11 +20567,11 @@
         <v>77050</v>
       </c>
       <c r="B959" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D959" s="2" t="n">
@@ -40748,11 +40748,11 @@
         <v>80073</v>
       </c>
       <c r="B1920" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1920" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D1920" s="2" t="n">
@@ -62105,11 +62105,11 @@
         <v>79051</v>
       </c>
       <c r="B2937" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2937" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D2937" s="2" t="n">
@@ -65276,11 +65276,11 @@
         <v>23472</v>
       </c>
       <c r="B3088" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3088" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D3088" s="2" t="n">
@@ -84467,7 +84467,7 @@
     </row>
     <row r="4002">
       <c r="A4002" t="n">
-        <v>41916</v>
+        <v>30616</v>
       </c>
       <c r="B4002" t="n">
         <v>9</v>
@@ -84478,7 +84478,7 @@
         </is>
       </c>
       <c r="D4002" s="2" t="n">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="E4002" t="inlineStr">
         <is>
@@ -84488,7 +84488,7 @@
     </row>
     <row r="4003">
       <c r="A4003" t="n">
-        <v>51292</v>
+        <v>31787</v>
       </c>
       <c r="B4003" t="n">
         <v>1</v>
@@ -84499,7 +84499,7 @@
         </is>
       </c>
       <c r="D4003" s="2" t="n">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="E4003" t="inlineStr">
         <is>
@@ -84509,18 +84509,18 @@
     </row>
     <row r="4004">
       <c r="A4004" t="n">
-        <v>60175</v>
+        <v>43165</v>
       </c>
       <c r="B4004" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4004" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4004" s="2" t="n">
-        <v>45897</v>
+        <v>45903</v>
       </c>
       <c r="E4004" t="inlineStr">
         <is>
@@ -84530,18 +84530,18 @@
     </row>
     <row r="4005">
       <c r="A4005" t="n">
-        <v>61188</v>
+        <v>45655</v>
       </c>
       <c r="B4005" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4005" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4005" s="2" t="n">
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="E4005" t="inlineStr">
         <is>
@@ -84551,18 +84551,18 @@
     </row>
     <row r="4006">
       <c r="A4006" t="n">
-        <v>67109</v>
+        <v>45656</v>
       </c>
       <c r="B4006" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4006" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4006" s="2" t="n">
-        <v>45909</v>
+        <v>45898</v>
       </c>
       <c r="E4006" t="inlineStr">
         <is>
@@ -84572,18 +84572,18 @@
     </row>
     <row r="4007">
       <c r="A4007" t="n">
-        <v>74254</v>
+        <v>49316</v>
       </c>
       <c r="B4007" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4007" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4007" s="2" t="n">
-        <v>45916</v>
+        <v>45904</v>
       </c>
       <c r="E4007" t="inlineStr">
         <is>
@@ -84593,7 +84593,7 @@
     </row>
     <row r="4008">
       <c r="A4008" t="n">
-        <v>77248</v>
+        <v>66880</v>
       </c>
       <c r="B4008" t="n">
         <v>9</v>
@@ -84604,7 +84604,7 @@
         </is>
       </c>
       <c r="D4008" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="E4008" t="inlineStr">
         <is>
@@ -84614,7 +84614,7 @@
     </row>
     <row r="4009">
       <c r="A4009" t="n">
-        <v>79318</v>
+        <v>66881</v>
       </c>
       <c r="B4009" t="n">
         <v>1</v>
@@ -84635,7 +84635,7 @@
     </row>
     <row r="4010">
       <c r="A4010" t="n">
-        <v>36668</v>
+        <v>66882</v>
       </c>
       <c r="B4010" t="n">
         <v>1</v>
@@ -84646,7 +84646,7 @@
         </is>
       </c>
       <c r="D4010" s="2" t="n">
-        <v>45922</v>
+        <v>45917</v>
       </c>
       <c r="E4010" t="inlineStr">
         <is>
@@ -84656,18 +84656,18 @@
     </row>
     <row r="4011">
       <c r="A4011" t="n">
-        <v>42270</v>
+        <v>66883</v>
       </c>
       <c r="B4011" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4011" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4011" s="2" t="n">
-        <v>45917</v>
+        <v>45895</v>
       </c>
       <c r="E4011" t="inlineStr">
         <is>
@@ -84677,18 +84677,18 @@
     </row>
     <row r="4012">
       <c r="A4012" t="n">
-        <v>45344</v>
+        <v>67918</v>
       </c>
       <c r="B4012" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4012" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4012" s="2" t="n">
-        <v>45910</v>
+        <v>45898</v>
       </c>
       <c r="E4012" t="inlineStr">
         <is>
@@ -84698,18 +84698,18 @@
     </row>
     <row r="4013">
       <c r="A4013" t="n">
-        <v>66559</v>
+        <v>70306</v>
       </c>
       <c r="B4013" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4013" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4013" s="2" t="n">
-        <v>45899</v>
+        <v>45910</v>
       </c>
       <c r="E4013" t="inlineStr">
         <is>
@@ -84719,7 +84719,7 @@
     </row>
     <row r="4014">
       <c r="A4014" t="n">
-        <v>66884</v>
+        <v>71191</v>
       </c>
       <c r="B4014" t="n">
         <v>1</v>
@@ -84730,7 +84730,7 @@
         </is>
       </c>
       <c r="D4014" s="2" t="n">
-        <v>45916</v>
+        <v>45910</v>
       </c>
       <c r="E4014" t="inlineStr">
         <is>
@@ -84740,7 +84740,7 @@
     </row>
     <row r="4015">
       <c r="A4015" t="n">
-        <v>66886</v>
+        <v>72680</v>
       </c>
       <c r="B4015" t="n">
         <v>1</v>
@@ -84761,7 +84761,7 @@
     </row>
     <row r="4016">
       <c r="A4016" t="n">
-        <v>69031</v>
+        <v>79197</v>
       </c>
       <c r="B4016" t="n">
         <v>1</v>
@@ -84772,7 +84772,7 @@
         </is>
       </c>
       <c r="D4016" s="2" t="n">
-        <v>45917</v>
+        <v>45923</v>
       </c>
       <c r="E4016" t="inlineStr">
         <is>
@@ -84782,7 +84782,7 @@
     </row>
     <row r="4017">
       <c r="A4017" t="n">
-        <v>71105</v>
+        <v>43516</v>
       </c>
       <c r="B4017" t="n">
         <v>1</v>
@@ -84793,7 +84793,7 @@
         </is>
       </c>
       <c r="D4017" s="2" t="n">
-        <v>45909</v>
+        <v>45912</v>
       </c>
       <c r="E4017" t="inlineStr">
         <is>
@@ -84803,18 +84803,18 @@
     </row>
     <row r="4018">
       <c r="A4018" t="n">
-        <v>75685</v>
+        <v>45941</v>
       </c>
       <c r="B4018" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4018" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4018" s="2" t="n">
-        <v>45908</v>
+        <v>45901</v>
       </c>
       <c r="E4018" t="inlineStr">
         <is>
@@ -84824,18 +84824,18 @@
     </row>
     <row r="4019">
       <c r="A4019" t="n">
-        <v>76469</v>
+        <v>47075</v>
       </c>
       <c r="B4019" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4019" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4019" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="E4019" t="inlineStr">
         <is>
@@ -84845,18 +84845,18 @@
     </row>
     <row r="4020">
       <c r="A4020" t="n">
-        <v>11491</v>
+        <v>48065</v>
       </c>
       <c r="B4020" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4020" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4020" s="2" t="n">
-        <v>45919</v>
+        <v>45898</v>
       </c>
       <c r="E4020" t="inlineStr">
         <is>
@@ -84866,7 +84866,7 @@
     </row>
     <row r="4021">
       <c r="A4021" t="n">
-        <v>24352</v>
+        <v>50720</v>
       </c>
       <c r="B4021" t="n">
         <v>1</v>
@@ -84877,7 +84877,7 @@
         </is>
       </c>
       <c r="D4021" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
       <c r="E4021" t="inlineStr">
         <is>
@@ -84887,7 +84887,7 @@
     </row>
     <row r="4022">
       <c r="A4022" t="n">
-        <v>28623</v>
+        <v>57370</v>
       </c>
       <c r="B4022" t="n">
         <v>1</v>
@@ -84898,7 +84898,7 @@
         </is>
       </c>
       <c r="D4022" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="E4022" t="inlineStr">
         <is>
@@ -84908,7 +84908,7 @@
     </row>
     <row r="4023">
       <c r="A4023" t="n">
-        <v>79829</v>
+        <v>62085</v>
       </c>
       <c r="B4023" t="n">
         <v>9</v>
@@ -84919,7 +84919,7 @@
         </is>
       </c>
       <c r="D4023" s="2" t="n">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="E4023" t="inlineStr">
         <is>
@@ -84929,18 +84929,18 @@
     </row>
     <row r="4024">
       <c r="A4024" t="n">
-        <v>17382</v>
+        <v>65743</v>
       </c>
       <c r="B4024" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4024" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4024" s="2" t="n">
-        <v>45916</v>
+        <v>45901</v>
       </c>
       <c r="E4024" t="inlineStr">
         <is>
@@ -84950,7 +84950,7 @@
     </row>
     <row r="4025">
       <c r="A4025" t="n">
-        <v>28130</v>
+        <v>77559</v>
       </c>
       <c r="B4025" t="n">
         <v>9</v>
@@ -84961,7 +84961,7 @@
         </is>
       </c>
       <c r="D4025" s="2" t="n">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="E4025" t="inlineStr">
         <is>
@@ -84971,18 +84971,18 @@
     </row>
     <row r="4026">
       <c r="A4026" t="n">
-        <v>32590</v>
+        <v>77560</v>
       </c>
       <c r="B4026" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4026" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4026" s="2" t="n">
-        <v>45904</v>
+        <v>45918</v>
       </c>
       <c r="E4026" t="inlineStr">
         <is>
@@ -84992,18 +84992,18 @@
     </row>
     <row r="4027">
       <c r="A4027" t="n">
-        <v>36075</v>
+        <v>79649</v>
       </c>
       <c r="B4027" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4027" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4027" s="2" t="n">
-        <v>45895</v>
+        <v>45924</v>
       </c>
       <c r="E4027" t="inlineStr">
         <is>
@@ -85013,18 +85013,18 @@
     </row>
     <row r="4028">
       <c r="A4028" t="n">
-        <v>62088</v>
+        <v>34191</v>
       </c>
       <c r="B4028" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4028" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4028" s="2" t="n">
-        <v>45902</v>
+        <v>45909</v>
       </c>
       <c r="E4028" t="inlineStr">
         <is>
@@ -85034,7 +85034,7 @@
     </row>
     <row r="4029">
       <c r="A4029" t="n">
-        <v>66709</v>
+        <v>41914</v>
       </c>
       <c r="B4029" t="n">
         <v>1</v>
@@ -85045,7 +85045,7 @@
         </is>
       </c>
       <c r="D4029" s="2" t="n">
-        <v>45922</v>
+        <v>45912</v>
       </c>
       <c r="E4029" t="inlineStr">
         <is>
@@ -85055,7 +85055,7 @@
     </row>
     <row r="4030">
       <c r="A4030" t="n">
-        <v>73706</v>
+        <v>69740</v>
       </c>
       <c r="B4030" t="n">
         <v>1</v>
@@ -85066,7 +85066,7 @@
         </is>
       </c>
       <c r="D4030" s="2" t="n">
-        <v>45918</v>
+        <v>45908</v>
       </c>
       <c r="E4030" t="inlineStr">
         <is>
@@ -85076,18 +85076,18 @@
     </row>
     <row r="4031">
       <c r="A4031" t="n">
-        <v>75928</v>
+        <v>72029</v>
       </c>
       <c r="B4031" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4031" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4031" s="2" t="n">
-        <v>45915</v>
+        <v>45897</v>
       </c>
       <c r="E4031" t="inlineStr">
         <is>
@@ -85097,18 +85097,18 @@
     </row>
     <row r="4032">
       <c r="A4032" t="n">
-        <v>76278</v>
+        <v>74938</v>
       </c>
       <c r="B4032" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4032" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4032" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
       <c r="E4032" t="inlineStr">
         <is>
@@ -85118,18 +85118,18 @@
     </row>
     <row r="4033">
       <c r="A4033" t="n">
-        <v>78016</v>
+        <v>77693</v>
       </c>
       <c r="B4033" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4033" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4033" s="2" t="n">
-        <v>45904</v>
+        <v>45923</v>
       </c>
       <c r="E4033" t="inlineStr">
         <is>
@@ -85139,7 +85139,7 @@
     </row>
     <row r="4034">
       <c r="A4034" t="n">
-        <v>32964</v>
+        <v>79949</v>
       </c>
       <c r="B4034" t="n">
         <v>1</v>
@@ -85150,7 +85150,7 @@
         </is>
       </c>
       <c r="D4034" s="2" t="n">
-        <v>45916</v>
+        <v>45924</v>
       </c>
       <c r="E4034" t="inlineStr">
         <is>
@@ -85160,7 +85160,7 @@
     </row>
     <row r="4035">
       <c r="A4035" t="n">
-        <v>49089</v>
+        <v>33709</v>
       </c>
       <c r="B4035" t="n">
         <v>1</v>
@@ -85171,7 +85171,7 @@
         </is>
       </c>
       <c r="D4035" s="2" t="n">
-        <v>45915</v>
+        <v>45905</v>
       </c>
       <c r="E4035" t="inlineStr">
         <is>
@@ -85181,18 +85181,18 @@
     </row>
     <row r="4036">
       <c r="A4036" t="n">
-        <v>53789</v>
+        <v>68886</v>
       </c>
       <c r="B4036" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4036" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4036" s="2" t="n">
-        <v>45898</v>
+        <v>45911</v>
       </c>
       <c r="E4036" t="inlineStr">
         <is>
@@ -85202,18 +85202,18 @@
     </row>
     <row r="4037">
       <c r="A4037" t="n">
-        <v>57848</v>
+        <v>72681</v>
       </c>
       <c r="B4037" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4037" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4037" s="2" t="n">
-        <v>45908</v>
+        <v>45898</v>
       </c>
       <c r="E4037" t="inlineStr">
         <is>
@@ -85223,18 +85223,18 @@
     </row>
     <row r="4038">
       <c r="A4038" t="n">
-        <v>57681</v>
+        <v>79316</v>
       </c>
       <c r="B4038" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4038" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4038" s="2" t="n">
-        <v>45895</v>
+        <v>45923</v>
       </c>
       <c r="E4038" t="inlineStr">
         <is>
@@ -85244,7 +85244,7 @@
     </row>
     <row r="4039">
       <c r="A4039" t="n">
-        <v>57682</v>
+        <v>28623</v>
       </c>
       <c r="B4039" t="n">
         <v>1</v>
@@ -85255,7 +85255,7 @@
         </is>
       </c>
       <c r="D4039" s="2" t="n">
-        <v>45910</v>
+        <v>45918</v>
       </c>
       <c r="E4039" t="inlineStr">
         <is>
@@ -85265,18 +85265,18 @@
     </row>
     <row r="4040">
       <c r="A4040" t="n">
-        <v>60069</v>
+        <v>66559</v>
       </c>
       <c r="B4040" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4040" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4040" s="2" t="n">
-        <v>45918</v>
+        <v>45899</v>
       </c>
       <c r="E4040" t="inlineStr">
         <is>
@@ -85286,18 +85286,18 @@
     </row>
     <row r="4041">
       <c r="A4041" t="n">
-        <v>61423</v>
+        <v>66884</v>
       </c>
       <c r="B4041" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4041" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4041" s="2" t="n">
-        <v>45899</v>
+        <v>45916</v>
       </c>
       <c r="E4041" t="inlineStr">
         <is>
@@ -85307,18 +85307,18 @@
     </row>
     <row r="4042">
       <c r="A4042" t="n">
-        <v>61424</v>
+        <v>66886</v>
       </c>
       <c r="B4042" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4042" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4042" s="2" t="n">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="E4042" t="inlineStr">
         <is>
@@ -85328,18 +85328,18 @@
     </row>
     <row r="4043">
       <c r="A4043" t="n">
-        <v>65134</v>
+        <v>69031</v>
       </c>
       <c r="B4043" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4043" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4043" s="2" t="n">
-        <v>45902</v>
+        <v>45917</v>
       </c>
       <c r="E4043" t="inlineStr">
         <is>
@@ -85349,18 +85349,18 @@
     </row>
     <row r="4044">
       <c r="A4044" t="n">
-        <v>67358</v>
+        <v>71105</v>
       </c>
       <c r="B4044" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4044" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4044" s="2" t="n">
-        <v>45897</v>
+        <v>45909</v>
       </c>
       <c r="E4044" t="inlineStr">
         <is>
@@ -85370,7 +85370,7 @@
     </row>
     <row r="4045">
       <c r="A4045" t="n">
-        <v>74326</v>
+        <v>75928</v>
       </c>
       <c r="B4045" t="n">
         <v>1</v>
@@ -85391,7 +85391,7 @@
     </row>
     <row r="4046">
       <c r="A4046" t="n">
-        <v>75346</v>
+        <v>76278</v>
       </c>
       <c r="B4046" t="n">
         <v>1</v>
@@ -85402,7 +85402,7 @@
         </is>
       </c>
       <c r="D4046" s="2" t="n">
-        <v>45918</v>
+        <v>45910</v>
       </c>
       <c r="E4046" t="inlineStr">
         <is>
@@ -85412,18 +85412,18 @@
     </row>
     <row r="4047">
       <c r="A4047" t="n">
-        <v>12960</v>
+        <v>78016</v>
       </c>
       <c r="B4047" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4047" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4047" s="2" t="n">
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="E4047" t="inlineStr">
         <is>
@@ -85433,7 +85433,7 @@
     </row>
     <row r="4048">
       <c r="A4048" t="n">
-        <v>24589</v>
+        <v>79318</v>
       </c>
       <c r="B4048" t="n">
         <v>1</v>
@@ -85444,7 +85444,7 @@
         </is>
       </c>
       <c r="D4048" s="2" t="n">
-        <v>45917</v>
+        <v>45908</v>
       </c>
       <c r="E4048" t="inlineStr">
         <is>
@@ -85454,18 +85454,18 @@
     </row>
     <row r="4049">
       <c r="A4049" t="n">
-        <v>31992</v>
+        <v>28130</v>
       </c>
       <c r="B4049" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4049" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4049" s="2" t="n">
-        <v>45919</v>
+        <v>45903</v>
       </c>
       <c r="E4049" t="inlineStr">
         <is>
@@ -85475,18 +85475,18 @@
     </row>
     <row r="4050">
       <c r="A4050" t="n">
-        <v>38864</v>
+        <v>32590</v>
       </c>
       <c r="B4050" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4050" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4050" s="2" t="n">
-        <v>45915</v>
+        <v>45904</v>
       </c>
       <c r="E4050" t="inlineStr">
         <is>
@@ -85496,7 +85496,7 @@
     </row>
     <row r="4051">
       <c r="A4051" t="n">
-        <v>39901</v>
+        <v>36668</v>
       </c>
       <c r="B4051" t="n">
         <v>1</v>
@@ -85507,7 +85507,7 @@
         </is>
       </c>
       <c r="D4051" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="E4051" t="inlineStr">
         <is>
@@ -85517,7 +85517,7 @@
     </row>
     <row r="4052">
       <c r="A4052" t="n">
-        <v>43676</v>
+        <v>42270</v>
       </c>
       <c r="B4052" t="n">
         <v>1</v>
@@ -85528,7 +85528,7 @@
         </is>
       </c>
       <c r="D4052" s="2" t="n">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="E4052" t="inlineStr">
         <is>
@@ -85538,18 +85538,18 @@
     </row>
     <row r="4053">
       <c r="A4053" t="n">
-        <v>60555</v>
+        <v>62088</v>
       </c>
       <c r="B4053" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4053" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4053" s="2" t="n">
-        <v>45896</v>
+        <v>45902</v>
       </c>
       <c r="E4053" t="inlineStr">
         <is>
@@ -85559,18 +85559,18 @@
     </row>
     <row r="4054">
       <c r="A4054" t="n">
-        <v>66888</v>
+        <v>66709</v>
       </c>
       <c r="B4054" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4054" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4054" s="2" t="n">
-        <v>45897</v>
+        <v>45922</v>
       </c>
       <c r="E4054" t="inlineStr">
         <is>
@@ -85580,18 +85580,18 @@
     </row>
     <row r="4055">
       <c r="A4055" t="n">
-        <v>66889</v>
+        <v>75685</v>
       </c>
       <c r="B4055" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4055" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4055" s="2" t="n">
-        <v>45895</v>
+        <v>45908</v>
       </c>
       <c r="E4055" t="inlineStr">
         <is>
@@ -85601,18 +85601,18 @@
     </row>
     <row r="4056">
       <c r="A4056" t="n">
-        <v>66890</v>
+        <v>76469</v>
       </c>
       <c r="B4056" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4056" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4056" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="E4056" t="inlineStr">
         <is>
@@ -85622,7 +85622,7 @@
     </row>
     <row r="4057">
       <c r="A4057" t="n">
-        <v>67994</v>
+        <v>17382</v>
       </c>
       <c r="B4057" t="n">
         <v>1</v>
@@ -85633,7 +85633,7 @@
         </is>
       </c>
       <c r="D4057" s="2" t="n">
-        <v>45922</v>
+        <v>45916</v>
       </c>
       <c r="E4057" t="inlineStr">
         <is>
@@ -85643,18 +85643,18 @@
     </row>
     <row r="4058">
       <c r="A4058" t="n">
-        <v>69027</v>
+        <v>24352</v>
       </c>
       <c r="B4058" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4058" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4058" s="2" t="n">
-        <v>45902</v>
+        <v>45908</v>
       </c>
       <c r="E4058" t="inlineStr">
         <is>
@@ -85664,7 +85664,7 @@
     </row>
     <row r="4059">
       <c r="A4059" t="n">
-        <v>69029</v>
+        <v>41916</v>
       </c>
       <c r="B4059" t="n">
         <v>9</v>
@@ -85675,7 +85675,7 @@
         </is>
       </c>
       <c r="D4059" s="2" t="n">
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="E4059" t="inlineStr">
         <is>
@@ -85685,7 +85685,7 @@
     </row>
     <row r="4060">
       <c r="A4060" t="n">
-        <v>69030</v>
+        <v>45344</v>
       </c>
       <c r="B4060" t="n">
         <v>1</v>
@@ -85696,7 +85696,7 @@
         </is>
       </c>
       <c r="D4060" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
       <c r="E4060" t="inlineStr">
         <is>
@@ -85706,18 +85706,18 @@
     </row>
     <row r="4061">
       <c r="A4061" t="n">
-        <v>75181</v>
+        <v>51292</v>
       </c>
       <c r="B4061" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4061" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4061" s="2" t="n">
-        <v>45895</v>
+        <v>45911</v>
       </c>
       <c r="E4061" t="inlineStr">
         <is>
@@ -85727,7 +85727,7 @@
     </row>
     <row r="4062">
       <c r="A4062" t="n">
-        <v>78387</v>
+        <v>73706</v>
       </c>
       <c r="B4062" t="n">
         <v>1</v>
@@ -85738,7 +85738,7 @@
         </is>
       </c>
       <c r="D4062" s="2" t="n">
-        <v>45912</v>
+        <v>45918</v>
       </c>
       <c r="E4062" t="inlineStr">
         <is>
@@ -85748,7 +85748,7 @@
     </row>
     <row r="4063">
       <c r="A4063" t="n">
-        <v>78388</v>
+        <v>79829</v>
       </c>
       <c r="B4063" t="n">
         <v>9</v>
@@ -85759,7 +85759,7 @@
         </is>
       </c>
       <c r="D4063" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="E4063" t="inlineStr">
         <is>
@@ -85769,18 +85769,18 @@
     </row>
     <row r="4064">
       <c r="A4064" t="n">
-        <v>34583</v>
+        <v>11491</v>
       </c>
       <c r="B4064" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4064" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4064" s="2" t="n">
-        <v>45904</v>
+        <v>45919</v>
       </c>
       <c r="E4064" t="inlineStr">
         <is>
@@ -85790,18 +85790,18 @@
     </row>
     <row r="4065">
       <c r="A4065" t="n">
-        <v>48071</v>
+        <v>36075</v>
       </c>
       <c r="B4065" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4065" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4065" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="E4065" t="inlineStr">
         <is>
@@ -85811,18 +85811,18 @@
     </row>
     <row r="4066">
       <c r="A4066" t="n">
-        <v>48104</v>
+        <v>60175</v>
       </c>
       <c r="B4066" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4066" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4066" s="2" t="n">
-        <v>45905</v>
+        <v>45897</v>
       </c>
       <c r="E4066" t="inlineStr">
         <is>
@@ -85832,7 +85832,7 @@
     </row>
     <row r="4067">
       <c r="A4067" t="n">
-        <v>63865</v>
+        <v>61188</v>
       </c>
       <c r="B4067" t="n">
         <v>9</v>
@@ -85843,7 +85843,7 @@
         </is>
       </c>
       <c r="D4067" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="E4067" t="inlineStr">
         <is>
@@ -85853,18 +85853,18 @@
     </row>
     <row r="4068">
       <c r="A4068" t="n">
-        <v>66021</v>
+        <v>67109</v>
       </c>
       <c r="B4068" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4068" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4068" s="2" t="n">
-        <v>45899</v>
+        <v>45909</v>
       </c>
       <c r="E4068" t="inlineStr">
         <is>
@@ -85874,7 +85874,7 @@
     </row>
     <row r="4069">
       <c r="A4069" t="n">
-        <v>74462</v>
+        <v>74254</v>
       </c>
       <c r="B4069" t="n">
         <v>1</v>
@@ -85885,7 +85885,7 @@
         </is>
       </c>
       <c r="D4069" s="2" t="n">
-        <v>45910</v>
+        <v>45916</v>
       </c>
       <c r="E4069" t="inlineStr">
         <is>
@@ -85895,18 +85895,18 @@
     </row>
     <row r="4070">
       <c r="A4070" t="n">
-        <v>52565</v>
+        <v>77248</v>
       </c>
       <c r="B4070" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4070" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4070" s="2" t="n">
-        <v>45905</v>
+        <v>45903</v>
       </c>
       <c r="E4070" t="inlineStr">
         <is>
@@ -85916,7 +85916,7 @@
     </row>
     <row r="4071">
       <c r="A4071" t="n">
-        <v>55858</v>
+        <v>34583</v>
       </c>
       <c r="B4071" t="n">
         <v>9</v>
@@ -85927,7 +85927,7 @@
         </is>
       </c>
       <c r="D4071" s="2" t="n">
-        <v>45899</v>
+        <v>45904</v>
       </c>
       <c r="E4071" t="inlineStr">
         <is>
@@ -85937,7 +85937,7 @@
     </row>
     <row r="4072">
       <c r="A4072" t="n">
-        <v>66891</v>
+        <v>49089</v>
       </c>
       <c r="B4072" t="n">
         <v>1</v>
@@ -85948,7 +85948,7 @@
         </is>
       </c>
       <c r="D4072" s="2" t="n">
-        <v>45912</v>
+        <v>45915</v>
       </c>
       <c r="E4072" t="inlineStr">
         <is>
@@ -85958,18 +85958,18 @@
     </row>
     <row r="4073">
       <c r="A4073" t="n">
-        <v>71818</v>
+        <v>60555</v>
       </c>
       <c r="B4073" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4073" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4073" s="2" t="n">
-        <v>45905</v>
+        <v>45896</v>
       </c>
       <c r="E4073" t="inlineStr">
         <is>
@@ -85979,18 +85979,18 @@
     </row>
     <row r="4074">
       <c r="A4074" t="n">
-        <v>73707</v>
+        <v>66888</v>
       </c>
       <c r="B4074" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4074" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4074" s="2" t="n">
-        <v>45912</v>
+        <v>45897</v>
       </c>
       <c r="E4074" t="inlineStr">
         <is>
@@ -86000,18 +86000,18 @@
     </row>
     <row r="4075">
       <c r="A4075" t="n">
-        <v>74911</v>
+        <v>66889</v>
       </c>
       <c r="B4075" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4075" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4075" s="2" t="n">
-        <v>45903</v>
+        <v>45895</v>
       </c>
       <c r="E4075" t="inlineStr">
         <is>
@@ -86021,18 +86021,18 @@
     </row>
     <row r="4076">
       <c r="A4076" t="n">
-        <v>76969</v>
+        <v>66890</v>
       </c>
       <c r="B4076" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4076" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4076" s="2" t="n">
-        <v>45911</v>
+        <v>45896</v>
       </c>
       <c r="E4076" t="inlineStr">
         <is>
@@ -86042,7 +86042,7 @@
     </row>
     <row r="4077">
       <c r="A4077" t="n">
-        <v>34191</v>
+        <v>67994</v>
       </c>
       <c r="B4077" t="n">
         <v>1</v>
@@ -86053,7 +86053,7 @@
         </is>
       </c>
       <c r="D4077" s="2" t="n">
-        <v>45909</v>
+        <v>45922</v>
       </c>
       <c r="E4077" t="inlineStr">
         <is>
@@ -86063,18 +86063,18 @@
     </row>
     <row r="4078">
       <c r="A4078" t="n">
-        <v>41914</v>
+        <v>69027</v>
       </c>
       <c r="B4078" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4078" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4078" s="2" t="n">
-        <v>45912</v>
+        <v>45902</v>
       </c>
       <c r="E4078" t="inlineStr">
         <is>
@@ -86084,7 +86084,7 @@
     </row>
     <row r="4079">
       <c r="A4079" t="n">
-        <v>43165</v>
+        <v>69029</v>
       </c>
       <c r="B4079" t="n">
         <v>9</v>
@@ -86095,7 +86095,7 @@
         </is>
       </c>
       <c r="D4079" s="2" t="n">
-        <v>45903</v>
+        <v>45901</v>
       </c>
       <c r="E4079" t="inlineStr">
         <is>
@@ -86105,7 +86105,7 @@
     </row>
     <row r="4080">
       <c r="A4080" t="n">
-        <v>45655</v>
+        <v>69030</v>
       </c>
       <c r="B4080" t="n">
         <v>1</v>
@@ -86116,7 +86116,7 @@
         </is>
       </c>
       <c r="D4080" s="2" t="n">
-        <v>45905</v>
+        <v>45923</v>
       </c>
       <c r="E4080" t="inlineStr">
         <is>
@@ -86126,18 +86126,18 @@
     </row>
     <row r="4081">
       <c r="A4081" t="n">
-        <v>45656</v>
+        <v>75181</v>
       </c>
       <c r="B4081" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4081" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4081" s="2" t="n">
-        <v>45898</v>
+        <v>45895</v>
       </c>
       <c r="E4081" t="inlineStr">
         <is>
@@ -86147,18 +86147,18 @@
     </row>
     <row r="4082">
       <c r="A4082" t="n">
-        <v>49316</v>
+        <v>76969</v>
       </c>
       <c r="B4082" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4082" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4082" s="2" t="n">
-        <v>45904</v>
+        <v>45911</v>
       </c>
       <c r="E4082" t="inlineStr">
         <is>
@@ -86168,18 +86168,18 @@
     </row>
     <row r="4083">
       <c r="A4083" t="n">
-        <v>68886</v>
+        <v>12960</v>
       </c>
       <c r="B4083" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4083" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4083" s="2" t="n">
-        <v>45911</v>
+        <v>45896</v>
       </c>
       <c r="E4083" t="inlineStr">
         <is>
@@ -86189,18 +86189,18 @@
     </row>
     <row r="4084">
       <c r="A4084" t="n">
-        <v>72681</v>
+        <v>38864</v>
       </c>
       <c r="B4084" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4084" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4084" s="2" t="n">
-        <v>45898</v>
+        <v>45915</v>
       </c>
       <c r="E4084" t="inlineStr">
         <is>
@@ -86210,7 +86210,7 @@
     </row>
     <row r="4085">
       <c r="A4085" t="n">
-        <v>79197</v>
+        <v>39901</v>
       </c>
       <c r="B4085" t="n">
         <v>1</v>
@@ -86221,7 +86221,7 @@
         </is>
       </c>
       <c r="D4085" s="2" t="n">
-        <v>45923</v>
+        <v>45918</v>
       </c>
       <c r="E4085" t="inlineStr">
         <is>
@@ -86231,18 +86231,18 @@
     </row>
     <row r="4086">
       <c r="A4086" t="n">
-        <v>66880</v>
+        <v>48071</v>
       </c>
       <c r="B4086" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4086" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4086" s="2" t="n">
-        <v>45902</v>
+        <v>45896</v>
       </c>
       <c r="E4086" t="inlineStr">
         <is>
@@ -86252,7 +86252,7 @@
     </row>
     <row r="4087">
       <c r="A4087" t="n">
-        <v>66881</v>
+        <v>48104</v>
       </c>
       <c r="B4087" t="n">
         <v>1</v>
@@ -86263,7 +86263,7 @@
         </is>
       </c>
       <c r="D4087" s="2" t="n">
-        <v>45908</v>
+        <v>45905</v>
       </c>
       <c r="E4087" t="inlineStr">
         <is>
@@ -86273,7 +86273,7 @@
     </row>
     <row r="4088">
       <c r="A4088" t="n">
-        <v>66882</v>
+        <v>66891</v>
       </c>
       <c r="B4088" t="n">
         <v>1</v>
@@ -86284,7 +86284,7 @@
         </is>
       </c>
       <c r="D4088" s="2" t="n">
-        <v>45917</v>
+        <v>45912</v>
       </c>
       <c r="E4088" t="inlineStr">
         <is>
@@ -86294,18 +86294,18 @@
     </row>
     <row r="4089">
       <c r="A4089" t="n">
-        <v>66883</v>
+        <v>71818</v>
       </c>
       <c r="B4089" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4089" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4089" s="2" t="n">
-        <v>45895</v>
+        <v>45905</v>
       </c>
       <c r="E4089" t="inlineStr">
         <is>
@@ -86315,18 +86315,18 @@
     </row>
     <row r="4090">
       <c r="A4090" t="n">
-        <v>67918</v>
+        <v>74462</v>
       </c>
       <c r="B4090" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4090" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4090" s="2" t="n">
-        <v>45898</v>
+        <v>45910</v>
       </c>
       <c r="E4090" t="inlineStr">
         <is>
@@ -86336,7 +86336,7 @@
     </row>
     <row r="4091">
       <c r="A4091" t="n">
-        <v>70306</v>
+        <v>78387</v>
       </c>
       <c r="B4091" t="n">
         <v>1</v>
@@ -86347,7 +86347,7 @@
         </is>
       </c>
       <c r="D4091" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="E4091" t="inlineStr">
         <is>
@@ -86357,18 +86357,18 @@
     </row>
     <row r="4092">
       <c r="A4092" t="n">
-        <v>71191</v>
+        <v>78388</v>
       </c>
       <c r="B4092" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4092" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4092" s="2" t="n">
-        <v>45910</v>
+        <v>45905</v>
       </c>
       <c r="E4092" t="inlineStr">
         <is>
@@ -86378,7 +86378,7 @@
     </row>
     <row r="4093">
       <c r="A4093" t="n">
-        <v>72680</v>
+        <v>32964</v>
       </c>
       <c r="B4093" t="n">
         <v>1</v>
@@ -86389,7 +86389,7 @@
         </is>
       </c>
       <c r="D4093" s="2" t="n">
-        <v>45911</v>
+        <v>45916</v>
       </c>
       <c r="E4093" t="inlineStr">
         <is>
@@ -86399,18 +86399,18 @@
     </row>
     <row r="4094">
       <c r="A4094" t="n">
-        <v>77559</v>
+        <v>43676</v>
       </c>
       <c r="B4094" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4094" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4094" s="2" t="n">
-        <v>45902</v>
+        <v>45918</v>
       </c>
       <c r="E4094" t="inlineStr">
         <is>
@@ -86420,18 +86420,18 @@
     </row>
     <row r="4095">
       <c r="A4095" t="n">
-        <v>77560</v>
+        <v>53789</v>
       </c>
       <c r="B4095" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4095" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4095" s="2" t="n">
-        <v>45918</v>
+        <v>45898</v>
       </c>
       <c r="E4095" t="inlineStr">
         <is>
@@ -86441,18 +86441,18 @@
     </row>
     <row r="4096">
       <c r="A4096" t="n">
-        <v>79649</v>
+        <v>63865</v>
       </c>
       <c r="B4096" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4096" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4096" s="2" t="n">
-        <v>45924</v>
+        <v>45905</v>
       </c>
       <c r="E4096" t="inlineStr">
         <is>
@@ -86462,7 +86462,7 @@
     </row>
     <row r="4097">
       <c r="A4097" t="n">
-        <v>30616</v>
+        <v>66021</v>
       </c>
       <c r="B4097" t="n">
         <v>9</v>
@@ -86473,7 +86473,7 @@
         </is>
       </c>
       <c r="D4097" s="2" t="n">
-        <v>45901</v>
+        <v>45899</v>
       </c>
       <c r="E4097" t="inlineStr">
         <is>
@@ -86483,7 +86483,7 @@
     </row>
     <row r="4098">
       <c r="A4098" t="n">
-        <v>31787</v>
+        <v>73707</v>
       </c>
       <c r="B4098" t="n">
         <v>1</v>
@@ -86494,7 +86494,7 @@
         </is>
       </c>
       <c r="D4098" s="2" t="n">
-        <v>45919</v>
+        <v>45912</v>
       </c>
       <c r="E4098" t="inlineStr">
         <is>
@@ -86504,18 +86504,18 @@
     </row>
     <row r="4099">
       <c r="A4099" t="n">
-        <v>43516</v>
+        <v>74911</v>
       </c>
       <c r="B4099" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4099" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4099" s="2" t="n">
-        <v>45912</v>
+        <v>45903</v>
       </c>
       <c r="E4099" t="inlineStr">
         <is>
@@ -86525,18 +86525,18 @@
     </row>
     <row r="4100">
       <c r="A4100" t="n">
-        <v>45941</v>
+        <v>24589</v>
       </c>
       <c r="B4100" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4100" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4100" s="2" t="n">
-        <v>45901</v>
+        <v>45917</v>
       </c>
       <c r="E4100" t="inlineStr">
         <is>
@@ -86546,7 +86546,7 @@
     </row>
     <row r="4101">
       <c r="A4101" t="n">
-        <v>47075</v>
+        <v>31992</v>
       </c>
       <c r="B4101" t="n">
         <v>1</v>
@@ -86557,7 +86557,7 @@
         </is>
       </c>
       <c r="D4101" s="2" t="n">
-        <v>45911</v>
+        <v>45919</v>
       </c>
       <c r="E4101" t="inlineStr">
         <is>
@@ -86567,18 +86567,18 @@
     </row>
     <row r="4102">
       <c r="A4102" t="n">
-        <v>48065</v>
+        <v>52565</v>
       </c>
       <c r="B4102" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4102" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4102" s="2" t="n">
-        <v>45898</v>
+        <v>45905</v>
       </c>
       <c r="E4102" t="inlineStr">
         <is>
@@ -86588,18 +86588,18 @@
     </row>
     <row r="4103">
       <c r="A4103" t="n">
-        <v>50720</v>
+        <v>55858</v>
       </c>
       <c r="B4103" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4103" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4103" s="2" t="n">
-        <v>45911</v>
+        <v>45899</v>
       </c>
       <c r="E4103" t="inlineStr">
         <is>
@@ -86609,7 +86609,7 @@
     </row>
     <row r="4104">
       <c r="A4104" t="n">
-        <v>69740</v>
+        <v>57848</v>
       </c>
       <c r="B4104" t="n">
         <v>1</v>
@@ -86630,7 +86630,7 @@
     </row>
     <row r="4105">
       <c r="A4105" t="n">
-        <v>72029</v>
+        <v>57681</v>
       </c>
       <c r="B4105" t="n">
         <v>4</v>
@@ -86641,7 +86641,7 @@
         </is>
       </c>
       <c r="D4105" s="2" t="n">
-        <v>45897</v>
+        <v>45895</v>
       </c>
       <c r="E4105" t="inlineStr">
         <is>
@@ -86651,7 +86651,7 @@
     </row>
     <row r="4106">
       <c r="A4106" t="n">
-        <v>77693</v>
+        <v>57682</v>
       </c>
       <c r="B4106" t="n">
         <v>1</v>
@@ -86662,7 +86662,7 @@
         </is>
       </c>
       <c r="D4106" s="2" t="n">
-        <v>45923</v>
+        <v>45910</v>
       </c>
       <c r="E4106" t="inlineStr">
         <is>
@@ -86672,7 +86672,7 @@
     </row>
     <row r="4107">
       <c r="A4107" t="n">
-        <v>79949</v>
+        <v>60069</v>
       </c>
       <c r="B4107" t="n">
         <v>1</v>
@@ -86683,7 +86683,7 @@
         </is>
       </c>
       <c r="D4107" s="2" t="n">
-        <v>45924</v>
+        <v>45918</v>
       </c>
       <c r="E4107" t="inlineStr">
         <is>
@@ -86693,18 +86693,18 @@
     </row>
     <row r="4108">
       <c r="A4108" t="n">
-        <v>33709</v>
+        <v>61423</v>
       </c>
       <c r="B4108" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4108" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4108" s="2" t="n">
-        <v>45905</v>
+        <v>45899</v>
       </c>
       <c r="E4108" t="inlineStr">
         <is>
@@ -86714,18 +86714,18 @@
     </row>
     <row r="4109">
       <c r="A4109" t="n">
-        <v>57370</v>
+        <v>61424</v>
       </c>
       <c r="B4109" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4109" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4109" s="2" t="n">
-        <v>45922</v>
+        <v>45904</v>
       </c>
       <c r="E4109" t="inlineStr">
         <is>
@@ -86735,7 +86735,7 @@
     </row>
     <row r="4110">
       <c r="A4110" t="n">
-        <v>62085</v>
+        <v>65134</v>
       </c>
       <c r="B4110" t="n">
         <v>9</v>
@@ -86746,7 +86746,7 @@
         </is>
       </c>
       <c r="D4110" s="2" t="n">
-        <v>45904</v>
+        <v>45902</v>
       </c>
       <c r="E4110" t="inlineStr">
         <is>
@@ -86756,18 +86756,18 @@
     </row>
     <row r="4111">
       <c r="A4111" t="n">
-        <v>65743</v>
+        <v>67358</v>
       </c>
       <c r="B4111" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4111" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4111" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="E4111" t="inlineStr">
         <is>
@@ -86777,18 +86777,18 @@
     </row>
     <row r="4112">
       <c r="A4112" t="n">
-        <v>74938</v>
+        <v>74326</v>
       </c>
       <c r="B4112" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4112" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4112" s="2" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="E4112" t="inlineStr">
         <is>
@@ -86798,7 +86798,7 @@
     </row>
     <row r="4113">
       <c r="A4113" t="n">
-        <v>79316</v>
+        <v>75346</v>
       </c>
       <c r="B4113" t="n">
         <v>1</v>
@@ -86809,7 +86809,7 @@
         </is>
       </c>
       <c r="D4113" s="2" t="n">
-        <v>45923</v>
+        <v>45918</v>
       </c>
       <c r="E4113" t="inlineStr">
         <is>
@@ -86819,7 +86819,7 @@
     </row>
     <row r="4114">
       <c r="A4114" t="n">
-        <v>35735</v>
+        <v>40863</v>
       </c>
       <c r="B4114" t="n">
         <v>1</v>
@@ -86830,7 +86830,7 @@
         </is>
       </c>
       <c r="D4114" s="2" t="n">
-        <v>45917</v>
+        <v>45916</v>
       </c>
       <c r="E4114" t="inlineStr">
         <is>
@@ -86840,18 +86840,18 @@
     </row>
     <row r="4115">
       <c r="A4115" t="n">
-        <v>39227</v>
+        <v>42176</v>
       </c>
       <c r="B4115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4115" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4115" s="2" t="n">
-        <v>45895</v>
+        <v>45917</v>
       </c>
       <c r="E4115" t="inlineStr">
         <is>
@@ -86861,18 +86861,18 @@
     </row>
     <row r="4116">
       <c r="A4116" t="n">
-        <v>53692</v>
+        <v>66885</v>
       </c>
       <c r="B4116" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4116" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4116" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="E4116" t="inlineStr">
         <is>
@@ -86882,18 +86882,18 @@
     </row>
     <row r="4117">
       <c r="A4117" t="n">
-        <v>72844</v>
+        <v>66887</v>
       </c>
       <c r="B4117" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4117" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4117" s="2" t="n">
-        <v>45905</v>
+        <v>45916</v>
       </c>
       <c r="E4117" t="inlineStr">
         <is>
@@ -86903,7 +86903,7 @@
     </row>
     <row r="4118">
       <c r="A4118" t="n">
-        <v>77247</v>
+        <v>70304</v>
       </c>
       <c r="B4118" t="n">
         <v>1</v>
@@ -86914,7 +86914,7 @@
         </is>
       </c>
       <c r="D4118" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="E4118" t="inlineStr">
         <is>
@@ -86924,7 +86924,7 @@
     </row>
     <row r="4119">
       <c r="A4119" t="n">
-        <v>78192</v>
+        <v>75182</v>
       </c>
       <c r="B4119" t="n">
         <v>1</v>
@@ -86935,7 +86935,7 @@
         </is>
       </c>
       <c r="D4119" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="E4119" t="inlineStr">
         <is>
@@ -86945,18 +86945,18 @@
     </row>
     <row r="4120">
       <c r="A4120" t="n">
-        <v>79196</v>
+        <v>76154</v>
       </c>
       <c r="B4120" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4120" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4120" s="2" t="n">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="E4120" t="inlineStr">
         <is>
@@ -86966,7 +86966,7 @@
     </row>
     <row r="4121">
       <c r="A4121" t="n">
-        <v>79319</v>
+        <v>77029</v>
       </c>
       <c r="B4121" t="n">
         <v>1</v>
@@ -86977,7 +86977,7 @@
         </is>
       </c>
       <c r="D4121" s="2" t="n">
-        <v>45912</v>
+        <v>45911</v>
       </c>
       <c r="E4121" t="inlineStr">
         <is>
@@ -86987,18 +86987,18 @@
     </row>
     <row r="4122">
       <c r="A4122" t="n">
-        <v>79569</v>
+        <v>78015</v>
       </c>
       <c r="B4122" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4122" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4122" s="2" t="n">
-        <v>45901</v>
+        <v>45915</v>
       </c>
       <c r="E4122" t="inlineStr">
         <is>
@@ -87008,18 +87008,18 @@
     </row>
     <row r="4123">
       <c r="A4123" t="n">
-        <v>79405</v>
+        <v>79196</v>
       </c>
       <c r="B4123" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4123" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Migrado</t>
         </is>
       </c>
       <c r="D4123" s="2" t="n">
-        <v>45901</v>
+        <v>45897</v>
       </c>
       <c r="E4123" t="inlineStr">
         <is>
@@ -87029,7 +87029,7 @@
     </row>
     <row r="4124">
       <c r="A4124" t="n">
-        <v>15245</v>
+        <v>79319</v>
       </c>
       <c r="B4124" t="n">
         <v>1</v>
@@ -87040,7 +87040,7 @@
         </is>
       </c>
       <c r="D4124" s="2" t="n">
-        <v>45915</v>
+        <v>45912</v>
       </c>
       <c r="E4124" t="inlineStr">
         <is>
@@ -87050,18 +87050,18 @@
     </row>
     <row r="4125">
       <c r="A4125" t="n">
-        <v>28872</v>
+        <v>79569</v>
       </c>
       <c r="B4125" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4125" t="inlineStr">
         <is>
-          <t>Migrado</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4125" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="E4125" t="inlineStr">
         <is>
@@ -87071,18 +87071,18 @@
     </row>
     <row r="4126">
       <c r="A4126" t="n">
-        <v>39902</v>
+        <v>79405</v>
       </c>
       <c r="B4126" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4126" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4126" s="2" t="n">
-        <v>45910</v>
+        <v>45901</v>
       </c>
       <c r="E4126" t="inlineStr">
         <is>
@@ -87092,18 +87092,18 @@
     </row>
     <row r="4127">
       <c r="A4127" t="n">
-        <v>41315</v>
+        <v>15245</v>
       </c>
       <c r="B4127" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4127" t="inlineStr">
         <is>
-          <t>En Ruta</t>
+          <t>Pendiente Migrar</t>
         </is>
       </c>
       <c r="D4127" s="2" t="n">
-        <v>45904</v>
+        <v>45915</v>
       </c>
       <c r="E4127" t="inlineStr">
         <is>
@@ -87113,7 +87113,7 @@
     </row>
     <row r="4128">
       <c r="A4128" t="n">
-        <v>50350</v>
+        <v>39902</v>
       </c>
       <c r="B4128" t="n">
         <v>1</v>
@@ -87124,7 +87124,7 @@
         </is>
       </c>
       <c r="D4128" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="E4128" t="inlineStr">
         <is>
@@ -87134,18 +87134,18 @@
     </row>
     <row r="4129">
       <c r="A4129" t="n">
-        <v>66885</v>
+        <v>41315</v>
       </c>
       <c r="B4129" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4129" t="inlineStr">
         <is>
-          <t>Por Reprogramar</t>
+          <t>En Ruta</t>
         </is>
       </c>
       <c r="D4129" s="2" t="n">
-        <v>45895</v>
+        <v>45904</v>
       </c>
       <c r="E4129" t="inlineStr">
         <is>
@@ -87155,18 +87155,18 @@
     </row>
     <row r="4130">
       <c r="A4130" t="n">
-        <v>66887</v>
+        <v>47074</v>
       </c>
       <c r="B4130" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4130" t="inlineStr">
         <is>
-          <t>Pendiente Migrar</t>
+          <t>Por Reprogramar</t>
         </is>
       </c>
       <c r="D4130" s="2" t="n">
-        <v>45916